--- a/Correspondencias_SIOSE - modificada (v2).xlsx
+++ b/Correspondencias_SIOSE - modificada (v2).xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5836" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5918" uniqueCount="1039">
   <si>
     <t>COD_JER</t>
   </si>
@@ -3143,12 +3143,81 @@
   <si>
     <t>RIOS Y CAUCES - LAMINA DE AGUA</t>
   </si>
+  <si>
+    <t>REVISAR</t>
+  </si>
+  <si>
+    <t>DEFINITIVA</t>
+  </si>
+  <si>
+    <t>Tejido urbano</t>
+  </si>
+  <si>
+    <t>Zonas industriales y comerciales</t>
+  </si>
+  <si>
+    <t>Infraestructuras de comunicaciones</t>
+  </si>
+  <si>
+    <t>Otras infraestructuras tecnicas</t>
+  </si>
+  <si>
+    <t>Zonas verdes y espacios de ocio</t>
+  </si>
+  <si>
+    <t>Marisma con vegetacion</t>
+  </si>
+  <si>
+    <t>Marisma sin vegetacion</t>
+  </si>
+  <si>
+    <t>Rios y cauces</t>
+  </si>
+  <si>
+    <t>Cultivos en invernadero</t>
+  </si>
+  <si>
+    <t>Formacion arbolada</t>
+  </si>
+  <si>
+    <t>Playas, dunas y arenales</t>
+  </si>
+  <si>
+    <t>Secano</t>
+  </si>
+  <si>
+    <t>Regadio</t>
+  </si>
+  <si>
+    <t>Areas con fuertes procesos erosivos</t>
+  </si>
+  <si>
+    <t>Zonas sin vegetacion por roturacion</t>
+  </si>
+  <si>
+    <t>Sin asignacion</t>
+  </si>
+  <si>
+    <t>Cultivo herbaceo distinto de arroz</t>
+  </si>
+  <si>
+    <t>Agricola residencial</t>
+  </si>
+  <si>
+    <t>Agricola/ganadero</t>
+  </si>
+  <si>
+    <t>Zona de extraccion o vertido</t>
+  </si>
+  <si>
+    <t>Lamina de agua artificial</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3271,6 +3340,12 @@
       <name val="Open Sans"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3471,7 +3546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3559,6 +3634,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3812,16 +3890,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>378219</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>7588</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -23141,7 +23219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -24880,10 +24958,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -24891,27 +24969,28 @@
     <col min="1" max="1" width="69" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="3" max="3" width="44.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.375" style="42" customWidth="1"/>
-    <col min="5" max="5" width="64.25" style="13" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.25" customWidth="1"/>
+    <col min="4" max="5" width="44.25" customWidth="1"/>
+    <col min="6" max="6" width="33.375" style="42" customWidth="1"/>
+    <col min="7" max="7" width="64.25" style="13" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.25" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="18" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.25" customWidth="1"/>
-    <col min="20" max="20" width="2.875" customWidth="1"/>
-    <col min="21" max="21" width="4.25" customWidth="1"/>
+    <col min="17" max="17" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.25" customWidth="1"/>
+    <col min="22" max="22" width="2.875" customWidth="1"/>
+    <col min="23" max="23" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="25" t="s">
         <v>977</v>
       </c>
@@ -24921,14 +25000,17 @@
       <c r="C1" s="16" t="s">
         <v>986</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>987</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="4" t="s">
         <v>753</v>
       </c>
@@ -24938,9 +25020,16 @@
       <c r="C2" s="10" t="s">
         <v>931</v>
       </c>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="15">
+      <c r="D2" s="57" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E2" t="str">
+        <f>LOWER(D2)</f>
+        <v>tejido urbano</v>
+      </c>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="4" t="s">
         <v>753</v>
       </c>
@@ -24950,9 +25039,12 @@
       <c r="C3" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+      <c r="D3" s="57" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" s="4" t="s">
         <v>753</v>
       </c>
@@ -24962,8 +25054,11 @@
       <c r="C4" s="10" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
+      <c r="D4" s="57" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="4" t="s">
         <v>753</v>
       </c>
@@ -24973,8 +25068,11 @@
       <c r="C5" s="10" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
+      <c r="D5" s="57" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="4" t="s">
         <v>753</v>
       </c>
@@ -24984,8 +25082,11 @@
       <c r="C6" s="10" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
+      <c r="D6" s="57" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="4" t="s">
         <v>753</v>
       </c>
@@ -24995,8 +25096,11 @@
       <c r="C7" s="10" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7" s="57" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="1" t="s">
         <v>1010</v>
       </c>
@@ -25006,8 +25110,11 @@
       <c r="C8" s="23" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+      <c r="D8" s="57" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="1" t="s">
         <v>756</v>
       </c>
@@ -25017,8 +25124,11 @@
       <c r="C9" s="20" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
+      <c r="D9" s="57" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="4" t="s">
         <v>757</v>
       </c>
@@ -25028,8 +25138,11 @@
       <c r="C10" s="10" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
+      <c r="D10" s="57" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
       <c r="A11" s="4" t="s">
         <v>757</v>
       </c>
@@ -25039,8 +25152,11 @@
       <c r="C11" s="10" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
+      <c r="D11" s="57" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="4" t="s">
         <v>757</v>
       </c>
@@ -25050,8 +25166,11 @@
       <c r="C12" s="10" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D12" s="57" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A13" s="4" t="s">
         <v>757</v>
       </c>
@@ -25061,9 +25180,13 @@
       <c r="C13" s="10" t="s">
         <v>912</v>
       </c>
-      <c r="D13" s="42"/>
-    </row>
-    <row r="14" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D13" s="57" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A14" s="4" t="s">
         <v>757</v>
       </c>
@@ -25073,9 +25196,13 @@
       <c r="C14" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="D14" s="42"/>
-    </row>
-    <row r="15" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D14" s="57" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A15" s="4" t="s">
         <v>758</v>
       </c>
@@ -25085,9 +25212,13 @@
       <c r="C15" s="23" t="s">
         <v>927</v>
       </c>
-      <c r="D15" s="42"/>
-    </row>
-    <row r="16" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D15" s="57" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A16" s="4" t="s">
         <v>758</v>
       </c>
@@ -25097,9 +25228,13 @@
       <c r="C16" s="23" t="s">
         <v>892</v>
       </c>
-      <c r="D16" s="42"/>
-    </row>
-    <row r="17" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D16" s="57" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" s="42"/>
+    </row>
+    <row r="17" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A17" s="4" t="s">
         <v>758</v>
       </c>
@@ -25109,8 +25244,12 @@
       <c r="C17" s="23" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D17" s="57" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A18" s="1" t="s">
         <v>763</v>
       </c>
@@ -25120,9 +25259,13 @@
       <c r="C18" s="20" t="s">
         <v>940</v>
       </c>
-      <c r="D18" s="42"/>
-    </row>
-    <row r="19" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D18" s="57" t="s">
+        <v>940</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" s="42"/>
+    </row>
+    <row r="19" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A19" s="4" t="s">
         <v>763</v>
       </c>
@@ -25132,9 +25275,13 @@
       <c r="C19" s="10" t="s">
         <v>958</v>
       </c>
-      <c r="D19" s="42"/>
-    </row>
-    <row r="20" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D19" s="57" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A20" s="4" t="s">
         <v>763</v>
       </c>
@@ -25144,8 +25291,12 @@
       <c r="C20" s="10" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D20" s="57" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A21" s="4" t="s">
         <v>763</v>
       </c>
@@ -25155,9 +25306,13 @@
       <c r="C21" s="10" t="s">
         <v>935</v>
       </c>
-      <c r="D21" s="42"/>
-    </row>
-    <row r="22" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D21" s="57" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" s="42"/>
+    </row>
+    <row r="22" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A22" s="1" t="s">
         <v>763</v>
       </c>
@@ -25167,9 +25322,13 @@
       <c r="C22" s="20" t="s">
         <v>907</v>
       </c>
-      <c r="D22" s="42"/>
-    </row>
-    <row r="23" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D22" s="57" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A23" s="1" t="s">
         <v>764</v>
       </c>
@@ -25179,9 +25338,13 @@
       <c r="C23" s="20" t="s">
         <v>959</v>
       </c>
-      <c r="D23" s="42"/>
-    </row>
-    <row r="24" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D23" s="57" t="s">
+        <v>959</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A24" s="1" t="s">
         <v>764</v>
       </c>
@@ -25191,9 +25354,13 @@
       <c r="C24" s="20" t="s">
         <v>937</v>
       </c>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D24" s="57" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E24"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A25" s="1" t="s">
         <v>765</v>
       </c>
@@ -25203,9 +25370,13 @@
       <c r="C25" s="20" t="s">
         <v>946</v>
       </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D25" s="57" t="s">
+        <v>946</v>
+      </c>
+      <c r="E25"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A26" s="4" t="s">
         <v>135</v>
       </c>
@@ -25215,9 +25386,13 @@
       <c r="C26" s="23" t="s">
         <v>929</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D26" s="57" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E26"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A27" s="4" t="s">
         <v>135</v>
       </c>
@@ -25227,9 +25402,13 @@
       <c r="C27" s="23" t="s">
         <v>910</v>
       </c>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D27" s="57" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E27"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A28" s="4" t="s">
         <v>135</v>
       </c>
@@ -25239,9 +25418,13 @@
       <c r="C28" s="23" t="s">
         <v>924</v>
       </c>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D28" s="57" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E28"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A29" s="4" t="s">
         <v>135</v>
       </c>
@@ -25251,9 +25434,13 @@
       <c r="C29" s="23" t="s">
         <v>951</v>
       </c>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D29" s="57" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E29"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A30" s="4" t="s">
         <v>135</v>
       </c>
@@ -25263,9 +25450,13 @@
       <c r="C30" s="23" t="s">
         <v>957</v>
       </c>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D30" s="57" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E30"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A31" s="4" t="s">
         <v>135</v>
       </c>
@@ -25275,9 +25466,13 @@
       <c r="C31" s="23" t="s">
         <v>966</v>
       </c>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D31" s="57" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E31"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A32" s="4" t="s">
         <v>135</v>
       </c>
@@ -25287,9 +25482,13 @@
       <c r="C32" s="23" t="s">
         <v>967</v>
       </c>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D32" s="57" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E32"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A33" s="4" t="s">
         <v>135</v>
       </c>
@@ -25299,9 +25498,13 @@
       <c r="C33" s="23" t="s">
         <v>968</v>
       </c>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D33" s="57" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E33"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A34" s="4" t="s">
         <v>1011</v>
       </c>
@@ -25311,9 +25514,13 @@
       <c r="C34" s="10" t="s">
         <v>944</v>
       </c>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D34" s="57" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E34"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A35" s="4" t="s">
         <v>1011</v>
       </c>
@@ -25323,9 +25530,13 @@
       <c r="C35" s="23" t="s">
         <v>965</v>
       </c>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D35" s="57" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E35"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A36" s="4" t="s">
         <v>1012</v>
       </c>
@@ -25335,9 +25546,13 @@
       <c r="C36" s="10" t="s">
         <v>964</v>
       </c>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D36" s="57" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E36"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A37" s="4" t="s">
         <v>1012</v>
       </c>
@@ -25347,9 +25562,13 @@
       <c r="C37" s="10" t="s">
         <v>970</v>
       </c>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D37" s="57" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E37"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A38" s="56" t="s">
         <v>1013</v>
       </c>
@@ -25359,9 +25578,13 @@
       <c r="C38" s="31" t="s">
         <v>950</v>
       </c>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D38" s="57" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E38"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A39" s="56" t="s">
         <v>1013</v>
       </c>
@@ -25371,9 +25594,13 @@
       <c r="C39" s="31" t="s">
         <v>952</v>
       </c>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D39" s="57" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E39"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A40" s="41" t="s">
         <v>780</v>
       </c>
@@ -25383,9 +25610,13 @@
       <c r="C40" s="20" t="s">
         <v>947</v>
       </c>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D40" s="57" t="s">
+        <v>947</v>
+      </c>
+      <c r="E40"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A41" s="1" t="s">
         <v>781</v>
       </c>
@@ -25395,9 +25626,13 @@
       <c r="C41" s="20" t="s">
         <v>916</v>
       </c>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D41" s="57" t="s">
+        <v>916</v>
+      </c>
+      <c r="E41"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A42" s="4" t="s">
         <v>1015</v>
       </c>
@@ -25407,9 +25642,13 @@
       <c r="C42" s="10" t="s">
         <v>961</v>
       </c>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D42" s="57" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E42"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A43" s="4" t="s">
         <v>1015</v>
       </c>
@@ -25419,9 +25658,13 @@
       <c r="C43" s="10" t="s">
         <v>960</v>
       </c>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D43" s="57" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E43"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A44" s="41" t="s">
         <v>1014</v>
       </c>
@@ -25431,9 +25674,13 @@
       <c r="C44" s="20" t="s">
         <v>897</v>
       </c>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="1:5" s="13" customFormat="1">
+      <c r="D44" s="57" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E44"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A45" s="41" t="s">
         <v>1014</v>
       </c>
@@ -25443,9 +25690,13 @@
       <c r="C45" s="23" t="s">
         <v>973</v>
       </c>
-      <c r="D45" s="42"/>
-    </row>
-    <row r="46" spans="1:5" s="13" customFormat="1">
+      <c r="D45" s="57" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45" s="42"/>
+    </row>
+    <row r="46" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A46" s="41" t="s">
         <v>1014</v>
       </c>
@@ -25455,9 +25706,13 @@
       <c r="C46" s="23" t="s">
         <v>911</v>
       </c>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D46" s="57" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46" s="42"/>
+    </row>
+    <row r="47" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A47" s="41" t="s">
         <v>786</v>
       </c>
@@ -25467,9 +25722,13 @@
       <c r="C47" s="20" t="s">
         <v>956</v>
       </c>
-      <c r="D47" s="42"/>
-    </row>
-    <row r="48" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D47" s="57" t="s">
+        <v>956</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47" s="42"/>
+    </row>
+    <row r="48" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A48" s="41" t="s">
         <v>786</v>
       </c>
@@ -25479,9 +25738,13 @@
       <c r="C48" s="20" t="s">
         <v>906</v>
       </c>
-      <c r="D48" s="42"/>
-    </row>
-    <row r="49" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D48" s="57" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48" s="42"/>
+    </row>
+    <row r="49" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A49" s="41" t="s">
         <v>787</v>
       </c>
@@ -25491,9 +25754,13 @@
       <c r="C49" s="20" t="s">
         <v>902</v>
       </c>
-      <c r="D49" s="42"/>
-    </row>
-    <row r="50" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D49" s="57" t="s">
+        <v>902</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49" s="42"/>
+    </row>
+    <row r="50" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A50" s="1" t="s">
         <v>789</v>
       </c>
@@ -25503,9 +25770,13 @@
       <c r="C50" s="20" t="s">
         <v>941</v>
       </c>
-      <c r="D50" s="42"/>
-    </row>
-    <row r="51" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D50" s="57" t="s">
+        <v>941</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50" s="42"/>
+    </row>
+    <row r="51" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A51" s="1" t="s">
         <v>790</v>
       </c>
@@ -25515,9 +25786,13 @@
       <c r="C51" s="20" t="s">
         <v>914</v>
       </c>
-      <c r="D51" s="42"/>
-    </row>
-    <row r="52" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D51" s="57" t="s">
+        <v>914</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" s="42"/>
+    </row>
+    <row r="52" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A52" s="1" t="s">
         <v>283</v>
       </c>
@@ -25527,11 +25802,15 @@
       <c r="C52" s="27" t="s">
         <v>918</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="57" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52" s="43" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="13" customFormat="1" ht="15">
+    <row r="53" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A53" s="4" t="s">
         <v>981</v>
       </c>
@@ -25541,9 +25820,13 @@
       <c r="C53" s="10" t="s">
         <v>939</v>
       </c>
-      <c r="D53" s="42"/>
-    </row>
-    <row r="54" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D53" s="57" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53" s="42"/>
+    </row>
+    <row r="54" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A54" s="4" t="s">
         <v>796</v>
       </c>
@@ -25553,9 +25836,13 @@
       <c r="C54" s="19" t="s">
         <v>923</v>
       </c>
-      <c r="D54" s="42"/>
-    </row>
-    <row r="55" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D54" s="57" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54" s="42"/>
+    </row>
+    <row r="55" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A55" s="4" t="s">
         <v>801</v>
       </c>
@@ -25565,11 +25852,13 @@
       <c r="C55" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="D55" s="43" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D55" s="57" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55" s="43"/>
+    </row>
+    <row r="56" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A56" s="4" t="s">
         <v>801</v>
       </c>
@@ -25579,9 +25868,13 @@
       <c r="C56" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="D56" s="44"/>
-    </row>
-    <row r="57" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D56" s="57" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" s="44"/>
+    </row>
+    <row r="57" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A57" s="4" t="s">
         <v>985</v>
       </c>
@@ -25591,11 +25884,13 @@
       <c r="C57" s="10" t="s">
         <v>971</v>
       </c>
-      <c r="D57" s="43" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D57" s="57" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57" s="43"/>
+    </row>
+    <row r="58" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A58" s="1" t="s">
         <v>810</v>
       </c>
@@ -25605,9 +25900,13 @@
       <c r="C58" s="20" t="s">
         <v>909</v>
       </c>
-      <c r="D58" s="42"/>
-    </row>
-    <row r="59" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D58" s="57" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" s="42"/>
+    </row>
+    <row r="59" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A59" s="1" t="s">
         <v>811</v>
       </c>
@@ -25617,9 +25916,13 @@
       <c r="C59" s="20" t="s">
         <v>904</v>
       </c>
-      <c r="D59" s="42"/>
-    </row>
-    <row r="60" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D59" s="57" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59" s="42"/>
+    </row>
+    <row r="60" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A60" s="1" t="s">
         <v>835</v>
       </c>
@@ -25629,9 +25932,13 @@
       <c r="C60" s="20" t="s">
         <v>921</v>
       </c>
-      <c r="E60" s="13"/>
-    </row>
-    <row r="61" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D60" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E60"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A61" s="1" t="s">
         <v>836</v>
       </c>
@@ -25641,9 +25948,13 @@
       <c r="C61" s="20" t="s">
         <v>926</v>
       </c>
-      <c r="E61" s="13"/>
-    </row>
-    <row r="62" spans="1:5" s="42" customFormat="1">
+      <c r="D61" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E61"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A62" s="25" t="s">
         <v>846</v>
       </c>
@@ -25653,9 +25964,13 @@
       <c r="C62" s="23" t="s">
         <v>949</v>
       </c>
-      <c r="E62" s="13"/>
-    </row>
-    <row r="63" spans="1:5" s="42" customFormat="1">
+      <c r="D62" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E62"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A63" s="25" t="s">
         <v>847</v>
       </c>
@@ -25665,9 +25980,13 @@
       <c r="C63" s="23" t="s">
         <v>948</v>
       </c>
-      <c r="E63" s="13"/>
-    </row>
-    <row r="64" spans="1:5" s="42" customFormat="1">
+      <c r="D63" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E63"/>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A64" s="25" t="s">
         <v>858</v>
       </c>
@@ -25677,9 +25996,13 @@
       <c r="C64" s="23" t="s">
         <v>943</v>
       </c>
-      <c r="E64" s="13"/>
-    </row>
-    <row r="65" spans="1:5" s="42" customFormat="1">
+      <c r="D64" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E64"/>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A65" s="25" t="s">
         <v>859</v>
       </c>
@@ -25689,9 +26012,13 @@
       <c r="C65" s="23" t="s">
         <v>920</v>
       </c>
-      <c r="E65" s="13"/>
-    </row>
-    <row r="66" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D65" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E65"/>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A66" s="25" t="s">
         <v>860</v>
       </c>
@@ -25701,9 +26028,13 @@
       <c r="C66" s="20" t="s">
         <v>936</v>
       </c>
-      <c r="E66" s="13"/>
-    </row>
-    <row r="67" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D66" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E66"/>
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A67" s="25" t="s">
         <v>861</v>
       </c>
@@ -25713,9 +26044,13 @@
       <c r="C67" s="20" t="s">
         <v>932</v>
       </c>
-      <c r="E67" s="13"/>
-    </row>
-    <row r="68" spans="1:5" s="42" customFormat="1">
+      <c r="D67" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E67"/>
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A68" s="1" t="s">
         <v>870</v>
       </c>
@@ -25725,9 +26060,13 @@
       <c r="C68" s="23" t="s">
         <v>919</v>
       </c>
-      <c r="E68" s="13"/>
-    </row>
-    <row r="69" spans="1:5" s="42" customFormat="1">
+      <c r="D68" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E68"/>
+      <c r="G68" s="13"/>
+    </row>
+    <row r="69" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A69" s="1" t="s">
         <v>871</v>
       </c>
@@ -25737,9 +26076,13 @@
       <c r="C69" s="23" t="s">
         <v>942</v>
       </c>
-      <c r="E69" s="13"/>
-    </row>
-    <row r="70" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D69" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E69"/>
+      <c r="G69" s="13"/>
+    </row>
+    <row r="70" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A70" s="1" t="s">
         <v>872</v>
       </c>
@@ -25749,9 +26092,13 @@
       <c r="C70" s="20" t="s">
         <v>962</v>
       </c>
-      <c r="E70" s="13"/>
-    </row>
-    <row r="71" spans="1:5" s="42" customFormat="1" ht="15">
+      <c r="D70" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E70"/>
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" spans="1:7" s="42" customFormat="1" ht="15">
       <c r="A71" s="1" t="s">
         <v>873</v>
       </c>
@@ -25761,9 +26108,13 @@
       <c r="C71" s="20" t="s">
         <v>945</v>
       </c>
-      <c r="E71" s="13"/>
-    </row>
-    <row r="72" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D71" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E71"/>
+      <c r="G71" s="13"/>
+    </row>
+    <row r="72" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A72" s="1" t="s">
         <v>880</v>
       </c>
@@ -25773,9 +26124,13 @@
       <c r="C72" s="20" t="s">
         <v>913</v>
       </c>
-      <c r="D72" s="42"/>
-    </row>
-    <row r="73" spans="1:5" s="13" customFormat="1">
+      <c r="D72" s="57" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" s="42"/>
+    </row>
+    <row r="73" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A73" s="1" t="s">
         <v>882</v>
       </c>
@@ -25785,9 +26140,13 @@
       <c r="C73" s="23" t="s">
         <v>901</v>
       </c>
-      <c r="D73" s="42"/>
-    </row>
-    <row r="74" spans="1:5" s="13" customFormat="1">
+      <c r="D73" s="57" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" s="42"/>
+    </row>
+    <row r="74" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A74" s="1" t="s">
         <v>883</v>
       </c>
@@ -25797,9 +26156,13 @@
       <c r="C74" s="23" t="s">
         <v>915</v>
       </c>
-      <c r="D74" s="42"/>
-    </row>
-    <row r="75" spans="1:5" s="13" customFormat="1">
+      <c r="D74" s="57" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74" s="42"/>
+    </row>
+    <row r="75" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A75" s="1" t="s">
         <v>884</v>
       </c>
@@ -25809,9 +26172,13 @@
       <c r="C75" s="23" t="s">
         <v>908</v>
       </c>
-      <c r="D75" s="42"/>
-    </row>
-    <row r="76" spans="1:5" s="13" customFormat="1">
+      <c r="D75" s="57" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" s="42"/>
+    </row>
+    <row r="76" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A76" s="1" t="s">
         <v>885</v>
       </c>
@@ -25821,9 +26188,13 @@
       <c r="C76" s="23" t="s">
         <v>896</v>
       </c>
-      <c r="D76" s="42"/>
-    </row>
-    <row r="77" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D76" s="57" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76" s="42"/>
+    </row>
+    <row r="77" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A77" s="4" t="s">
         <v>886</v>
       </c>
@@ -25833,8 +26204,12 @@
       <c r="C77" s="10" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D77" s="57" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A78" s="4" t="s">
         <v>886</v>
       </c>
@@ -25844,9 +26219,13 @@
       <c r="C78" s="10" t="s">
         <v>895</v>
       </c>
-      <c r="D78" s="42"/>
-    </row>
-    <row r="79" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D78" s="57" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" s="42"/>
+    </row>
+    <row r="79" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A79" s="4" t="s">
         <v>886</v>
       </c>
@@ -25856,9 +26235,13 @@
       <c r="C79" s="10" t="s">
         <v>972</v>
       </c>
-      <c r="D79" s="42"/>
-    </row>
-    <row r="80" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D79" s="57" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" s="42"/>
+    </row>
+    <row r="80" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A80" s="1" t="s">
         <v>887</v>
       </c>
@@ -25868,9 +26251,13 @@
       <c r="C80" s="20" t="s">
         <v>905</v>
       </c>
-      <c r="D80" s="42"/>
-    </row>
-    <row r="81" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D80" s="57" t="s">
+        <v>905</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80" s="42"/>
+    </row>
+    <row r="81" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A81" s="1" t="s">
         <v>888</v>
       </c>
@@ -25880,9 +26267,13 @@
       <c r="C81" s="20" t="s">
         <v>922</v>
       </c>
-      <c r="D81" s="42"/>
-    </row>
-    <row r="82" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D81" s="57" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81" s="42"/>
+    </row>
+    <row r="82" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A82" s="1" t="s">
         <v>890</v>
       </c>
@@ -25892,9 +26283,13 @@
       <c r="C82" s="29" t="s">
         <v>917</v>
       </c>
-      <c r="D82" s="42"/>
-    </row>
-    <row r="83" spans="1:5" s="13" customFormat="1" ht="15">
+      <c r="D82" s="57" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82" s="42"/>
+    </row>
+    <row r="83" spans="1:7" s="13" customFormat="1" ht="15">
       <c r="A83" s="25" t="s">
         <v>980</v>
       </c>
@@ -25904,17 +26299,26 @@
       <c r="C83" s="29" t="s">
         <v>903</v>
       </c>
-      <c r="D83" s="42"/>
-    </row>
-    <row r="84" spans="1:5" s="42" customFormat="1">
+      <c r="D83" s="57" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83" s="42" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="42" customFormat="1">
       <c r="A84"/>
       <c r="B84" s="7"/>
       <c r="C84"/>
-      <c r="E84" s="13"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="G84" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Correspondencias_SIOSE - modificada (v2).xlsx
+++ b/Correspondencias_SIOSE - modificada (v2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Correspondencias_SIOSE (2)" sheetId="10" r:id="rId1"/>
@@ -3217,7 +3217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3347,8 +3347,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Open Sans"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3371,6 +3385,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -3543,10 +3563,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3637,8 +3658,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="60% - Énfasis1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -24960,7 +24988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D38" sqref="D38:D39"/>
     </sheetView>
   </sheetViews>
@@ -26326,10 +26354,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N2" sqref="N2:N252"/>
-      <selection pane="bottomLeft" activeCell="B219" sqref="B219"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -26376,7 +26404,7 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="59" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -26407,7 +26435,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="1">
+      <c r="M2" s="58">
         <v>999</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -26438,7 +26466,7 @@
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="1">
+      <c r="M3" s="58">
         <v>165</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -26482,7 +26510,7 @@
       <c r="L4" s="3">
         <v>111</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="58">
         <v>125</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -26526,7 +26554,7 @@
       <c r="L5" s="3">
         <v>111</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="58">
         <v>129</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -26570,7 +26598,7 @@
       <c r="L6" s="3">
         <v>111</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="58">
         <v>130</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -26614,7 +26642,7 @@
       <c r="L7" s="3">
         <v>111</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="58">
         <v>132</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -26658,7 +26686,7 @@
       <c r="L8" s="3">
         <v>111</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="58">
         <v>134</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -26702,7 +26730,7 @@
       <c r="L9" s="3">
         <v>111</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="58">
         <v>169</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -26746,7 +26774,7 @@
       <c r="L10" s="3">
         <v>111</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="58">
         <v>170</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -26790,7 +26818,7 @@
       <c r="L11" s="3">
         <v>111</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="58">
         <v>171</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -26834,7 +26862,7 @@
       <c r="L12" s="3">
         <v>111</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="58">
         <v>936</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -26878,7 +26906,7 @@
       <c r="L13" s="3">
         <v>111</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="58">
         <v>101</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -26922,7 +26950,7 @@
       <c r="L14" s="3">
         <v>111</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="58">
         <v>2000</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -26953,6 +26981,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="3"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="16" spans="1:14" ht="13.5" customHeight="1">
       <c r="A16" s="1" t="s">
@@ -26991,7 +27020,7 @@
       <c r="L16" s="3">
         <v>112</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="58">
         <v>2002</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -27035,7 +27064,7 @@
       <c r="L17" s="3">
         <v>112</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="58">
         <v>117</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -27066,6 +27095,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
+      <c r="M18" s="58"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
@@ -27104,7 +27134,7 @@
       <c r="L19" s="3">
         <v>121</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="58">
         <v>203</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -27148,7 +27178,7 @@
       <c r="L20" s="3">
         <v>121</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="58">
         <v>222</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -27192,7 +27222,7 @@
       <c r="L21" s="3">
         <v>121</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="58">
         <v>122</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -27236,7 +27266,7 @@
       <c r="L22" s="3">
         <v>121</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="58">
         <v>118</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -27280,7 +27310,7 @@
       <c r="L23" s="3">
         <v>121</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="58">
         <v>119</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -27324,7 +27354,7 @@
       <c r="L24" s="3">
         <v>121</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="58">
         <v>120</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -27368,7 +27398,7 @@
       <c r="L25" s="3">
         <v>121</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="58">
         <v>168</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -27399,6 +27429,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
+      <c r="M26" s="58"/>
     </row>
     <row r="27" spans="1:14" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
@@ -27437,7 +27468,7 @@
       <c r="L27" s="3">
         <v>122</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="58">
         <v>131</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -27481,7 +27512,7 @@
       <c r="L28" s="3">
         <v>122</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="58">
         <v>182</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -27525,7 +27556,7 @@
       <c r="L29" s="3">
         <v>122</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="58">
         <v>184</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -27569,7 +27600,7 @@
       <c r="L30" s="3">
         <v>122</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="58">
         <v>2004</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -27613,7 +27644,7 @@
       <c r="L31" s="3">
         <v>122</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="58">
         <v>133</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -27657,7 +27688,7 @@
       <c r="L32" s="3">
         <v>123</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="58">
         <v>127</v>
       </c>
       <c r="N32" s="1" t="s">
@@ -27701,7 +27732,7 @@
       <c r="L33" s="3">
         <v>123</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="58">
         <v>128</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -27745,7 +27776,7 @@
       <c r="L34" s="3">
         <v>123</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="58">
         <v>156</v>
       </c>
       <c r="N34" s="1" t="s">
@@ -27789,7 +27820,7 @@
       <c r="L35" s="3">
         <v>124</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="58">
         <v>137</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -27833,7 +27864,7 @@
       <c r="L36" s="3">
         <v>124</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="58">
         <v>1700</v>
       </c>
       <c r="N36" s="1" t="s">
@@ -27877,7 +27908,7 @@
       <c r="L37" s="3">
         <v>122</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="58">
         <v>113</v>
       </c>
       <c r="N37" s="1" t="s">
@@ -27921,7 +27952,7 @@
       <c r="L38" s="3">
         <v>122</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="58">
         <v>145</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -27965,7 +27996,7 @@
       <c r="L39" s="3">
         <v>122</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="58">
         <v>146</v>
       </c>
       <c r="N39" s="1" t="s">
@@ -28009,7 +28040,7 @@
       <c r="L40" s="3">
         <v>122</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="58">
         <v>147</v>
       </c>
       <c r="N40" s="1" t="s">
@@ -28053,7 +28084,7 @@
       <c r="L41" s="3">
         <v>122</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="58">
         <v>148</v>
       </c>
       <c r="N41" s="1" t="s">
@@ -28097,7 +28128,7 @@
       <c r="L42" s="3">
         <v>122</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="58">
         <v>149</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -28141,7 +28172,7 @@
       <c r="L43" s="3">
         <v>122</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="58">
         <v>150</v>
       </c>
       <c r="N43" s="1" t="s">
@@ -28185,7 +28216,7 @@
       <c r="L44" s="3">
         <v>122</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="58">
         <v>152</v>
       </c>
       <c r="N44" s="1" t="s">
@@ -28229,7 +28260,7 @@
       <c r="L45" s="3">
         <v>122</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="58">
         <v>154</v>
       </c>
       <c r="N45" s="1" t="s">
@@ -28273,7 +28304,7 @@
       <c r="L46" s="3">
         <v>122</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="58">
         <v>159</v>
       </c>
       <c r="N46" s="1" t="s">
@@ -28317,7 +28348,7 @@
       <c r="L47" s="3">
         <v>122</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="58">
         <v>160</v>
       </c>
       <c r="N47" s="1" t="s">
@@ -28361,7 +28392,7 @@
       <c r="L48" s="3">
         <v>122</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="58">
         <v>162</v>
       </c>
       <c r="N48" s="1" t="s">
@@ -28405,7 +28436,7 @@
       <c r="L49" s="3">
         <v>122</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="58">
         <v>164</v>
       </c>
       <c r="N49" s="1" t="s">
@@ -28449,7 +28480,7 @@
       <c r="L50" s="3">
         <v>122</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="58">
         <v>174</v>
       </c>
       <c r="N50" s="1" t="s">
@@ -28493,7 +28524,7 @@
       <c r="L51" s="3">
         <v>122</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51" s="58">
         <v>175</v>
       </c>
       <c r="N51" s="1" t="s">
@@ -28537,7 +28568,7 @@
       <c r="L52" s="3">
         <v>122</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="58">
         <v>176</v>
       </c>
       <c r="N52" s="1" t="s">
@@ -28581,7 +28612,7 @@
       <c r="L53" s="3">
         <v>122</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53" s="58">
         <v>181</v>
       </c>
       <c r="N53" s="1" t="s">
@@ -28612,6 +28643,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="3"/>
+      <c r="M54" s="58"/>
     </row>
     <row r="55" spans="1:14" ht="13.5" customHeight="1">
       <c r="A55" s="1" t="s">
@@ -28650,7 +28682,7 @@
       <c r="L55" s="3">
         <v>131</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55" s="58">
         <v>346</v>
       </c>
       <c r="N55" s="1" t="s">
@@ -28694,7 +28726,7 @@
       <c r="L56" s="3">
         <v>131</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56" s="58">
         <v>151</v>
       </c>
       <c r="N56" s="1" t="s">
@@ -28738,7 +28770,7 @@
       <c r="L57" s="3">
         <v>131</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57" s="58">
         <v>2007</v>
       </c>
       <c r="N57" s="1" t="s">
@@ -28782,7 +28814,7 @@
       <c r="L58" s="3">
         <v>132</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58" s="58">
         <v>153</v>
       </c>
       <c r="N58" s="1" t="s">
@@ -28826,6 +28858,7 @@
       <c r="L59" s="3">
         <v>133</v>
       </c>
+      <c r="M59" s="58"/>
     </row>
     <row r="60" spans="1:14" ht="13.5" customHeight="1">
       <c r="A60" s="1" t="s">
@@ -28864,7 +28897,7 @@
       <c r="L60" s="3">
         <v>132</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M60" s="58">
         <v>157</v>
       </c>
       <c r="N60" s="1" t="s">
@@ -28895,6 +28928,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="3"/>
+      <c r="M61" s="58"/>
     </row>
     <row r="62" spans="1:14" ht="13.5" customHeight="1">
       <c r="A62" s="1" t="s">
@@ -28933,7 +28967,7 @@
       <c r="L62" s="3">
         <v>141</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62" s="58">
         <v>123</v>
       </c>
       <c r="N62" s="1" t="s">
@@ -28977,7 +29011,7 @@
       <c r="L63" s="3">
         <v>141</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63" s="58">
         <v>177</v>
       </c>
       <c r="N63" s="1" t="s">
@@ -29021,7 +29055,7 @@
       <c r="L64" s="3">
         <v>141</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M64" s="58">
         <v>2005</v>
       </c>
       <c r="N64" s="1" t="s">
@@ -29065,7 +29099,7 @@
       <c r="L65" s="3">
         <v>141</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M65" s="58">
         <v>180</v>
       </c>
       <c r="N65" s="1" t="s">
@@ -29109,7 +29143,7 @@
       <c r="L66" s="3">
         <v>141</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66" s="58">
         <v>158</v>
       </c>
       <c r="N66" s="1" t="s">
@@ -29153,7 +29187,7 @@
       <c r="L67" s="3">
         <v>142</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M67" s="58">
         <v>102</v>
       </c>
       <c r="N67" s="1" t="s">
@@ -29197,7 +29231,7 @@
       <c r="L68" s="3">
         <v>142</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68" s="58">
         <v>105</v>
       </c>
       <c r="N68" s="1" t="s">
@@ -29241,7 +29275,7 @@
       <c r="L69" s="3">
         <v>142</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69" s="58">
         <v>106</v>
       </c>
       <c r="N69" s="1" t="s">
@@ -29285,7 +29319,7 @@
       <c r="L70" s="3">
         <v>142</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M70" s="58">
         <v>107</v>
       </c>
       <c r="N70" s="1" t="s">
@@ -29329,7 +29363,7 @@
       <c r="L71" s="3">
         <v>142</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M71" s="58">
         <v>108</v>
       </c>
       <c r="N71" s="1" t="s">
@@ -29373,7 +29407,7 @@
       <c r="L72" s="3">
         <v>142</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M72" s="58">
         <v>173</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -29417,7 +29451,7 @@
       <c r="L73" s="3">
         <v>142</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73" s="58">
         <v>138</v>
       </c>
       <c r="N73" s="1" t="s">
@@ -29461,7 +29495,7 @@
       <c r="L74" s="3">
         <v>142</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M74" s="58">
         <v>139</v>
       </c>
       <c r="N74" s="1" t="s">
@@ -29505,7 +29539,7 @@
       <c r="L75" s="3">
         <v>142</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M75" s="58">
         <v>140</v>
       </c>
       <c r="N75" s="1" t="s">
@@ -29549,7 +29583,7 @@
       <c r="L76" s="3">
         <v>142</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M76" s="58">
         <v>142</v>
       </c>
       <c r="N76" s="1" t="s">
@@ -29593,7 +29627,7 @@
       <c r="L77" s="3">
         <v>142</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M77" s="58">
         <v>144</v>
       </c>
       <c r="N77" s="1" t="s">
@@ -29637,7 +29671,7 @@
       <c r="L78" s="3">
         <v>142</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M78" s="58">
         <v>135</v>
       </c>
       <c r="N78" s="1" t="s">
@@ -29681,7 +29715,7 @@
       <c r="L79" s="3">
         <v>142</v>
       </c>
-      <c r="M79" s="1">
+      <c r="M79" s="58">
         <v>136</v>
       </c>
       <c r="N79" s="1" t="s">
@@ -29725,7 +29759,7 @@
       <c r="L80" s="3">
         <v>142</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M80" s="58">
         <v>143</v>
       </c>
       <c r="N80" s="1" t="s">
@@ -29769,7 +29803,7 @@
       <c r="L81" s="3">
         <v>142</v>
       </c>
-      <c r="M81" s="1">
+      <c r="M81" s="58">
         <v>172</v>
       </c>
       <c r="N81" s="1" t="s">
@@ -29813,7 +29847,7 @@
       <c r="L82" s="3">
         <v>142</v>
       </c>
-      <c r="M82" s="1">
+      <c r="M82" s="58">
         <v>124</v>
       </c>
       <c r="N82" s="1" t="s">
@@ -29844,6 +29878,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="3"/>
+      <c r="M83" s="58"/>
     </row>
     <row r="84" spans="1:14" ht="13.5" customHeight="1">
       <c r="A84" s="1" t="s">
@@ -29869,6 +29904,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="3"/>
+      <c r="M84" s="58"/>
     </row>
     <row r="85" spans="1:14" ht="13.5" customHeight="1">
       <c r="A85" s="1" t="s">
@@ -29894,6 +29930,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="3"/>
+      <c r="M85" s="58"/>
     </row>
     <row r="86" spans="1:14" ht="13.5" customHeight="1">
       <c r="A86" s="1" t="s">
@@ -29919,7 +29956,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="3"/>
-      <c r="M86" s="1">
+      <c r="M86" s="58">
         <v>210</v>
       </c>
       <c r="N86" s="1" t="s">
@@ -29963,6 +30000,7 @@
       <c r="L87" s="3">
         <v>421</v>
       </c>
+      <c r="M87" s="58"/>
     </row>
     <row r="88" spans="1:14" ht="13.5" customHeight="1">
       <c r="A88" s="1" t="s">
@@ -30001,6 +30039,7 @@
       <c r="L88" s="3">
         <v>421</v>
       </c>
+      <c r="M88" s="58"/>
     </row>
     <row r="89" spans="1:14" ht="13.5" customHeight="1">
       <c r="A89" s="1" t="s">
@@ -30039,7 +30078,7 @@
       <c r="L89" s="3">
         <v>421</v>
       </c>
-      <c r="M89" s="1">
+      <c r="M89" s="58">
         <v>217</v>
       </c>
       <c r="N89" s="1" t="s">
@@ -30070,6 +30109,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="3"/>
+      <c r="M90" s="58"/>
     </row>
     <row r="91" spans="1:14" ht="13.5" customHeight="1">
       <c r="A91" s="1" t="s">
@@ -30108,7 +30148,7 @@
       <c r="L91" s="3">
         <v>422</v>
       </c>
-      <c r="M91" s="1">
+      <c r="M91" s="58">
         <v>221</v>
       </c>
       <c r="N91" s="1" t="s">
@@ -30152,6 +30192,7 @@
       <c r="L92" s="3">
         <v>422</v>
       </c>
+      <c r="M92" s="58"/>
     </row>
     <row r="93" spans="1:14" ht="13.5" customHeight="1">
       <c r="A93" s="1" t="s">
@@ -30190,7 +30231,7 @@
       <c r="L93" s="3">
         <v>422</v>
       </c>
-      <c r="M93" s="1">
+      <c r="M93" s="58">
         <v>231</v>
       </c>
       <c r="N93" s="1" t="s">
@@ -30234,7 +30275,7 @@
       <c r="L94" s="3">
         <v>522</v>
       </c>
-      <c r="M94" s="1">
+      <c r="M94" s="58">
         <v>241</v>
       </c>
       <c r="N94" s="1" t="s">
@@ -30278,7 +30319,7 @@
       <c r="L95" s="3">
         <v>523</v>
       </c>
-      <c r="M95" s="1">
+      <c r="M95" s="58">
         <v>291</v>
       </c>
       <c r="N95" s="1" t="s">
@@ -30309,6 +30350,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="3"/>
+      <c r="M96" s="58"/>
     </row>
     <row r="97" spans="1:14" ht="13.5" customHeight="1">
       <c r="A97" s="1" t="s">
@@ -30334,7 +30376,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="3"/>
-      <c r="M97" s="1">
+      <c r="M97" s="58">
         <v>310</v>
       </c>
       <c r="N97" s="1" t="s">
@@ -30365,7 +30407,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="3"/>
-      <c r="M98" s="1">
+      <c r="M98" s="58">
         <v>960</v>
       </c>
       <c r="N98" s="1" t="s">
@@ -30409,7 +30451,7 @@
       <c r="L99" s="3">
         <v>511</v>
       </c>
-      <c r="M99" s="1">
+      <c r="M99" s="58">
         <v>318</v>
       </c>
       <c r="N99" s="1" t="s">
@@ -30440,6 +30482,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="3"/>
+      <c r="M100" s="58"/>
     </row>
     <row r="101" spans="1:14" ht="13.5" customHeight="1">
       <c r="A101" s="1" t="s">
@@ -30478,7 +30521,7 @@
       <c r="L101" s="3">
         <v>511</v>
       </c>
-      <c r="M101" s="1">
+      <c r="M101" s="58">
         <v>315</v>
       </c>
       <c r="N101" s="1" t="s">
@@ -30522,7 +30565,7 @@
       <c r="L102" s="3">
         <v>511</v>
       </c>
-      <c r="M102" s="1">
+      <c r="M102" s="58">
         <v>317</v>
       </c>
       <c r="N102" s="1" t="s">
@@ -30566,7 +30609,7 @@
       <c r="L103" s="3">
         <v>511</v>
       </c>
-      <c r="M103" s="1">
+      <c r="M103" s="58">
         <v>2008</v>
       </c>
       <c r="N103" s="1" t="s">
@@ -30610,7 +30653,7 @@
       <c r="L104" s="3">
         <v>511</v>
       </c>
-      <c r="M104" s="1">
+      <c r="M104" s="58">
         <v>319</v>
       </c>
       <c r="N104" s="1" t="s">
@@ -30654,7 +30697,7 @@
       <c r="L105" s="3">
         <v>511</v>
       </c>
-      <c r="M105" s="1">
+      <c r="M105" s="58">
         <v>200</v>
       </c>
       <c r="N105" s="1" t="s">
@@ -30698,7 +30741,7 @@
       <c r="L106" s="3">
         <v>511</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M106" s="58">
         <v>201</v>
       </c>
       <c r="N106" s="1" t="s">
@@ -30742,7 +30785,7 @@
       <c r="L107" s="3">
         <v>511</v>
       </c>
-      <c r="M107" s="1">
+      <c r="M107" s="58">
         <v>332</v>
       </c>
       <c r="N107" s="1" t="s">
@@ -30773,6 +30816,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="3"/>
+      <c r="M108" s="58"/>
     </row>
     <row r="109" spans="1:14" ht="13.5" customHeight="1">
       <c r="A109" s="1" t="s">
@@ -30811,7 +30855,7 @@
       <c r="L109" s="3">
         <v>512</v>
       </c>
-      <c r="M109" s="1">
+      <c r="M109" s="58">
         <v>341</v>
       </c>
       <c r="N109" s="1" t="s">
@@ -30855,7 +30899,7 @@
       <c r="L110" s="3">
         <v>512</v>
       </c>
-      <c r="M110" s="1">
+      <c r="M110" s="58">
         <v>345</v>
       </c>
       <c r="N110" s="1" t="s">
@@ -30886,6 +30930,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="3"/>
+      <c r="M111" s="58"/>
     </row>
     <row r="112" spans="1:14" ht="13.5" customHeight="1">
       <c r="A112" s="1" t="s">
@@ -30911,7 +30956,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="3"/>
-      <c r="M112" s="1">
+      <c r="M112" s="58">
         <v>405</v>
       </c>
       <c r="N112" s="1" t="s">
@@ -30942,6 +30987,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="3"/>
+      <c r="M113" s="58"/>
     </row>
     <row r="114" spans="1:14" ht="13.5" customHeight="1">
       <c r="A114" s="1" t="s">
@@ -30980,6 +31026,7 @@
       <c r="L114" s="3">
         <v>211</v>
       </c>
+      <c r="M114" s="58"/>
     </row>
     <row r="115" spans="1:14" ht="13.5" customHeight="1">
       <c r="A115" s="1" t="s">
@@ -31005,6 +31052,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="3"/>
+      <c r="M115" s="58"/>
     </row>
     <row r="116" spans="1:14" ht="13.5" customHeight="1">
       <c r="A116" s="1" t="s">
@@ -31043,7 +31091,7 @@
       <c r="L116" s="3">
         <v>223</v>
       </c>
-      <c r="M116" s="1">
+      <c r="M116" s="58">
         <v>416</v>
       </c>
       <c r="N116" s="1" t="s">
@@ -31087,7 +31135,7 @@
       <c r="L117" s="3">
         <v>221</v>
       </c>
-      <c r="M117" s="1">
+      <c r="M117" s="58">
         <v>417</v>
       </c>
       <c r="N117" s="1" t="s">
@@ -31131,7 +31179,7 @@
       <c r="L118" s="3">
         <v>222</v>
       </c>
-      <c r="M118" s="1">
+      <c r="M118" s="58">
         <v>460</v>
       </c>
       <c r="N118" s="1" t="s">
@@ -31162,6 +31210,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="3"/>
+      <c r="M119" s="58"/>
     </row>
     <row r="120" spans="1:14" ht="13.5" customHeight="1">
       <c r="A120" s="1" t="s">
@@ -31187,6 +31236,7 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="3"/>
+      <c r="M120" s="58"/>
     </row>
     <row r="121" spans="1:14" ht="13.5" customHeight="1">
       <c r="A121" s="1" t="s">
@@ -31212,6 +31262,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="3"/>
+      <c r="M121" s="58"/>
     </row>
     <row r="122" spans="1:14" ht="13.5" customHeight="1">
       <c r="A122" s="1" t="s">
@@ -31250,7 +31301,7 @@
       <c r="L122" s="3">
         <v>212</v>
       </c>
-      <c r="M122" s="1">
+      <c r="M122" s="58">
         <v>421</v>
       </c>
       <c r="N122" s="1" t="s">
@@ -31294,7 +31345,7 @@
       <c r="L123" s="3">
         <v>212</v>
       </c>
-      <c r="M123" s="1">
+      <c r="M123" s="58">
         <v>403</v>
       </c>
       <c r="N123" s="1" t="s">
@@ -31338,7 +31389,7 @@
       <c r="L124" s="3">
         <v>212</v>
       </c>
-      <c r="M124" s="1">
+      <c r="M124" s="58">
         <v>404</v>
       </c>
       <c r="N124" s="1" t="s">
@@ -31382,6 +31433,7 @@
       <c r="L125" s="3">
         <v>212</v>
       </c>
+      <c r="M125" s="58"/>
     </row>
     <row r="126" spans="1:14" ht="13.5" customHeight="1">
       <c r="A126" s="1" t="s">
@@ -31420,6 +31472,7 @@
       <c r="L126" s="3">
         <v>212</v>
       </c>
+      <c r="M126" s="58"/>
     </row>
     <row r="127" spans="1:14" ht="13.5" customHeight="1">
       <c r="A127" s="1" t="s">
@@ -31458,6 +31511,7 @@
       <c r="L127" s="3">
         <v>212</v>
       </c>
+      <c r="M127" s="58"/>
     </row>
     <row r="128" spans="1:14" ht="13.5" customHeight="1">
       <c r="A128" s="1" t="s">
@@ -31483,6 +31537,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="3"/>
+      <c r="M128" s="58"/>
     </row>
     <row r="129" spans="1:14" ht="13.5" customHeight="1">
       <c r="A129" s="1" t="s">
@@ -31521,6 +31576,7 @@
       <c r="L129" s="3">
         <v>212</v>
       </c>
+      <c r="M129" s="58"/>
     </row>
     <row r="130" spans="1:14" ht="13.5" customHeight="1">
       <c r="A130" s="1" t="s">
@@ -31546,6 +31602,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="3"/>
+      <c r="M130" s="58"/>
     </row>
     <row r="131" spans="1:14" ht="13.5" customHeight="1">
       <c r="A131" s="1" t="s">
@@ -31584,6 +31641,7 @@
       <c r="L131" s="3">
         <v>212</v>
       </c>
+      <c r="M131" s="58"/>
     </row>
     <row r="132" spans="1:14" ht="13.5" customHeight="1">
       <c r="A132" s="1" t="s">
@@ -31622,7 +31680,7 @@
       <c r="L132" s="3">
         <v>212</v>
       </c>
-      <c r="M132" s="1">
+      <c r="M132" s="58">
         <v>435</v>
       </c>
       <c r="N132" s="1" t="s">
@@ -31666,7 +31724,7 @@
       <c r="L133" s="3">
         <v>212</v>
       </c>
-      <c r="M133" s="1">
+      <c r="M133" s="58">
         <v>989</v>
       </c>
       <c r="N133" s="1" t="s">
@@ -31710,7 +31768,7 @@
       <c r="L134" s="3">
         <v>212</v>
       </c>
-      <c r="M134" s="1">
+      <c r="M134" s="58">
         <v>997</v>
       </c>
       <c r="N134" s="1" t="s">
@@ -31754,7 +31812,7 @@
       <c r="L135" s="3">
         <v>212</v>
       </c>
-      <c r="M135" s="1">
+      <c r="M135" s="58">
         <v>961</v>
       </c>
       <c r="N135" s="1" t="s">
@@ -31798,7 +31856,7 @@
       <c r="L136" s="3">
         <v>212</v>
       </c>
-      <c r="M136" s="1">
+      <c r="M136" s="58">
         <v>962</v>
       </c>
       <c r="N136" s="1" t="s">
@@ -31842,7 +31900,7 @@
       <c r="L137" s="3">
         <v>212</v>
       </c>
-      <c r="M137" s="1">
+      <c r="M137" s="58">
         <v>431</v>
       </c>
       <c r="N137" s="1" t="s">
@@ -31873,7 +31931,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="3"/>
-      <c r="M138" s="1">
+      <c r="M138" s="58">
         <v>410</v>
       </c>
       <c r="N138" s="1" t="s">
@@ -31904,6 +31962,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="3"/>
+      <c r="M139" s="58"/>
     </row>
     <row r="140" spans="1:14" ht="13.5" customHeight="1">
       <c r="A140" s="1" t="s">
@@ -31942,6 +32001,7 @@
       <c r="L140" s="3">
         <v>241</v>
       </c>
+      <c r="M140" s="58"/>
     </row>
     <row r="141" spans="1:14" ht="13.5" customHeight="1">
       <c r="A141" s="1" t="s">
@@ -31967,6 +32027,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="3"/>
+      <c r="M141" s="58"/>
     </row>
     <row r="142" spans="1:14" ht="13.5" customHeight="1">
       <c r="A142" s="1" t="s">
@@ -32005,7 +32066,7 @@
       <c r="L142" s="3">
         <v>242</v>
       </c>
-      <c r="M142" s="1">
+      <c r="M142" s="58">
         <v>445</v>
       </c>
       <c r="N142" s="1" t="s">
@@ -32049,7 +32110,7 @@
       <c r="L143" s="3">
         <v>242</v>
       </c>
-      <c r="M143" s="1">
+      <c r="M143" s="58">
         <v>428</v>
       </c>
       <c r="N143" s="1" t="s">
@@ -32093,7 +32154,7 @@
       <c r="L144" s="3">
         <v>242</v>
       </c>
-      <c r="M144" s="1">
+      <c r="M144" s="58">
         <v>988</v>
       </c>
       <c r="N144" s="1" t="s">
@@ -32137,7 +32198,7 @@
       <c r="L145" s="3">
         <v>242</v>
       </c>
-      <c r="M145" s="1">
+      <c r="M145" s="58">
         <v>965</v>
       </c>
       <c r="N145" s="1" t="s">
@@ -32181,7 +32242,7 @@
       <c r="L146" s="3">
         <v>242</v>
       </c>
-      <c r="M146" s="1">
+      <c r="M146" s="58">
         <v>970</v>
       </c>
       <c r="N146" s="1" t="s">
@@ -32225,7 +32286,7 @@
       <c r="L147" s="3">
         <v>242</v>
       </c>
-      <c r="M147" s="1">
+      <c r="M147" s="58">
         <v>975</v>
       </c>
       <c r="N147" s="1" t="s">
@@ -32269,7 +32330,7 @@
       <c r="L148" s="3">
         <v>242</v>
       </c>
-      <c r="M148" s="1">
+      <c r="M148" s="58">
         <v>979</v>
       </c>
       <c r="N148" s="1" t="s">
@@ -32313,7 +32374,7 @@
       <c r="L149" s="3">
         <v>242</v>
       </c>
-      <c r="M149" s="1">
+      <c r="M149" s="58">
         <v>982</v>
       </c>
       <c r="N149" s="1" t="s">
@@ -32357,7 +32418,7 @@
       <c r="L150" s="3">
         <v>242</v>
       </c>
-      <c r="M150" s="1">
+      <c r="M150" s="58">
         <v>986</v>
       </c>
       <c r="N150" s="1" t="s">
@@ -32391,6 +32452,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="3"/>
+      <c r="M151" s="58"/>
     </row>
     <row r="152" spans="1:14" ht="13.5" customHeight="1">
       <c r="A152" s="1" t="s">
@@ -32416,6 +32478,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="3"/>
+      <c r="M152" s="58"/>
     </row>
     <row r="153" spans="1:14" ht="13.5" customHeight="1">
       <c r="A153" s="1" t="s">
@@ -32454,6 +32517,7 @@
       <c r="L153" s="3">
         <v>242</v>
       </c>
+      <c r="M153" s="58"/>
     </row>
     <row r="154" spans="1:14" ht="13.5" customHeight="1">
       <c r="A154" s="1" t="s">
@@ -32492,6 +32556,7 @@
       <c r="L154" s="3">
         <v>242</v>
       </c>
+      <c r="M154" s="58"/>
     </row>
     <row r="155" spans="1:14" ht="13.5" customHeight="1">
       <c r="A155" s="1" t="s">
@@ -32530,6 +32595,7 @@
       <c r="L155" s="3">
         <v>242</v>
       </c>
+      <c r="M155" s="58"/>
     </row>
     <row r="156" spans="1:14" ht="13.5" customHeight="1">
       <c r="A156" s="1" t="s">
@@ -32568,7 +32634,7 @@
       <c r="L156" s="3">
         <v>242</v>
       </c>
-      <c r="M156" s="1">
+      <c r="M156" s="58">
         <v>973</v>
       </c>
       <c r="N156" s="1" t="s">
@@ -32612,7 +32678,7 @@
       <c r="L157" s="3">
         <v>242</v>
       </c>
-      <c r="M157" s="1">
+      <c r="M157" s="58">
         <v>974</v>
       </c>
       <c r="N157" s="1" t="s">
@@ -32656,7 +32722,7 @@
       <c r="L158" s="3">
         <v>242</v>
       </c>
-      <c r="M158" s="1">
+      <c r="M158" s="58">
         <v>977</v>
       </c>
       <c r="N158" s="1" t="s">
@@ -32700,7 +32766,7 @@
       <c r="L159" s="3">
         <v>242</v>
       </c>
-      <c r="M159" s="1">
+      <c r="M159" s="58">
         <v>978</v>
       </c>
       <c r="N159" s="1" t="s">
@@ -32744,7 +32810,7 @@
       <c r="L160" s="3">
         <v>242</v>
       </c>
-      <c r="M160" s="1">
+      <c r="M160" s="58">
         <v>981</v>
       </c>
       <c r="N160" s="1" t="s">
@@ -32788,7 +32854,7 @@
       <c r="L161" s="3">
         <v>242</v>
       </c>
-      <c r="M161" s="1">
+      <c r="M161" s="58">
         <v>984</v>
       </c>
       <c r="N161" s="1" t="s">
@@ -32819,6 +32885,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="3"/>
+      <c r="M162" s="58"/>
     </row>
     <row r="163" spans="1:14" ht="13.5" customHeight="1">
       <c r="A163" s="1" t="s">
@@ -32857,6 +32924,7 @@
       <c r="L163" s="3">
         <v>242</v>
       </c>
+      <c r="M163" s="58"/>
     </row>
     <row r="164" spans="1:14" ht="13.5" customHeight="1">
       <c r="A164" s="1" t="s">
@@ -32895,6 +32963,7 @@
       <c r="L164" s="3">
         <v>242</v>
       </c>
+      <c r="M164" s="58"/>
     </row>
     <row r="165" spans="1:14" ht="13.5" customHeight="1">
       <c r="A165" s="1" t="s">
@@ -32933,6 +33002,7 @@
       <c r="L165" s="3">
         <v>242</v>
       </c>
+      <c r="M165" s="58"/>
     </row>
     <row r="166" spans="1:14" ht="13.5" customHeight="1">
       <c r="A166" s="1" t="s">
@@ -32971,7 +33041,7 @@
       <c r="L166" s="3">
         <v>242</v>
       </c>
-      <c r="M166" s="1">
+      <c r="M166" s="58">
         <v>963</v>
       </c>
       <c r="N166" s="1" t="s">
@@ -33015,7 +33085,7 @@
       <c r="L167" s="3">
         <v>242</v>
       </c>
-      <c r="M167" s="1">
+      <c r="M167" s="58">
         <v>964</v>
       </c>
       <c r="N167" s="1" t="s">
@@ -33059,7 +33129,7 @@
       <c r="L168" s="3">
         <v>242</v>
       </c>
-      <c r="M168" s="1">
+      <c r="M168" s="58">
         <v>967</v>
       </c>
       <c r="N168" s="1" t="s">
@@ -33103,7 +33173,7 @@
       <c r="L169" s="3">
         <v>242</v>
       </c>
-      <c r="M169" s="1">
+      <c r="M169" s="58">
         <v>968</v>
       </c>
       <c r="N169" s="1" t="s">
@@ -33147,7 +33217,7 @@
       <c r="L170" s="3">
         <v>242</v>
       </c>
-      <c r="M170" s="1">
+      <c r="M170" s="58">
         <v>969</v>
       </c>
       <c r="N170" s="1" t="s">
@@ -33191,7 +33261,7 @@
       <c r="L171" s="3">
         <v>242</v>
       </c>
-      <c r="M171" s="1">
+      <c r="M171" s="58">
         <v>988</v>
       </c>
       <c r="N171" s="1" t="s">
@@ -33235,7 +33305,7 @@
       <c r="L172" s="3">
         <v>242</v>
       </c>
-      <c r="M172" s="1">
+      <c r="M172" s="58">
         <v>989</v>
       </c>
       <c r="N172" s="1" t="s">
@@ -33266,6 +33336,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="3"/>
+      <c r="M173" s="58"/>
     </row>
     <row r="174" spans="1:14" ht="13.5" customHeight="1">
       <c r="A174" s="1" t="s">
@@ -33304,6 +33375,7 @@
       <c r="L174" s="3">
         <v>243</v>
       </c>
+      <c r="M174" s="58"/>
     </row>
     <row r="175" spans="1:14" ht="13.5" customHeight="1">
       <c r="A175" s="1" t="s">
@@ -33342,6 +33414,7 @@
       <c r="L175" s="3">
         <v>243</v>
       </c>
+      <c r="M175" s="58"/>
     </row>
     <row r="176" spans="1:14" ht="13.5" customHeight="1">
       <c r="A176" s="1" t="s">
@@ -33380,6 +33453,7 @@
       <c r="L176" s="3">
         <v>243</v>
       </c>
+      <c r="M176" s="58"/>
     </row>
     <row r="177" spans="1:14" ht="13.5" customHeight="1">
       <c r="A177" s="1" t="s">
@@ -33418,6 +33492,7 @@
       <c r="L177" s="3">
         <v>243</v>
       </c>
+      <c r="M177" s="58"/>
     </row>
     <row r="178" spans="1:14" ht="13.5" customHeight="1">
       <c r="A178" s="1" t="s">
@@ -33456,6 +33531,7 @@
       <c r="L178" s="3">
         <v>243</v>
       </c>
+      <c r="M178" s="58"/>
     </row>
     <row r="179" spans="1:14" ht="13.5" customHeight="1">
       <c r="A179" s="1" t="s">
@@ -33481,6 +33557,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="3"/>
+      <c r="M179" s="58"/>
     </row>
     <row r="180" spans="1:14" ht="13.5" customHeight="1">
       <c r="A180" s="1" t="s">
@@ -33519,6 +33596,7 @@
       <c r="L180" s="3">
         <v>243</v>
       </c>
+      <c r="M180" s="58"/>
     </row>
     <row r="181" spans="1:14" ht="13.5" customHeight="1">
       <c r="A181" s="1" t="s">
@@ -33557,6 +33635,7 @@
       <c r="L181" s="3">
         <v>243</v>
       </c>
+      <c r="M181" s="58"/>
     </row>
     <row r="182" spans="1:14" ht="13.5" customHeight="1">
       <c r="A182" s="1" t="s">
@@ -33582,7 +33661,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="3"/>
-      <c r="M182" s="1">
+      <c r="M182" s="58">
         <v>194</v>
       </c>
       <c r="N182" s="1" t="s">
@@ -33613,6 +33692,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="3"/>
+      <c r="M183" s="58"/>
     </row>
     <row r="184" spans="1:14" ht="13.5" customHeight="1">
       <c r="A184" s="1" t="s">
@@ -33638,6 +33718,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="3"/>
+      <c r="M184" s="58"/>
     </row>
     <row r="185" spans="1:14" ht="13.5" customHeight="1">
       <c r="A185" s="1" t="s">
@@ -33676,7 +33757,7 @@
       <c r="L185" s="3">
         <v>311</v>
       </c>
-      <c r="M185" s="1">
+      <c r="M185" s="58">
         <v>510</v>
       </c>
       <c r="N185" s="1" t="s">
@@ -33720,7 +33801,7 @@
       <c r="L186" s="3">
         <v>312</v>
       </c>
-      <c r="M186" s="1">
+      <c r="M186" s="58">
         <v>520</v>
       </c>
       <c r="N186" s="1" t="s">
@@ -33764,7 +33845,7 @@
       <c r="L187" s="3">
         <v>311</v>
       </c>
-      <c r="M187" s="1">
+      <c r="M187" s="58">
         <v>530</v>
       </c>
       <c r="N187" s="1" t="s">
@@ -33808,7 +33889,7 @@
       <c r="L188" s="3">
         <v>311</v>
       </c>
-      <c r="M188" s="1">
+      <c r="M188" s="58">
         <v>540</v>
       </c>
       <c r="N188" s="1" t="s">
@@ -33852,7 +33933,7 @@
       <c r="L189" s="3">
         <v>313</v>
       </c>
-      <c r="M189" s="1">
+      <c r="M189" s="58">
         <v>550</v>
       </c>
       <c r="N189" s="1" t="s">
@@ -33896,7 +33977,7 @@
       <c r="L190" s="3">
         <v>313</v>
       </c>
-      <c r="M190" s="1">
+      <c r="M190" s="58">
         <v>560</v>
       </c>
       <c r="N190" s="1" t="s">
@@ -33940,7 +34021,7 @@
       <c r="L191" s="3">
         <v>313</v>
       </c>
-      <c r="M191" s="1">
+      <c r="M191" s="58">
         <v>570</v>
       </c>
       <c r="N191" s="1" t="s">
@@ -33984,7 +34065,7 @@
       <c r="L192" s="3">
         <v>313</v>
       </c>
-      <c r="M192" s="1">
+      <c r="M192" s="58">
         <v>580</v>
       </c>
       <c r="N192" s="1" t="s">
@@ -34015,6 +34096,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="3"/>
+      <c r="M193" s="58"/>
     </row>
     <row r="194" spans="1:14" ht="13.5" customHeight="1">
       <c r="A194" s="1" t="s">
@@ -34040,6 +34122,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="3"/>
+      <c r="M194" s="58"/>
     </row>
     <row r="195" spans="1:14" ht="13.5" customHeight="1">
       <c r="A195" s="1" t="s">
@@ -34078,7 +34161,7 @@
       <c r="L195" s="3">
         <v>311</v>
       </c>
-      <c r="M195" s="1">
+      <c r="M195" s="58">
         <v>611</v>
       </c>
       <c r="N195" s="1" t="s">
@@ -34122,7 +34205,7 @@
       <c r="L196" s="3">
         <v>311</v>
       </c>
-      <c r="M196" s="1">
+      <c r="M196" s="58">
         <v>615</v>
       </c>
       <c r="N196" s="1" t="s">
@@ -34153,6 +34236,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="3"/>
+      <c r="M197" s="58"/>
     </row>
     <row r="198" spans="1:14" ht="13.5" customHeight="1">
       <c r="A198" s="1" t="s">
@@ -34191,7 +34275,7 @@
       <c r="L198" s="3">
         <v>312</v>
       </c>
-      <c r="M198" s="1">
+      <c r="M198" s="58">
         <v>621</v>
       </c>
       <c r="N198" s="1" t="s">
@@ -34235,7 +34319,7 @@
       <c r="L199" s="3">
         <v>312</v>
       </c>
-      <c r="M199" s="1">
+      <c r="M199" s="58">
         <v>625</v>
       </c>
       <c r="N199" s="1" t="s">
@@ -34279,7 +34363,7 @@
       <c r="L200" s="3">
         <v>311</v>
       </c>
-      <c r="M200" s="1">
+      <c r="M200" s="58">
         <v>630</v>
       </c>
       <c r="N200" s="1" t="s">
@@ -34323,7 +34407,7 @@
       <c r="L201" s="3">
         <v>311</v>
       </c>
-      <c r="M201" s="1">
+      <c r="M201" s="58">
         <v>640</v>
       </c>
       <c r="N201" s="1" t="s">
@@ -34367,7 +34451,7 @@
       <c r="L202" s="3">
         <v>313</v>
       </c>
-      <c r="M202" s="1">
+      <c r="M202" s="58">
         <v>650</v>
       </c>
       <c r="N202" s="1" t="s">
@@ -34411,7 +34495,7 @@
       <c r="L203" s="3">
         <v>313</v>
       </c>
-      <c r="M203" s="1">
+      <c r="M203" s="58">
         <v>660</v>
       </c>
       <c r="N203" s="1" t="s">
@@ -34455,7 +34539,7 @@
       <c r="L204" s="3">
         <v>313</v>
       </c>
-      <c r="M204" s="1">
+      <c r="M204" s="58">
         <v>670</v>
       </c>
       <c r="N204" s="1" t="s">
@@ -34499,7 +34583,7 @@
       <c r="L205" s="3">
         <v>313</v>
       </c>
-      <c r="M205" s="1">
+      <c r="M205" s="58">
         <v>680</v>
       </c>
       <c r="N205" s="1" t="s">
@@ -34530,6 +34614,7 @@
       </c>
       <c r="K206" s="2"/>
       <c r="L206" s="3"/>
+      <c r="M206" s="58"/>
     </row>
     <row r="207" spans="1:14" ht="13.5" customHeight="1">
       <c r="A207" s="1" t="s">
@@ -34555,6 +34640,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="3"/>
+      <c r="M207" s="58"/>
     </row>
     <row r="208" spans="1:14" ht="13.5" customHeight="1">
       <c r="A208" s="1" t="s">
@@ -34593,7 +34679,7 @@
       <c r="L208" s="3">
         <v>311</v>
       </c>
-      <c r="M208" s="1">
+      <c r="M208" s="58">
         <v>711</v>
       </c>
       <c r="N208" s="1" t="s">
@@ -34637,7 +34723,7 @@
       <c r="L209" s="3">
         <v>324</v>
       </c>
-      <c r="M209" s="1">
+      <c r="M209" s="58">
         <v>715</v>
       </c>
       <c r="N209" s="1" t="s">
@@ -34668,6 +34754,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="3"/>
+      <c r="M210" s="58"/>
     </row>
     <row r="211" spans="1:14" ht="13.5" customHeight="1">
       <c r="A211" s="1" t="s">
@@ -34706,7 +34793,7 @@
       <c r="L211" s="3">
         <v>312</v>
       </c>
-      <c r="M211" s="1">
+      <c r="M211" s="58">
         <v>721</v>
       </c>
       <c r="N211" s="1" t="s">
@@ -34750,7 +34837,7 @@
       <c r="L212" s="3">
         <v>324</v>
       </c>
-      <c r="M212" s="1">
+      <c r="M212" s="58">
         <v>725</v>
       </c>
       <c r="N212" s="1" t="s">
@@ -34794,7 +34881,7 @@
       <c r="L213" s="3">
         <v>324</v>
       </c>
-      <c r="M213" s="1">
+      <c r="M213" s="58">
         <v>730</v>
       </c>
       <c r="N213" s="1" t="s">
@@ -34838,7 +34925,7 @@
       <c r="L214" s="3">
         <v>324</v>
       </c>
-      <c r="M214" s="1">
+      <c r="M214" s="58">
         <v>740</v>
       </c>
       <c r="N214" s="1" t="s">
@@ -34882,7 +34969,7 @@
       <c r="L215" s="3">
         <v>324</v>
       </c>
-      <c r="M215" s="1">
+      <c r="M215" s="58">
         <v>750</v>
       </c>
       <c r="N215" s="1" t="s">
@@ -34926,7 +35013,7 @@
       <c r="L216" s="3">
         <v>324</v>
       </c>
-      <c r="M216" s="1">
+      <c r="M216" s="58">
         <v>760</v>
       </c>
       <c r="N216" s="1" t="s">
@@ -34970,7 +35057,7 @@
       <c r="L217" s="3">
         <v>324</v>
       </c>
-      <c r="M217" s="1">
+      <c r="M217" s="58">
         <v>770</v>
       </c>
       <c r="N217" s="1" t="s">
@@ -35014,7 +35101,7 @@
       <c r="L218" s="3">
         <v>324</v>
       </c>
-      <c r="M218" s="1">
+      <c r="M218" s="58">
         <v>780</v>
       </c>
       <c r="N218" s="1" t="s">
@@ -35045,6 +35132,7 @@
       </c>
       <c r="K219" s="2"/>
       <c r="L219" s="3"/>
+      <c r="M219" s="58"/>
     </row>
     <row r="220" spans="1:14" ht="13.5" customHeight="1">
       <c r="A220" s="1" t="s">
@@ -35070,6 +35158,7 @@
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="3"/>
+      <c r="M220" s="58"/>
     </row>
     <row r="221" spans="1:14" ht="13.5" customHeight="1">
       <c r="A221" s="1" t="s">
@@ -35108,7 +35197,7 @@
       <c r="L221" s="3">
         <v>311</v>
       </c>
-      <c r="M221" s="1">
+      <c r="M221" s="58">
         <v>811</v>
       </c>
       <c r="N221" s="1" t="s">
@@ -35152,7 +35241,7 @@
       <c r="L222" s="3">
         <v>244</v>
       </c>
-      <c r="M222" s="1">
+      <c r="M222" s="58">
         <v>815</v>
       </c>
       <c r="N222" s="1" t="s">
@@ -35183,6 +35272,7 @@
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="3"/>
+      <c r="M223" s="58"/>
     </row>
     <row r="224" spans="1:14" ht="13.5" customHeight="1">
       <c r="A224" s="1" t="s">
@@ -35221,7 +35311,7 @@
       <c r="L224" s="3">
         <v>312</v>
       </c>
-      <c r="M224" s="1">
+      <c r="M224" s="58">
         <v>821</v>
       </c>
       <c r="N224" s="1" t="s">
@@ -35265,7 +35355,7 @@
       <c r="L225" s="3">
         <v>324</v>
       </c>
-      <c r="M225" s="1">
+      <c r="M225" s="58">
         <v>825</v>
       </c>
       <c r="N225" s="1" t="s">
@@ -35309,7 +35399,7 @@
       <c r="L226" s="3">
         <v>324</v>
       </c>
-      <c r="M226" s="1">
+      <c r="M226" s="58">
         <v>830</v>
       </c>
       <c r="N226" s="1" t="s">
@@ -35353,7 +35443,7 @@
       <c r="L227" s="3">
         <v>324</v>
       </c>
-      <c r="M227" s="1">
+      <c r="M227" s="58">
         <v>840</v>
       </c>
       <c r="N227" s="1" t="s">
@@ -35397,7 +35487,7 @@
       <c r="L228" s="3">
         <v>324</v>
       </c>
-      <c r="M228" s="1">
+      <c r="M228" s="58">
         <v>850</v>
       </c>
       <c r="N228" s="1" t="s">
@@ -35441,7 +35531,7 @@
       <c r="L229" s="3">
         <v>324</v>
       </c>
-      <c r="M229" s="1">
+      <c r="M229" s="58">
         <v>860</v>
       </c>
       <c r="N229" s="1" t="s">
@@ -35485,7 +35575,7 @@
       <c r="L230" s="3">
         <v>324</v>
       </c>
-      <c r="M230" s="1">
+      <c r="M230" s="58">
         <v>870</v>
       </c>
       <c r="N230" s="1" t="s">
@@ -35529,7 +35619,7 @@
       <c r="L231" s="3">
         <v>324</v>
       </c>
-      <c r="M231" s="1">
+      <c r="M231" s="58">
         <v>880</v>
       </c>
       <c r="N231" s="1" t="s">
@@ -35560,6 +35650,7 @@
       </c>
       <c r="K232" s="2"/>
       <c r="L232" s="3"/>
+      <c r="M232" s="58"/>
     </row>
     <row r="233" spans="1:14" ht="13.5" customHeight="1">
       <c r="A233" s="1" t="s">
@@ -35598,7 +35689,7 @@
       <c r="L233" s="3">
         <v>244</v>
       </c>
-      <c r="M233" s="1">
+      <c r="M233" s="58">
         <v>891</v>
       </c>
       <c r="N233" s="1" t="s">
@@ -35642,7 +35733,7 @@
       <c r="L234" s="3">
         <v>244</v>
       </c>
-      <c r="M234" s="1">
+      <c r="M234" s="58">
         <v>895</v>
       </c>
       <c r="N234" s="1" t="s">
@@ -35686,6 +35777,7 @@
       <c r="L235" s="3">
         <v>324</v>
       </c>
+      <c r="M235" s="58"/>
     </row>
     <row r="236" spans="1:14" ht="13.5" customHeight="1">
       <c r="A236" s="1" t="s">
@@ -35711,6 +35803,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="3"/>
+      <c r="M236" s="58"/>
     </row>
     <row r="237" spans="1:14" ht="13.5" customHeight="1">
       <c r="A237" s="1" t="s">
@@ -35749,7 +35842,7 @@
       <c r="L237" s="3">
         <v>323</v>
       </c>
-      <c r="M237" s="1">
+      <c r="M237" s="58">
         <v>911</v>
       </c>
       <c r="N237" s="1" t="s">
@@ -35780,6 +35873,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="3"/>
+      <c r="M238" s="58"/>
     </row>
     <row r="239" spans="1:14" ht="13.5" customHeight="1">
       <c r="A239" s="1" t="s">
@@ -35818,7 +35912,7 @@
       <c r="L239" s="3">
         <v>323</v>
       </c>
-      <c r="M239" s="1">
+      <c r="M239" s="58">
         <v>915</v>
       </c>
       <c r="N239" s="1" t="s">
@@ -35862,7 +35956,7 @@
       <c r="L240" s="3">
         <v>333</v>
       </c>
-      <c r="M240" s="1">
+      <c r="M240" s="58">
         <v>917</v>
       </c>
       <c r="N240" s="1" t="s">
@@ -35893,6 +35987,7 @@
       </c>
       <c r="K241" s="2"/>
       <c r="L241" s="3"/>
+      <c r="M241" s="58"/>
     </row>
     <row r="242" spans="1:14" ht="13.5" customHeight="1">
       <c r="A242" s="1" t="s">
@@ -35931,7 +36026,7 @@
       <c r="L242" s="3">
         <v>321</v>
       </c>
-      <c r="M242" s="1">
+      <c r="M242" s="58">
         <v>921</v>
       </c>
       <c r="N242" s="1" t="s">
@@ -35975,7 +36070,7 @@
       <c r="L243" s="3">
         <v>333</v>
       </c>
-      <c r="M243" s="1">
+      <c r="M243" s="58">
         <v>925</v>
       </c>
       <c r="N243" s="1" t="s">
@@ -36006,7 +36101,7 @@
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="3"/>
-      <c r="M244" s="1">
+      <c r="M244" s="58">
         <v>950</v>
       </c>
       <c r="N244" s="1" t="s">
@@ -36050,7 +36145,7 @@
       <c r="L245" s="3">
         <v>331</v>
       </c>
-      <c r="M245" s="1">
+      <c r="M245" s="58">
         <v>931</v>
       </c>
       <c r="N245" s="1" t="s">
@@ -36094,7 +36189,7 @@
       <c r="L246" s="3">
         <v>332</v>
       </c>
-      <c r="M246" s="1">
+      <c r="M246" s="58">
         <v>941</v>
       </c>
       <c r="N246" s="1" t="s">
@@ -36138,7 +36233,7 @@
       <c r="L247" s="3">
         <v>332</v>
       </c>
-      <c r="M247" s="1">
+      <c r="M247" s="58">
         <v>945</v>
       </c>
       <c r="N247" s="1" t="s">
@@ -36182,7 +36277,7 @@
       <c r="L248" s="3">
         <v>333</v>
       </c>
-      <c r="M248" s="1">
+      <c r="M248" s="58">
         <v>933</v>
       </c>
       <c r="N248" s="1" t="s">
@@ -36226,7 +36321,7 @@
       <c r="L249" s="3">
         <v>334</v>
       </c>
-      <c r="M249" s="1">
+      <c r="M249" s="58">
         <v>934</v>
       </c>
       <c r="N249" s="1" t="s">
@@ -36270,7 +36365,7 @@
       <c r="L250" s="3">
         <v>333</v>
       </c>
-      <c r="M250" s="1">
+      <c r="M250" s="58">
         <v>1007</v>
       </c>
       <c r="N250" s="1" t="s">
@@ -36314,7 +36409,7 @@
       <c r="L251" s="3">
         <v>333</v>
       </c>
-      <c r="M251" s="1">
+      <c r="M251" s="58">
         <v>1006</v>
       </c>
       <c r="N251" s="1" t="s">
@@ -36358,7 +36453,7 @@
       <c r="L252" s="3">
         <v>333</v>
       </c>
-      <c r="M252" s="1">
+      <c r="M252" s="58">
         <v>935</v>
       </c>
       <c r="N252" s="1" t="s">
@@ -39359,6 +39454,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup scale="0" orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Correspondencias_SIOSE - modificada (v2).xlsx
+++ b/Correspondencias_SIOSE - modificada (v2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Correspondencias_SIOSE (2)" sheetId="10" r:id="rId1"/>
@@ -3362,7 +3362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3390,6 +3390,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -3563,11 +3569,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3664,9 +3671,16 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="60% - Énfasis1" xfId="1" builtinId="32"/>
+    <cellStyle name="60% - Énfasis2" xfId="2" builtinId="36"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -3918,14 +3932,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>378219</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>378218</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>184481</xdr:rowOff>
     </xdr:to>
@@ -24986,10 +25000,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:D39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -24997,28 +25011,28 @@
     <col min="1" max="1" width="69" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="3" max="3" width="44.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="44.25" customWidth="1"/>
-    <col min="6" max="6" width="33.375" style="42" customWidth="1"/>
-    <col min="7" max="7" width="64.25" style="13" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.25" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" customWidth="1"/>
-    <col min="20" max="20" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.25" customWidth="1"/>
-    <col min="22" max="22" width="2.875" customWidth="1"/>
-    <col min="23" max="23" width="4.25" customWidth="1"/>
+    <col min="4" max="4" width="44.25" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="42" customWidth="1"/>
+    <col min="6" max="6" width="64.25" style="13" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.25" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.25" customWidth="1"/>
+    <col min="21" max="21" width="2.875" customWidth="1"/>
+    <col min="22" max="22" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="25" t="s">
         <v>977</v>
       </c>
@@ -25031,14 +25045,14 @@
       <c r="D1" t="s">
         <v>1017</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>987</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="4" t="s">
         <v>753</v>
       </c>
@@ -25051,13 +25065,9 @@
       <c r="D2" s="57" t="s">
         <v>1018</v>
       </c>
-      <c r="E2" t="str">
-        <f>LOWER(D2)</f>
-        <v>tejido urbano</v>
-      </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="15">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="4" t="s">
         <v>753</v>
       </c>
@@ -25070,9 +25080,9 @@
       <c r="D3" s="57" t="s">
         <v>1018</v>
       </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" ht="15">
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="4" t="s">
         <v>753</v>
       </c>
@@ -25086,7 +25096,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="4" t="s">
         <v>753</v>
       </c>
@@ -25100,7 +25110,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="4" t="s">
         <v>753</v>
       </c>
@@ -25114,7 +25124,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="4" t="s">
         <v>753</v>
       </c>
@@ -25128,7 +25138,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="1" t="s">
         <v>1010</v>
       </c>
@@ -25142,7 +25152,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="1" t="s">
         <v>756</v>
       </c>
@@ -25156,7 +25166,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="4" t="s">
         <v>757</v>
       </c>
@@ -25170,7 +25180,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="4" t="s">
         <v>757</v>
       </c>
@@ -25184,7 +25194,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="4" t="s">
         <v>757</v>
       </c>
@@ -25198,7 +25208,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="13" customFormat="1" ht="15">
+    <row r="13" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A13" s="4" t="s">
         <v>757</v>
       </c>
@@ -25211,10 +25221,9 @@
       <c r="D13" s="57" t="s">
         <v>1019</v>
       </c>
-      <c r="E13"/>
-      <c r="F13" s="42"/>
-    </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A14" s="4" t="s">
         <v>757</v>
       </c>
@@ -25227,10 +25236,9 @@
       <c r="D14" s="57" t="s">
         <v>1019</v>
       </c>
-      <c r="E14"/>
-      <c r="F14" s="42"/>
-    </row>
-    <row r="15" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A15" s="4" t="s">
         <v>758</v>
       </c>
@@ -25243,10 +25251,9 @@
       <c r="D15" s="57" t="s">
         <v>1020</v>
       </c>
-      <c r="E15"/>
-      <c r="F15" s="42"/>
-    </row>
-    <row r="16" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A16" s="4" t="s">
         <v>758</v>
       </c>
@@ -25259,10 +25266,9 @@
       <c r="D16" s="57" t="s">
         <v>1020</v>
       </c>
-      <c r="E16"/>
-      <c r="F16" s="42"/>
-    </row>
-    <row r="17" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E16" s="42"/>
+    </row>
+    <row r="17" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A17" s="4" t="s">
         <v>758</v>
       </c>
@@ -25275,9 +25281,8 @@
       <c r="D17" s="57" t="s">
         <v>1020</v>
       </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="18" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A18" s="1" t="s">
         <v>763</v>
       </c>
@@ -25290,10 +25295,9 @@
       <c r="D18" s="57" t="s">
         <v>940</v>
       </c>
-      <c r="E18"/>
-      <c r="F18" s="42"/>
-    </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E18" s="42"/>
+    </row>
+    <row r="19" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A19" s="4" t="s">
         <v>763</v>
       </c>
@@ -25306,10 +25310,9 @@
       <c r="D19" s="57" t="s">
         <v>1021</v>
       </c>
-      <c r="E19"/>
-      <c r="F19" s="42"/>
-    </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A20" s="4" t="s">
         <v>763</v>
       </c>
@@ -25322,9 +25325,8 @@
       <c r="D20" s="57" t="s">
         <v>1021</v>
       </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:7" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="21" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A21" s="4" t="s">
         <v>763</v>
       </c>
@@ -25337,10 +25339,9 @@
       <c r="D21" s="57" t="s">
         <v>1021</v>
       </c>
-      <c r="E21"/>
-      <c r="F21" s="42"/>
-    </row>
-    <row r="22" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E21" s="42"/>
+    </row>
+    <row r="22" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A22" s="1" t="s">
         <v>763</v>
       </c>
@@ -25353,10 +25354,9 @@
       <c r="D22" s="57" t="s">
         <v>1036</v>
       </c>
-      <c r="E22"/>
-      <c r="F22" s="42"/>
-    </row>
-    <row r="23" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E22" s="42"/>
+    </row>
+    <row r="23" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A23" s="1" t="s">
         <v>764</v>
       </c>
@@ -25369,10 +25369,9 @@
       <c r="D23" s="57" t="s">
         <v>959</v>
       </c>
-      <c r="E23"/>
-      <c r="F23" s="42"/>
-    </row>
-    <row r="24" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="E23" s="42"/>
+    </row>
+    <row r="24" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A24" s="1" t="s">
         <v>764</v>
       </c>
@@ -25385,10 +25384,9 @@
       <c r="D24" s="57" t="s">
         <v>1037</v>
       </c>
-      <c r="E24"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A25" s="1" t="s">
         <v>765</v>
       </c>
@@ -25401,10 +25399,9 @@
       <c r="D25" s="57" t="s">
         <v>946</v>
       </c>
-      <c r="E25"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A26" s="4" t="s">
         <v>135</v>
       </c>
@@ -25417,10 +25414,9 @@
       <c r="D26" s="57" t="s">
         <v>1022</v>
       </c>
-      <c r="E26"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A27" s="4" t="s">
         <v>135</v>
       </c>
@@ -25433,10 +25429,9 @@
       <c r="D27" s="57" t="s">
         <v>1022</v>
       </c>
-      <c r="E27"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A28" s="4" t="s">
         <v>135</v>
       </c>
@@ -25449,10 +25444,9 @@
       <c r="D28" s="57" t="s">
         <v>1022</v>
       </c>
-      <c r="E28"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A29" s="4" t="s">
         <v>135</v>
       </c>
@@ -25465,10 +25459,9 @@
       <c r="D29" s="57" t="s">
         <v>1022</v>
       </c>
-      <c r="E29"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A30" s="4" t="s">
         <v>135</v>
       </c>
@@ -25481,10 +25474,9 @@
       <c r="D30" s="57" t="s">
         <v>1022</v>
       </c>
-      <c r="E30"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A31" s="4" t="s">
         <v>135</v>
       </c>
@@ -25497,10 +25489,9 @@
       <c r="D31" s="57" t="s">
         <v>1022</v>
       </c>
-      <c r="E31"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A32" s="4" t="s">
         <v>135</v>
       </c>
@@ -25513,10 +25504,9 @@
       <c r="D32" s="57" t="s">
         <v>1022</v>
       </c>
-      <c r="E32"/>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A33" s="4" t="s">
         <v>135</v>
       </c>
@@ -25529,10 +25519,9 @@
       <c r="D33" s="57" t="s">
         <v>1022</v>
       </c>
-      <c r="E33"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A34" s="4" t="s">
         <v>1011</v>
       </c>
@@ -25545,10 +25534,9 @@
       <c r="D34" s="57" t="s">
         <v>1023</v>
       </c>
-      <c r="E34"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A35" s="4" t="s">
         <v>1011</v>
       </c>
@@ -25561,10 +25549,9 @@
       <c r="D35" s="57" t="s">
         <v>1023</v>
       </c>
-      <c r="E35"/>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A36" s="4" t="s">
         <v>1012</v>
       </c>
@@ -25577,10 +25564,9 @@
       <c r="D36" s="57" t="s">
         <v>1024</v>
       </c>
-      <c r="E36"/>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A37" s="4" t="s">
         <v>1012</v>
       </c>
@@ -25593,10 +25579,9 @@
       <c r="D37" s="57" t="s">
         <v>1024</v>
       </c>
-      <c r="E37"/>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A38" s="56" t="s">
         <v>1013</v>
       </c>
@@ -25609,10 +25594,9 @@
       <c r="D38" s="57" t="s">
         <v>1008</v>
       </c>
-      <c r="E38"/>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A39" s="56" t="s">
         <v>1013</v>
       </c>
@@ -25625,10 +25609,9 @@
       <c r="D39" s="57" t="s">
         <v>1008</v>
       </c>
-      <c r="E39"/>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A40" s="41" t="s">
         <v>780</v>
       </c>
@@ -25641,10 +25624,9 @@
       <c r="D40" s="57" t="s">
         <v>947</v>
       </c>
-      <c r="E40"/>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A41" s="1" t="s">
         <v>781</v>
       </c>
@@ -25657,10 +25639,9 @@
       <c r="D41" s="57" t="s">
         <v>916</v>
       </c>
-      <c r="E41"/>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A42" s="4" t="s">
         <v>1015</v>
       </c>
@@ -25673,10 +25654,9 @@
       <c r="D42" s="57" t="s">
         <v>1025</v>
       </c>
-      <c r="E42"/>
-      <c r="G42" s="13"/>
-    </row>
-    <row r="43" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A43" s="4" t="s">
         <v>1015</v>
       </c>
@@ -25689,10 +25669,9 @@
       <c r="D43" s="57" t="s">
         <v>1025</v>
       </c>
-      <c r="E43"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A44" s="41" t="s">
         <v>1014</v>
       </c>
@@ -25705,10 +25684,9 @@
       <c r="D44" s="57" t="s">
         <v>1007</v>
       </c>
-      <c r="E44"/>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A45" s="41" t="s">
         <v>1014</v>
       </c>
@@ -25721,10 +25699,9 @@
       <c r="D45" s="57" t="s">
         <v>1007</v>
       </c>
-      <c r="E45"/>
-      <c r="F45" s="42"/>
-    </row>
-    <row r="46" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A46" s="41" t="s">
         <v>1014</v>
       </c>
@@ -25737,10 +25714,9 @@
       <c r="D46" s="57" t="s">
         <v>1007</v>
       </c>
-      <c r="E46"/>
-      <c r="F46" s="42"/>
-    </row>
-    <row r="47" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E46" s="42"/>
+    </row>
+    <row r="47" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A47" s="41" t="s">
         <v>786</v>
       </c>
@@ -25753,10 +25729,9 @@
       <c r="D47" s="57" t="s">
         <v>956</v>
       </c>
-      <c r="E47"/>
-      <c r="F47" s="42"/>
-    </row>
-    <row r="48" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E47" s="42"/>
+    </row>
+    <row r="48" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A48" s="41" t="s">
         <v>786</v>
       </c>
@@ -25769,10 +25744,9 @@
       <c r="D48" s="57" t="s">
         <v>1038</v>
       </c>
-      <c r="E48"/>
-      <c r="F48" s="42"/>
-    </row>
-    <row r="49" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E48" s="42"/>
+    </row>
+    <row r="49" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A49" s="41" t="s">
         <v>787</v>
       </c>
@@ -25785,10 +25759,9 @@
       <c r="D49" s="57" t="s">
         <v>902</v>
       </c>
-      <c r="E49"/>
-      <c r="F49" s="42"/>
-    </row>
-    <row r="50" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E49" s="42"/>
+    </row>
+    <row r="50" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A50" s="1" t="s">
         <v>789</v>
       </c>
@@ -25801,10 +25774,9 @@
       <c r="D50" s="57" t="s">
         <v>941</v>
       </c>
-      <c r="E50"/>
-      <c r="F50" s="42"/>
-    </row>
-    <row r="51" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A51" s="1" t="s">
         <v>790</v>
       </c>
@@ -25817,10 +25789,9 @@
       <c r="D51" s="57" t="s">
         <v>914</v>
       </c>
-      <c r="E51"/>
-      <c r="F51" s="42"/>
-    </row>
-    <row r="52" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E51" s="42"/>
+    </row>
+    <row r="52" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A52" s="1" t="s">
         <v>283</v>
       </c>
@@ -25833,12 +25804,11 @@
       <c r="D52" s="57" t="s">
         <v>1034</v>
       </c>
-      <c r="E52"/>
-      <c r="F52" s="43" t="s">
+      <c r="E52" s="43" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="13" customFormat="1" ht="15">
+    <row r="53" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A53" s="4" t="s">
         <v>981</v>
       </c>
@@ -25851,10 +25821,9 @@
       <c r="D53" s="57" t="s">
         <v>1029</v>
       </c>
-      <c r="E53"/>
-      <c r="F53" s="42"/>
-    </row>
-    <row r="54" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E53" s="42"/>
+    </row>
+    <row r="54" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A54" s="4" t="s">
         <v>796</v>
       </c>
@@ -25867,10 +25836,9 @@
       <c r="D54" s="57" t="s">
         <v>1029</v>
       </c>
-      <c r="E54"/>
-      <c r="F54" s="42"/>
-    </row>
-    <row r="55" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A55" s="4" t="s">
         <v>801</v>
       </c>
@@ -25883,10 +25851,9 @@
       <c r="D55" s="57" t="s">
         <v>1026</v>
       </c>
-      <c r="E55"/>
-      <c r="F55" s="43"/>
-    </row>
-    <row r="56" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E55" s="43"/>
+    </row>
+    <row r="56" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A56" s="4" t="s">
         <v>801</v>
       </c>
@@ -25899,10 +25866,9 @@
       <c r="D56" s="57" t="s">
         <v>1026</v>
       </c>
-      <c r="E56"/>
-      <c r="F56" s="44"/>
-    </row>
-    <row r="57" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E56" s="44"/>
+    </row>
+    <row r="57" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A57" s="4" t="s">
         <v>985</v>
       </c>
@@ -25915,10 +25881,9 @@
       <c r="D57" s="57" t="s">
         <v>1030</v>
       </c>
-      <c r="E57"/>
-      <c r="F57" s="43"/>
-    </row>
-    <row r="58" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E57" s="43"/>
+    </row>
+    <row r="58" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A58" s="1" t="s">
         <v>810</v>
       </c>
@@ -25931,10 +25896,9 @@
       <c r="D58" s="57" t="s">
         <v>1030</v>
       </c>
-      <c r="E58"/>
-      <c r="F58" s="42"/>
-    </row>
-    <row r="59" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E58" s="42"/>
+    </row>
+    <row r="59" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A59" s="1" t="s">
         <v>811</v>
       </c>
@@ -25947,10 +25911,9 @@
       <c r="D59" s="57" t="s">
         <v>1030</v>
       </c>
-      <c r="E59"/>
-      <c r="F59" s="42"/>
-    </row>
-    <row r="60" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A60" s="1" t="s">
         <v>835</v>
       </c>
@@ -25963,10 +25926,9 @@
       <c r="D60" s="57" t="s">
         <v>1027</v>
       </c>
-      <c r="E60"/>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A61" s="1" t="s">
         <v>836</v>
       </c>
@@ -25979,10 +25941,9 @@
       <c r="D61" s="57" t="s">
         <v>1027</v>
       </c>
-      <c r="E61"/>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A62" s="25" t="s">
         <v>846</v>
       </c>
@@ -25995,10 +25956,9 @@
       <c r="D62" s="57" t="s">
         <v>1027</v>
       </c>
-      <c r="E62"/>
-      <c r="G62" s="13"/>
-    </row>
-    <row r="63" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A63" s="25" t="s">
         <v>847</v>
       </c>
@@ -26011,10 +25971,9 @@
       <c r="D63" s="57" t="s">
         <v>1027</v>
       </c>
-      <c r="E63"/>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A64" s="25" t="s">
         <v>858</v>
       </c>
@@ -26027,10 +25986,9 @@
       <c r="D64" s="57" t="s">
         <v>1027</v>
       </c>
-      <c r="E64"/>
-      <c r="G64" s="13"/>
-    </row>
-    <row r="65" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A65" s="25" t="s">
         <v>859</v>
       </c>
@@ -26043,10 +26001,9 @@
       <c r="D65" s="57" t="s">
         <v>1027</v>
       </c>
-      <c r="E65"/>
-      <c r="G65" s="13"/>
-    </row>
-    <row r="66" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A66" s="25" t="s">
         <v>860</v>
       </c>
@@ -26059,10 +26016,9 @@
       <c r="D66" s="57" t="s">
         <v>1027</v>
       </c>
-      <c r="E66"/>
-      <c r="G66" s="13"/>
-    </row>
-    <row r="67" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A67" s="25" t="s">
         <v>861</v>
       </c>
@@ -26075,10 +26031,9 @@
       <c r="D67" s="57" t="s">
         <v>1027</v>
       </c>
-      <c r="E67"/>
-      <c r="G67" s="13"/>
-    </row>
-    <row r="68" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A68" s="1" t="s">
         <v>870</v>
       </c>
@@ -26091,10 +26046,9 @@
       <c r="D68" s="57" t="s">
         <v>1027</v>
       </c>
-      <c r="E68"/>
-      <c r="G68" s="13"/>
-    </row>
-    <row r="69" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A69" s="1" t="s">
         <v>871</v>
       </c>
@@ -26107,10 +26061,9 @@
       <c r="D69" s="57" t="s">
         <v>1027</v>
       </c>
-      <c r="E69"/>
-      <c r="G69" s="13"/>
-    </row>
-    <row r="70" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A70" s="1" t="s">
         <v>872</v>
       </c>
@@ -26123,10 +26076,9 @@
       <c r="D70" s="57" t="s">
         <v>1027</v>
       </c>
-      <c r="E70"/>
-      <c r="G70" s="13"/>
-    </row>
-    <row r="71" spans="1:7" s="42" customFormat="1" ht="15">
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="1:6" s="42" customFormat="1" ht="15">
       <c r="A71" s="1" t="s">
         <v>873</v>
       </c>
@@ -26139,10 +26091,9 @@
       <c r="D71" s="57" t="s">
         <v>1027</v>
       </c>
-      <c r="E71"/>
-      <c r="G71" s="13"/>
-    </row>
-    <row r="72" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A72" s="1" t="s">
         <v>880</v>
       </c>
@@ -26155,10 +26106,9 @@
       <c r="D72" s="57" t="s">
         <v>1005</v>
       </c>
-      <c r="E72"/>
-      <c r="F72" s="42"/>
-    </row>
-    <row r="73" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E72" s="42"/>
+    </row>
+    <row r="73" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A73" s="1" t="s">
         <v>882</v>
       </c>
@@ -26171,10 +26121,9 @@
       <c r="D73" s="57" t="s">
         <v>1005</v>
       </c>
-      <c r="E73"/>
-      <c r="F73" s="42"/>
-    </row>
-    <row r="74" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E73" s="42"/>
+    </row>
+    <row r="74" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A74" s="1" t="s">
         <v>883</v>
       </c>
@@ -26187,10 +26136,9 @@
       <c r="D74" s="57" t="s">
         <v>1005</v>
       </c>
-      <c r="E74"/>
-      <c r="F74" s="42"/>
-    </row>
-    <row r="75" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E74" s="42"/>
+    </row>
+    <row r="75" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A75" s="1" t="s">
         <v>884</v>
       </c>
@@ -26203,10 +26151,9 @@
       <c r="D75" s="57" t="s">
         <v>1006</v>
       </c>
-      <c r="E75"/>
-      <c r="F75" s="42"/>
-    </row>
-    <row r="76" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E75" s="42"/>
+    </row>
+    <row r="76" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A76" s="1" t="s">
         <v>885</v>
       </c>
@@ -26219,10 +26166,9 @@
       <c r="D76" s="57" t="s">
         <v>1006</v>
       </c>
-      <c r="E76"/>
-      <c r="F76" s="42"/>
-    </row>
-    <row r="77" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E76" s="42"/>
+    </row>
+    <row r="77" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A77" s="4" t="s">
         <v>886</v>
       </c>
@@ -26235,9 +26181,8 @@
       <c r="D77" s="57" t="s">
         <v>1028</v>
       </c>
-      <c r="E77"/>
-    </row>
-    <row r="78" spans="1:7" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="78" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A78" s="4" t="s">
         <v>886</v>
       </c>
@@ -26250,10 +26195,9 @@
       <c r="D78" s="57" t="s">
         <v>1028</v>
       </c>
-      <c r="E78"/>
-      <c r="F78" s="42"/>
-    </row>
-    <row r="79" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E78" s="42"/>
+    </row>
+    <row r="79" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A79" s="4" t="s">
         <v>886</v>
       </c>
@@ -26266,10 +26210,9 @@
       <c r="D79" s="57" t="s">
         <v>1028</v>
       </c>
-      <c r="E79"/>
-      <c r="F79" s="42"/>
-    </row>
-    <row r="80" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E79" s="42"/>
+    </row>
+    <row r="80" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A80" s="1" t="s">
         <v>887</v>
       </c>
@@ -26282,10 +26225,9 @@
       <c r="D80" s="57" t="s">
         <v>905</v>
       </c>
-      <c r="E80"/>
-      <c r="F80" s="42"/>
-    </row>
-    <row r="81" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E80" s="42"/>
+    </row>
+    <row r="81" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A81" s="1" t="s">
         <v>888</v>
       </c>
@@ -26298,10 +26240,9 @@
       <c r="D81" s="57" t="s">
         <v>1031</v>
       </c>
-      <c r="E81"/>
-      <c r="F81" s="42"/>
-    </row>
-    <row r="82" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E81" s="42"/>
+    </row>
+    <row r="82" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A82" s="1" t="s">
         <v>890</v>
       </c>
@@ -26314,10 +26255,9 @@
       <c r="D82" s="57" t="s">
         <v>1032</v>
       </c>
-      <c r="E82"/>
-      <c r="F82" s="42"/>
-    </row>
-    <row r="83" spans="1:7" s="13" customFormat="1" ht="15">
+      <c r="E82" s="42"/>
+    </row>
+    <row r="83" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A83" s="25" t="s">
         <v>980</v>
       </c>
@@ -26330,18 +26270,16 @@
       <c r="D83" s="57" t="s">
         <v>1033</v>
       </c>
-      <c r="E83"/>
-      <c r="F83" s="42" t="s">
+      <c r="E83" s="42" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="42" customFormat="1">
+    <row r="84" spans="1:6" s="42" customFormat="1">
       <c r="A84"/>
       <c r="B84" s="7"/>
       <c r="C84"/>
       <c r="D84"/>
-      <c r="E84"/>
-      <c r="G84" s="13"/>
+      <c r="F84" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26354,10 +26292,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N2" sqref="N2:N252"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -26398,7 +26336,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="61" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -26433,7 +26371,7 @@
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="3"/>
       <c r="M2" s="58">
         <v>999</v>
@@ -26464,7 +26402,7 @@
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="3"/>
       <c r="M3" s="58">
         <v>165</v>
@@ -26504,7 +26442,7 @@
       <c r="J4" s="1">
         <v>111</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="60">
         <v>111</v>
       </c>
       <c r="L4" s="3">
@@ -26548,7 +26486,7 @@
       <c r="J5" s="1">
         <v>111</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="60">
         <v>111</v>
       </c>
       <c r="L5" s="3">
@@ -26592,7 +26530,7 @@
       <c r="J6" s="1">
         <v>111</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="60">
         <v>111</v>
       </c>
       <c r="L6" s="3">
@@ -26636,7 +26574,7 @@
       <c r="J7" s="1">
         <v>111</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="60">
         <v>111</v>
       </c>
       <c r="L7" s="3">
@@ -26680,7 +26618,7 @@
       <c r="J8" s="1">
         <v>111</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="60">
         <v>111</v>
       </c>
       <c r="L8" s="3">
@@ -26724,7 +26662,7 @@
       <c r="J9" s="1">
         <v>111</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="60">
         <v>111</v>
       </c>
       <c r="L9" s="3">
@@ -26768,7 +26706,7 @@
       <c r="J10" s="1">
         <v>111</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="60">
         <v>111</v>
       </c>
       <c r="L10" s="3">
@@ -26812,7 +26750,7 @@
       <c r="J11" s="1">
         <v>111</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="60">
         <v>111</v>
       </c>
       <c r="L11" s="3">
@@ -26856,7 +26794,7 @@
       <c r="J12" s="1">
         <v>111</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="60">
         <v>111</v>
       </c>
       <c r="L12" s="3">
@@ -26900,7 +26838,7 @@
       <c r="J13" s="1">
         <v>111</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="60">
         <v>111</v>
       </c>
       <c r="L13" s="3">
@@ -26944,7 +26882,7 @@
       <c r="J14" s="1">
         <v>111</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="60">
         <v>111</v>
       </c>
       <c r="L14" s="3">
@@ -26979,7 +26917,7 @@
       <c r="H15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="60"/>
       <c r="L15" s="3"/>
       <c r="M15" s="58"/>
     </row>
@@ -27014,7 +26952,7 @@
       <c r="J16" s="1">
         <v>115</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="60">
         <v>115</v>
       </c>
       <c r="L16" s="3">
@@ -27058,7 +26996,7 @@
       <c r="J17" s="1">
         <v>117</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="60">
         <v>117</v>
       </c>
       <c r="L17" s="3">
@@ -27093,7 +27031,7 @@
       <c r="H18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="60"/>
       <c r="L18" s="3"/>
       <c r="M18" s="58"/>
     </row>
@@ -27128,7 +27066,7 @@
       <c r="J19" s="1">
         <v>121</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="60">
         <v>121</v>
       </c>
       <c r="L19" s="3">
@@ -27172,7 +27110,7 @@
       <c r="J20" s="1">
         <v>121</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="60">
         <v>121</v>
       </c>
       <c r="L20" s="3">
@@ -27216,7 +27154,7 @@
       <c r="J21" s="1">
         <v>121</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="60">
         <v>121</v>
       </c>
       <c r="L21" s="3">
@@ -27260,7 +27198,7 @@
       <c r="J22" s="1">
         <v>121</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="60">
         <v>121</v>
       </c>
       <c r="L22" s="3">
@@ -27304,7 +27242,7 @@
       <c r="J23" s="1">
         <v>121</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="60">
         <v>121</v>
       </c>
       <c r="L23" s="3">
@@ -27348,7 +27286,7 @@
       <c r="J24" s="1">
         <v>121</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="60">
         <v>121</v>
       </c>
       <c r="L24" s="3">
@@ -27392,7 +27330,7 @@
       <c r="J25" s="1">
         <v>121</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="60">
         <v>121</v>
       </c>
       <c r="L25" s="3">
@@ -27427,7 +27365,7 @@
       <c r="H26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="2"/>
+      <c r="K26" s="60"/>
       <c r="L26" s="3"/>
       <c r="M26" s="58"/>
     </row>
@@ -27462,7 +27400,7 @@
       <c r="J27" s="1">
         <v>131</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="60">
         <v>131</v>
       </c>
       <c r="L27" s="3">
@@ -27506,7 +27444,7 @@
       <c r="J28" s="1">
         <v>131</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="60">
         <v>131</v>
       </c>
       <c r="L28" s="3">
@@ -27550,7 +27488,7 @@
       <c r="J29" s="1">
         <v>131</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="60">
         <v>131</v>
       </c>
       <c r="L29" s="3">
@@ -27594,7 +27532,7 @@
       <c r="J30" s="1">
         <v>131</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="60">
         <v>131</v>
       </c>
       <c r="L30" s="3">
@@ -27638,7 +27576,7 @@
       <c r="J31" s="1">
         <v>133</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="60">
         <v>133</v>
       </c>
       <c r="L31" s="3">
@@ -27682,7 +27620,7 @@
       <c r="J32" s="1">
         <v>135</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="60">
         <v>135</v>
       </c>
       <c r="L32" s="3">
@@ -27726,7 +27664,7 @@
       <c r="J33" s="1">
         <v>135</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="60">
         <v>135</v>
       </c>
       <c r="L33" s="3">
@@ -27770,7 +27708,7 @@
       <c r="J34" s="1">
         <v>135</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="60">
         <v>135</v>
       </c>
       <c r="L34" s="3">
@@ -27814,7 +27752,7 @@
       <c r="J35" s="1">
         <v>137</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="60">
         <v>137</v>
       </c>
       <c r="L35" s="3">
@@ -27858,7 +27796,7 @@
       <c r="J36" s="1">
         <v>137</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="60">
         <v>137</v>
       </c>
       <c r="L36" s="3">
@@ -27902,7 +27840,7 @@
       <c r="J37" s="1">
         <v>141</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="60">
         <v>141</v>
       </c>
       <c r="L37" s="3">
@@ -27946,7 +27884,7 @@
       <c r="J38" s="1">
         <v>141</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="60">
         <v>141</v>
       </c>
       <c r="L38" s="3">
@@ -27990,7 +27928,7 @@
       <c r="J39" s="1">
         <v>141</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="60">
         <v>141</v>
       </c>
       <c r="L39" s="3">
@@ -28034,7 +27972,7 @@
       <c r="J40" s="1">
         <v>141</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="60">
         <v>141</v>
       </c>
       <c r="L40" s="3">
@@ -28078,7 +28016,7 @@
       <c r="J41" s="1">
         <v>141</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="60">
         <v>141</v>
       </c>
       <c r="L41" s="3">
@@ -28122,7 +28060,7 @@
       <c r="J42" s="1">
         <v>141</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="60">
         <v>141</v>
       </c>
       <c r="L42" s="3">
@@ -28166,7 +28104,7 @@
       <c r="J43" s="1">
         <v>141</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="60">
         <v>141</v>
       </c>
       <c r="L43" s="3">
@@ -28210,7 +28148,7 @@
       <c r="J44" s="1">
         <v>141</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="60">
         <v>141</v>
       </c>
       <c r="L44" s="3">
@@ -28254,7 +28192,7 @@
       <c r="J45" s="1">
         <v>141</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="60">
         <v>141</v>
       </c>
       <c r="L45" s="3">
@@ -28298,7 +28236,7 @@
       <c r="J46" s="1">
         <v>141</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="60">
         <v>141</v>
       </c>
       <c r="L46" s="3">
@@ -28342,7 +28280,7 @@
       <c r="J47" s="1">
         <v>141</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="60">
         <v>141</v>
       </c>
       <c r="L47" s="3">
@@ -28386,7 +28324,7 @@
       <c r="J48" s="1">
         <v>141</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="60">
         <v>141</v>
       </c>
       <c r="L48" s="3">
@@ -28430,7 +28368,7 @@
       <c r="J49" s="1">
         <v>141</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="60">
         <v>141</v>
       </c>
       <c r="L49" s="3">
@@ -28474,7 +28412,7 @@
       <c r="J50" s="1">
         <v>141</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="60">
         <v>141</v>
       </c>
       <c r="L50" s="3">
@@ -28518,7 +28456,7 @@
       <c r="J51" s="1">
         <v>141</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="60">
         <v>141</v>
       </c>
       <c r="L51" s="3">
@@ -28562,7 +28500,7 @@
       <c r="J52" s="1">
         <v>141</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="60">
         <v>141</v>
       </c>
       <c r="L52" s="3">
@@ -28606,7 +28544,7 @@
       <c r="J53" s="1">
         <v>141</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="60">
         <v>141</v>
       </c>
       <c r="L53" s="3">
@@ -28641,7 +28579,7 @@
       <c r="H54" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K54" s="2"/>
+      <c r="K54" s="60"/>
       <c r="L54" s="3"/>
       <c r="M54" s="58"/>
     </row>
@@ -28676,7 +28614,7 @@
       <c r="J55" s="1">
         <v>151</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="60">
         <v>151</v>
       </c>
       <c r="L55" s="3">
@@ -28720,7 +28658,7 @@
       <c r="J56" s="1">
         <v>151</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="60">
         <v>151</v>
       </c>
       <c r="L56" s="3">
@@ -28764,7 +28702,7 @@
       <c r="J57" s="1">
         <v>151</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="60">
         <v>151</v>
       </c>
       <c r="L57" s="3">
@@ -28808,7 +28746,7 @@
       <c r="J58" s="1">
         <v>153</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="60">
         <v>153</v>
       </c>
       <c r="L58" s="3">
@@ -28852,7 +28790,7 @@
       <c r="J59" s="1">
         <v>155</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="60">
         <v>155</v>
       </c>
       <c r="L59" s="3">
@@ -28891,7 +28829,7 @@
       <c r="J60" s="1">
         <v>157</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="60">
         <v>157</v>
       </c>
       <c r="L60" s="3">
@@ -28926,7 +28864,7 @@
       <c r="H61" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K61" s="2"/>
+      <c r="K61" s="60"/>
       <c r="L61" s="3"/>
       <c r="M61" s="58"/>
     </row>
@@ -28961,7 +28899,7 @@
       <c r="J62" s="1">
         <v>191</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="60">
         <v>191</v>
       </c>
       <c r="L62" s="3">
@@ -29005,7 +28943,7 @@
       <c r="J63" s="1">
         <v>191</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="60">
         <v>191</v>
       </c>
       <c r="L63" s="3">
@@ -29049,7 +28987,7 @@
       <c r="J64" s="1">
         <v>191</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="60">
         <v>191</v>
       </c>
       <c r="L64" s="3">
@@ -29093,7 +29031,7 @@
       <c r="J65" s="1">
         <v>191</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="60">
         <v>191</v>
       </c>
       <c r="L65" s="3">
@@ -29137,7 +29075,7 @@
       <c r="J66" s="1">
         <v>191</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="60">
         <v>191</v>
       </c>
       <c r="L66" s="3">
@@ -29181,7 +29119,7 @@
       <c r="J67" s="1">
         <v>193</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="60">
         <v>193</v>
       </c>
       <c r="L67" s="3">
@@ -29225,7 +29163,7 @@
       <c r="J68" s="1">
         <v>193</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="60">
         <v>193</v>
       </c>
       <c r="L68" s="3">
@@ -29269,7 +29207,7 @@
       <c r="J69" s="1">
         <v>193</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="60">
         <v>193</v>
       </c>
       <c r="L69" s="3">
@@ -29313,7 +29251,7 @@
       <c r="J70" s="1">
         <v>193</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="60">
         <v>193</v>
       </c>
       <c r="L70" s="3">
@@ -29357,7 +29295,7 @@
       <c r="J71" s="1">
         <v>193</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="60">
         <v>193</v>
       </c>
       <c r="L71" s="3">
@@ -29401,7 +29339,7 @@
       <c r="J72" s="1">
         <v>193</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="60">
         <v>193</v>
       </c>
       <c r="L72" s="3">
@@ -29445,7 +29383,7 @@
       <c r="J73" s="1">
         <v>193</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="60">
         <v>193</v>
       </c>
       <c r="L73" s="3">
@@ -29489,7 +29427,7 @@
       <c r="J74" s="1">
         <v>193</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="60">
         <v>193</v>
       </c>
       <c r="L74" s="3">
@@ -29533,7 +29471,7 @@
       <c r="J75" s="1">
         <v>193</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="60">
         <v>193</v>
       </c>
       <c r="L75" s="3">
@@ -29577,7 +29515,7 @@
       <c r="J76" s="1">
         <v>193</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="60">
         <v>193</v>
       </c>
       <c r="L76" s="3">
@@ -29621,7 +29559,7 @@
       <c r="J77" s="1">
         <v>193</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K77" s="60">
         <v>193</v>
       </c>
       <c r="L77" s="3">
@@ -29665,7 +29603,7 @@
       <c r="J78" s="1">
         <v>193</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="60">
         <v>193</v>
       </c>
       <c r="L78" s="3">
@@ -29709,7 +29647,7 @@
       <c r="J79" s="1">
         <v>193</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="60">
         <v>193</v>
       </c>
       <c r="L79" s="3">
@@ -29753,7 +29691,7 @@
       <c r="J80" s="1">
         <v>193</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="60">
         <v>193</v>
       </c>
       <c r="L80" s="3">
@@ -29797,7 +29735,7 @@
       <c r="J81" s="1">
         <v>193</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K81" s="60">
         <v>193</v>
       </c>
       <c r="L81" s="3">
@@ -29841,7 +29779,7 @@
       <c r="J82" s="1">
         <v>193</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K82" s="60">
         <v>193</v>
       </c>
       <c r="L82" s="3">
@@ -29876,7 +29814,7 @@
       <c r="H83" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K83" s="2"/>
+      <c r="K83" s="60"/>
       <c r="L83" s="3"/>
       <c r="M83" s="58"/>
     </row>
@@ -29902,7 +29840,7 @@
       <c r="H84" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K84" s="2"/>
+      <c r="K84" s="60"/>
       <c r="L84" s="3"/>
       <c r="M84" s="58"/>
     </row>
@@ -29928,7 +29866,7 @@
       <c r="H85" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K85" s="2"/>
+      <c r="K85" s="60"/>
       <c r="L85" s="3"/>
       <c r="M85" s="58"/>
     </row>
@@ -29954,7 +29892,7 @@
       <c r="H86" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K86" s="2"/>
+      <c r="K86" s="60"/>
       <c r="L86" s="3"/>
       <c r="M86" s="58">
         <v>210</v>
@@ -29994,7 +29932,7 @@
       <c r="J87" s="1">
         <v>211</v>
       </c>
-      <c r="K87" s="2">
+      <c r="K87" s="60">
         <v>211</v>
       </c>
       <c r="L87" s="3">
@@ -30033,7 +29971,7 @@
       <c r="J88" s="1">
         <v>215</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88" s="60">
         <v>215</v>
       </c>
       <c r="L88" s="3">
@@ -30072,7 +30010,7 @@
       <c r="J89" s="1">
         <v>217</v>
       </c>
-      <c r="K89" s="2">
+      <c r="K89" s="60">
         <v>217</v>
       </c>
       <c r="L89" s="3">
@@ -30107,7 +30045,7 @@
       <c r="H90" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="K90" s="2"/>
+      <c r="K90" s="60"/>
       <c r="L90" s="3"/>
       <c r="M90" s="58"/>
     </row>
@@ -30142,7 +30080,7 @@
       <c r="J91" s="1">
         <v>221</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91" s="60">
         <v>221</v>
       </c>
       <c r="L91" s="3">
@@ -30186,7 +30124,7 @@
       <c r="J92" s="1">
         <v>225</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92" s="60">
         <v>225</v>
       </c>
       <c r="L92" s="3">
@@ -30225,7 +30163,7 @@
       <c r="J93" s="1">
         <v>231</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93" s="60">
         <v>231</v>
       </c>
       <c r="L93" s="3">
@@ -30269,7 +30207,7 @@
       <c r="J94" s="1">
         <v>241</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="60">
         <v>241</v>
       </c>
       <c r="L94" s="3">
@@ -30313,7 +30251,7 @@
       <c r="J95" s="1">
         <v>291</v>
       </c>
-      <c r="K95" s="2">
+      <c r="K95" s="60">
         <v>291</v>
       </c>
       <c r="L95" s="3">
@@ -30348,7 +30286,7 @@
       <c r="H96" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K96" s="2"/>
+      <c r="K96" s="60"/>
       <c r="L96" s="3"/>
       <c r="M96" s="58"/>
     </row>
@@ -30374,7 +30312,7 @@
       <c r="H97" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K97" s="2"/>
+      <c r="K97" s="60"/>
       <c r="L97" s="3"/>
       <c r="M97" s="58">
         <v>310</v>
@@ -30405,7 +30343,7 @@
       <c r="H98" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K98" s="2"/>
+      <c r="K98" s="60"/>
       <c r="L98" s="3"/>
       <c r="M98" s="58">
         <v>960</v>
@@ -30445,7 +30383,7 @@
       <c r="J99" s="1">
         <v>311</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99" s="60">
         <v>311</v>
       </c>
       <c r="L99" s="3">
@@ -30480,7 +30418,7 @@
       <c r="H100" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="K100" s="2"/>
+      <c r="K100" s="60"/>
       <c r="L100" s="3"/>
       <c r="M100" s="58"/>
     </row>
@@ -30515,7 +30453,7 @@
       <c r="J101" s="1">
         <v>315</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101" s="60">
         <v>315</v>
       </c>
       <c r="L101" s="3">
@@ -30559,7 +30497,7 @@
       <c r="J102" s="1">
         <v>317</v>
       </c>
-      <c r="K102" s="2">
+      <c r="K102" s="60">
         <v>317</v>
       </c>
       <c r="L102" s="3">
@@ -30603,7 +30541,7 @@
       <c r="J103" s="1">
         <v>321</v>
       </c>
-      <c r="K103" s="2">
+      <c r="K103" s="60">
         <v>321</v>
       </c>
       <c r="L103" s="3">
@@ -30647,7 +30585,7 @@
       <c r="J104" s="1">
         <v>321</v>
       </c>
-      <c r="K104" s="2">
+      <c r="K104" s="60">
         <v>321</v>
       </c>
       <c r="L104" s="3">
@@ -30691,7 +30629,7 @@
       <c r="J105" s="1">
         <v>331</v>
       </c>
-      <c r="K105" s="2">
+      <c r="K105" s="60">
         <v>331</v>
       </c>
       <c r="L105" s="3">
@@ -30735,7 +30673,7 @@
       <c r="J106" s="1">
         <v>331</v>
       </c>
-      <c r="K106" s="2">
+      <c r="K106" s="60">
         <v>331</v>
       </c>
       <c r="L106" s="3">
@@ -30779,7 +30717,7 @@
       <c r="J107" s="1">
         <v>331</v>
       </c>
-      <c r="K107" s="2">
+      <c r="K107" s="60">
         <v>331</v>
       </c>
       <c r="L107" s="3">
@@ -30814,7 +30752,7 @@
       <c r="H108" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K108" s="2"/>
+      <c r="K108" s="60"/>
       <c r="L108" s="3"/>
       <c r="M108" s="58"/>
     </row>
@@ -30849,7 +30787,7 @@
       <c r="J109" s="1">
         <v>341</v>
       </c>
-      <c r="K109" s="2">
+      <c r="K109" s="60">
         <v>341</v>
       </c>
       <c r="L109" s="3">
@@ -30893,7 +30831,7 @@
       <c r="J110" s="1">
         <v>345</v>
       </c>
-      <c r="K110" s="2">
+      <c r="K110" s="60">
         <v>345</v>
       </c>
       <c r="L110" s="3">
@@ -30928,7 +30866,7 @@
       <c r="H111" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K111" s="2"/>
+      <c r="K111" s="60"/>
       <c r="L111" s="3"/>
       <c r="M111" s="58"/>
     </row>
@@ -30954,7 +30892,7 @@
       <c r="H112" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K112" s="2"/>
+      <c r="K112" s="60"/>
       <c r="L112" s="3"/>
       <c r="M112" s="58">
         <v>405</v>
@@ -30985,7 +30923,7 @@
       <c r="H113" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K113" s="2"/>
+      <c r="K113" s="60"/>
       <c r="L113" s="3"/>
       <c r="M113" s="58"/>
     </row>
@@ -31020,7 +30958,7 @@
       <c r="J114" s="1">
         <v>411</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K114" s="60">
         <v>411</v>
       </c>
       <c r="L114" s="3">
@@ -31050,7 +30988,7 @@
       <c r="H115" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="K115" s="2"/>
+      <c r="K115" s="60"/>
       <c r="L115" s="3"/>
       <c r="M115" s="58"/>
     </row>
@@ -31085,7 +31023,7 @@
       <c r="J116" s="1">
         <v>415</v>
       </c>
-      <c r="K116" s="2">
+      <c r="K116" s="60">
         <v>415</v>
       </c>
       <c r="L116" s="3">
@@ -31129,7 +31067,7 @@
       <c r="J117" s="1">
         <v>417</v>
       </c>
-      <c r="K117" s="2">
+      <c r="K117" s="60">
         <v>417</v>
       </c>
       <c r="L117" s="3">
@@ -31173,7 +31111,7 @@
       <c r="J118" s="1">
         <v>419</v>
       </c>
-      <c r="K118" s="2">
+      <c r="K118" s="60">
         <v>419</v>
       </c>
       <c r="L118" s="3">
@@ -31208,7 +31146,7 @@
       <c r="H119" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K119" s="2"/>
+      <c r="K119" s="60"/>
       <c r="L119" s="3"/>
       <c r="M119" s="58"/>
     </row>
@@ -31234,7 +31172,7 @@
       <c r="H120" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K120" s="2"/>
+      <c r="K120" s="60"/>
       <c r="L120" s="3"/>
       <c r="M120" s="58"/>
     </row>
@@ -31260,7 +31198,7 @@
       <c r="H121" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K121" s="2"/>
+      <c r="K121" s="60"/>
       <c r="L121" s="3"/>
       <c r="M121" s="58"/>
     </row>
@@ -31295,7 +31233,7 @@
       <c r="J122" s="1">
         <v>421</v>
       </c>
-      <c r="K122" s="2">
+      <c r="K122" s="60">
         <v>421</v>
       </c>
       <c r="L122" s="3">
@@ -31339,7 +31277,7 @@
       <c r="J123" s="1">
         <v>423</v>
       </c>
-      <c r="K123" s="2">
+      <c r="K123" s="60">
         <v>423</v>
       </c>
       <c r="L123" s="3">
@@ -31383,7 +31321,7 @@
       <c r="J124" s="1">
         <v>423</v>
       </c>
-      <c r="K124" s="2">
+      <c r="K124" s="60">
         <v>423</v>
       </c>
       <c r="L124" s="3">
@@ -31427,7 +31365,7 @@
       <c r="J125" s="1">
         <v>425</v>
       </c>
-      <c r="K125" s="2">
+      <c r="K125" s="60">
         <v>425</v>
       </c>
       <c r="L125" s="3">
@@ -31466,7 +31404,7 @@
       <c r="J126" s="1">
         <v>427</v>
       </c>
-      <c r="K126" s="2">
+      <c r="K126" s="60">
         <v>427</v>
       </c>
       <c r="L126" s="3">
@@ -31505,7 +31443,7 @@
       <c r="J127" s="1">
         <v>429</v>
       </c>
-      <c r="K127" s="2">
+      <c r="K127" s="60">
         <v>429</v>
       </c>
       <c r="L127" s="3">
@@ -31535,7 +31473,7 @@
       <c r="H128" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K128" s="2"/>
+      <c r="K128" s="60"/>
       <c r="L128" s="3"/>
       <c r="M128" s="58"/>
     </row>
@@ -31570,7 +31508,7 @@
       <c r="J129" s="1">
         <v>430</v>
       </c>
-      <c r="K129" s="2">
+      <c r="K129" s="60">
         <v>430</v>
       </c>
       <c r="L129" s="3">
@@ -31600,7 +31538,7 @@
       <c r="H130" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K130" s="2"/>
+      <c r="K130" s="60"/>
       <c r="L130" s="3"/>
       <c r="M130" s="58"/>
     </row>
@@ -31635,7 +31573,7 @@
       <c r="J131" s="1">
         <v>433</v>
       </c>
-      <c r="K131" s="2">
+      <c r="K131" s="60">
         <v>433</v>
       </c>
       <c r="L131" s="3">
@@ -31674,7 +31612,7 @@
       <c r="J132" s="1">
         <v>435</v>
       </c>
-      <c r="K132" s="2">
+      <c r="K132" s="60">
         <v>435</v>
       </c>
       <c r="L132" s="3">
@@ -31718,7 +31656,7 @@
       <c r="J133" s="1">
         <v>439</v>
       </c>
-      <c r="K133" s="2">
+      <c r="K133" s="60">
         <v>439</v>
       </c>
       <c r="L133" s="3">
@@ -31762,7 +31700,7 @@
       <c r="J134" s="1">
         <v>439</v>
       </c>
-      <c r="K134" s="2">
+      <c r="K134" s="60">
         <v>439</v>
       </c>
       <c r="L134" s="3">
@@ -31806,7 +31744,7 @@
       <c r="J135" s="1">
         <v>439</v>
       </c>
-      <c r="K135" s="2">
+      <c r="K135" s="60">
         <v>439</v>
       </c>
       <c r="L135" s="3">
@@ -31850,7 +31788,7 @@
       <c r="J136" s="1">
         <v>439</v>
       </c>
-      <c r="K136" s="2">
+      <c r="K136" s="60">
         <v>439</v>
       </c>
       <c r="L136" s="3">
@@ -31894,7 +31832,7 @@
       <c r="J137" s="1">
         <v>431</v>
       </c>
-      <c r="K137" s="2">
+      <c r="K137" s="60">
         <v>431</v>
       </c>
       <c r="L137" s="3">
@@ -31929,7 +31867,7 @@
       <c r="H138" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="K138" s="2"/>
+      <c r="K138" s="60"/>
       <c r="L138" s="3"/>
       <c r="M138" s="58">
         <v>410</v>
@@ -31960,7 +31898,7 @@
       <c r="H139" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="K139" s="2"/>
+      <c r="K139" s="60"/>
       <c r="L139" s="3"/>
       <c r="M139" s="58"/>
     </row>
@@ -31995,7 +31933,7 @@
       <c r="J140" s="1">
         <v>441</v>
       </c>
-      <c r="K140" s="2">
+      <c r="K140" s="60">
         <v>441</v>
       </c>
       <c r="L140" s="3">
@@ -32025,7 +31963,7 @@
       <c r="H141" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="K141" s="2"/>
+      <c r="K141" s="60"/>
       <c r="L141" s="3"/>
       <c r="M141" s="58"/>
     </row>
@@ -32060,7 +31998,7 @@
       <c r="J142" s="1">
         <v>445</v>
       </c>
-      <c r="K142" s="2">
+      <c r="K142" s="60">
         <v>445</v>
       </c>
       <c r="L142" s="3">
@@ -32104,7 +32042,7 @@
       <c r="J143" s="1">
         <v>449</v>
       </c>
-      <c r="K143" s="2">
+      <c r="K143" s="60">
         <v>449</v>
       </c>
       <c r="L143" s="3">
@@ -32148,7 +32086,7 @@
       <c r="J144" s="1">
         <v>449</v>
       </c>
-      <c r="K144" s="2">
+      <c r="K144" s="60">
         <v>449</v>
       </c>
       <c r="L144" s="3">
@@ -32192,7 +32130,7 @@
       <c r="J145" s="1">
         <v>449</v>
       </c>
-      <c r="K145" s="2">
+      <c r="K145" s="60">
         <v>449</v>
       </c>
       <c r="L145" s="3">
@@ -32236,7 +32174,7 @@
       <c r="J146" s="1">
         <v>449</v>
       </c>
-      <c r="K146" s="2">
+      <c r="K146" s="60">
         <v>449</v>
       </c>
       <c r="L146" s="3">
@@ -32280,7 +32218,7 @@
       <c r="J147" s="1">
         <v>449</v>
       </c>
-      <c r="K147" s="2">
+      <c r="K147" s="60">
         <v>449</v>
       </c>
       <c r="L147" s="3">
@@ -32324,7 +32262,7 @@
       <c r="J148" s="1">
         <v>449</v>
       </c>
-      <c r="K148" s="2">
+      <c r="K148" s="60">
         <v>449</v>
       </c>
       <c r="L148" s="3">
@@ -32368,7 +32306,7 @@
       <c r="J149" s="1">
         <v>449</v>
       </c>
-      <c r="K149" s="2">
+      <c r="K149" s="60">
         <v>449</v>
       </c>
       <c r="L149" s="3">
@@ -32412,7 +32350,7 @@
       <c r="J150" s="1">
         <v>449</v>
       </c>
-      <c r="K150" s="2">
+      <c r="K150" s="60">
         <v>449</v>
       </c>
       <c r="L150" s="3">
@@ -32450,7 +32388,7 @@
       <c r="I151" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="K151" s="2"/>
+      <c r="K151" s="60"/>
       <c r="L151" s="3"/>
       <c r="M151" s="58"/>
     </row>
@@ -32476,7 +32414,7 @@
       <c r="H152" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K152" s="2"/>
+      <c r="K152" s="60"/>
       <c r="L152" s="3"/>
       <c r="M152" s="58"/>
     </row>
@@ -32511,7 +32449,7 @@
       <c r="J153" s="1">
         <v>451</v>
       </c>
-      <c r="K153" s="2">
+      <c r="K153" s="60">
         <v>451</v>
       </c>
       <c r="L153" s="3">
@@ -32550,7 +32488,7 @@
       <c r="J154" s="1">
         <v>455</v>
       </c>
-      <c r="K154" s="2">
+      <c r="K154" s="60">
         <v>455</v>
       </c>
       <c r="L154" s="3">
@@ -32589,7 +32527,7 @@
       <c r="J155" s="1">
         <v>457</v>
       </c>
-      <c r="K155" s="2">
+      <c r="K155" s="60">
         <v>457</v>
       </c>
       <c r="L155" s="3">
@@ -32628,7 +32566,7 @@
       <c r="J156" s="1">
         <v>459</v>
       </c>
-      <c r="K156" s="2">
+      <c r="K156" s="60">
         <v>459</v>
       </c>
       <c r="L156" s="3">
@@ -32672,7 +32610,7 @@
       <c r="J157" s="1">
         <v>459</v>
       </c>
-      <c r="K157" s="2">
+      <c r="K157" s="60">
         <v>459</v>
       </c>
       <c r="L157" s="3">
@@ -32716,7 +32654,7 @@
       <c r="J158" s="1">
         <v>459</v>
       </c>
-      <c r="K158" s="2">
+      <c r="K158" s="60">
         <v>459</v>
       </c>
       <c r="L158" s="3">
@@ -32760,7 +32698,7 @@
       <c r="J159" s="1">
         <v>459</v>
       </c>
-      <c r="K159" s="2">
+      <c r="K159" s="60">
         <v>459</v>
       </c>
       <c r="L159" s="3">
@@ -32804,7 +32742,7 @@
       <c r="J160" s="1">
         <v>459</v>
       </c>
-      <c r="K160" s="2">
+      <c r="K160" s="60">
         <v>459</v>
       </c>
       <c r="L160" s="3">
@@ -32848,7 +32786,7 @@
       <c r="J161" s="1">
         <v>459</v>
       </c>
-      <c r="K161" s="2">
+      <c r="K161" s="60">
         <v>459</v>
       </c>
       <c r="L161" s="3">
@@ -32883,7 +32821,7 @@
       <c r="H162" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="K162" s="2"/>
+      <c r="K162" s="60"/>
       <c r="L162" s="3"/>
       <c r="M162" s="58"/>
     </row>
@@ -32918,7 +32856,7 @@
       <c r="J163" s="1">
         <v>461</v>
       </c>
-      <c r="K163" s="2">
+      <c r="K163" s="60">
         <v>461</v>
       </c>
       <c r="L163" s="3">
@@ -32957,7 +32895,7 @@
       <c r="J164" s="1">
         <v>465</v>
       </c>
-      <c r="K164" s="2">
+      <c r="K164" s="60">
         <v>465</v>
       </c>
       <c r="L164" s="3">
@@ -32996,7 +32934,7 @@
       <c r="J165" s="1">
         <v>469</v>
       </c>
-      <c r="K165" s="2">
+      <c r="K165" s="60">
         <v>469</v>
       </c>
       <c r="L165" s="3">
@@ -33035,7 +32973,7 @@
       <c r="J166" s="1">
         <v>469</v>
       </c>
-      <c r="K166" s="2">
+      <c r="K166" s="60">
         <v>469</v>
       </c>
       <c r="L166" s="3">
@@ -33079,7 +33017,7 @@
       <c r="J167" s="1">
         <v>469</v>
       </c>
-      <c r="K167" s="2">
+      <c r="K167" s="60">
         <v>469</v>
       </c>
       <c r="L167" s="3">
@@ -33123,7 +33061,7 @@
       <c r="J168" s="1">
         <v>469</v>
       </c>
-      <c r="K168" s="2">
+      <c r="K168" s="60">
         <v>469</v>
       </c>
       <c r="L168" s="3">
@@ -33167,7 +33105,7 @@
       <c r="J169" s="1">
         <v>469</v>
       </c>
-      <c r="K169" s="2">
+      <c r="K169" s="60">
         <v>469</v>
       </c>
       <c r="L169" s="3">
@@ -33211,7 +33149,7 @@
       <c r="J170" s="1">
         <v>469</v>
       </c>
-      <c r="K170" s="2">
+      <c r="K170" s="60">
         <v>469</v>
       </c>
       <c r="L170" s="3">
@@ -33255,7 +33193,7 @@
       <c r="J171" s="1">
         <v>469</v>
       </c>
-      <c r="K171" s="2">
+      <c r="K171" s="60">
         <v>469</v>
       </c>
       <c r="L171" s="3">
@@ -33299,7 +33237,7 @@
       <c r="J172" s="1">
         <v>469</v>
       </c>
-      <c r="K172" s="2">
+      <c r="K172" s="60">
         <v>469</v>
       </c>
       <c r="L172" s="3">
@@ -33334,7 +33272,7 @@
       <c r="H173" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="K173" s="2"/>
+      <c r="K173" s="60"/>
       <c r="L173" s="3"/>
       <c r="M173" s="58"/>
     </row>
@@ -33369,7 +33307,7 @@
       <c r="J174" s="1">
         <v>471</v>
       </c>
-      <c r="K174" s="2">
+      <c r="K174" s="60">
         <v>471</v>
       </c>
       <c r="L174" s="3">
@@ -33408,7 +33346,7 @@
       <c r="J175" s="1">
         <v>473</v>
       </c>
-      <c r="K175" s="2">
+      <c r="K175" s="60">
         <v>473</v>
       </c>
       <c r="L175" s="3">
@@ -33447,7 +33385,7 @@
       <c r="J176" s="1">
         <v>475</v>
       </c>
-      <c r="K176" s="2">
+      <c r="K176" s="60">
         <v>475</v>
       </c>
       <c r="L176" s="3">
@@ -33486,7 +33424,7 @@
       <c r="J177" s="1">
         <v>477</v>
       </c>
-      <c r="K177" s="2">
+      <c r="K177" s="60">
         <v>477</v>
       </c>
       <c r="L177" s="3">
@@ -33525,7 +33463,7 @@
       <c r="J178" s="1">
         <v>479</v>
       </c>
-      <c r="K178" s="2">
+      <c r="K178" s="60">
         <v>479</v>
       </c>
       <c r="L178" s="3">
@@ -33555,7 +33493,7 @@
       <c r="H179" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="K179" s="2"/>
+      <c r="K179" s="60"/>
       <c r="L179" s="3"/>
       <c r="M179" s="58"/>
     </row>
@@ -33590,7 +33528,7 @@
       <c r="J180" s="1">
         <v>481</v>
       </c>
-      <c r="K180" s="2">
+      <c r="K180" s="60">
         <v>481</v>
       </c>
       <c r="L180" s="3">
@@ -33629,7 +33567,7 @@
       <c r="J181" s="1">
         <v>489</v>
       </c>
-      <c r="K181" s="2">
+      <c r="K181" s="60">
         <v>489</v>
       </c>
       <c r="L181" s="3">
@@ -33659,7 +33597,7 @@
       <c r="H182" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K182" s="2"/>
+      <c r="K182" s="60"/>
       <c r="L182" s="3"/>
       <c r="M182" s="58">
         <v>194</v>
@@ -33690,7 +33628,7 @@
       <c r="H183" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="K183" s="2"/>
+      <c r="K183" s="60"/>
       <c r="L183" s="3"/>
       <c r="M183" s="58"/>
     </row>
@@ -33716,7 +33654,7 @@
       <c r="H184" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="K184" s="2"/>
+      <c r="K184" s="60"/>
       <c r="L184" s="3"/>
       <c r="M184" s="58"/>
     </row>
@@ -33751,7 +33689,7 @@
       <c r="J185" s="1">
         <v>510</v>
       </c>
-      <c r="K185" s="2">
+      <c r="K185" s="60">
         <v>510</v>
       </c>
       <c r="L185" s="3">
@@ -33795,7 +33733,7 @@
       <c r="J186" s="1">
         <v>520</v>
       </c>
-      <c r="K186" s="2">
+      <c r="K186" s="60">
         <v>520</v>
       </c>
       <c r="L186" s="3">
@@ -33839,7 +33777,7 @@
       <c r="J187" s="1">
         <v>530</v>
       </c>
-      <c r="K187" s="2">
+      <c r="K187" s="60">
         <v>530</v>
       </c>
       <c r="L187" s="3">
@@ -33883,7 +33821,7 @@
       <c r="J188" s="1">
         <v>540</v>
       </c>
-      <c r="K188" s="2">
+      <c r="K188" s="60">
         <v>540</v>
       </c>
       <c r="L188" s="3">
@@ -33927,7 +33865,7 @@
       <c r="J189" s="1">
         <v>550</v>
       </c>
-      <c r="K189" s="2">
+      <c r="K189" s="60">
         <v>550</v>
       </c>
       <c r="L189" s="3">
@@ -33971,7 +33909,7 @@
       <c r="J190" s="1">
         <v>560</v>
       </c>
-      <c r="K190" s="2">
+      <c r="K190" s="60">
         <v>560</v>
       </c>
       <c r="L190" s="3">
@@ -34015,7 +33953,7 @@
       <c r="J191" s="1">
         <v>570</v>
       </c>
-      <c r="K191" s="2">
+      <c r="K191" s="60">
         <v>570</v>
       </c>
       <c r="L191" s="3">
@@ -34059,7 +33997,7 @@
       <c r="J192" s="1">
         <v>580</v>
       </c>
-      <c r="K192" s="2">
+      <c r="K192" s="60">
         <v>580</v>
       </c>
       <c r="L192" s="3">
@@ -34094,7 +34032,7 @@
       <c r="H193" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="K193" s="2"/>
+      <c r="K193" s="60"/>
       <c r="L193" s="3"/>
       <c r="M193" s="58"/>
     </row>
@@ -34120,7 +34058,7 @@
       <c r="H194" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="K194" s="2"/>
+      <c r="K194" s="60"/>
       <c r="L194" s="3"/>
       <c r="M194" s="58"/>
     </row>
@@ -34155,7 +34093,7 @@
       <c r="J195" s="1">
         <v>611</v>
       </c>
-      <c r="K195" s="2">
+      <c r="K195" s="60">
         <v>611</v>
       </c>
       <c r="L195" s="3">
@@ -34199,7 +34137,7 @@
       <c r="J196" s="1">
         <v>615</v>
       </c>
-      <c r="K196" s="2">
+      <c r="K196" s="60">
         <v>615</v>
       </c>
       <c r="L196" s="3">
@@ -34234,7 +34172,7 @@
       <c r="H197" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="K197" s="2"/>
+      <c r="K197" s="60"/>
       <c r="L197" s="3"/>
       <c r="M197" s="58"/>
     </row>
@@ -34269,7 +34207,7 @@
       <c r="J198" s="1">
         <v>621</v>
       </c>
-      <c r="K198" s="2">
+      <c r="K198" s="60">
         <v>621</v>
       </c>
       <c r="L198" s="3">
@@ -34313,7 +34251,7 @@
       <c r="J199" s="1">
         <v>625</v>
       </c>
-      <c r="K199" s="2">
+      <c r="K199" s="60">
         <v>625</v>
       </c>
       <c r="L199" s="3">
@@ -34357,7 +34295,7 @@
       <c r="J200" s="1">
         <v>630</v>
       </c>
-      <c r="K200" s="2">
+      <c r="K200" s="60">
         <v>630</v>
       </c>
       <c r="L200" s="3">
@@ -34401,7 +34339,7 @@
       <c r="J201" s="1">
         <v>640</v>
       </c>
-      <c r="K201" s="2">
+      <c r="K201" s="60">
         <v>640</v>
       </c>
       <c r="L201" s="3">
@@ -34445,7 +34383,7 @@
       <c r="J202" s="1">
         <v>650</v>
       </c>
-      <c r="K202" s="2">
+      <c r="K202" s="60">
         <v>650</v>
       </c>
       <c r="L202" s="3">
@@ -34489,7 +34427,7 @@
       <c r="J203" s="1">
         <v>660</v>
       </c>
-      <c r="K203" s="2">
+      <c r="K203" s="60">
         <v>660</v>
       </c>
       <c r="L203" s="3">
@@ -34533,7 +34471,7 @@
       <c r="J204" s="1">
         <v>670</v>
       </c>
-      <c r="K204" s="2">
+      <c r="K204" s="60">
         <v>670</v>
       </c>
       <c r="L204" s="3">
@@ -34577,7 +34515,7 @@
       <c r="J205" s="1">
         <v>680</v>
       </c>
-      <c r="K205" s="2">
+      <c r="K205" s="60">
         <v>680</v>
       </c>
       <c r="L205" s="3">
@@ -34612,7 +34550,7 @@
       <c r="H206" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="K206" s="2"/>
+      <c r="K206" s="60"/>
       <c r="L206" s="3"/>
       <c r="M206" s="58"/>
     </row>
@@ -34638,7 +34576,7 @@
       <c r="H207" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="K207" s="2"/>
+      <c r="K207" s="60"/>
       <c r="L207" s="3"/>
       <c r="M207" s="58"/>
     </row>
@@ -34673,7 +34611,7 @@
       <c r="J208" s="1">
         <v>711</v>
       </c>
-      <c r="K208" s="2">
+      <c r="K208" s="60">
         <v>711</v>
       </c>
       <c r="L208" s="3">
@@ -34717,7 +34655,7 @@
       <c r="J209" s="1">
         <v>715</v>
       </c>
-      <c r="K209" s="2">
+      <c r="K209" s="60">
         <v>715</v>
       </c>
       <c r="L209" s="3">
@@ -34752,7 +34690,7 @@
       <c r="H210" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="K210" s="2"/>
+      <c r="K210" s="60"/>
       <c r="L210" s="3"/>
       <c r="M210" s="58"/>
     </row>
@@ -34787,7 +34725,7 @@
       <c r="J211" s="1">
         <v>721</v>
       </c>
-      <c r="K211" s="2">
+      <c r="K211" s="60">
         <v>721</v>
       </c>
       <c r="L211" s="3">
@@ -34831,7 +34769,7 @@
       <c r="J212" s="1">
         <v>725</v>
       </c>
-      <c r="K212" s="2">
+      <c r="K212" s="60">
         <v>725</v>
       </c>
       <c r="L212" s="3">
@@ -34875,7 +34813,7 @@
       <c r="J213" s="1">
         <v>730</v>
       </c>
-      <c r="K213" s="2">
+      <c r="K213" s="60">
         <v>730</v>
       </c>
       <c r="L213" s="3">
@@ -34919,7 +34857,7 @@
       <c r="J214" s="1">
         <v>740</v>
       </c>
-      <c r="K214" s="2">
+      <c r="K214" s="60">
         <v>740</v>
       </c>
       <c r="L214" s="3">
@@ -34963,7 +34901,7 @@
       <c r="J215" s="1">
         <v>750</v>
       </c>
-      <c r="K215" s="2">
+      <c r="K215" s="60">
         <v>750</v>
       </c>
       <c r="L215" s="3">
@@ -35007,7 +34945,7 @@
       <c r="J216" s="1">
         <v>760</v>
       </c>
-      <c r="K216" s="2">
+      <c r="K216" s="60">
         <v>760</v>
       </c>
       <c r="L216" s="3">
@@ -35051,7 +34989,7 @@
       <c r="J217" s="1">
         <v>770</v>
       </c>
-      <c r="K217" s="2">
+      <c r="K217" s="60">
         <v>770</v>
       </c>
       <c r="L217" s="3">
@@ -35095,7 +35033,7 @@
       <c r="J218" s="1">
         <v>780</v>
       </c>
-      <c r="K218" s="2">
+      <c r="K218" s="60">
         <v>780</v>
       </c>
       <c r="L218" s="3">
@@ -35130,7 +35068,7 @@
       <c r="H219" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="K219" s="2"/>
+      <c r="K219" s="60"/>
       <c r="L219" s="3"/>
       <c r="M219" s="58"/>
     </row>
@@ -35156,7 +35094,7 @@
       <c r="H220" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="K220" s="2"/>
+      <c r="K220" s="60"/>
       <c r="L220" s="3"/>
       <c r="M220" s="58"/>
     </row>
@@ -35191,7 +35129,7 @@
       <c r="J221" s="1">
         <v>811</v>
       </c>
-      <c r="K221" s="2">
+      <c r="K221" s="60">
         <v>811</v>
       </c>
       <c r="L221" s="3">
@@ -35235,7 +35173,7 @@
       <c r="J222" s="1">
         <v>815</v>
       </c>
-      <c r="K222" s="2">
+      <c r="K222" s="60">
         <v>815</v>
       </c>
       <c r="L222" s="3">
@@ -35270,7 +35208,7 @@
       <c r="H223" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="K223" s="2"/>
+      <c r="K223" s="60"/>
       <c r="L223" s="3"/>
       <c r="M223" s="58"/>
     </row>
@@ -35305,7 +35243,7 @@
       <c r="J224" s="1">
         <v>821</v>
       </c>
-      <c r="K224" s="2">
+      <c r="K224" s="60">
         <v>821</v>
       </c>
       <c r="L224" s="3">
@@ -35349,7 +35287,7 @@
       <c r="J225" s="1">
         <v>825</v>
       </c>
-      <c r="K225" s="2">
+      <c r="K225" s="60">
         <v>825</v>
       </c>
       <c r="L225" s="3">
@@ -35393,7 +35331,7 @@
       <c r="J226" s="1">
         <v>830</v>
       </c>
-      <c r="K226" s="2">
+      <c r="K226" s="60">
         <v>830</v>
       </c>
       <c r="L226" s="3">
@@ -35437,7 +35375,7 @@
       <c r="J227" s="1">
         <v>840</v>
       </c>
-      <c r="K227" s="2">
+      <c r="K227" s="60">
         <v>840</v>
       </c>
       <c r="L227" s="3">
@@ -35481,7 +35419,7 @@
       <c r="J228" s="1">
         <v>850</v>
       </c>
-      <c r="K228" s="2">
+      <c r="K228" s="60">
         <v>850</v>
       </c>
       <c r="L228" s="3">
@@ -35525,7 +35463,7 @@
       <c r="J229" s="1">
         <v>860</v>
       </c>
-      <c r="K229" s="2">
+      <c r="K229" s="60">
         <v>860</v>
       </c>
       <c r="L229" s="3">
@@ -35569,7 +35507,7 @@
       <c r="J230" s="1">
         <v>870</v>
       </c>
-      <c r="K230" s="2">
+      <c r="K230" s="60">
         <v>870</v>
       </c>
       <c r="L230" s="3">
@@ -35613,7 +35551,7 @@
       <c r="J231" s="1">
         <v>880</v>
       </c>
-      <c r="K231" s="2">
+      <c r="K231" s="60">
         <v>880</v>
       </c>
       <c r="L231" s="3">
@@ -35648,7 +35586,7 @@
       <c r="H232" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="K232" s="2"/>
+      <c r="K232" s="60"/>
       <c r="L232" s="3"/>
       <c r="M232" s="58"/>
     </row>
@@ -35683,7 +35621,7 @@
       <c r="J233" s="1">
         <v>891</v>
       </c>
-      <c r="K233" s="2">
+      <c r="K233" s="60">
         <v>891</v>
       </c>
       <c r="L233" s="3">
@@ -35727,7 +35665,7 @@
       <c r="J234" s="1">
         <v>895</v>
       </c>
-      <c r="K234" s="2">
+      <c r="K234" s="60">
         <v>895</v>
       </c>
       <c r="L234" s="3">
@@ -35771,7 +35709,7 @@
       <c r="J235" s="1">
         <v>901</v>
       </c>
-      <c r="K235" s="2">
+      <c r="K235" s="60">
         <v>901</v>
       </c>
       <c r="L235" s="3">
@@ -35801,7 +35739,7 @@
       <c r="H236" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K236" s="2"/>
+      <c r="K236" s="60"/>
       <c r="L236" s="3"/>
       <c r="M236" s="58"/>
     </row>
@@ -35836,7 +35774,7 @@
       <c r="J237" s="1">
         <v>911</v>
       </c>
-      <c r="K237" s="2">
+      <c r="K237" s="60">
         <v>911</v>
       </c>
       <c r="L237" s="3">
@@ -35871,7 +35809,7 @@
       <c r="H238" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K238" s="2"/>
+      <c r="K238" s="60"/>
       <c r="L238" s="3"/>
       <c r="M238" s="58"/>
     </row>
@@ -35906,7 +35844,7 @@
       <c r="J239" s="1">
         <v>915</v>
       </c>
-      <c r="K239" s="2">
+      <c r="K239" s="60">
         <v>915</v>
       </c>
       <c r="L239" s="3">
@@ -35950,7 +35888,7 @@
       <c r="J240" s="1">
         <v>917</v>
       </c>
-      <c r="K240" s="2">
+      <c r="K240" s="60">
         <v>917</v>
       </c>
       <c r="L240" s="3">
@@ -35985,7 +35923,7 @@
       <c r="H241" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="K241" s="2"/>
+      <c r="K241" s="60"/>
       <c r="L241" s="3"/>
       <c r="M241" s="58"/>
     </row>
@@ -36020,7 +35958,7 @@
       <c r="J242" s="1">
         <v>921</v>
       </c>
-      <c r="K242" s="2">
+      <c r="K242" s="60">
         <v>921</v>
       </c>
       <c r="L242" s="3">
@@ -36064,7 +36002,7 @@
       <c r="J243" s="1">
         <v>925</v>
       </c>
-      <c r="K243" s="2">
+      <c r="K243" s="60">
         <v>925</v>
       </c>
       <c r="L243" s="3">
@@ -36099,7 +36037,7 @@
       <c r="H244" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="K244" s="2"/>
+      <c r="K244" s="60"/>
       <c r="L244" s="3"/>
       <c r="M244" s="58">
         <v>950</v>
@@ -36139,7 +36077,7 @@
       <c r="J245" s="1">
         <v>931</v>
       </c>
-      <c r="K245" s="2">
+      <c r="K245" s="60">
         <v>931</v>
       </c>
       <c r="L245" s="3">
@@ -36183,7 +36121,7 @@
       <c r="J246" s="1">
         <v>932</v>
       </c>
-      <c r="K246" s="2">
+      <c r="K246" s="60">
         <v>932</v>
       </c>
       <c r="L246" s="3">
@@ -36227,7 +36165,7 @@
       <c r="J247" s="1">
         <v>932</v>
       </c>
-      <c r="K247" s="2">
+      <c r="K247" s="60">
         <v>932</v>
       </c>
       <c r="L247" s="3">
@@ -36271,7 +36209,7 @@
       <c r="J248" s="1">
         <v>933</v>
       </c>
-      <c r="K248" s="2">
+      <c r="K248" s="60">
         <v>933</v>
       </c>
       <c r="L248" s="3">
@@ -36315,7 +36253,7 @@
       <c r="J249" s="1">
         <v>934</v>
       </c>
-      <c r="K249" s="2">
+      <c r="K249" s="60">
         <v>934</v>
       </c>
       <c r="L249" s="3">
@@ -36359,7 +36297,7 @@
       <c r="J250" s="1">
         <v>935</v>
       </c>
-      <c r="K250" s="2">
+      <c r="K250" s="60">
         <v>935</v>
       </c>
       <c r="L250" s="3">
@@ -36403,7 +36341,7 @@
       <c r="J251" s="1">
         <v>935</v>
       </c>
-      <c r="K251" s="2">
+      <c r="K251" s="60">
         <v>935</v>
       </c>
       <c r="L251" s="3">
@@ -36447,7 +36385,7 @@
       <c r="J252" s="1">
         <v>935</v>
       </c>
-      <c r="K252" s="2">
+      <c r="K252" s="60">
         <v>935</v>
       </c>
       <c r="L252" s="3">
@@ -36461,2995 +36399,2247 @@
       </c>
     </row>
     <row r="253" spans="1:14" ht="13.5" customHeight="1">
-      <c r="K253" s="2"/>
       <c r="L253" s="3"/>
     </row>
     <row r="254" spans="1:14" ht="13.5" customHeight="1">
-      <c r="K254" s="2"/>
       <c r="L254" s="3"/>
     </row>
     <row r="255" spans="1:14" ht="13.5" customHeight="1">
-      <c r="K255" s="2"/>
       <c r="L255" s="3"/>
     </row>
     <row r="256" spans="1:14" ht="13.5" customHeight="1">
-      <c r="K256" s="2"/>
       <c r="L256" s="3"/>
     </row>
-    <row r="257" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K257" s="2"/>
+    <row r="257" spans="12:12" ht="13.5" customHeight="1">
       <c r="L257" s="3"/>
     </row>
-    <row r="258" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K258" s="2"/>
+    <row r="258" spans="12:12" ht="13.5" customHeight="1">
       <c r="L258" s="3"/>
     </row>
-    <row r="259" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K259" s="2"/>
+    <row r="259" spans="12:12" ht="13.5" customHeight="1">
       <c r="L259" s="3"/>
     </row>
-    <row r="260" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K260" s="2"/>
+    <row r="260" spans="12:12" ht="13.5" customHeight="1">
       <c r="L260" s="3"/>
     </row>
-    <row r="261" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K261" s="2"/>
+    <row r="261" spans="12:12" ht="13.5" customHeight="1">
       <c r="L261" s="3"/>
     </row>
-    <row r="262" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K262" s="2"/>
+    <row r="262" spans="12:12" ht="13.5" customHeight="1">
       <c r="L262" s="3"/>
     </row>
-    <row r="263" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K263" s="2"/>
+    <row r="263" spans="12:12" ht="13.5" customHeight="1">
       <c r="L263" s="3"/>
     </row>
-    <row r="264" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K264" s="2"/>
+    <row r="264" spans="12:12" ht="13.5" customHeight="1">
       <c r="L264" s="3"/>
     </row>
-    <row r="265" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K265" s="2"/>
+    <row r="265" spans="12:12" ht="13.5" customHeight="1">
       <c r="L265" s="3"/>
     </row>
-    <row r="266" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K266" s="2"/>
+    <row r="266" spans="12:12" ht="13.5" customHeight="1">
       <c r="L266" s="3"/>
     </row>
-    <row r="267" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K267" s="2"/>
+    <row r="267" spans="12:12" ht="13.5" customHeight="1">
       <c r="L267" s="3"/>
     </row>
-    <row r="268" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K268" s="2"/>
+    <row r="268" spans="12:12" ht="13.5" customHeight="1">
       <c r="L268" s="3"/>
     </row>
-    <row r="269" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K269" s="2"/>
+    <row r="269" spans="12:12" ht="13.5" customHeight="1">
       <c r="L269" s="3"/>
     </row>
-    <row r="270" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K270" s="2"/>
+    <row r="270" spans="12:12" ht="13.5" customHeight="1">
       <c r="L270" s="3"/>
     </row>
-    <row r="271" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K271" s="2"/>
+    <row r="271" spans="12:12" ht="13.5" customHeight="1">
       <c r="L271" s="3"/>
     </row>
-    <row r="272" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K272" s="2"/>
+    <row r="272" spans="12:12" ht="13.5" customHeight="1">
       <c r="L272" s="3"/>
     </row>
-    <row r="273" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K273" s="2"/>
+    <row r="273" spans="12:12" ht="13.5" customHeight="1">
       <c r="L273" s="3"/>
     </row>
-    <row r="274" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K274" s="2"/>
+    <row r="274" spans="12:12" ht="13.5" customHeight="1">
       <c r="L274" s="3"/>
     </row>
-    <row r="275" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K275" s="2"/>
+    <row r="275" spans="12:12" ht="13.5" customHeight="1">
       <c r="L275" s="3"/>
     </row>
-    <row r="276" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K276" s="2"/>
+    <row r="276" spans="12:12" ht="13.5" customHeight="1">
       <c r="L276" s="3"/>
     </row>
-    <row r="277" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K277" s="2"/>
+    <row r="277" spans="12:12" ht="13.5" customHeight="1">
       <c r="L277" s="3"/>
     </row>
-    <row r="278" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K278" s="2"/>
+    <row r="278" spans="12:12" ht="13.5" customHeight="1">
       <c r="L278" s="3"/>
     </row>
-    <row r="279" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K279" s="2"/>
+    <row r="279" spans="12:12" ht="13.5" customHeight="1">
       <c r="L279" s="3"/>
     </row>
-    <row r="280" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K280" s="2"/>
+    <row r="280" spans="12:12" ht="13.5" customHeight="1">
       <c r="L280" s="3"/>
     </row>
-    <row r="281" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K281" s="2"/>
+    <row r="281" spans="12:12" ht="13.5" customHeight="1">
       <c r="L281" s="3"/>
     </row>
-    <row r="282" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K282" s="2"/>
+    <row r="282" spans="12:12" ht="13.5" customHeight="1">
       <c r="L282" s="3"/>
     </row>
-    <row r="283" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K283" s="2"/>
+    <row r="283" spans="12:12" ht="13.5" customHeight="1">
       <c r="L283" s="3"/>
     </row>
-    <row r="284" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K284" s="2"/>
+    <row r="284" spans="12:12" ht="13.5" customHeight="1">
       <c r="L284" s="3"/>
     </row>
-    <row r="285" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K285" s="2"/>
+    <row r="285" spans="12:12" ht="13.5" customHeight="1">
       <c r="L285" s="3"/>
     </row>
-    <row r="286" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K286" s="2"/>
+    <row r="286" spans="12:12" ht="13.5" customHeight="1">
       <c r="L286" s="3"/>
     </row>
-    <row r="287" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K287" s="2"/>
+    <row r="287" spans="12:12" ht="13.5" customHeight="1">
       <c r="L287" s="3"/>
     </row>
-    <row r="288" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K288" s="2"/>
+    <row r="288" spans="12:12" ht="13.5" customHeight="1">
       <c r="L288" s="3"/>
     </row>
-    <row r="289" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K289" s="2"/>
+    <row r="289" spans="12:12" ht="13.5" customHeight="1">
       <c r="L289" s="3"/>
     </row>
-    <row r="290" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K290" s="2"/>
+    <row r="290" spans="12:12" ht="13.5" customHeight="1">
       <c r="L290" s="3"/>
     </row>
-    <row r="291" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K291" s="2"/>
+    <row r="291" spans="12:12" ht="13.5" customHeight="1">
       <c r="L291" s="3"/>
     </row>
-    <row r="292" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K292" s="2"/>
+    <row r="292" spans="12:12" ht="13.5" customHeight="1">
       <c r="L292" s="3"/>
     </row>
-    <row r="293" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K293" s="2"/>
+    <row r="293" spans="12:12" ht="13.5" customHeight="1">
       <c r="L293" s="3"/>
     </row>
-    <row r="294" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K294" s="2"/>
+    <row r="294" spans="12:12" ht="13.5" customHeight="1">
       <c r="L294" s="3"/>
     </row>
-    <row r="295" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K295" s="2"/>
+    <row r="295" spans="12:12" ht="13.5" customHeight="1">
       <c r="L295" s="3"/>
     </row>
-    <row r="296" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K296" s="2"/>
+    <row r="296" spans="12:12" ht="13.5" customHeight="1">
       <c r="L296" s="3"/>
     </row>
-    <row r="297" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K297" s="2"/>
+    <row r="297" spans="12:12" ht="13.5" customHeight="1">
       <c r="L297" s="3"/>
     </row>
-    <row r="298" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K298" s="2"/>
+    <row r="298" spans="12:12" ht="13.5" customHeight="1">
       <c r="L298" s="3"/>
     </row>
-    <row r="299" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K299" s="2"/>
+    <row r="299" spans="12:12" ht="13.5" customHeight="1">
       <c r="L299" s="3"/>
     </row>
-    <row r="300" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K300" s="2"/>
+    <row r="300" spans="12:12" ht="13.5" customHeight="1">
       <c r="L300" s="3"/>
     </row>
-    <row r="301" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K301" s="2"/>
+    <row r="301" spans="12:12" ht="13.5" customHeight="1">
       <c r="L301" s="3"/>
     </row>
-    <row r="302" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K302" s="2"/>
+    <row r="302" spans="12:12" ht="13.5" customHeight="1">
       <c r="L302" s="3"/>
     </row>
-    <row r="303" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K303" s="2"/>
+    <row r="303" spans="12:12" ht="13.5" customHeight="1">
       <c r="L303" s="3"/>
     </row>
-    <row r="304" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K304" s="2"/>
+    <row r="304" spans="12:12" ht="13.5" customHeight="1">
       <c r="L304" s="3"/>
     </row>
-    <row r="305" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K305" s="2"/>
+    <row r="305" spans="12:12" ht="13.5" customHeight="1">
       <c r="L305" s="3"/>
     </row>
-    <row r="306" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K306" s="2"/>
+    <row r="306" spans="12:12" ht="13.5" customHeight="1">
       <c r="L306" s="3"/>
     </row>
-    <row r="307" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K307" s="2"/>
+    <row r="307" spans="12:12" ht="13.5" customHeight="1">
       <c r="L307" s="3"/>
     </row>
-    <row r="308" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K308" s="2"/>
+    <row r="308" spans="12:12" ht="13.5" customHeight="1">
       <c r="L308" s="3"/>
     </row>
-    <row r="309" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K309" s="2"/>
+    <row r="309" spans="12:12" ht="13.5" customHeight="1">
       <c r="L309" s="3"/>
     </row>
-    <row r="310" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K310" s="2"/>
+    <row r="310" spans="12:12" ht="13.5" customHeight="1">
       <c r="L310" s="3"/>
     </row>
-    <row r="311" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K311" s="2"/>
+    <row r="311" spans="12:12" ht="13.5" customHeight="1">
       <c r="L311" s="3"/>
     </row>
-    <row r="312" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K312" s="2"/>
+    <row r="312" spans="12:12" ht="13.5" customHeight="1">
       <c r="L312" s="3"/>
     </row>
-    <row r="313" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K313" s="2"/>
+    <row r="313" spans="12:12" ht="13.5" customHeight="1">
       <c r="L313" s="3"/>
     </row>
-    <row r="314" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K314" s="2"/>
+    <row r="314" spans="12:12" ht="13.5" customHeight="1">
       <c r="L314" s="3"/>
     </row>
-    <row r="315" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K315" s="2"/>
+    <row r="315" spans="12:12" ht="13.5" customHeight="1">
       <c r="L315" s="3"/>
     </row>
-    <row r="316" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K316" s="2"/>
+    <row r="316" spans="12:12" ht="13.5" customHeight="1">
       <c r="L316" s="3"/>
     </row>
-    <row r="317" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K317" s="2"/>
+    <row r="317" spans="12:12" ht="13.5" customHeight="1">
       <c r="L317" s="3"/>
     </row>
-    <row r="318" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K318" s="2"/>
+    <row r="318" spans="12:12" ht="13.5" customHeight="1">
       <c r="L318" s="3"/>
     </row>
-    <row r="319" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K319" s="2"/>
+    <row r="319" spans="12:12" ht="13.5" customHeight="1">
       <c r="L319" s="3"/>
     </row>
-    <row r="320" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K320" s="2"/>
+    <row r="320" spans="12:12" ht="13.5" customHeight="1">
       <c r="L320" s="3"/>
     </row>
-    <row r="321" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K321" s="2"/>
+    <row r="321" spans="12:12" ht="13.5" customHeight="1">
       <c r="L321" s="3"/>
     </row>
-    <row r="322" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K322" s="2"/>
+    <row r="322" spans="12:12" ht="13.5" customHeight="1">
       <c r="L322" s="3"/>
     </row>
-    <row r="323" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K323" s="2"/>
+    <row r="323" spans="12:12" ht="13.5" customHeight="1">
       <c r="L323" s="3"/>
     </row>
-    <row r="324" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K324" s="2"/>
+    <row r="324" spans="12:12" ht="13.5" customHeight="1">
       <c r="L324" s="3"/>
     </row>
-    <row r="325" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K325" s="2"/>
+    <row r="325" spans="12:12" ht="13.5" customHeight="1">
       <c r="L325" s="3"/>
     </row>
-    <row r="326" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K326" s="2"/>
+    <row r="326" spans="12:12" ht="13.5" customHeight="1">
       <c r="L326" s="3"/>
     </row>
-    <row r="327" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K327" s="2"/>
+    <row r="327" spans="12:12" ht="13.5" customHeight="1">
       <c r="L327" s="3"/>
     </row>
-    <row r="328" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K328" s="2"/>
+    <row r="328" spans="12:12" ht="13.5" customHeight="1">
       <c r="L328" s="3"/>
     </row>
-    <row r="329" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K329" s="2"/>
+    <row r="329" spans="12:12" ht="13.5" customHeight="1">
       <c r="L329" s="3"/>
     </row>
-    <row r="330" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K330" s="2"/>
+    <row r="330" spans="12:12" ht="13.5" customHeight="1">
       <c r="L330" s="3"/>
     </row>
-    <row r="331" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K331" s="2"/>
+    <row r="331" spans="12:12" ht="13.5" customHeight="1">
       <c r="L331" s="3"/>
     </row>
-    <row r="332" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K332" s="2"/>
+    <row r="332" spans="12:12" ht="13.5" customHeight="1">
       <c r="L332" s="3"/>
     </row>
-    <row r="333" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K333" s="2"/>
+    <row r="333" spans="12:12" ht="13.5" customHeight="1">
       <c r="L333" s="3"/>
     </row>
-    <row r="334" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K334" s="2"/>
+    <row r="334" spans="12:12" ht="13.5" customHeight="1">
       <c r="L334" s="3"/>
     </row>
-    <row r="335" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K335" s="2"/>
+    <row r="335" spans="12:12" ht="13.5" customHeight="1">
       <c r="L335" s="3"/>
     </row>
-    <row r="336" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K336" s="2"/>
+    <row r="336" spans="12:12" ht="13.5" customHeight="1">
       <c r="L336" s="3"/>
     </row>
-    <row r="337" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K337" s="2"/>
+    <row r="337" spans="12:12" ht="13.5" customHeight="1">
       <c r="L337" s="3"/>
     </row>
-    <row r="338" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K338" s="2"/>
+    <row r="338" spans="12:12" ht="13.5" customHeight="1">
       <c r="L338" s="3"/>
     </row>
-    <row r="339" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K339" s="2"/>
+    <row r="339" spans="12:12" ht="13.5" customHeight="1">
       <c r="L339" s="3"/>
     </row>
-    <row r="340" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K340" s="2"/>
+    <row r="340" spans="12:12" ht="13.5" customHeight="1">
       <c r="L340" s="3"/>
     </row>
-    <row r="341" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K341" s="2"/>
+    <row r="341" spans="12:12" ht="13.5" customHeight="1">
       <c r="L341" s="3"/>
     </row>
-    <row r="342" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K342" s="2"/>
+    <row r="342" spans="12:12" ht="13.5" customHeight="1">
       <c r="L342" s="3"/>
     </row>
-    <row r="343" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K343" s="2"/>
+    <row r="343" spans="12:12" ht="13.5" customHeight="1">
       <c r="L343" s="3"/>
     </row>
-    <row r="344" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K344" s="2"/>
+    <row r="344" spans="12:12" ht="13.5" customHeight="1">
       <c r="L344" s="3"/>
     </row>
-    <row r="345" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K345" s="2"/>
+    <row r="345" spans="12:12" ht="13.5" customHeight="1">
       <c r="L345" s="3"/>
     </row>
-    <row r="346" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K346" s="2"/>
+    <row r="346" spans="12:12" ht="13.5" customHeight="1">
       <c r="L346" s="3"/>
     </row>
-    <row r="347" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K347" s="2"/>
+    <row r="347" spans="12:12" ht="13.5" customHeight="1">
       <c r="L347" s="3"/>
     </row>
-    <row r="348" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K348" s="2"/>
+    <row r="348" spans="12:12" ht="13.5" customHeight="1">
       <c r="L348" s="3"/>
     </row>
-    <row r="349" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K349" s="2"/>
+    <row r="349" spans="12:12" ht="13.5" customHeight="1">
       <c r="L349" s="3"/>
     </row>
-    <row r="350" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K350" s="2"/>
+    <row r="350" spans="12:12" ht="13.5" customHeight="1">
       <c r="L350" s="3"/>
     </row>
-    <row r="351" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K351" s="2"/>
+    <row r="351" spans="12:12" ht="13.5" customHeight="1">
       <c r="L351" s="3"/>
     </row>
-    <row r="352" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K352" s="2"/>
+    <row r="352" spans="12:12" ht="13.5" customHeight="1">
       <c r="L352" s="3"/>
     </row>
-    <row r="353" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K353" s="2"/>
+    <row r="353" spans="12:12" ht="13.5" customHeight="1">
       <c r="L353" s="3"/>
     </row>
-    <row r="354" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K354" s="2"/>
+    <row r="354" spans="12:12" ht="13.5" customHeight="1">
       <c r="L354" s="3"/>
     </row>
-    <row r="355" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K355" s="2"/>
+    <row r="355" spans="12:12" ht="13.5" customHeight="1">
       <c r="L355" s="3"/>
     </row>
-    <row r="356" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K356" s="2"/>
+    <row r="356" spans="12:12" ht="13.5" customHeight="1">
       <c r="L356" s="3"/>
     </row>
-    <row r="357" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K357" s="2"/>
+    <row r="357" spans="12:12" ht="13.5" customHeight="1">
       <c r="L357" s="3"/>
     </row>
-    <row r="358" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K358" s="2"/>
+    <row r="358" spans="12:12" ht="13.5" customHeight="1">
       <c r="L358" s="3"/>
     </row>
-    <row r="359" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K359" s="2"/>
+    <row r="359" spans="12:12" ht="13.5" customHeight="1">
       <c r="L359" s="3"/>
     </row>
-    <row r="360" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K360" s="2"/>
+    <row r="360" spans="12:12" ht="13.5" customHeight="1">
       <c r="L360" s="3"/>
     </row>
-    <row r="361" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K361" s="2"/>
+    <row r="361" spans="12:12" ht="13.5" customHeight="1">
       <c r="L361" s="3"/>
     </row>
-    <row r="362" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K362" s="2"/>
+    <row r="362" spans="12:12" ht="13.5" customHeight="1">
       <c r="L362" s="3"/>
     </row>
-    <row r="363" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K363" s="2"/>
+    <row r="363" spans="12:12" ht="13.5" customHeight="1">
       <c r="L363" s="3"/>
     </row>
-    <row r="364" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K364" s="2"/>
+    <row r="364" spans="12:12" ht="13.5" customHeight="1">
       <c r="L364" s="3"/>
     </row>
-    <row r="365" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K365" s="2"/>
+    <row r="365" spans="12:12" ht="13.5" customHeight="1">
       <c r="L365" s="3"/>
     </row>
-    <row r="366" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K366" s="2"/>
+    <row r="366" spans="12:12" ht="13.5" customHeight="1">
       <c r="L366" s="3"/>
     </row>
-    <row r="367" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K367" s="2"/>
+    <row r="367" spans="12:12" ht="13.5" customHeight="1">
       <c r="L367" s="3"/>
     </row>
-    <row r="368" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K368" s="2"/>
+    <row r="368" spans="12:12" ht="13.5" customHeight="1">
       <c r="L368" s="3"/>
     </row>
-    <row r="369" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K369" s="2"/>
+    <row r="369" spans="12:12" ht="13.5" customHeight="1">
       <c r="L369" s="3"/>
     </row>
-    <row r="370" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K370" s="2"/>
+    <row r="370" spans="12:12" ht="13.5" customHeight="1">
       <c r="L370" s="3"/>
     </row>
-    <row r="371" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K371" s="2"/>
+    <row r="371" spans="12:12" ht="13.5" customHeight="1">
       <c r="L371" s="3"/>
     </row>
-    <row r="372" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K372" s="2"/>
+    <row r="372" spans="12:12" ht="13.5" customHeight="1">
       <c r="L372" s="3"/>
     </row>
-    <row r="373" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K373" s="2"/>
+    <row r="373" spans="12:12" ht="13.5" customHeight="1">
       <c r="L373" s="3"/>
     </row>
-    <row r="374" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K374" s="2"/>
+    <row r="374" spans="12:12" ht="13.5" customHeight="1">
       <c r="L374" s="3"/>
     </row>
-    <row r="375" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K375" s="2"/>
+    <row r="375" spans="12:12" ht="13.5" customHeight="1">
       <c r="L375" s="3"/>
     </row>
-    <row r="376" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K376" s="2"/>
+    <row r="376" spans="12:12" ht="13.5" customHeight="1">
       <c r="L376" s="3"/>
     </row>
-    <row r="377" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K377" s="2"/>
+    <row r="377" spans="12:12" ht="13.5" customHeight="1">
       <c r="L377" s="3"/>
     </row>
-    <row r="378" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K378" s="2"/>
+    <row r="378" spans="12:12" ht="13.5" customHeight="1">
       <c r="L378" s="3"/>
     </row>
-    <row r="379" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K379" s="2"/>
+    <row r="379" spans="12:12" ht="13.5" customHeight="1">
       <c r="L379" s="3"/>
     </row>
-    <row r="380" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K380" s="2"/>
+    <row r="380" spans="12:12" ht="13.5" customHeight="1">
       <c r="L380" s="3"/>
     </row>
-    <row r="381" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K381" s="2"/>
+    <row r="381" spans="12:12" ht="13.5" customHeight="1">
       <c r="L381" s="3"/>
     </row>
-    <row r="382" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K382" s="2"/>
+    <row r="382" spans="12:12" ht="13.5" customHeight="1">
       <c r="L382" s="3"/>
     </row>
-    <row r="383" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K383" s="2"/>
+    <row r="383" spans="12:12" ht="13.5" customHeight="1">
       <c r="L383" s="3"/>
     </row>
-    <row r="384" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K384" s="2"/>
+    <row r="384" spans="12:12" ht="13.5" customHeight="1">
       <c r="L384" s="3"/>
     </row>
-    <row r="385" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K385" s="2"/>
+    <row r="385" spans="12:12" ht="13.5" customHeight="1">
       <c r="L385" s="3"/>
     </row>
-    <row r="386" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K386" s="2"/>
+    <row r="386" spans="12:12" ht="13.5" customHeight="1">
       <c r="L386" s="3"/>
     </row>
-    <row r="387" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K387" s="2"/>
+    <row r="387" spans="12:12" ht="13.5" customHeight="1">
       <c r="L387" s="3"/>
     </row>
-    <row r="388" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K388" s="2"/>
+    <row r="388" spans="12:12" ht="13.5" customHeight="1">
       <c r="L388" s="3"/>
     </row>
-    <row r="389" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K389" s="2"/>
+    <row r="389" spans="12:12" ht="13.5" customHeight="1">
       <c r="L389" s="3"/>
     </row>
-    <row r="390" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K390" s="2"/>
+    <row r="390" spans="12:12" ht="13.5" customHeight="1">
       <c r="L390" s="3"/>
     </row>
-    <row r="391" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K391" s="2"/>
+    <row r="391" spans="12:12" ht="13.5" customHeight="1">
       <c r="L391" s="3"/>
     </row>
-    <row r="392" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K392" s="2"/>
+    <row r="392" spans="12:12" ht="13.5" customHeight="1">
       <c r="L392" s="3"/>
     </row>
-    <row r="393" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K393" s="2"/>
+    <row r="393" spans="12:12" ht="13.5" customHeight="1">
       <c r="L393" s="3"/>
     </row>
-    <row r="394" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K394" s="2"/>
+    <row r="394" spans="12:12" ht="13.5" customHeight="1">
       <c r="L394" s="3"/>
     </row>
-    <row r="395" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K395" s="2"/>
+    <row r="395" spans="12:12" ht="13.5" customHeight="1">
       <c r="L395" s="3"/>
     </row>
-    <row r="396" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K396" s="2"/>
+    <row r="396" spans="12:12" ht="13.5" customHeight="1">
       <c r="L396" s="3"/>
     </row>
-    <row r="397" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K397" s="2"/>
+    <row r="397" spans="12:12" ht="13.5" customHeight="1">
       <c r="L397" s="3"/>
     </row>
-    <row r="398" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K398" s="2"/>
+    <row r="398" spans="12:12" ht="13.5" customHeight="1">
       <c r="L398" s="3"/>
     </row>
-    <row r="399" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K399" s="2"/>
+    <row r="399" spans="12:12" ht="13.5" customHeight="1">
       <c r="L399" s="3"/>
     </row>
-    <row r="400" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K400" s="2"/>
+    <row r="400" spans="12:12" ht="13.5" customHeight="1">
       <c r="L400" s="3"/>
     </row>
-    <row r="401" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K401" s="2"/>
+    <row r="401" spans="12:12" ht="13.5" customHeight="1">
       <c r="L401" s="3"/>
     </row>
-    <row r="402" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K402" s="2"/>
+    <row r="402" spans="12:12" ht="13.5" customHeight="1">
       <c r="L402" s="3"/>
     </row>
-    <row r="403" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K403" s="2"/>
+    <row r="403" spans="12:12" ht="13.5" customHeight="1">
       <c r="L403" s="3"/>
     </row>
-    <row r="404" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K404" s="2"/>
+    <row r="404" spans="12:12" ht="13.5" customHeight="1">
       <c r="L404" s="3"/>
     </row>
-    <row r="405" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K405" s="2"/>
+    <row r="405" spans="12:12" ht="13.5" customHeight="1">
       <c r="L405" s="3"/>
     </row>
-    <row r="406" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K406" s="2"/>
+    <row r="406" spans="12:12" ht="13.5" customHeight="1">
       <c r="L406" s="3"/>
     </row>
-    <row r="407" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K407" s="2"/>
+    <row r="407" spans="12:12" ht="13.5" customHeight="1">
       <c r="L407" s="3"/>
     </row>
-    <row r="408" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K408" s="2"/>
+    <row r="408" spans="12:12" ht="13.5" customHeight="1">
       <c r="L408" s="3"/>
     </row>
-    <row r="409" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K409" s="2"/>
+    <row r="409" spans="12:12" ht="13.5" customHeight="1">
       <c r="L409" s="3"/>
     </row>
-    <row r="410" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K410" s="2"/>
+    <row r="410" spans="12:12" ht="13.5" customHeight="1">
       <c r="L410" s="3"/>
     </row>
-    <row r="411" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K411" s="2"/>
+    <row r="411" spans="12:12" ht="13.5" customHeight="1">
       <c r="L411" s="3"/>
     </row>
-    <row r="412" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K412" s="2"/>
+    <row r="412" spans="12:12" ht="13.5" customHeight="1">
       <c r="L412" s="3"/>
     </row>
-    <row r="413" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K413" s="2"/>
+    <row r="413" spans="12:12" ht="13.5" customHeight="1">
       <c r="L413" s="3"/>
     </row>
-    <row r="414" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K414" s="2"/>
+    <row r="414" spans="12:12" ht="13.5" customHeight="1">
       <c r="L414" s="3"/>
     </row>
-    <row r="415" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K415" s="2"/>
+    <row r="415" spans="12:12" ht="13.5" customHeight="1">
       <c r="L415" s="3"/>
     </row>
-    <row r="416" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K416" s="2"/>
+    <row r="416" spans="12:12" ht="13.5" customHeight="1">
       <c r="L416" s="3"/>
     </row>
-    <row r="417" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K417" s="2"/>
+    <row r="417" spans="12:12" ht="13.5" customHeight="1">
       <c r="L417" s="3"/>
     </row>
-    <row r="418" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K418" s="2"/>
+    <row r="418" spans="12:12" ht="13.5" customHeight="1">
       <c r="L418" s="3"/>
     </row>
-    <row r="419" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K419" s="2"/>
+    <row r="419" spans="12:12" ht="13.5" customHeight="1">
       <c r="L419" s="3"/>
     </row>
-    <row r="420" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K420" s="2"/>
+    <row r="420" spans="12:12" ht="13.5" customHeight="1">
       <c r="L420" s="3"/>
     </row>
-    <row r="421" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K421" s="2"/>
+    <row r="421" spans="12:12" ht="13.5" customHeight="1">
       <c r="L421" s="3"/>
     </row>
-    <row r="422" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K422" s="2"/>
+    <row r="422" spans="12:12" ht="13.5" customHeight="1">
       <c r="L422" s="3"/>
     </row>
-    <row r="423" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K423" s="2"/>
+    <row r="423" spans="12:12" ht="13.5" customHeight="1">
       <c r="L423" s="3"/>
     </row>
-    <row r="424" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K424" s="2"/>
+    <row r="424" spans="12:12" ht="13.5" customHeight="1">
       <c r="L424" s="3"/>
     </row>
-    <row r="425" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K425" s="2"/>
+    <row r="425" spans="12:12" ht="13.5" customHeight="1">
       <c r="L425" s="3"/>
     </row>
-    <row r="426" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K426" s="2"/>
+    <row r="426" spans="12:12" ht="13.5" customHeight="1">
       <c r="L426" s="3"/>
     </row>
-    <row r="427" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K427" s="2"/>
+    <row r="427" spans="12:12" ht="13.5" customHeight="1">
       <c r="L427" s="3"/>
     </row>
-    <row r="428" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K428" s="2"/>
+    <row r="428" spans="12:12" ht="13.5" customHeight="1">
       <c r="L428" s="3"/>
     </row>
-    <row r="429" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K429" s="2"/>
+    <row r="429" spans="12:12" ht="13.5" customHeight="1">
       <c r="L429" s="3"/>
     </row>
-    <row r="430" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K430" s="2"/>
+    <row r="430" spans="12:12" ht="13.5" customHeight="1">
       <c r="L430" s="3"/>
     </row>
-    <row r="431" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K431" s="2"/>
+    <row r="431" spans="12:12" ht="13.5" customHeight="1">
       <c r="L431" s="3"/>
     </row>
-    <row r="432" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K432" s="2"/>
+    <row r="432" spans="12:12" ht="13.5" customHeight="1">
       <c r="L432" s="3"/>
     </row>
-    <row r="433" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K433" s="2"/>
+    <row r="433" spans="12:12" ht="13.5" customHeight="1">
       <c r="L433" s="3"/>
     </row>
-    <row r="434" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K434" s="2"/>
+    <row r="434" spans="12:12" ht="13.5" customHeight="1">
       <c r="L434" s="3"/>
     </row>
-    <row r="435" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K435" s="2"/>
+    <row r="435" spans="12:12" ht="13.5" customHeight="1">
       <c r="L435" s="3"/>
     </row>
-    <row r="436" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K436" s="2"/>
+    <row r="436" spans="12:12" ht="13.5" customHeight="1">
       <c r="L436" s="3"/>
     </row>
-    <row r="437" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K437" s="2"/>
+    <row r="437" spans="12:12" ht="13.5" customHeight="1">
       <c r="L437" s="3"/>
     </row>
-    <row r="438" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K438" s="2"/>
+    <row r="438" spans="12:12" ht="13.5" customHeight="1">
       <c r="L438" s="3"/>
     </row>
-    <row r="439" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K439" s="2"/>
+    <row r="439" spans="12:12" ht="13.5" customHeight="1">
       <c r="L439" s="3"/>
     </row>
-    <row r="440" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K440" s="2"/>
+    <row r="440" spans="12:12" ht="13.5" customHeight="1">
       <c r="L440" s="3"/>
     </row>
-    <row r="441" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K441" s="2"/>
+    <row r="441" spans="12:12" ht="13.5" customHeight="1">
       <c r="L441" s="3"/>
     </row>
-    <row r="442" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K442" s="2"/>
+    <row r="442" spans="12:12" ht="13.5" customHeight="1">
       <c r="L442" s="3"/>
     </row>
-    <row r="443" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K443" s="2"/>
+    <row r="443" spans="12:12" ht="13.5" customHeight="1">
       <c r="L443" s="3"/>
     </row>
-    <row r="444" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K444" s="2"/>
+    <row r="444" spans="12:12" ht="13.5" customHeight="1">
       <c r="L444" s="3"/>
     </row>
-    <row r="445" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K445" s="2"/>
+    <row r="445" spans="12:12" ht="13.5" customHeight="1">
       <c r="L445" s="3"/>
     </row>
-    <row r="446" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K446" s="2"/>
+    <row r="446" spans="12:12" ht="13.5" customHeight="1">
       <c r="L446" s="3"/>
     </row>
-    <row r="447" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K447" s="2"/>
+    <row r="447" spans="12:12" ht="13.5" customHeight="1">
       <c r="L447" s="3"/>
     </row>
-    <row r="448" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K448" s="2"/>
+    <row r="448" spans="12:12" ht="13.5" customHeight="1">
       <c r="L448" s="3"/>
     </row>
-    <row r="449" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K449" s="2"/>
+    <row r="449" spans="12:12" ht="13.5" customHeight="1">
       <c r="L449" s="3"/>
     </row>
-    <row r="450" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K450" s="2"/>
+    <row r="450" spans="12:12" ht="13.5" customHeight="1">
       <c r="L450" s="3"/>
     </row>
-    <row r="451" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K451" s="2"/>
+    <row r="451" spans="12:12" ht="13.5" customHeight="1">
       <c r="L451" s="3"/>
     </row>
-    <row r="452" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K452" s="2"/>
+    <row r="452" spans="12:12" ht="13.5" customHeight="1">
       <c r="L452" s="3"/>
     </row>
-    <row r="453" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K453" s="2"/>
+    <row r="453" spans="12:12" ht="13.5" customHeight="1">
       <c r="L453" s="3"/>
     </row>
-    <row r="454" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K454" s="2"/>
+    <row r="454" spans="12:12" ht="13.5" customHeight="1">
       <c r="L454" s="3"/>
     </row>
-    <row r="455" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K455" s="2"/>
+    <row r="455" spans="12:12" ht="13.5" customHeight="1">
       <c r="L455" s="3"/>
     </row>
-    <row r="456" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K456" s="2"/>
+    <row r="456" spans="12:12" ht="13.5" customHeight="1">
       <c r="L456" s="3"/>
     </row>
-    <row r="457" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K457" s="2"/>
+    <row r="457" spans="12:12" ht="13.5" customHeight="1">
       <c r="L457" s="3"/>
     </row>
-    <row r="458" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K458" s="2"/>
+    <row r="458" spans="12:12" ht="13.5" customHeight="1">
       <c r="L458" s="3"/>
     </row>
-    <row r="459" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K459" s="2"/>
+    <row r="459" spans="12:12" ht="13.5" customHeight="1">
       <c r="L459" s="3"/>
     </row>
-    <row r="460" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K460" s="2"/>
+    <row r="460" spans="12:12" ht="13.5" customHeight="1">
       <c r="L460" s="3"/>
     </row>
-    <row r="461" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K461" s="2"/>
+    <row r="461" spans="12:12" ht="13.5" customHeight="1">
       <c r="L461" s="3"/>
     </row>
-    <row r="462" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K462" s="2"/>
+    <row r="462" spans="12:12" ht="13.5" customHeight="1">
       <c r="L462" s="3"/>
     </row>
-    <row r="463" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K463" s="2"/>
+    <row r="463" spans="12:12" ht="13.5" customHeight="1">
       <c r="L463" s="3"/>
     </row>
-    <row r="464" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K464" s="2"/>
+    <row r="464" spans="12:12" ht="13.5" customHeight="1">
       <c r="L464" s="3"/>
     </row>
-    <row r="465" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K465" s="2"/>
+    <row r="465" spans="12:12" ht="13.5" customHeight="1">
       <c r="L465" s="3"/>
     </row>
-    <row r="466" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K466" s="2"/>
+    <row r="466" spans="12:12" ht="13.5" customHeight="1">
       <c r="L466" s="3"/>
     </row>
-    <row r="467" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K467" s="2"/>
+    <row r="467" spans="12:12" ht="13.5" customHeight="1">
       <c r="L467" s="3"/>
     </row>
-    <row r="468" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K468" s="2"/>
+    <row r="468" spans="12:12" ht="13.5" customHeight="1">
       <c r="L468" s="3"/>
     </row>
-    <row r="469" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K469" s="2"/>
+    <row r="469" spans="12:12" ht="13.5" customHeight="1">
       <c r="L469" s="3"/>
     </row>
-    <row r="470" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K470" s="2"/>
+    <row r="470" spans="12:12" ht="13.5" customHeight="1">
       <c r="L470" s="3"/>
     </row>
-    <row r="471" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K471" s="2"/>
+    <row r="471" spans="12:12" ht="13.5" customHeight="1">
       <c r="L471" s="3"/>
     </row>
-    <row r="472" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K472" s="2"/>
+    <row r="472" spans="12:12" ht="13.5" customHeight="1">
       <c r="L472" s="3"/>
     </row>
-    <row r="473" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K473" s="2"/>
+    <row r="473" spans="12:12" ht="13.5" customHeight="1">
       <c r="L473" s="3"/>
     </row>
-    <row r="474" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K474" s="2"/>
+    <row r="474" spans="12:12" ht="13.5" customHeight="1">
       <c r="L474" s="3"/>
     </row>
-    <row r="475" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K475" s="2"/>
+    <row r="475" spans="12:12" ht="13.5" customHeight="1">
       <c r="L475" s="3"/>
     </row>
-    <row r="476" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K476" s="2"/>
+    <row r="476" spans="12:12" ht="13.5" customHeight="1">
       <c r="L476" s="3"/>
     </row>
-    <row r="477" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K477" s="2"/>
+    <row r="477" spans="12:12" ht="13.5" customHeight="1">
       <c r="L477" s="3"/>
     </row>
-    <row r="478" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K478" s="2"/>
+    <row r="478" spans="12:12" ht="13.5" customHeight="1">
       <c r="L478" s="3"/>
     </row>
-    <row r="479" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K479" s="2"/>
+    <row r="479" spans="12:12" ht="13.5" customHeight="1">
       <c r="L479" s="3"/>
     </row>
-    <row r="480" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K480" s="2"/>
+    <row r="480" spans="12:12" ht="13.5" customHeight="1">
       <c r="L480" s="3"/>
     </row>
-    <row r="481" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K481" s="2"/>
+    <row r="481" spans="12:12" ht="13.5" customHeight="1">
       <c r="L481" s="3"/>
     </row>
-    <row r="482" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K482" s="2"/>
+    <row r="482" spans="12:12" ht="13.5" customHeight="1">
       <c r="L482" s="3"/>
     </row>
-    <row r="483" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K483" s="2"/>
+    <row r="483" spans="12:12" ht="13.5" customHeight="1">
       <c r="L483" s="3"/>
     </row>
-    <row r="484" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K484" s="2"/>
+    <row r="484" spans="12:12" ht="13.5" customHeight="1">
       <c r="L484" s="3"/>
     </row>
-    <row r="485" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K485" s="2"/>
+    <row r="485" spans="12:12" ht="13.5" customHeight="1">
       <c r="L485" s="3"/>
     </row>
-    <row r="486" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K486" s="2"/>
+    <row r="486" spans="12:12" ht="13.5" customHeight="1">
       <c r="L486" s="3"/>
     </row>
-    <row r="487" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K487" s="2"/>
+    <row r="487" spans="12:12" ht="13.5" customHeight="1">
       <c r="L487" s="3"/>
     </row>
-    <row r="488" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K488" s="2"/>
+    <row r="488" spans="12:12" ht="13.5" customHeight="1">
       <c r="L488" s="3"/>
     </row>
-    <row r="489" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K489" s="2"/>
+    <row r="489" spans="12:12" ht="13.5" customHeight="1">
       <c r="L489" s="3"/>
     </row>
-    <row r="490" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K490" s="2"/>
+    <row r="490" spans="12:12" ht="13.5" customHeight="1">
       <c r="L490" s="3"/>
     </row>
-    <row r="491" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K491" s="2"/>
+    <row r="491" spans="12:12" ht="13.5" customHeight="1">
       <c r="L491" s="3"/>
     </row>
-    <row r="492" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K492" s="2"/>
+    <row r="492" spans="12:12" ht="13.5" customHeight="1">
       <c r="L492" s="3"/>
     </row>
-    <row r="493" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K493" s="2"/>
+    <row r="493" spans="12:12" ht="13.5" customHeight="1">
       <c r="L493" s="3"/>
     </row>
-    <row r="494" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K494" s="2"/>
+    <row r="494" spans="12:12" ht="13.5" customHeight="1">
       <c r="L494" s="3"/>
     </row>
-    <row r="495" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K495" s="2"/>
+    <row r="495" spans="12:12" ht="13.5" customHeight="1">
       <c r="L495" s="3"/>
     </row>
-    <row r="496" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K496" s="2"/>
+    <row r="496" spans="12:12" ht="13.5" customHeight="1">
       <c r="L496" s="3"/>
     </row>
-    <row r="497" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K497" s="2"/>
+    <row r="497" spans="12:12" ht="13.5" customHeight="1">
       <c r="L497" s="3"/>
     </row>
-    <row r="498" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K498" s="2"/>
+    <row r="498" spans="12:12" ht="13.5" customHeight="1">
       <c r="L498" s="3"/>
     </row>
-    <row r="499" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K499" s="2"/>
+    <row r="499" spans="12:12" ht="13.5" customHeight="1">
       <c r="L499" s="3"/>
     </row>
-    <row r="500" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K500" s="2"/>
+    <row r="500" spans="12:12" ht="13.5" customHeight="1">
       <c r="L500" s="3"/>
     </row>
-    <row r="501" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K501" s="2"/>
+    <row r="501" spans="12:12" ht="13.5" customHeight="1">
       <c r="L501" s="3"/>
     </row>
-    <row r="502" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K502" s="2"/>
+    <row r="502" spans="12:12" ht="13.5" customHeight="1">
       <c r="L502" s="3"/>
     </row>
-    <row r="503" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K503" s="2"/>
+    <row r="503" spans="12:12" ht="13.5" customHeight="1">
       <c r="L503" s="3"/>
     </row>
-    <row r="504" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K504" s="2"/>
+    <row r="504" spans="12:12" ht="13.5" customHeight="1">
       <c r="L504" s="3"/>
     </row>
-    <row r="505" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K505" s="2"/>
+    <row r="505" spans="12:12" ht="13.5" customHeight="1">
       <c r="L505" s="3"/>
     </row>
-    <row r="506" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K506" s="2"/>
+    <row r="506" spans="12:12" ht="13.5" customHeight="1">
       <c r="L506" s="3"/>
     </row>
-    <row r="507" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K507" s="2"/>
+    <row r="507" spans="12:12" ht="13.5" customHeight="1">
       <c r="L507" s="3"/>
     </row>
-    <row r="508" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K508" s="2"/>
+    <row r="508" spans="12:12" ht="13.5" customHeight="1">
       <c r="L508" s="3"/>
     </row>
-    <row r="509" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K509" s="2"/>
+    <row r="509" spans="12:12" ht="13.5" customHeight="1">
       <c r="L509" s="3"/>
     </row>
-    <row r="510" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K510" s="2"/>
+    <row r="510" spans="12:12" ht="13.5" customHeight="1">
       <c r="L510" s="3"/>
     </row>
-    <row r="511" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K511" s="2"/>
+    <row r="511" spans="12:12" ht="13.5" customHeight="1">
       <c r="L511" s="3"/>
     </row>
-    <row r="512" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K512" s="2"/>
+    <row r="512" spans="12:12" ht="13.5" customHeight="1">
       <c r="L512" s="3"/>
     </row>
-    <row r="513" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K513" s="2"/>
+    <row r="513" spans="12:12" ht="13.5" customHeight="1">
       <c r="L513" s="3"/>
     </row>
-    <row r="514" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K514" s="2"/>
+    <row r="514" spans="12:12" ht="13.5" customHeight="1">
       <c r="L514" s="3"/>
     </row>
-    <row r="515" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K515" s="2"/>
+    <row r="515" spans="12:12" ht="13.5" customHeight="1">
       <c r="L515" s="3"/>
     </row>
-    <row r="516" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K516" s="2"/>
+    <row r="516" spans="12:12" ht="13.5" customHeight="1">
       <c r="L516" s="3"/>
     </row>
-    <row r="517" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K517" s="2"/>
+    <row r="517" spans="12:12" ht="13.5" customHeight="1">
       <c r="L517" s="3"/>
     </row>
-    <row r="518" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K518" s="2"/>
+    <row r="518" spans="12:12" ht="13.5" customHeight="1">
       <c r="L518" s="3"/>
     </row>
-    <row r="519" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K519" s="2"/>
+    <row r="519" spans="12:12" ht="13.5" customHeight="1">
       <c r="L519" s="3"/>
     </row>
-    <row r="520" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K520" s="2"/>
+    <row r="520" spans="12:12" ht="13.5" customHeight="1">
       <c r="L520" s="3"/>
     </row>
-    <row r="521" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K521" s="2"/>
+    <row r="521" spans="12:12" ht="13.5" customHeight="1">
       <c r="L521" s="3"/>
     </row>
-    <row r="522" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K522" s="2"/>
+    <row r="522" spans="12:12" ht="13.5" customHeight="1">
       <c r="L522" s="3"/>
     </row>
-    <row r="523" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K523" s="2"/>
+    <row r="523" spans="12:12" ht="13.5" customHeight="1">
       <c r="L523" s="3"/>
     </row>
-    <row r="524" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K524" s="2"/>
+    <row r="524" spans="12:12" ht="13.5" customHeight="1">
       <c r="L524" s="3"/>
     </row>
-    <row r="525" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K525" s="2"/>
+    <row r="525" spans="12:12" ht="13.5" customHeight="1">
       <c r="L525" s="3"/>
     </row>
-    <row r="526" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K526" s="2"/>
+    <row r="526" spans="12:12" ht="13.5" customHeight="1">
       <c r="L526" s="3"/>
     </row>
-    <row r="527" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K527" s="2"/>
+    <row r="527" spans="12:12" ht="13.5" customHeight="1">
       <c r="L527" s="3"/>
     </row>
-    <row r="528" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K528" s="2"/>
+    <row r="528" spans="12:12" ht="13.5" customHeight="1">
       <c r="L528" s="3"/>
     </row>
-    <row r="529" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K529" s="2"/>
+    <row r="529" spans="12:12" ht="13.5" customHeight="1">
       <c r="L529" s="3"/>
     </row>
-    <row r="530" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K530" s="2"/>
+    <row r="530" spans="12:12" ht="13.5" customHeight="1">
       <c r="L530" s="3"/>
     </row>
-    <row r="531" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K531" s="2"/>
+    <row r="531" spans="12:12" ht="13.5" customHeight="1">
       <c r="L531" s="3"/>
     </row>
-    <row r="532" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K532" s="2"/>
+    <row r="532" spans="12:12" ht="13.5" customHeight="1">
       <c r="L532" s="3"/>
     </row>
-    <row r="533" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K533" s="2"/>
+    <row r="533" spans="12:12" ht="13.5" customHeight="1">
       <c r="L533" s="3"/>
     </row>
-    <row r="534" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K534" s="2"/>
+    <row r="534" spans="12:12" ht="13.5" customHeight="1">
       <c r="L534" s="3"/>
     </row>
-    <row r="535" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K535" s="2"/>
+    <row r="535" spans="12:12" ht="13.5" customHeight="1">
       <c r="L535" s="3"/>
     </row>
-    <row r="536" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K536" s="2"/>
+    <row r="536" spans="12:12" ht="13.5" customHeight="1">
       <c r="L536" s="3"/>
     </row>
-    <row r="537" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K537" s="2"/>
+    <row r="537" spans="12:12" ht="13.5" customHeight="1">
       <c r="L537" s="3"/>
     </row>
-    <row r="538" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K538" s="2"/>
+    <row r="538" spans="12:12" ht="13.5" customHeight="1">
       <c r="L538" s="3"/>
     </row>
-    <row r="539" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K539" s="2"/>
+    <row r="539" spans="12:12" ht="13.5" customHeight="1">
       <c r="L539" s="3"/>
     </row>
-    <row r="540" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K540" s="2"/>
+    <row r="540" spans="12:12" ht="13.5" customHeight="1">
       <c r="L540" s="3"/>
     </row>
-    <row r="541" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K541" s="2"/>
+    <row r="541" spans="12:12" ht="13.5" customHeight="1">
       <c r="L541" s="3"/>
     </row>
-    <row r="542" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K542" s="2"/>
+    <row r="542" spans="12:12" ht="13.5" customHeight="1">
       <c r="L542" s="3"/>
     </row>
-    <row r="543" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K543" s="2"/>
+    <row r="543" spans="12:12" ht="13.5" customHeight="1">
       <c r="L543" s="3"/>
     </row>
-    <row r="544" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K544" s="2"/>
+    <row r="544" spans="12:12" ht="13.5" customHeight="1">
       <c r="L544" s="3"/>
     </row>
-    <row r="545" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K545" s="2"/>
+    <row r="545" spans="12:12" ht="13.5" customHeight="1">
       <c r="L545" s="3"/>
     </row>
-    <row r="546" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K546" s="2"/>
+    <row r="546" spans="12:12" ht="13.5" customHeight="1">
       <c r="L546" s="3"/>
     </row>
-    <row r="547" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K547" s="2"/>
+    <row r="547" spans="12:12" ht="13.5" customHeight="1">
       <c r="L547" s="3"/>
     </row>
-    <row r="548" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K548" s="2"/>
+    <row r="548" spans="12:12" ht="13.5" customHeight="1">
       <c r="L548" s="3"/>
     </row>
-    <row r="549" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K549" s="2"/>
+    <row r="549" spans="12:12" ht="13.5" customHeight="1">
       <c r="L549" s="3"/>
     </row>
-    <row r="550" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K550" s="2"/>
+    <row r="550" spans="12:12" ht="13.5" customHeight="1">
       <c r="L550" s="3"/>
     </row>
-    <row r="551" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K551" s="2"/>
+    <row r="551" spans="12:12" ht="13.5" customHeight="1">
       <c r="L551" s="3"/>
     </row>
-    <row r="552" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K552" s="2"/>
+    <row r="552" spans="12:12" ht="13.5" customHeight="1">
       <c r="L552" s="3"/>
     </row>
-    <row r="553" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K553" s="2"/>
+    <row r="553" spans="12:12" ht="13.5" customHeight="1">
       <c r="L553" s="3"/>
     </row>
-    <row r="554" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K554" s="2"/>
+    <row r="554" spans="12:12" ht="13.5" customHeight="1">
       <c r="L554" s="3"/>
     </row>
-    <row r="555" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K555" s="2"/>
+    <row r="555" spans="12:12" ht="13.5" customHeight="1">
       <c r="L555" s="3"/>
     </row>
-    <row r="556" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K556" s="2"/>
+    <row r="556" spans="12:12" ht="13.5" customHeight="1">
       <c r="L556" s="3"/>
     </row>
-    <row r="557" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K557" s="2"/>
+    <row r="557" spans="12:12" ht="13.5" customHeight="1">
       <c r="L557" s="3"/>
     </row>
-    <row r="558" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K558" s="2"/>
+    <row r="558" spans="12:12" ht="13.5" customHeight="1">
       <c r="L558" s="3"/>
     </row>
-    <row r="559" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K559" s="2"/>
+    <row r="559" spans="12:12" ht="13.5" customHeight="1">
       <c r="L559" s="3"/>
     </row>
-    <row r="560" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K560" s="2"/>
+    <row r="560" spans="12:12" ht="13.5" customHeight="1">
       <c r="L560" s="3"/>
     </row>
-    <row r="561" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K561" s="2"/>
+    <row r="561" spans="12:12" ht="13.5" customHeight="1">
       <c r="L561" s="3"/>
     </row>
-    <row r="562" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K562" s="2"/>
+    <row r="562" spans="12:12" ht="13.5" customHeight="1">
       <c r="L562" s="3"/>
     </row>
-    <row r="563" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K563" s="2"/>
+    <row r="563" spans="12:12" ht="13.5" customHeight="1">
       <c r="L563" s="3"/>
     </row>
-    <row r="564" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K564" s="2"/>
+    <row r="564" spans="12:12" ht="13.5" customHeight="1">
       <c r="L564" s="3"/>
     </row>
-    <row r="565" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K565" s="2"/>
+    <row r="565" spans="12:12" ht="13.5" customHeight="1">
       <c r="L565" s="3"/>
     </row>
-    <row r="566" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K566" s="2"/>
+    <row r="566" spans="12:12" ht="13.5" customHeight="1">
       <c r="L566" s="3"/>
     </row>
-    <row r="567" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K567" s="2"/>
+    <row r="567" spans="12:12" ht="13.5" customHeight="1">
       <c r="L567" s="3"/>
     </row>
-    <row r="568" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K568" s="2"/>
+    <row r="568" spans="12:12" ht="13.5" customHeight="1">
       <c r="L568" s="3"/>
     </row>
-    <row r="569" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K569" s="2"/>
+    <row r="569" spans="12:12" ht="13.5" customHeight="1">
       <c r="L569" s="3"/>
     </row>
-    <row r="570" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K570" s="2"/>
+    <row r="570" spans="12:12" ht="13.5" customHeight="1">
       <c r="L570" s="3"/>
     </row>
-    <row r="571" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K571" s="2"/>
+    <row r="571" spans="12:12" ht="13.5" customHeight="1">
       <c r="L571" s="3"/>
     </row>
-    <row r="572" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K572" s="2"/>
+    <row r="572" spans="12:12" ht="13.5" customHeight="1">
       <c r="L572" s="3"/>
     </row>
-    <row r="573" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K573" s="2"/>
+    <row r="573" spans="12:12" ht="13.5" customHeight="1">
       <c r="L573" s="3"/>
     </row>
-    <row r="574" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K574" s="2"/>
+    <row r="574" spans="12:12" ht="13.5" customHeight="1">
       <c r="L574" s="3"/>
     </row>
-    <row r="575" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K575" s="2"/>
+    <row r="575" spans="12:12" ht="13.5" customHeight="1">
       <c r="L575" s="3"/>
     </row>
-    <row r="576" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K576" s="2"/>
+    <row r="576" spans="12:12" ht="13.5" customHeight="1">
       <c r="L576" s="3"/>
     </row>
-    <row r="577" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K577" s="2"/>
+    <row r="577" spans="12:12" ht="13.5" customHeight="1">
       <c r="L577" s="3"/>
     </row>
-    <row r="578" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K578" s="2"/>
+    <row r="578" spans="12:12" ht="13.5" customHeight="1">
       <c r="L578" s="3"/>
     </row>
-    <row r="579" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K579" s="2"/>
+    <row r="579" spans="12:12" ht="13.5" customHeight="1">
       <c r="L579" s="3"/>
     </row>
-    <row r="580" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K580" s="2"/>
+    <row r="580" spans="12:12" ht="13.5" customHeight="1">
       <c r="L580" s="3"/>
     </row>
-    <row r="581" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K581" s="2"/>
+    <row r="581" spans="12:12" ht="13.5" customHeight="1">
       <c r="L581" s="3"/>
     </row>
-    <row r="582" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K582" s="2"/>
+    <row r="582" spans="12:12" ht="13.5" customHeight="1">
       <c r="L582" s="3"/>
     </row>
-    <row r="583" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K583" s="2"/>
+    <row r="583" spans="12:12" ht="13.5" customHeight="1">
       <c r="L583" s="3"/>
     </row>
-    <row r="584" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K584" s="2"/>
+    <row r="584" spans="12:12" ht="13.5" customHeight="1">
       <c r="L584" s="3"/>
     </row>
-    <row r="585" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K585" s="2"/>
+    <row r="585" spans="12:12" ht="13.5" customHeight="1">
       <c r="L585" s="3"/>
     </row>
-    <row r="586" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K586" s="2"/>
+    <row r="586" spans="12:12" ht="13.5" customHeight="1">
       <c r="L586" s="3"/>
     </row>
-    <row r="587" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K587" s="2"/>
+    <row r="587" spans="12:12" ht="13.5" customHeight="1">
       <c r="L587" s="3"/>
     </row>
-    <row r="588" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K588" s="2"/>
+    <row r="588" spans="12:12" ht="13.5" customHeight="1">
       <c r="L588" s="3"/>
     </row>
-    <row r="589" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K589" s="2"/>
+    <row r="589" spans="12:12" ht="13.5" customHeight="1">
       <c r="L589" s="3"/>
     </row>
-    <row r="590" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K590" s="2"/>
+    <row r="590" spans="12:12" ht="13.5" customHeight="1">
       <c r="L590" s="3"/>
     </row>
-    <row r="591" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K591" s="2"/>
+    <row r="591" spans="12:12" ht="13.5" customHeight="1">
       <c r="L591" s="3"/>
     </row>
-    <row r="592" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K592" s="2"/>
+    <row r="592" spans="12:12" ht="13.5" customHeight="1">
       <c r="L592" s="3"/>
     </row>
-    <row r="593" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K593" s="2"/>
+    <row r="593" spans="12:12" ht="13.5" customHeight="1">
       <c r="L593" s="3"/>
     </row>
-    <row r="594" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K594" s="2"/>
+    <row r="594" spans="12:12" ht="13.5" customHeight="1">
       <c r="L594" s="3"/>
     </row>
-    <row r="595" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K595" s="2"/>
+    <row r="595" spans="12:12" ht="13.5" customHeight="1">
       <c r="L595" s="3"/>
     </row>
-    <row r="596" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K596" s="2"/>
+    <row r="596" spans="12:12" ht="13.5" customHeight="1">
       <c r="L596" s="3"/>
     </row>
-    <row r="597" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K597" s="2"/>
+    <row r="597" spans="12:12" ht="13.5" customHeight="1">
       <c r="L597" s="3"/>
     </row>
-    <row r="598" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K598" s="2"/>
+    <row r="598" spans="12:12" ht="13.5" customHeight="1">
       <c r="L598" s="3"/>
     </row>
-    <row r="599" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K599" s="2"/>
+    <row r="599" spans="12:12" ht="13.5" customHeight="1">
       <c r="L599" s="3"/>
     </row>
-    <row r="600" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K600" s="2"/>
+    <row r="600" spans="12:12" ht="13.5" customHeight="1">
       <c r="L600" s="3"/>
     </row>
-    <row r="601" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K601" s="2"/>
+    <row r="601" spans="12:12" ht="13.5" customHeight="1">
       <c r="L601" s="3"/>
     </row>
-    <row r="602" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K602" s="2"/>
+    <row r="602" spans="12:12" ht="13.5" customHeight="1">
       <c r="L602" s="3"/>
     </row>
-    <row r="603" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K603" s="2"/>
+    <row r="603" spans="12:12" ht="13.5" customHeight="1">
       <c r="L603" s="3"/>
     </row>
-    <row r="604" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K604" s="2"/>
+    <row r="604" spans="12:12" ht="13.5" customHeight="1">
       <c r="L604" s="3"/>
     </row>
-    <row r="605" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K605" s="2"/>
+    <row r="605" spans="12:12" ht="13.5" customHeight="1">
       <c r="L605" s="3"/>
     </row>
-    <row r="606" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K606" s="2"/>
+    <row r="606" spans="12:12" ht="13.5" customHeight="1">
       <c r="L606" s="3"/>
     </row>
-    <row r="607" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K607" s="2"/>
+    <row r="607" spans="12:12" ht="13.5" customHeight="1">
       <c r="L607" s="3"/>
     </row>
-    <row r="608" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K608" s="2"/>
+    <row r="608" spans="12:12" ht="13.5" customHeight="1">
       <c r="L608" s="3"/>
     </row>
-    <row r="609" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K609" s="2"/>
+    <row r="609" spans="12:12" ht="13.5" customHeight="1">
       <c r="L609" s="3"/>
     </row>
-    <row r="610" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K610" s="2"/>
+    <row r="610" spans="12:12" ht="13.5" customHeight="1">
       <c r="L610" s="3"/>
     </row>
-    <row r="611" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K611" s="2"/>
+    <row r="611" spans="12:12" ht="13.5" customHeight="1">
       <c r="L611" s="3"/>
     </row>
-    <row r="612" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K612" s="2"/>
+    <row r="612" spans="12:12" ht="13.5" customHeight="1">
       <c r="L612" s="3"/>
     </row>
-    <row r="613" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K613" s="2"/>
+    <row r="613" spans="12:12" ht="13.5" customHeight="1">
       <c r="L613" s="3"/>
     </row>
-    <row r="614" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K614" s="2"/>
+    <row r="614" spans="12:12" ht="13.5" customHeight="1">
       <c r="L614" s="3"/>
     </row>
-    <row r="615" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K615" s="2"/>
+    <row r="615" spans="12:12" ht="13.5" customHeight="1">
       <c r="L615" s="3"/>
     </row>
-    <row r="616" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K616" s="2"/>
+    <row r="616" spans="12:12" ht="13.5" customHeight="1">
       <c r="L616" s="3"/>
     </row>
-    <row r="617" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K617" s="2"/>
+    <row r="617" spans="12:12" ht="13.5" customHeight="1">
       <c r="L617" s="3"/>
     </row>
-    <row r="618" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K618" s="2"/>
+    <row r="618" spans="12:12" ht="13.5" customHeight="1">
       <c r="L618" s="3"/>
     </row>
-    <row r="619" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K619" s="2"/>
+    <row r="619" spans="12:12" ht="13.5" customHeight="1">
       <c r="L619" s="3"/>
     </row>
-    <row r="620" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K620" s="2"/>
+    <row r="620" spans="12:12" ht="13.5" customHeight="1">
       <c r="L620" s="3"/>
     </row>
-    <row r="621" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K621" s="2"/>
+    <row r="621" spans="12:12" ht="13.5" customHeight="1">
       <c r="L621" s="3"/>
     </row>
-    <row r="622" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K622" s="2"/>
+    <row r="622" spans="12:12" ht="13.5" customHeight="1">
       <c r="L622" s="3"/>
     </row>
-    <row r="623" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K623" s="2"/>
+    <row r="623" spans="12:12" ht="13.5" customHeight="1">
       <c r="L623" s="3"/>
     </row>
-    <row r="624" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K624" s="2"/>
+    <row r="624" spans="12:12" ht="13.5" customHeight="1">
       <c r="L624" s="3"/>
     </row>
-    <row r="625" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K625" s="2"/>
+    <row r="625" spans="12:12" ht="13.5" customHeight="1">
       <c r="L625" s="3"/>
     </row>
-    <row r="626" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K626" s="2"/>
+    <row r="626" spans="12:12" ht="13.5" customHeight="1">
       <c r="L626" s="3"/>
     </row>
-    <row r="627" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K627" s="2"/>
+    <row r="627" spans="12:12" ht="13.5" customHeight="1">
       <c r="L627" s="3"/>
     </row>
-    <row r="628" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K628" s="2"/>
+    <row r="628" spans="12:12" ht="13.5" customHeight="1">
       <c r="L628" s="3"/>
     </row>
-    <row r="629" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K629" s="2"/>
+    <row r="629" spans="12:12" ht="13.5" customHeight="1">
       <c r="L629" s="3"/>
     </row>
-    <row r="630" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K630" s="2"/>
+    <row r="630" spans="12:12" ht="13.5" customHeight="1">
       <c r="L630" s="3"/>
     </row>
-    <row r="631" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K631" s="2"/>
+    <row r="631" spans="12:12" ht="13.5" customHeight="1">
       <c r="L631" s="3"/>
     </row>
-    <row r="632" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K632" s="2"/>
+    <row r="632" spans="12:12" ht="13.5" customHeight="1">
       <c r="L632" s="3"/>
     </row>
-    <row r="633" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K633" s="2"/>
+    <row r="633" spans="12:12" ht="13.5" customHeight="1">
       <c r="L633" s="3"/>
     </row>
-    <row r="634" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K634" s="2"/>
+    <row r="634" spans="12:12" ht="13.5" customHeight="1">
       <c r="L634" s="3"/>
     </row>
-    <row r="635" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K635" s="2"/>
+    <row r="635" spans="12:12" ht="13.5" customHeight="1">
       <c r="L635" s="3"/>
     </row>
-    <row r="636" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K636" s="2"/>
+    <row r="636" spans="12:12" ht="13.5" customHeight="1">
       <c r="L636" s="3"/>
     </row>
-    <row r="637" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K637" s="2"/>
+    <row r="637" spans="12:12" ht="13.5" customHeight="1">
       <c r="L637" s="3"/>
     </row>
-    <row r="638" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K638" s="2"/>
+    <row r="638" spans="12:12" ht="13.5" customHeight="1">
       <c r="L638" s="3"/>
     </row>
-    <row r="639" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K639" s="2"/>
+    <row r="639" spans="12:12" ht="13.5" customHeight="1">
       <c r="L639" s="3"/>
     </row>
-    <row r="640" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K640" s="2"/>
+    <row r="640" spans="12:12" ht="13.5" customHeight="1">
       <c r="L640" s="3"/>
     </row>
-    <row r="641" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K641" s="2"/>
+    <row r="641" spans="12:12" ht="13.5" customHeight="1">
       <c r="L641" s="3"/>
     </row>
-    <row r="642" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K642" s="2"/>
+    <row r="642" spans="12:12" ht="13.5" customHeight="1">
       <c r="L642" s="3"/>
     </row>
-    <row r="643" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K643" s="2"/>
+    <row r="643" spans="12:12" ht="13.5" customHeight="1">
       <c r="L643" s="3"/>
     </row>
-    <row r="644" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K644" s="2"/>
+    <row r="644" spans="12:12" ht="13.5" customHeight="1">
       <c r="L644" s="3"/>
     </row>
-    <row r="645" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K645" s="2"/>
+    <row r="645" spans="12:12" ht="13.5" customHeight="1">
       <c r="L645" s="3"/>
     </row>
-    <row r="646" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K646" s="2"/>
+    <row r="646" spans="12:12" ht="13.5" customHeight="1">
       <c r="L646" s="3"/>
     </row>
-    <row r="647" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K647" s="2"/>
+    <row r="647" spans="12:12" ht="13.5" customHeight="1">
       <c r="L647" s="3"/>
     </row>
-    <row r="648" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K648" s="2"/>
+    <row r="648" spans="12:12" ht="13.5" customHeight="1">
       <c r="L648" s="3"/>
     </row>
-    <row r="649" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K649" s="2"/>
+    <row r="649" spans="12:12" ht="13.5" customHeight="1">
       <c r="L649" s="3"/>
     </row>
-    <row r="650" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K650" s="2"/>
+    <row r="650" spans="12:12" ht="13.5" customHeight="1">
       <c r="L650" s="3"/>
     </row>
-    <row r="651" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K651" s="2"/>
+    <row r="651" spans="12:12" ht="13.5" customHeight="1">
       <c r="L651" s="3"/>
     </row>
-    <row r="652" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K652" s="2"/>
+    <row r="652" spans="12:12" ht="13.5" customHeight="1">
       <c r="L652" s="3"/>
     </row>
-    <row r="653" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K653" s="2"/>
+    <row r="653" spans="12:12" ht="13.5" customHeight="1">
       <c r="L653" s="3"/>
     </row>
-    <row r="654" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K654" s="2"/>
+    <row r="654" spans="12:12" ht="13.5" customHeight="1">
       <c r="L654" s="3"/>
     </row>
-    <row r="655" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K655" s="2"/>
+    <row r="655" spans="12:12" ht="13.5" customHeight="1">
       <c r="L655" s="3"/>
     </row>
-    <row r="656" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K656" s="2"/>
+    <row r="656" spans="12:12" ht="13.5" customHeight="1">
       <c r="L656" s="3"/>
     </row>
-    <row r="657" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K657" s="2"/>
+    <row r="657" spans="12:12" ht="13.5" customHeight="1">
       <c r="L657" s="3"/>
     </row>
-    <row r="658" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K658" s="2"/>
+    <row r="658" spans="12:12" ht="13.5" customHeight="1">
       <c r="L658" s="3"/>
     </row>
-    <row r="659" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K659" s="2"/>
+    <row r="659" spans="12:12" ht="13.5" customHeight="1">
       <c r="L659" s="3"/>
     </row>
-    <row r="660" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K660" s="2"/>
+    <row r="660" spans="12:12" ht="13.5" customHeight="1">
       <c r="L660" s="3"/>
     </row>
-    <row r="661" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K661" s="2"/>
+    <row r="661" spans="12:12" ht="13.5" customHeight="1">
       <c r="L661" s="3"/>
     </row>
-    <row r="662" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K662" s="2"/>
+    <row r="662" spans="12:12" ht="13.5" customHeight="1">
       <c r="L662" s="3"/>
     </row>
-    <row r="663" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K663" s="2"/>
+    <row r="663" spans="12:12" ht="13.5" customHeight="1">
       <c r="L663" s="3"/>
     </row>
-    <row r="664" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K664" s="2"/>
+    <row r="664" spans="12:12" ht="13.5" customHeight="1">
       <c r="L664" s="3"/>
     </row>
-    <row r="665" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K665" s="2"/>
+    <row r="665" spans="12:12" ht="13.5" customHeight="1">
       <c r="L665" s="3"/>
     </row>
-    <row r="666" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K666" s="2"/>
+    <row r="666" spans="12:12" ht="13.5" customHeight="1">
       <c r="L666" s="3"/>
     </row>
-    <row r="667" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K667" s="2"/>
+    <row r="667" spans="12:12" ht="13.5" customHeight="1">
       <c r="L667" s="3"/>
     </row>
-    <row r="668" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K668" s="2"/>
+    <row r="668" spans="12:12" ht="13.5" customHeight="1">
       <c r="L668" s="3"/>
     </row>
-    <row r="669" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K669" s="2"/>
+    <row r="669" spans="12:12" ht="13.5" customHeight="1">
       <c r="L669" s="3"/>
     </row>
-    <row r="670" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K670" s="2"/>
+    <row r="670" spans="12:12" ht="13.5" customHeight="1">
       <c r="L670" s="3"/>
     </row>
-    <row r="671" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K671" s="2"/>
+    <row r="671" spans="12:12" ht="13.5" customHeight="1">
       <c r="L671" s="3"/>
     </row>
-    <row r="672" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K672" s="2"/>
+    <row r="672" spans="12:12" ht="13.5" customHeight="1">
       <c r="L672" s="3"/>
     </row>
-    <row r="673" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K673" s="2"/>
+    <row r="673" spans="12:12" ht="13.5" customHeight="1">
       <c r="L673" s="3"/>
     </row>
-    <row r="674" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K674" s="2"/>
+    <row r="674" spans="12:12" ht="13.5" customHeight="1">
       <c r="L674" s="3"/>
     </row>
-    <row r="675" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K675" s="2"/>
+    <row r="675" spans="12:12" ht="13.5" customHeight="1">
       <c r="L675" s="3"/>
     </row>
-    <row r="676" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K676" s="2"/>
+    <row r="676" spans="12:12" ht="13.5" customHeight="1">
       <c r="L676" s="3"/>
     </row>
-    <row r="677" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K677" s="2"/>
+    <row r="677" spans="12:12" ht="13.5" customHeight="1">
       <c r="L677" s="3"/>
     </row>
-    <row r="678" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K678" s="2"/>
+    <row r="678" spans="12:12" ht="13.5" customHeight="1">
       <c r="L678" s="3"/>
     </row>
-    <row r="679" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K679" s="2"/>
+    <row r="679" spans="12:12" ht="13.5" customHeight="1">
       <c r="L679" s="3"/>
     </row>
-    <row r="680" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K680" s="2"/>
+    <row r="680" spans="12:12" ht="13.5" customHeight="1">
       <c r="L680" s="3"/>
     </row>
-    <row r="681" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K681" s="2"/>
+    <row r="681" spans="12:12" ht="13.5" customHeight="1">
       <c r="L681" s="3"/>
     </row>
-    <row r="682" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K682" s="2"/>
+    <row r="682" spans="12:12" ht="13.5" customHeight="1">
       <c r="L682" s="3"/>
     </row>
-    <row r="683" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K683" s="2"/>
+    <row r="683" spans="12:12" ht="13.5" customHeight="1">
       <c r="L683" s="3"/>
     </row>
-    <row r="684" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K684" s="2"/>
+    <row r="684" spans="12:12" ht="13.5" customHeight="1">
       <c r="L684" s="3"/>
     </row>
-    <row r="685" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K685" s="2"/>
+    <row r="685" spans="12:12" ht="13.5" customHeight="1">
       <c r="L685" s="3"/>
     </row>
-    <row r="686" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K686" s="2"/>
+    <row r="686" spans="12:12" ht="13.5" customHeight="1">
       <c r="L686" s="3"/>
     </row>
-    <row r="687" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K687" s="2"/>
+    <row r="687" spans="12:12" ht="13.5" customHeight="1">
       <c r="L687" s="3"/>
     </row>
-    <row r="688" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K688" s="2"/>
+    <row r="688" spans="12:12" ht="13.5" customHeight="1">
       <c r="L688" s="3"/>
     </row>
-    <row r="689" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K689" s="2"/>
+    <row r="689" spans="12:12" ht="13.5" customHeight="1">
       <c r="L689" s="3"/>
     </row>
-    <row r="690" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K690" s="2"/>
+    <row r="690" spans="12:12" ht="13.5" customHeight="1">
       <c r="L690" s="3"/>
     </row>
-    <row r="691" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K691" s="2"/>
+    <row r="691" spans="12:12" ht="13.5" customHeight="1">
       <c r="L691" s="3"/>
     </row>
-    <row r="692" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K692" s="2"/>
+    <row r="692" spans="12:12" ht="13.5" customHeight="1">
       <c r="L692" s="3"/>
     </row>
-    <row r="693" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K693" s="2"/>
+    <row r="693" spans="12:12" ht="13.5" customHeight="1">
       <c r="L693" s="3"/>
     </row>
-    <row r="694" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K694" s="2"/>
+    <row r="694" spans="12:12" ht="13.5" customHeight="1">
       <c r="L694" s="3"/>
     </row>
-    <row r="695" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K695" s="2"/>
+    <row r="695" spans="12:12" ht="13.5" customHeight="1">
       <c r="L695" s="3"/>
     </row>
-    <row r="696" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K696" s="2"/>
+    <row r="696" spans="12:12" ht="13.5" customHeight="1">
       <c r="L696" s="3"/>
     </row>
-    <row r="697" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K697" s="2"/>
+    <row r="697" spans="12:12" ht="13.5" customHeight="1">
       <c r="L697" s="3"/>
     </row>
-    <row r="698" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K698" s="2"/>
+    <row r="698" spans="12:12" ht="13.5" customHeight="1">
       <c r="L698" s="3"/>
     </row>
-    <row r="699" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K699" s="2"/>
+    <row r="699" spans="12:12" ht="13.5" customHeight="1">
       <c r="L699" s="3"/>
     </row>
-    <row r="700" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K700" s="2"/>
+    <row r="700" spans="12:12" ht="13.5" customHeight="1">
       <c r="L700" s="3"/>
     </row>
-    <row r="701" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K701" s="2"/>
+    <row r="701" spans="12:12" ht="13.5" customHeight="1">
       <c r="L701" s="3"/>
     </row>
-    <row r="702" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K702" s="2"/>
+    <row r="702" spans="12:12" ht="13.5" customHeight="1">
       <c r="L702" s="3"/>
     </row>
-    <row r="703" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K703" s="2"/>
+    <row r="703" spans="12:12" ht="13.5" customHeight="1">
       <c r="L703" s="3"/>
     </row>
-    <row r="704" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K704" s="2"/>
+    <row r="704" spans="12:12" ht="13.5" customHeight="1">
       <c r="L704" s="3"/>
     </row>
-    <row r="705" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K705" s="2"/>
+    <row r="705" spans="12:12" ht="13.5" customHeight="1">
       <c r="L705" s="3"/>
     </row>
-    <row r="706" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K706" s="2"/>
+    <row r="706" spans="12:12" ht="13.5" customHeight="1">
       <c r="L706" s="3"/>
     </row>
-    <row r="707" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K707" s="2"/>
+    <row r="707" spans="12:12" ht="13.5" customHeight="1">
       <c r="L707" s="3"/>
     </row>
-    <row r="708" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K708" s="2"/>
+    <row r="708" spans="12:12" ht="13.5" customHeight="1">
       <c r="L708" s="3"/>
     </row>
-    <row r="709" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K709" s="2"/>
+    <row r="709" spans="12:12" ht="13.5" customHeight="1">
       <c r="L709" s="3"/>
     </row>
-    <row r="710" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K710" s="2"/>
+    <row r="710" spans="12:12" ht="13.5" customHeight="1">
       <c r="L710" s="3"/>
     </row>
-    <row r="711" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K711" s="2"/>
+    <row r="711" spans="12:12" ht="13.5" customHeight="1">
       <c r="L711" s="3"/>
     </row>
-    <row r="712" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K712" s="2"/>
+    <row r="712" spans="12:12" ht="13.5" customHeight="1">
       <c r="L712" s="3"/>
     </row>
-    <row r="713" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K713" s="2"/>
+    <row r="713" spans="12:12" ht="13.5" customHeight="1">
       <c r="L713" s="3"/>
     </row>
-    <row r="714" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K714" s="2"/>
+    <row r="714" spans="12:12" ht="13.5" customHeight="1">
       <c r="L714" s="3"/>
     </row>
-    <row r="715" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K715" s="2"/>
+    <row r="715" spans="12:12" ht="13.5" customHeight="1">
       <c r="L715" s="3"/>
     </row>
-    <row r="716" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K716" s="2"/>
+    <row r="716" spans="12:12" ht="13.5" customHeight="1">
       <c r="L716" s="3"/>
     </row>
-    <row r="717" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K717" s="2"/>
+    <row r="717" spans="12:12" ht="13.5" customHeight="1">
       <c r="L717" s="3"/>
     </row>
-    <row r="718" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K718" s="2"/>
+    <row r="718" spans="12:12" ht="13.5" customHeight="1">
       <c r="L718" s="3"/>
     </row>
-    <row r="719" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K719" s="2"/>
+    <row r="719" spans="12:12" ht="13.5" customHeight="1">
       <c r="L719" s="3"/>
     </row>
-    <row r="720" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K720" s="2"/>
+    <row r="720" spans="12:12" ht="13.5" customHeight="1">
       <c r="L720" s="3"/>
     </row>
-    <row r="721" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K721" s="2"/>
+    <row r="721" spans="12:12" ht="13.5" customHeight="1">
       <c r="L721" s="3"/>
     </row>
-    <row r="722" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K722" s="2"/>
+    <row r="722" spans="12:12" ht="13.5" customHeight="1">
       <c r="L722" s="3"/>
     </row>
-    <row r="723" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K723" s="2"/>
+    <row r="723" spans="12:12" ht="13.5" customHeight="1">
       <c r="L723" s="3"/>
     </row>
-    <row r="724" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K724" s="2"/>
+    <row r="724" spans="12:12" ht="13.5" customHeight="1">
       <c r="L724" s="3"/>
     </row>
-    <row r="725" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K725" s="2"/>
+    <row r="725" spans="12:12" ht="13.5" customHeight="1">
       <c r="L725" s="3"/>
     </row>
-    <row r="726" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K726" s="2"/>
+    <row r="726" spans="12:12" ht="13.5" customHeight="1">
       <c r="L726" s="3"/>
     </row>
-    <row r="727" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K727" s="2"/>
+    <row r="727" spans="12:12" ht="13.5" customHeight="1">
       <c r="L727" s="3"/>
     </row>
-    <row r="728" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K728" s="2"/>
+    <row r="728" spans="12:12" ht="13.5" customHeight="1">
       <c r="L728" s="3"/>
     </row>
-    <row r="729" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K729" s="2"/>
+    <row r="729" spans="12:12" ht="13.5" customHeight="1">
       <c r="L729" s="3"/>
     </row>
-    <row r="730" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K730" s="2"/>
+    <row r="730" spans="12:12" ht="13.5" customHeight="1">
       <c r="L730" s="3"/>
     </row>
-    <row r="731" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K731" s="2"/>
+    <row r="731" spans="12:12" ht="13.5" customHeight="1">
       <c r="L731" s="3"/>
     </row>
-    <row r="732" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K732" s="2"/>
+    <row r="732" spans="12:12" ht="13.5" customHeight="1">
       <c r="L732" s="3"/>
     </row>
-    <row r="733" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K733" s="2"/>
+    <row r="733" spans="12:12" ht="13.5" customHeight="1">
       <c r="L733" s="3"/>
     </row>
-    <row r="734" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K734" s="2"/>
+    <row r="734" spans="12:12" ht="13.5" customHeight="1">
       <c r="L734" s="3"/>
     </row>
-    <row r="735" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K735" s="2"/>
+    <row r="735" spans="12:12" ht="13.5" customHeight="1">
       <c r="L735" s="3"/>
     </row>
-    <row r="736" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K736" s="2"/>
+    <row r="736" spans="12:12" ht="13.5" customHeight="1">
       <c r="L736" s="3"/>
     </row>
-    <row r="737" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K737" s="2"/>
+    <row r="737" spans="12:12" ht="13.5" customHeight="1">
       <c r="L737" s="3"/>
     </row>
-    <row r="738" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K738" s="2"/>
+    <row r="738" spans="12:12" ht="13.5" customHeight="1">
       <c r="L738" s="3"/>
     </row>
-    <row r="739" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K739" s="2"/>
+    <row r="739" spans="12:12" ht="13.5" customHeight="1">
       <c r="L739" s="3"/>
     </row>
-    <row r="740" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K740" s="2"/>
+    <row r="740" spans="12:12" ht="13.5" customHeight="1">
       <c r="L740" s="3"/>
     </row>
-    <row r="741" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K741" s="2"/>
+    <row r="741" spans="12:12" ht="13.5" customHeight="1">
       <c r="L741" s="3"/>
     </row>
-    <row r="742" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K742" s="2"/>
+    <row r="742" spans="12:12" ht="13.5" customHeight="1">
       <c r="L742" s="3"/>
     </row>
-    <row r="743" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K743" s="2"/>
+    <row r="743" spans="12:12" ht="13.5" customHeight="1">
       <c r="L743" s="3"/>
     </row>
-    <row r="744" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K744" s="2"/>
+    <row r="744" spans="12:12" ht="13.5" customHeight="1">
       <c r="L744" s="3"/>
     </row>
-    <row r="745" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K745" s="2"/>
+    <row r="745" spans="12:12" ht="13.5" customHeight="1">
       <c r="L745" s="3"/>
     </row>
-    <row r="746" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K746" s="2"/>
+    <row r="746" spans="12:12" ht="13.5" customHeight="1">
       <c r="L746" s="3"/>
     </row>
-    <row r="747" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K747" s="2"/>
+    <row r="747" spans="12:12" ht="13.5" customHeight="1">
       <c r="L747" s="3"/>
     </row>
-    <row r="748" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K748" s="2"/>
+    <row r="748" spans="12:12" ht="13.5" customHeight="1">
       <c r="L748" s="3"/>
     </row>
-    <row r="749" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K749" s="2"/>
+    <row r="749" spans="12:12" ht="13.5" customHeight="1">
       <c r="L749" s="3"/>
     </row>
-    <row r="750" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K750" s="2"/>
+    <row r="750" spans="12:12" ht="13.5" customHeight="1">
       <c r="L750" s="3"/>
     </row>
-    <row r="751" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K751" s="2"/>
+    <row r="751" spans="12:12" ht="13.5" customHeight="1">
       <c r="L751" s="3"/>
     </row>
-    <row r="752" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K752" s="2"/>
+    <row r="752" spans="12:12" ht="13.5" customHeight="1">
       <c r="L752" s="3"/>
     </row>
-    <row r="753" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K753" s="2"/>
+    <row r="753" spans="12:12" ht="13.5" customHeight="1">
       <c r="L753" s="3"/>
     </row>
-    <row r="754" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K754" s="2"/>
+    <row r="754" spans="12:12" ht="13.5" customHeight="1">
       <c r="L754" s="3"/>
     </row>
-    <row r="755" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K755" s="2"/>
+    <row r="755" spans="12:12" ht="13.5" customHeight="1">
       <c r="L755" s="3"/>
     </row>
-    <row r="756" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K756" s="2"/>
+    <row r="756" spans="12:12" ht="13.5" customHeight="1">
       <c r="L756" s="3"/>
     </row>
-    <row r="757" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K757" s="2"/>
+    <row r="757" spans="12:12" ht="13.5" customHeight="1">
       <c r="L757" s="3"/>
     </row>
-    <row r="758" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K758" s="2"/>
+    <row r="758" spans="12:12" ht="13.5" customHeight="1">
       <c r="L758" s="3"/>
     </row>
-    <row r="759" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K759" s="2"/>
+    <row r="759" spans="12:12" ht="13.5" customHeight="1">
       <c r="L759" s="3"/>
     </row>
-    <row r="760" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K760" s="2"/>
+    <row r="760" spans="12:12" ht="13.5" customHeight="1">
       <c r="L760" s="3"/>
     </row>
-    <row r="761" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K761" s="2"/>
+    <row r="761" spans="12:12" ht="13.5" customHeight="1">
       <c r="L761" s="3"/>
     </row>
-    <row r="762" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K762" s="2"/>
+    <row r="762" spans="12:12" ht="13.5" customHeight="1">
       <c r="L762" s="3"/>
     </row>
-    <row r="763" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K763" s="2"/>
+    <row r="763" spans="12:12" ht="13.5" customHeight="1">
       <c r="L763" s="3"/>
     </row>
-    <row r="764" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K764" s="2"/>
+    <row r="764" spans="12:12" ht="13.5" customHeight="1">
       <c r="L764" s="3"/>
     </row>
-    <row r="765" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K765" s="2"/>
+    <row r="765" spans="12:12" ht="13.5" customHeight="1">
       <c r="L765" s="3"/>
     </row>
-    <row r="766" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K766" s="2"/>
+    <row r="766" spans="12:12" ht="13.5" customHeight="1">
       <c r="L766" s="3"/>
     </row>
-    <row r="767" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K767" s="2"/>
+    <row r="767" spans="12:12" ht="13.5" customHeight="1">
       <c r="L767" s="3"/>
     </row>
-    <row r="768" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K768" s="2"/>
+    <row r="768" spans="12:12" ht="13.5" customHeight="1">
       <c r="L768" s="3"/>
     </row>
-    <row r="769" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K769" s="2"/>
+    <row r="769" spans="12:12" ht="13.5" customHeight="1">
       <c r="L769" s="3"/>
     </row>
-    <row r="770" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K770" s="2"/>
+    <row r="770" spans="12:12" ht="13.5" customHeight="1">
       <c r="L770" s="3"/>
     </row>
-    <row r="771" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K771" s="2"/>
+    <row r="771" spans="12:12" ht="13.5" customHeight="1">
       <c r="L771" s="3"/>
     </row>
-    <row r="772" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K772" s="2"/>
+    <row r="772" spans="12:12" ht="13.5" customHeight="1">
       <c r="L772" s="3"/>
     </row>
-    <row r="773" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K773" s="2"/>
+    <row r="773" spans="12:12" ht="13.5" customHeight="1">
       <c r="L773" s="3"/>
     </row>
-    <row r="774" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K774" s="2"/>
+    <row r="774" spans="12:12" ht="13.5" customHeight="1">
       <c r="L774" s="3"/>
     </row>
-    <row r="775" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K775" s="2"/>
+    <row r="775" spans="12:12" ht="13.5" customHeight="1">
       <c r="L775" s="3"/>
     </row>
-    <row r="776" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K776" s="2"/>
+    <row r="776" spans="12:12" ht="13.5" customHeight="1">
       <c r="L776" s="3"/>
     </row>
-    <row r="777" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K777" s="2"/>
+    <row r="777" spans="12:12" ht="13.5" customHeight="1">
       <c r="L777" s="3"/>
     </row>
-    <row r="778" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K778" s="2"/>
+    <row r="778" spans="12:12" ht="13.5" customHeight="1">
       <c r="L778" s="3"/>
     </row>
-    <row r="779" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K779" s="2"/>
+    <row r="779" spans="12:12" ht="13.5" customHeight="1">
       <c r="L779" s="3"/>
     </row>
-    <row r="780" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K780" s="2"/>
+    <row r="780" spans="12:12" ht="13.5" customHeight="1">
       <c r="L780" s="3"/>
     </row>
-    <row r="781" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K781" s="2"/>
+    <row r="781" spans="12:12" ht="13.5" customHeight="1">
       <c r="L781" s="3"/>
     </row>
-    <row r="782" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K782" s="2"/>
+    <row r="782" spans="12:12" ht="13.5" customHeight="1">
       <c r="L782" s="3"/>
     </row>
-    <row r="783" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K783" s="2"/>
+    <row r="783" spans="12:12" ht="13.5" customHeight="1">
       <c r="L783" s="3"/>
     </row>
-    <row r="784" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K784" s="2"/>
+    <row r="784" spans="12:12" ht="13.5" customHeight="1">
       <c r="L784" s="3"/>
     </row>
-    <row r="785" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K785" s="2"/>
+    <row r="785" spans="12:12" ht="13.5" customHeight="1">
       <c r="L785" s="3"/>
     </row>
-    <row r="786" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K786" s="2"/>
+    <row r="786" spans="12:12" ht="13.5" customHeight="1">
       <c r="L786" s="3"/>
     </row>
-    <row r="787" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K787" s="2"/>
+    <row r="787" spans="12:12" ht="13.5" customHeight="1">
       <c r="L787" s="3"/>
     </row>
-    <row r="788" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K788" s="2"/>
+    <row r="788" spans="12:12" ht="13.5" customHeight="1">
       <c r="L788" s="3"/>
     </row>
-    <row r="789" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K789" s="2"/>
+    <row r="789" spans="12:12" ht="13.5" customHeight="1">
       <c r="L789" s="3"/>
     </row>
-    <row r="790" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K790" s="2"/>
+    <row r="790" spans="12:12" ht="13.5" customHeight="1">
       <c r="L790" s="3"/>
     </row>
-    <row r="791" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K791" s="2"/>
+    <row r="791" spans="12:12" ht="13.5" customHeight="1">
       <c r="L791" s="3"/>
     </row>
-    <row r="792" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K792" s="2"/>
+    <row r="792" spans="12:12" ht="13.5" customHeight="1">
       <c r="L792" s="3"/>
     </row>
-    <row r="793" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K793" s="2"/>
+    <row r="793" spans="12:12" ht="13.5" customHeight="1">
       <c r="L793" s="3"/>
     </row>
-    <row r="794" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K794" s="2"/>
+    <row r="794" spans="12:12" ht="13.5" customHeight="1">
       <c r="L794" s="3"/>
     </row>
-    <row r="795" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K795" s="2"/>
+    <row r="795" spans="12:12" ht="13.5" customHeight="1">
       <c r="L795" s="3"/>
     </row>
-    <row r="796" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K796" s="2"/>
+    <row r="796" spans="12:12" ht="13.5" customHeight="1">
       <c r="L796" s="3"/>
     </row>
-    <row r="797" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K797" s="2"/>
+    <row r="797" spans="12:12" ht="13.5" customHeight="1">
       <c r="L797" s="3"/>
     </row>
-    <row r="798" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K798" s="2"/>
+    <row r="798" spans="12:12" ht="13.5" customHeight="1">
       <c r="L798" s="3"/>
     </row>
-    <row r="799" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K799" s="2"/>
+    <row r="799" spans="12:12" ht="13.5" customHeight="1">
       <c r="L799" s="3"/>
     </row>
-    <row r="800" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K800" s="2"/>
+    <row r="800" spans="12:12" ht="13.5" customHeight="1">
       <c r="L800" s="3"/>
     </row>
-    <row r="801" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K801" s="2"/>
+    <row r="801" spans="12:12" ht="13.5" customHeight="1">
       <c r="L801" s="3"/>
     </row>
-    <row r="802" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K802" s="2"/>
+    <row r="802" spans="12:12" ht="13.5" customHeight="1">
       <c r="L802" s="3"/>
     </row>
-    <row r="803" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K803" s="2"/>
+    <row r="803" spans="12:12" ht="13.5" customHeight="1">
       <c r="L803" s="3"/>
     </row>
-    <row r="804" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K804" s="2"/>
+    <row r="804" spans="12:12" ht="13.5" customHeight="1">
       <c r="L804" s="3"/>
     </row>
-    <row r="805" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K805" s="2"/>
+    <row r="805" spans="12:12" ht="13.5" customHeight="1">
       <c r="L805" s="3"/>
     </row>
-    <row r="806" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K806" s="2"/>
+    <row r="806" spans="12:12" ht="13.5" customHeight="1">
       <c r="L806" s="3"/>
     </row>
-    <row r="807" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K807" s="2"/>
+    <row r="807" spans="12:12" ht="13.5" customHeight="1">
       <c r="L807" s="3"/>
     </row>
-    <row r="808" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K808" s="2"/>
+    <row r="808" spans="12:12" ht="13.5" customHeight="1">
       <c r="L808" s="3"/>
     </row>
-    <row r="809" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K809" s="2"/>
+    <row r="809" spans="12:12" ht="13.5" customHeight="1">
       <c r="L809" s="3"/>
     </row>
-    <row r="810" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K810" s="2"/>
+    <row r="810" spans="12:12" ht="13.5" customHeight="1">
       <c r="L810" s="3"/>
     </row>
-    <row r="811" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K811" s="2"/>
+    <row r="811" spans="12:12" ht="13.5" customHeight="1">
       <c r="L811" s="3"/>
     </row>
-    <row r="812" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K812" s="2"/>
+    <row r="812" spans="12:12" ht="13.5" customHeight="1">
       <c r="L812" s="3"/>
     </row>
-    <row r="813" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K813" s="2"/>
+    <row r="813" spans="12:12" ht="13.5" customHeight="1">
       <c r="L813" s="3"/>
     </row>
-    <row r="814" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K814" s="2"/>
+    <row r="814" spans="12:12" ht="13.5" customHeight="1">
       <c r="L814" s="3"/>
     </row>
-    <row r="815" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K815" s="2"/>
+    <row r="815" spans="12:12" ht="13.5" customHeight="1">
       <c r="L815" s="3"/>
     </row>
-    <row r="816" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K816" s="2"/>
+    <row r="816" spans="12:12" ht="13.5" customHeight="1">
       <c r="L816" s="3"/>
     </row>
-    <row r="817" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K817" s="2"/>
+    <row r="817" spans="12:12" ht="13.5" customHeight="1">
       <c r="L817" s="3"/>
     </row>
-    <row r="818" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K818" s="2"/>
+    <row r="818" spans="12:12" ht="13.5" customHeight="1">
       <c r="L818" s="3"/>
     </row>
-    <row r="819" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K819" s="2"/>
+    <row r="819" spans="12:12" ht="13.5" customHeight="1">
       <c r="L819" s="3"/>
     </row>
-    <row r="820" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K820" s="2"/>
+    <row r="820" spans="12:12" ht="13.5" customHeight="1">
       <c r="L820" s="3"/>
     </row>
-    <row r="821" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K821" s="2"/>
+    <row r="821" spans="12:12" ht="13.5" customHeight="1">
       <c r="L821" s="3"/>
     </row>
-    <row r="822" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K822" s="2"/>
+    <row r="822" spans="12:12" ht="13.5" customHeight="1">
       <c r="L822" s="3"/>
     </row>
-    <row r="823" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K823" s="2"/>
+    <row r="823" spans="12:12" ht="13.5" customHeight="1">
       <c r="L823" s="3"/>
     </row>
-    <row r="824" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K824" s="2"/>
+    <row r="824" spans="12:12" ht="13.5" customHeight="1">
       <c r="L824" s="3"/>
     </row>
-    <row r="825" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K825" s="2"/>
+    <row r="825" spans="12:12" ht="13.5" customHeight="1">
       <c r="L825" s="3"/>
     </row>
-    <row r="826" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K826" s="2"/>
+    <row r="826" spans="12:12" ht="13.5" customHeight="1">
       <c r="L826" s="3"/>
     </row>
-    <row r="827" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K827" s="2"/>
+    <row r="827" spans="12:12" ht="13.5" customHeight="1">
       <c r="L827" s="3"/>
     </row>
-    <row r="828" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K828" s="2"/>
+    <row r="828" spans="12:12" ht="13.5" customHeight="1">
       <c r="L828" s="3"/>
     </row>
-    <row r="829" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K829" s="2"/>
+    <row r="829" spans="12:12" ht="13.5" customHeight="1">
       <c r="L829" s="3"/>
     </row>
-    <row r="830" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K830" s="2"/>
+    <row r="830" spans="12:12" ht="13.5" customHeight="1">
       <c r="L830" s="3"/>
     </row>
-    <row r="831" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K831" s="2"/>
+    <row r="831" spans="12:12" ht="13.5" customHeight="1">
       <c r="L831" s="3"/>
     </row>
-    <row r="832" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K832" s="2"/>
+    <row r="832" spans="12:12" ht="13.5" customHeight="1">
       <c r="L832" s="3"/>
     </row>
-    <row r="833" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K833" s="2"/>
+    <row r="833" spans="12:12" ht="13.5" customHeight="1">
       <c r="L833" s="3"/>
     </row>
-    <row r="834" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K834" s="2"/>
+    <row r="834" spans="12:12" ht="13.5" customHeight="1">
       <c r="L834" s="3"/>
     </row>
-    <row r="835" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K835" s="2"/>
+    <row r="835" spans="12:12" ht="13.5" customHeight="1">
       <c r="L835" s="3"/>
     </row>
-    <row r="836" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K836" s="2"/>
+    <row r="836" spans="12:12" ht="13.5" customHeight="1">
       <c r="L836" s="3"/>
     </row>
-    <row r="837" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K837" s="2"/>
+    <row r="837" spans="12:12" ht="13.5" customHeight="1">
       <c r="L837" s="3"/>
     </row>
-    <row r="838" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K838" s="2"/>
+    <row r="838" spans="12:12" ht="13.5" customHeight="1">
       <c r="L838" s="3"/>
     </row>
-    <row r="839" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K839" s="2"/>
+    <row r="839" spans="12:12" ht="13.5" customHeight="1">
       <c r="L839" s="3"/>
     </row>
-    <row r="840" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K840" s="2"/>
+    <row r="840" spans="12:12" ht="13.5" customHeight="1">
       <c r="L840" s="3"/>
     </row>
-    <row r="841" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K841" s="2"/>
+    <row r="841" spans="12:12" ht="13.5" customHeight="1">
       <c r="L841" s="3"/>
     </row>
-    <row r="842" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K842" s="2"/>
+    <row r="842" spans="12:12" ht="13.5" customHeight="1">
       <c r="L842" s="3"/>
     </row>
-    <row r="843" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K843" s="2"/>
+    <row r="843" spans="12:12" ht="13.5" customHeight="1">
       <c r="L843" s="3"/>
     </row>
-    <row r="844" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K844" s="2"/>
+    <row r="844" spans="12:12" ht="13.5" customHeight="1">
       <c r="L844" s="3"/>
     </row>
-    <row r="845" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K845" s="2"/>
+    <row r="845" spans="12:12" ht="13.5" customHeight="1">
       <c r="L845" s="3"/>
     </row>
-    <row r="846" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K846" s="2"/>
+    <row r="846" spans="12:12" ht="13.5" customHeight="1">
       <c r="L846" s="3"/>
     </row>
-    <row r="847" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K847" s="2"/>
+    <row r="847" spans="12:12" ht="13.5" customHeight="1">
       <c r="L847" s="3"/>
     </row>
-    <row r="848" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K848" s="2"/>
+    <row r="848" spans="12:12" ht="13.5" customHeight="1">
       <c r="L848" s="3"/>
     </row>
-    <row r="849" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K849" s="2"/>
+    <row r="849" spans="12:12" ht="13.5" customHeight="1">
       <c r="L849" s="3"/>
     </row>
-    <row r="850" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K850" s="2"/>
+    <row r="850" spans="12:12" ht="13.5" customHeight="1">
       <c r="L850" s="3"/>
     </row>
-    <row r="851" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K851" s="2"/>
+    <row r="851" spans="12:12" ht="13.5" customHeight="1">
       <c r="L851" s="3"/>
     </row>
-    <row r="852" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K852" s="2"/>
+    <row r="852" spans="12:12" ht="13.5" customHeight="1">
       <c r="L852" s="3"/>
     </row>
-    <row r="853" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K853" s="2"/>
+    <row r="853" spans="12:12" ht="13.5" customHeight="1">
       <c r="L853" s="3"/>
     </row>
-    <row r="854" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K854" s="2"/>
+    <row r="854" spans="12:12" ht="13.5" customHeight="1">
       <c r="L854" s="3"/>
     </row>
-    <row r="855" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K855" s="2"/>
+    <row r="855" spans="12:12" ht="13.5" customHeight="1">
       <c r="L855" s="3"/>
     </row>
-    <row r="856" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K856" s="2"/>
+    <row r="856" spans="12:12" ht="13.5" customHeight="1">
       <c r="L856" s="3"/>
     </row>
-    <row r="857" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K857" s="2"/>
+    <row r="857" spans="12:12" ht="13.5" customHeight="1">
       <c r="L857" s="3"/>
     </row>
-    <row r="858" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K858" s="2"/>
+    <row r="858" spans="12:12" ht="13.5" customHeight="1">
       <c r="L858" s="3"/>
     </row>
-    <row r="859" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K859" s="2"/>
+    <row r="859" spans="12:12" ht="13.5" customHeight="1">
       <c r="L859" s="3"/>
     </row>
-    <row r="860" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K860" s="2"/>
+    <row r="860" spans="12:12" ht="13.5" customHeight="1">
       <c r="L860" s="3"/>
     </row>
-    <row r="861" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K861" s="2"/>
+    <row r="861" spans="12:12" ht="13.5" customHeight="1">
       <c r="L861" s="3"/>
     </row>
-    <row r="862" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K862" s="2"/>
+    <row r="862" spans="12:12" ht="13.5" customHeight="1">
       <c r="L862" s="3"/>
     </row>
-    <row r="863" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K863" s="2"/>
+    <row r="863" spans="12:12" ht="13.5" customHeight="1">
       <c r="L863" s="3"/>
     </row>
-    <row r="864" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K864" s="2"/>
+    <row r="864" spans="12:12" ht="13.5" customHeight="1">
       <c r="L864" s="3"/>
     </row>
-    <row r="865" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K865" s="2"/>
+    <row r="865" spans="12:12" ht="13.5" customHeight="1">
       <c r="L865" s="3"/>
     </row>
-    <row r="866" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K866" s="2"/>
+    <row r="866" spans="12:12" ht="13.5" customHeight="1">
       <c r="L866" s="3"/>
     </row>
-    <row r="867" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K867" s="2"/>
+    <row r="867" spans="12:12" ht="13.5" customHeight="1">
       <c r="L867" s="3"/>
     </row>
-    <row r="868" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K868" s="2"/>
+    <row r="868" spans="12:12" ht="13.5" customHeight="1">
       <c r="L868" s="3"/>
     </row>
-    <row r="869" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K869" s="2"/>
+    <row r="869" spans="12:12" ht="13.5" customHeight="1">
       <c r="L869" s="3"/>
     </row>
-    <row r="870" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K870" s="2"/>
+    <row r="870" spans="12:12" ht="13.5" customHeight="1">
       <c r="L870" s="3"/>
     </row>
-    <row r="871" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K871" s="2"/>
+    <row r="871" spans="12:12" ht="13.5" customHeight="1">
       <c r="L871" s="3"/>
     </row>
-    <row r="872" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K872" s="2"/>
+    <row r="872" spans="12:12" ht="13.5" customHeight="1">
       <c r="L872" s="3"/>
     </row>
-    <row r="873" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K873" s="2"/>
+    <row r="873" spans="12:12" ht="13.5" customHeight="1">
       <c r="L873" s="3"/>
     </row>
-    <row r="874" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K874" s="2"/>
+    <row r="874" spans="12:12" ht="13.5" customHeight="1">
       <c r="L874" s="3"/>
     </row>
-    <row r="875" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K875" s="2"/>
+    <row r="875" spans="12:12" ht="13.5" customHeight="1">
       <c r="L875" s="3"/>
     </row>
-    <row r="876" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K876" s="2"/>
+    <row r="876" spans="12:12" ht="13.5" customHeight="1">
       <c r="L876" s="3"/>
     </row>
-    <row r="877" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K877" s="2"/>
+    <row r="877" spans="12:12" ht="13.5" customHeight="1">
       <c r="L877" s="3"/>
     </row>
-    <row r="878" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K878" s="2"/>
+    <row r="878" spans="12:12" ht="13.5" customHeight="1">
       <c r="L878" s="3"/>
     </row>
-    <row r="879" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K879" s="2"/>
+    <row r="879" spans="12:12" ht="13.5" customHeight="1">
       <c r="L879" s="3"/>
     </row>
-    <row r="880" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K880" s="2"/>
+    <row r="880" spans="12:12" ht="13.5" customHeight="1">
       <c r="L880" s="3"/>
     </row>
-    <row r="881" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K881" s="2"/>
+    <row r="881" spans="12:12" ht="13.5" customHeight="1">
       <c r="L881" s="3"/>
     </row>
-    <row r="882" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K882" s="2"/>
+    <row r="882" spans="12:12" ht="13.5" customHeight="1">
       <c r="L882" s="3"/>
     </row>
-    <row r="883" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K883" s="2"/>
+    <row r="883" spans="12:12" ht="13.5" customHeight="1">
       <c r="L883" s="3"/>
     </row>
-    <row r="884" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K884" s="2"/>
+    <row r="884" spans="12:12" ht="13.5" customHeight="1">
       <c r="L884" s="3"/>
     </row>
-    <row r="885" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K885" s="2"/>
+    <row r="885" spans="12:12" ht="13.5" customHeight="1">
       <c r="L885" s="3"/>
     </row>
-    <row r="886" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K886" s="2"/>
+    <row r="886" spans="12:12" ht="13.5" customHeight="1">
       <c r="L886" s="3"/>
     </row>
-    <row r="887" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K887" s="2"/>
+    <row r="887" spans="12:12" ht="13.5" customHeight="1">
       <c r="L887" s="3"/>
     </row>
-    <row r="888" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K888" s="2"/>
+    <row r="888" spans="12:12" ht="13.5" customHeight="1">
       <c r="L888" s="3"/>
     </row>
-    <row r="889" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K889" s="2"/>
+    <row r="889" spans="12:12" ht="13.5" customHeight="1">
       <c r="L889" s="3"/>
     </row>
-    <row r="890" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K890" s="2"/>
+    <row r="890" spans="12:12" ht="13.5" customHeight="1">
       <c r="L890" s="3"/>
     </row>
-    <row r="891" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K891" s="2"/>
+    <row r="891" spans="12:12" ht="13.5" customHeight="1">
       <c r="L891" s="3"/>
     </row>
-    <row r="892" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K892" s="2"/>
+    <row r="892" spans="12:12" ht="13.5" customHeight="1">
       <c r="L892" s="3"/>
     </row>
-    <row r="893" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K893" s="2"/>
+    <row r="893" spans="12:12" ht="13.5" customHeight="1">
       <c r="L893" s="3"/>
     </row>
-    <row r="894" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K894" s="2"/>
+    <row r="894" spans="12:12" ht="13.5" customHeight="1">
       <c r="L894" s="3"/>
     </row>
-    <row r="895" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K895" s="2"/>
+    <row r="895" spans="12:12" ht="13.5" customHeight="1">
       <c r="L895" s="3"/>
     </row>
-    <row r="896" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K896" s="2"/>
+    <row r="896" spans="12:12" ht="13.5" customHeight="1">
       <c r="L896" s="3"/>
     </row>
-    <row r="897" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K897" s="2"/>
+    <row r="897" spans="12:12" ht="13.5" customHeight="1">
       <c r="L897" s="3"/>
     </row>
-    <row r="898" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K898" s="2"/>
+    <row r="898" spans="12:12" ht="13.5" customHeight="1">
       <c r="L898" s="3"/>
     </row>
-    <row r="899" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K899" s="2"/>
+    <row r="899" spans="12:12" ht="13.5" customHeight="1">
       <c r="L899" s="3"/>
     </row>
-    <row r="900" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K900" s="2"/>
+    <row r="900" spans="12:12" ht="13.5" customHeight="1">
       <c r="L900" s="3"/>
     </row>
-    <row r="901" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K901" s="2"/>
+    <row r="901" spans="12:12" ht="13.5" customHeight="1">
       <c r="L901" s="3"/>
     </row>
-    <row r="902" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K902" s="2"/>
+    <row r="902" spans="12:12" ht="13.5" customHeight="1">
       <c r="L902" s="3"/>
     </row>
-    <row r="903" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K903" s="2"/>
+    <row r="903" spans="12:12" ht="13.5" customHeight="1">
       <c r="L903" s="3"/>
     </row>
-    <row r="904" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K904" s="2"/>
+    <row r="904" spans="12:12" ht="13.5" customHeight="1">
       <c r="L904" s="3"/>
     </row>
-    <row r="905" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K905" s="2"/>
+    <row r="905" spans="12:12" ht="13.5" customHeight="1">
       <c r="L905" s="3"/>
     </row>
-    <row r="906" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K906" s="2"/>
+    <row r="906" spans="12:12" ht="13.5" customHeight="1">
       <c r="L906" s="3"/>
     </row>
-    <row r="907" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K907" s="2"/>
+    <row r="907" spans="12:12" ht="13.5" customHeight="1">
       <c r="L907" s="3"/>
     </row>
-    <row r="908" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K908" s="2"/>
+    <row r="908" spans="12:12" ht="13.5" customHeight="1">
       <c r="L908" s="3"/>
     </row>
-    <row r="909" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K909" s="2"/>
+    <row r="909" spans="12:12" ht="13.5" customHeight="1">
       <c r="L909" s="3"/>
     </row>
-    <row r="910" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K910" s="2"/>
+    <row r="910" spans="12:12" ht="13.5" customHeight="1">
       <c r="L910" s="3"/>
     </row>
-    <row r="911" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K911" s="2"/>
+    <row r="911" spans="12:12" ht="13.5" customHeight="1">
       <c r="L911" s="3"/>
     </row>
-    <row r="912" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K912" s="2"/>
+    <row r="912" spans="12:12" ht="13.5" customHeight="1">
       <c r="L912" s="3"/>
     </row>
-    <row r="913" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K913" s="2"/>
+    <row r="913" spans="12:12" ht="13.5" customHeight="1">
       <c r="L913" s="3"/>
     </row>
-    <row r="914" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K914" s="2"/>
+    <row r="914" spans="12:12" ht="13.5" customHeight="1">
       <c r="L914" s="3"/>
     </row>
-    <row r="915" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K915" s="2"/>
+    <row r="915" spans="12:12" ht="13.5" customHeight="1">
       <c r="L915" s="3"/>
     </row>
-    <row r="916" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K916" s="2"/>
+    <row r="916" spans="12:12" ht="13.5" customHeight="1">
       <c r="L916" s="3"/>
     </row>
-    <row r="917" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K917" s="2"/>
+    <row r="917" spans="12:12" ht="13.5" customHeight="1">
       <c r="L917" s="3"/>
     </row>
-    <row r="918" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K918" s="2"/>
+    <row r="918" spans="12:12" ht="13.5" customHeight="1">
       <c r="L918" s="3"/>
     </row>
-    <row r="919" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K919" s="2"/>
+    <row r="919" spans="12:12" ht="13.5" customHeight="1">
       <c r="L919" s="3"/>
     </row>
-    <row r="920" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K920" s="2"/>
+    <row r="920" spans="12:12" ht="13.5" customHeight="1">
       <c r="L920" s="3"/>
     </row>
-    <row r="921" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K921" s="2"/>
+    <row r="921" spans="12:12" ht="13.5" customHeight="1">
       <c r="L921" s="3"/>
     </row>
-    <row r="922" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K922" s="2"/>
+    <row r="922" spans="12:12" ht="13.5" customHeight="1">
       <c r="L922" s="3"/>
     </row>
-    <row r="923" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K923" s="2"/>
+    <row r="923" spans="12:12" ht="13.5" customHeight="1">
       <c r="L923" s="3"/>
     </row>
-    <row r="924" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K924" s="2"/>
+    <row r="924" spans="12:12" ht="13.5" customHeight="1">
       <c r="L924" s="3"/>
     </row>
-    <row r="925" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K925" s="2"/>
+    <row r="925" spans="12:12" ht="13.5" customHeight="1">
       <c r="L925" s="3"/>
     </row>
-    <row r="926" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K926" s="2"/>
+    <row r="926" spans="12:12" ht="13.5" customHeight="1">
       <c r="L926" s="3"/>
     </row>
-    <row r="927" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K927" s="2"/>
+    <row r="927" spans="12:12" ht="13.5" customHeight="1">
       <c r="L927" s="3"/>
     </row>
-    <row r="928" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K928" s="2"/>
+    <row r="928" spans="12:12" ht="13.5" customHeight="1">
       <c r="L928" s="3"/>
     </row>
-    <row r="929" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K929" s="2"/>
+    <row r="929" spans="12:12" ht="13.5" customHeight="1">
       <c r="L929" s="3"/>
     </row>
-    <row r="930" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K930" s="2"/>
+    <row r="930" spans="12:12" ht="13.5" customHeight="1">
       <c r="L930" s="3"/>
     </row>
-    <row r="931" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K931" s="2"/>
+    <row r="931" spans="12:12" ht="13.5" customHeight="1">
       <c r="L931" s="3"/>
     </row>
-    <row r="932" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K932" s="2"/>
+    <row r="932" spans="12:12" ht="13.5" customHeight="1">
       <c r="L932" s="3"/>
     </row>
-    <row r="933" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K933" s="2"/>
+    <row r="933" spans="12:12" ht="13.5" customHeight="1">
       <c r="L933" s="3"/>
     </row>
-    <row r="934" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K934" s="2"/>
+    <row r="934" spans="12:12" ht="13.5" customHeight="1">
       <c r="L934" s="3"/>
     </row>
-    <row r="935" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K935" s="2"/>
+    <row r="935" spans="12:12" ht="13.5" customHeight="1">
       <c r="L935" s="3"/>
     </row>
-    <row r="936" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K936" s="2"/>
+    <row r="936" spans="12:12" ht="13.5" customHeight="1">
       <c r="L936" s="3"/>
     </row>
-    <row r="937" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K937" s="2"/>
+    <row r="937" spans="12:12" ht="13.5" customHeight="1">
       <c r="L937" s="3"/>
     </row>
-    <row r="938" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K938" s="2"/>
+    <row r="938" spans="12:12" ht="13.5" customHeight="1">
       <c r="L938" s="3"/>
     </row>
-    <row r="939" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K939" s="2"/>
+    <row r="939" spans="12:12" ht="13.5" customHeight="1">
       <c r="L939" s="3"/>
     </row>
-    <row r="940" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K940" s="2"/>
+    <row r="940" spans="12:12" ht="13.5" customHeight="1">
       <c r="L940" s="3"/>
     </row>
-    <row r="941" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K941" s="2"/>
+    <row r="941" spans="12:12" ht="13.5" customHeight="1">
       <c r="L941" s="3"/>
     </row>
-    <row r="942" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K942" s="2"/>
+    <row r="942" spans="12:12" ht="13.5" customHeight="1">
       <c r="L942" s="3"/>
     </row>
-    <row r="943" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K943" s="2"/>
+    <row r="943" spans="12:12" ht="13.5" customHeight="1">
       <c r="L943" s="3"/>
     </row>
-    <row r="944" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K944" s="2"/>
+    <row r="944" spans="12:12" ht="13.5" customHeight="1">
       <c r="L944" s="3"/>
     </row>
-    <row r="945" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K945" s="2"/>
+    <row r="945" spans="12:12" ht="13.5" customHeight="1">
       <c r="L945" s="3"/>
     </row>
-    <row r="946" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K946" s="2"/>
+    <row r="946" spans="12:12" ht="13.5" customHeight="1">
       <c r="L946" s="3"/>
     </row>
-    <row r="947" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K947" s="2"/>
+    <row r="947" spans="12:12" ht="13.5" customHeight="1">
       <c r="L947" s="3"/>
     </row>
-    <row r="948" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K948" s="2"/>
+    <row r="948" spans="12:12" ht="13.5" customHeight="1">
       <c r="L948" s="3"/>
     </row>
-    <row r="949" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K949" s="2"/>
+    <row r="949" spans="12:12" ht="13.5" customHeight="1">
       <c r="L949" s="3"/>
     </row>
-    <row r="950" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K950" s="2"/>
+    <row r="950" spans="12:12" ht="13.5" customHeight="1">
       <c r="L950" s="3"/>
     </row>
-    <row r="951" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K951" s="2"/>
+    <row r="951" spans="12:12" ht="13.5" customHeight="1">
       <c r="L951" s="3"/>
     </row>
-    <row r="952" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K952" s="2"/>
+    <row r="952" spans="12:12" ht="13.5" customHeight="1">
       <c r="L952" s="3"/>
     </row>
-    <row r="953" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K953" s="2"/>
+    <row r="953" spans="12:12" ht="13.5" customHeight="1">
       <c r="L953" s="3"/>
     </row>
-    <row r="954" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K954" s="2"/>
+    <row r="954" spans="12:12" ht="13.5" customHeight="1">
       <c r="L954" s="3"/>
     </row>
-    <row r="955" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K955" s="2"/>
+    <row r="955" spans="12:12" ht="13.5" customHeight="1">
       <c r="L955" s="3"/>
     </row>
-    <row r="956" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K956" s="2"/>
+    <row r="956" spans="12:12" ht="13.5" customHeight="1">
       <c r="L956" s="3"/>
     </row>
-    <row r="957" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K957" s="2"/>
+    <row r="957" spans="12:12" ht="13.5" customHeight="1">
       <c r="L957" s="3"/>
     </row>
-    <row r="958" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K958" s="2"/>
+    <row r="958" spans="12:12" ht="13.5" customHeight="1">
       <c r="L958" s="3"/>
     </row>
-    <row r="959" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K959" s="2"/>
+    <row r="959" spans="12:12" ht="13.5" customHeight="1">
       <c r="L959" s="3"/>
     </row>
-    <row r="960" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K960" s="2"/>
+    <row r="960" spans="12:12" ht="13.5" customHeight="1">
       <c r="L960" s="3"/>
     </row>
-    <row r="961" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K961" s="2"/>
+    <row r="961" spans="12:12" ht="13.5" customHeight="1">
       <c r="L961" s="3"/>
     </row>
-    <row r="962" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K962" s="2"/>
+    <row r="962" spans="12:12" ht="13.5" customHeight="1">
       <c r="L962" s="3"/>
     </row>
-    <row r="963" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K963" s="2"/>
+    <row r="963" spans="12:12" ht="13.5" customHeight="1">
       <c r="L963" s="3"/>
     </row>
-    <row r="964" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K964" s="2"/>
+    <row r="964" spans="12:12" ht="13.5" customHeight="1">
       <c r="L964" s="3"/>
     </row>
-    <row r="965" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K965" s="2"/>
+    <row r="965" spans="12:12" ht="13.5" customHeight="1">
       <c r="L965" s="3"/>
     </row>
-    <row r="966" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K966" s="2"/>
+    <row r="966" spans="12:12" ht="13.5" customHeight="1">
       <c r="L966" s="3"/>
     </row>
-    <row r="967" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K967" s="2"/>
+    <row r="967" spans="12:12" ht="13.5" customHeight="1">
       <c r="L967" s="3"/>
     </row>
-    <row r="968" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K968" s="2"/>
+    <row r="968" spans="12:12" ht="13.5" customHeight="1">
       <c r="L968" s="3"/>
     </row>
-    <row r="969" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K969" s="2"/>
+    <row r="969" spans="12:12" ht="13.5" customHeight="1">
       <c r="L969" s="3"/>
     </row>
-    <row r="970" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K970" s="2"/>
+    <row r="970" spans="12:12" ht="13.5" customHeight="1">
       <c r="L970" s="3"/>
     </row>
-    <row r="971" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K971" s="2"/>
+    <row r="971" spans="12:12" ht="13.5" customHeight="1">
       <c r="L971" s="3"/>
     </row>
-    <row r="972" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K972" s="2"/>
+    <row r="972" spans="12:12" ht="13.5" customHeight="1">
       <c r="L972" s="3"/>
     </row>
-    <row r="973" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K973" s="2"/>
+    <row r="973" spans="12:12" ht="13.5" customHeight="1">
       <c r="L973" s="3"/>
     </row>
-    <row r="974" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K974" s="2"/>
+    <row r="974" spans="12:12" ht="13.5" customHeight="1">
       <c r="L974" s="3"/>
     </row>
-    <row r="975" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K975" s="2"/>
+    <row r="975" spans="12:12" ht="13.5" customHeight="1">
       <c r="L975" s="3"/>
     </row>
-    <row r="976" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K976" s="2"/>
+    <row r="976" spans="12:12" ht="13.5" customHeight="1">
       <c r="L976" s="3"/>
     </row>
-    <row r="977" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K977" s="2"/>
+    <row r="977" spans="12:12" ht="13.5" customHeight="1">
       <c r="L977" s="3"/>
     </row>
-    <row r="978" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K978" s="2"/>
+    <row r="978" spans="12:12" ht="13.5" customHeight="1">
       <c r="L978" s="3"/>
     </row>
-    <row r="979" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K979" s="2"/>
+    <row r="979" spans="12:12" ht="13.5" customHeight="1">
       <c r="L979" s="3"/>
     </row>
-    <row r="980" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K980" s="2"/>
+    <row r="980" spans="12:12" ht="13.5" customHeight="1">
       <c r="L980" s="3"/>
     </row>
-    <row r="981" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K981" s="2"/>
+    <row r="981" spans="12:12" ht="13.5" customHeight="1">
       <c r="L981" s="3"/>
     </row>
-    <row r="982" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K982" s="2"/>
+    <row r="982" spans="12:12" ht="13.5" customHeight="1">
       <c r="L982" s="3"/>
     </row>
-    <row r="983" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K983" s="2"/>
+    <row r="983" spans="12:12" ht="13.5" customHeight="1">
       <c r="L983" s="3"/>
     </row>
-    <row r="984" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K984" s="2"/>
+    <row r="984" spans="12:12" ht="13.5" customHeight="1">
       <c r="L984" s="3"/>
     </row>
-    <row r="985" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K985" s="2"/>
+    <row r="985" spans="12:12" ht="13.5" customHeight="1">
       <c r="L985" s="3"/>
     </row>
-    <row r="986" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K986" s="2"/>
+    <row r="986" spans="12:12" ht="13.5" customHeight="1">
       <c r="L986" s="3"/>
     </row>
-    <row r="987" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K987" s="2"/>
+    <row r="987" spans="12:12" ht="13.5" customHeight="1">
       <c r="L987" s="3"/>
     </row>
-    <row r="988" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K988" s="2"/>
+    <row r="988" spans="12:12" ht="13.5" customHeight="1">
       <c r="L988" s="3"/>
     </row>
-    <row r="989" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K989" s="2"/>
+    <row r="989" spans="12:12" ht="13.5" customHeight="1">
       <c r="L989" s="3"/>
     </row>
-    <row r="990" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K990" s="2"/>
+    <row r="990" spans="12:12" ht="13.5" customHeight="1">
       <c r="L990" s="3"/>
     </row>
-    <row r="991" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K991" s="2"/>
+    <row r="991" spans="12:12" ht="13.5" customHeight="1">
       <c r="L991" s="3"/>
     </row>
-    <row r="992" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K992" s="2"/>
+    <row r="992" spans="12:12" ht="13.5" customHeight="1">
       <c r="L992" s="3"/>
     </row>
-    <row r="993" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K993" s="2"/>
+    <row r="993" spans="12:12" ht="13.5" customHeight="1">
       <c r="L993" s="3"/>
     </row>
-    <row r="994" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K994" s="2"/>
+    <row r="994" spans="12:12" ht="13.5" customHeight="1">
       <c r="L994" s="3"/>
     </row>
-    <row r="995" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K995" s="2"/>
+    <row r="995" spans="12:12" ht="13.5" customHeight="1">
       <c r="L995" s="3"/>
     </row>
-    <row r="996" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K996" s="2"/>
+    <row r="996" spans="12:12" ht="13.5" customHeight="1">
       <c r="L996" s="3"/>
     </row>
-    <row r="997" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K997" s="2"/>
+    <row r="997" spans="12:12" ht="13.5" customHeight="1">
       <c r="L997" s="3"/>
     </row>
-    <row r="998" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K998" s="2"/>
+    <row r="998" spans="12:12" ht="13.5" customHeight="1">
       <c r="L998" s="3"/>
     </row>
-    <row r="999" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K999" s="2"/>
+    <row r="999" spans="12:12" ht="13.5" customHeight="1">
       <c r="L999" s="3"/>
     </row>
-    <row r="1000" spans="11:12" ht="13.5" customHeight="1">
-      <c r="K1000" s="2"/>
+    <row r="1000" spans="12:12" ht="13.5" customHeight="1">
       <c r="L1000" s="3"/>
     </row>
   </sheetData>

--- a/Correspondencias_SIOSE - modificada (v2).xlsx
+++ b/Correspondencias_SIOSE - modificada (v2).xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5918" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5916" uniqueCount="1042">
   <si>
     <t>COD_JER</t>
   </si>
@@ -3144,12 +3144,6 @@
     <t>RIOS Y CAUCES - LAMINA DE AGUA</t>
   </si>
   <si>
-    <t>REVISAR</t>
-  </si>
-  <si>
-    <t>DEFINITIVA</t>
-  </si>
-  <si>
     <t>Tejido urbano</t>
   </si>
   <si>
@@ -3165,30 +3159,15 @@
     <t>Zonas verdes y espacios de ocio</t>
   </si>
   <si>
-    <t>Marisma con vegetacion</t>
-  </si>
-  <si>
-    <t>Marisma sin vegetacion</t>
-  </si>
-  <si>
     <t>Rios y cauces</t>
   </si>
   <si>
-    <t>Cultivos en invernadero</t>
-  </si>
-  <si>
     <t>Formacion arbolada</t>
   </si>
   <si>
     <t>Playas, dunas y arenales</t>
   </si>
   <si>
-    <t>Secano</t>
-  </si>
-  <si>
-    <t>Regadio</t>
-  </si>
-  <si>
     <t>Areas con fuertes procesos erosivos</t>
   </si>
   <si>
@@ -3211,17 +3190,54 @@
   </si>
   <si>
     <t>Lamina de agua artificial</t>
+  </si>
+  <si>
+    <t>COD_NUEVO</t>
+  </si>
+  <si>
+    <t>SIOSE</t>
+  </si>
+  <si>
+    <t>USOS_DEFINITIVOS</t>
+  </si>
+  <si>
+    <t>COD_ANTIGUO</t>
+  </si>
+  <si>
+    <t>Marisma</t>
+  </si>
+  <si>
+    <t>Usos MUCVA en la zona del humedal + buffer</t>
+  </si>
+  <si>
+    <t>Este hay que comprobar polígono por polígono</t>
+  </si>
+  <si>
+    <t>Leñoso secano</t>
+  </si>
+  <si>
+    <t>Leñoso regadio</t>
+  </si>
+  <si>
+    <t>Invernadero herbaceo regadio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3343,12 +3359,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Open Sans"/>
       <family val="2"/>
@@ -3361,8 +3371,28 @@
       <name val="Open Sans"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Open Sans"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3399,8 +3429,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3568,20 +3604,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3600,32 +3652,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3633,38 +3685,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3677,8 +3726,40 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="40% - Énfasis5" xfId="3" builtinId="47"/>
     <cellStyle name="60% - Énfasis1" xfId="1" builtinId="32"/>
     <cellStyle name="60% - Énfasis2" xfId="2" builtinId="36"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3932,16 +4013,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>378218</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>184481</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>378219</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>62017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25000,1286 +25081,1458 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E83" sqref="E1:E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="69" customWidth="1"/>
-    <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="3" max="3" width="44.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.25" customWidth="1"/>
-    <col min="5" max="5" width="33.375" style="42" customWidth="1"/>
-    <col min="6" max="6" width="64.25" style="13" customWidth="1"/>
+    <col min="1" max="1" width="68.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.25" customWidth="1"/>
-    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.25" customWidth="1"/>
-    <col min="21" max="21" width="2.875" customWidth="1"/>
-    <col min="22" max="22" width="4.25" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.25" customWidth="1"/>
+    <col min="19" max="19" width="2.875" customWidth="1"/>
+    <col min="20" max="20" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="25" t="s">
-        <v>977</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>974</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>986</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>987</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="66" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="69">
         <v>130</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="70" t="s">
         <v>931</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="15">
+      <c r="D2" s="64">
+        <v>1</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="69">
         <v>170</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="70" t="s">
         <v>928</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="15">
+      <c r="D3" s="64">
+        <v>1</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="69">
         <v>132</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="70" t="s">
         <v>969</v>
       </c>
-      <c r="D4" s="57" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15">
+      <c r="D4" s="64">
+        <v>1</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="69">
         <v>171</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="70" t="s">
         <v>930</v>
       </c>
-      <c r="D5" s="57" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15">
+      <c r="D5" s="64">
+        <v>1</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="69">
         <v>2000</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="70" t="s">
         <v>933</v>
       </c>
-      <c r="D6" s="57" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15">
+      <c r="D6" s="64">
+        <v>1</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="69">
         <v>101</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="70" t="s">
         <v>898</v>
       </c>
-      <c r="D7" s="57" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15">
+      <c r="D7" s="64">
+        <v>1</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="69">
         <v>2002</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="70" t="s">
         <v>934</v>
       </c>
-      <c r="D8" s="57" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15">
+      <c r="D8" s="64">
+        <v>1</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="69">
         <v>117</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="70" t="s">
         <v>925</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15">
+      <c r="D9" s="64">
+        <v>2</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="69">
         <v>125</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="70" t="s">
         <v>963</v>
       </c>
-      <c r="D10" s="57" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15">
+      <c r="D10" s="64">
+        <v>3</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="69">
         <v>120</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="70" t="s">
         <v>938</v>
       </c>
-      <c r="D11" s="57" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15">
+      <c r="D11" s="64">
+        <v>3</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="69">
         <v>119</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="70" t="s">
         <v>955</v>
       </c>
-      <c r="D12" s="57" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D12" s="64">
+        <v>3</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="13" customFormat="1" ht="15">
       <c r="A13" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="69">
         <v>122</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="70" t="s">
         <v>912</v>
       </c>
-      <c r="D13" s="57" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E13" s="42"/>
-    </row>
-    <row r="14" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D13" s="64">
+        <v>3</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="13" customFormat="1" ht="15">
       <c r="A14" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="69">
         <v>168</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="70" t="s">
         <v>899</v>
       </c>
-      <c r="D14" s="57" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E14" s="42"/>
-    </row>
-    <row r="15" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D14" s="64">
+        <v>3</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="13" customFormat="1" ht="15">
       <c r="A15" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="69">
         <v>2004</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="70" t="s">
         <v>927</v>
       </c>
-      <c r="D15" s="57" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E15" s="42"/>
-    </row>
-    <row r="16" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D15" s="64">
+        <v>4</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="13" customFormat="1" ht="15">
       <c r="A16" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="69">
         <v>182</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="70" t="s">
         <v>892</v>
       </c>
-      <c r="D16" s="57" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E16" s="42"/>
-    </row>
-    <row r="17" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D16" s="64">
+        <v>4</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="13" customFormat="1" ht="15">
       <c r="A17" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="69">
         <v>131</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="70" t="s">
         <v>891</v>
       </c>
-      <c r="D17" s="57" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D17" s="64">
+        <v>4</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="13" customFormat="1">
       <c r="A18" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="69">
         <v>154</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="70" t="s">
         <v>940</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="64">
+        <v>5</v>
+      </c>
+      <c r="E18" s="65" t="s">
         <v>940</v>
       </c>
-      <c r="E18" s="42"/>
-    </row>
-    <row r="19" spans="1:6" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="19" spans="1:5" s="13" customFormat="1" ht="15">
       <c r="A19" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="69">
         <v>152</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="70" t="s">
         <v>958</v>
       </c>
-      <c r="D19" s="57" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D19" s="64">
+        <v>6</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="13" customFormat="1" ht="15">
       <c r="A20" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="69">
         <v>162</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="70" t="s">
         <v>953</v>
       </c>
-      <c r="D20" s="57" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D20" s="64">
+        <v>6</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="13" customFormat="1" ht="15">
       <c r="A21" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="69">
         <v>164</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="70" t="s">
         <v>935</v>
       </c>
-      <c r="D21" s="57" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E21" s="42"/>
-    </row>
-    <row r="22" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D21" s="64">
+        <v>6</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="13" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="69">
         <v>113</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="70" t="s">
         <v>907</v>
       </c>
-      <c r="D22" s="57" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E22" s="42"/>
-    </row>
-    <row r="23" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D22" s="64">
+        <v>7</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="13" customFormat="1">
       <c r="A23" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="69">
         <v>151</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="70" t="s">
         <v>959</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="64">
+        <v>8</v>
+      </c>
+      <c r="E23" s="65" t="s">
         <v>959</v>
       </c>
-      <c r="E23" s="42"/>
-    </row>
-    <row r="24" spans="1:6" s="42" customFormat="1" ht="15">
+    </row>
+    <row r="24" spans="1:5" s="42" customFormat="1">
       <c r="A24" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="69">
         <v>2007</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="70" t="s">
         <v>937</v>
       </c>
-      <c r="D24" s="57" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D24" s="64">
+        <v>9</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="42" customFormat="1">
       <c r="A25" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="69">
         <v>153</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="70" t="s">
         <v>946</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="64">
+        <v>10</v>
+      </c>
+      <c r="E25" s="65" t="s">
         <v>946</v>
       </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" s="42" customFormat="1" ht="15">
+    </row>
+    <row r="26" spans="1:5" s="42" customFormat="1" ht="15">
       <c r="A26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="69">
         <v>177</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="70" t="s">
         <v>929</v>
       </c>
-      <c r="D26" s="57" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D26" s="64">
+        <v>11</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="42" customFormat="1" ht="15">
       <c r="A27" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="69">
         <v>2005</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="70" t="s">
         <v>910</v>
       </c>
-      <c r="D27" s="57" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D27" s="64">
+        <v>11</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="42" customFormat="1" ht="15">
       <c r="A28" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="69">
         <v>138</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="70" t="s">
         <v>924</v>
       </c>
-      <c r="D28" s="57" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D28" s="64">
+        <v>11</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="42" customFormat="1" ht="15">
       <c r="A29" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="69">
         <v>142</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="70" t="s">
         <v>951</v>
       </c>
-      <c r="D29" s="57" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D29" s="64">
+        <v>11</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="42" customFormat="1" ht="15">
       <c r="A30" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="69">
         <v>123</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="70" t="s">
         <v>957</v>
       </c>
-      <c r="D30" s="57" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D30" s="64">
+        <v>11</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="42" customFormat="1" ht="15">
       <c r="A31" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="69">
         <v>144</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="70" t="s">
         <v>966</v>
       </c>
-      <c r="D31" s="57" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D31" s="64">
+        <v>11</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="42" customFormat="1" ht="15">
       <c r="A32" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="69">
         <v>106</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="70" t="s">
         <v>967</v>
       </c>
-      <c r="D32" s="57" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D32" s="64">
+        <v>11</v>
+      </c>
+      <c r="E32" s="65" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="42" customFormat="1" ht="15">
       <c r="A33" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="69">
         <v>136</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="70" t="s">
         <v>968</v>
       </c>
-      <c r="D33" s="57" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D33" s="64">
+        <v>11</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="42" customFormat="1" ht="15">
       <c r="A34" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="69">
         <v>210</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="70" t="s">
         <v>944</v>
       </c>
-      <c r="D34" s="57" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D34" s="64">
+        <v>12</v>
+      </c>
+      <c r="E34" s="65" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="42" customFormat="1" ht="15">
       <c r="A35" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="69">
         <v>2151</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="70" t="s">
         <v>965</v>
       </c>
-      <c r="D35" s="57" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D35" s="64">
+        <v>12</v>
+      </c>
+      <c r="E35" s="65" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="42" customFormat="1" ht="15">
       <c r="A36" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B36" s="69">
         <v>2152</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="70" t="s">
         <v>964</v>
       </c>
-      <c r="D36" s="57" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D36" s="64">
+        <v>12</v>
+      </c>
+      <c r="E36" s="65" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="42" customFormat="1" ht="15">
       <c r="A37" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="69">
         <v>217</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="70" t="s">
         <v>970</v>
       </c>
-      <c r="D37" s="57" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D37" s="64">
+        <v>12</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="42" customFormat="1">
       <c r="A38" s="56" t="s">
         <v>1013</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="69">
         <v>221</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="70" t="s">
         <v>950</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="64">
+        <v>13</v>
+      </c>
+      <c r="E38" s="65" t="s">
         <v>1008</v>
       </c>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6" s="42" customFormat="1" ht="15">
+    </row>
+    <row r="39" spans="1:5" s="42" customFormat="1">
       <c r="A39" s="56" t="s">
         <v>1013</v>
       </c>
-      <c r="B39" s="39">
+      <c r="B39" s="69">
         <v>203</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="70" t="s">
         <v>952</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="64">
+        <v>13</v>
+      </c>
+      <c r="E39" s="65" t="s">
         <v>1008</v>
       </c>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6" s="42" customFormat="1" ht="15">
+    </row>
+    <row r="40" spans="1:5" s="42" customFormat="1">
       <c r="A40" s="41" t="s">
         <v>780</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40" s="69">
         <v>291</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="70" t="s">
         <v>947</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="64">
+        <v>14</v>
+      </c>
+      <c r="E40" s="65" t="s">
         <v>947</v>
       </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" s="42" customFormat="1" ht="15">
+    </row>
+    <row r="41" spans="1:5" s="42" customFormat="1">
       <c r="A41" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B41" s="38">
+      <c r="B41" s="69">
         <v>960</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="70" t="s">
         <v>916</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="64">
+        <v>15</v>
+      </c>
+      <c r="E41" s="65" t="s">
         <v>916</v>
       </c>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" s="42" customFormat="1" ht="15">
+    </row>
+    <row r="42" spans="1:5" s="42" customFormat="1" ht="15">
       <c r="A42" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="B42" s="35">
+      <c r="B42" s="69">
         <v>318</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="70" t="s">
         <v>961</v>
       </c>
-      <c r="D42" s="57" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D42" s="64">
+        <v>16</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="42" customFormat="1" ht="15">
       <c r="A43" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="B43" s="35">
+      <c r="B43" s="69">
         <v>310</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="70" t="s">
         <v>960</v>
       </c>
-      <c r="D43" s="57" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D43" s="64">
+        <v>16</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="42" customFormat="1">
       <c r="A44" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="B44" s="35">
+      <c r="B44" s="69">
         <v>200</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="70" t="s">
         <v>897</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="64">
+        <v>17</v>
+      </c>
+      <c r="E44" s="65" t="s">
         <v>1007</v>
       </c>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:6" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="45" spans="1:5" s="13" customFormat="1">
       <c r="A45" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="69">
         <v>315</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="70" t="s">
         <v>973</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="64">
+        <v>17</v>
+      </c>
+      <c r="E45" s="65" t="s">
         <v>1007</v>
       </c>
-      <c r="E45" s="42"/>
-    </row>
-    <row r="46" spans="1:6" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="46" spans="1:5" s="13" customFormat="1">
       <c r="A46" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="69">
         <v>317</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="70" t="s">
         <v>911</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="64">
+        <v>17</v>
+      </c>
+      <c r="E46" s="65" t="s">
         <v>1007</v>
       </c>
-      <c r="E46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="47" spans="1:5" s="13" customFormat="1">
       <c r="A47" s="41" t="s">
         <v>786</v>
       </c>
-      <c r="B47" s="38">
+      <c r="B47" s="69">
         <v>319</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="70" t="s">
         <v>956</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="64">
+        <v>18</v>
+      </c>
+      <c r="E47" s="65" t="s">
         <v>956</v>
       </c>
-      <c r="E47" s="42"/>
-    </row>
-    <row r="48" spans="1:6" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="48" spans="1:5" s="13" customFormat="1">
       <c r="A48" s="41" t="s">
         <v>786</v>
       </c>
-      <c r="B48" s="38">
+      <c r="B48" s="69">
         <v>2008</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="70" t="s">
         <v>906</v>
       </c>
-      <c r="D48" s="57" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E48" s="42"/>
-    </row>
-    <row r="49" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D48" s="64">
+        <v>19</v>
+      </c>
+      <c r="E48" s="65" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="13" customFormat="1">
       <c r="A49" s="41" t="s">
         <v>787</v>
       </c>
-      <c r="B49" s="38">
+      <c r="B49" s="69">
         <v>332</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="70" t="s">
         <v>902</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="64">
+        <v>20</v>
+      </c>
+      <c r="E49" s="65" t="s">
         <v>902</v>
       </c>
-      <c r="E49" s="42"/>
-    </row>
-    <row r="50" spans="1:6" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="50" spans="1:6" s="13" customFormat="1">
       <c r="A50" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B50" s="35">
+      <c r="B50" s="69">
         <v>341</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="70" t="s">
         <v>941</v>
       </c>
-      <c r="D50" s="57" t="s">
+      <c r="D50" s="64">
+        <v>21</v>
+      </c>
+      <c r="E50" s="65" t="s">
         <v>941</v>
       </c>
-      <c r="E50" s="42"/>
-    </row>
-    <row r="51" spans="1:6" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="51" spans="1:6" s="13" customFormat="1">
       <c r="A51" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B51" s="35">
+      <c r="B51" s="69">
         <v>345</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="70" t="s">
         <v>914</v>
       </c>
-      <c r="D51" s="57" t="s">
+      <c r="D51" s="64">
+        <v>22</v>
+      </c>
+      <c r="E51" s="65" t="s">
         <v>914</v>
       </c>
-      <c r="E51" s="42"/>
-    </row>
-    <row r="52" spans="1:6" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="52" spans="1:6" s="13" customFormat="1">
       <c r="A52" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B52" s="35">
+      <c r="B52" s="69">
         <v>405</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="71" t="s">
         <v>918</v>
       </c>
-      <c r="D52" s="57" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E52" s="43" t="s">
-        <v>982</v>
+      <c r="D52" s="64">
+        <v>23</v>
+      </c>
+      <c r="E52" s="65" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A53" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="B53" s="35">
+      <c r="B53" s="69">
         <v>416</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="70" t="s">
         <v>939</v>
       </c>
-      <c r="D53" s="57" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E53" s="42"/>
+      <c r="D53" s="64">
+        <v>24</v>
+      </c>
+      <c r="E53" s="65" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="54" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A54" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="B54" s="35">
+      <c r="B54" s="69">
         <v>460</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="70" t="s">
         <v>923</v>
       </c>
-      <c r="D54" s="57" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E54" s="42"/>
+      <c r="D54" s="64">
+        <v>24</v>
+      </c>
+      <c r="E54" s="65" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="55" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A55" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="B55" s="35">
+      <c r="B55" s="69">
         <v>403</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="70" t="s">
         <v>893</v>
       </c>
-      <c r="D55" s="57" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E55" s="43"/>
+      <c r="D55" s="64">
+        <v>25</v>
+      </c>
+      <c r="E55" s="65" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="56" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A56" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="B56" s="35">
+      <c r="B56" s="69">
         <v>404</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="70" t="s">
         <v>900</v>
       </c>
-      <c r="D56" s="57" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E56" s="44"/>
+      <c r="D56" s="64">
+        <v>25</v>
+      </c>
+      <c r="E56" s="65" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="57" spans="1:6" s="13" customFormat="1" ht="15">
       <c r="A57" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="B57" s="35">
+      <c r="B57" s="69">
         <v>4102</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="70" t="s">
         <v>971</v>
       </c>
-      <c r="D57" s="57" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E57" s="43"/>
-    </row>
-    <row r="58" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D57" s="64">
+        <v>26</v>
+      </c>
+      <c r="E57" s="65" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="13" customFormat="1">
       <c r="A58" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B58" s="35">
+      <c r="B58" s="69">
         <v>997</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="70" t="s">
         <v>909</v>
       </c>
-      <c r="D58" s="57" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E58" s="42"/>
-    </row>
-    <row r="59" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D58" s="64">
+        <v>26</v>
+      </c>
+      <c r="E58" s="65" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="13" customFormat="1">
       <c r="A59" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B59" s="35">
+      <c r="B59" s="69">
         <v>431</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="70" t="s">
         <v>904</v>
       </c>
-      <c r="D59" s="57" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E59" s="42"/>
-    </row>
-    <row r="60" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D59" s="64">
+        <v>26</v>
+      </c>
+      <c r="E59" s="65" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="42" customFormat="1">
       <c r="A60" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B60" s="35">
+      <c r="B60" s="69">
         <v>520</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="70" t="s">
         <v>921</v>
       </c>
-      <c r="D60" s="57" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F60" s="13"/>
-    </row>
-    <row r="61" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D60" s="64">
+        <v>27</v>
+      </c>
+      <c r="E60" s="65" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="42" customFormat="1">
       <c r="A61" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B61" s="35">
+      <c r="B61" s="69">
         <v>530</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="70" t="s">
         <v>926</v>
       </c>
-      <c r="D61" s="57" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D61" s="64">
+        <v>27</v>
+      </c>
+      <c r="E61" s="65" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="42" customFormat="1">
       <c r="A62" s="25" t="s">
         <v>846</v>
       </c>
-      <c r="B62" s="37">
+      <c r="B62" s="69">
         <v>621</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="70" t="s">
         <v>949</v>
       </c>
-      <c r="D62" s="57" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F62" s="13"/>
-    </row>
-    <row r="63" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D62" s="64">
+        <v>27</v>
+      </c>
+      <c r="E62" s="65" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="42" customFormat="1">
       <c r="A63" s="25" t="s">
         <v>847</v>
       </c>
-      <c r="B63" s="37">
+      <c r="B63" s="69">
         <v>625</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="70" t="s">
         <v>948</v>
       </c>
-      <c r="D63" s="57" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F63" s="13"/>
-    </row>
-    <row r="64" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D63" s="64">
+        <v>27</v>
+      </c>
+      <c r="E63" s="65" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="42" customFormat="1">
       <c r="A64" s="25" t="s">
         <v>858</v>
       </c>
-      <c r="B64" s="37">
+      <c r="B64" s="69">
         <v>721</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="70" t="s">
         <v>943</v>
       </c>
-      <c r="D64" s="57" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F64" s="13"/>
-    </row>
-    <row r="65" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D64" s="64">
+        <v>27</v>
+      </c>
+      <c r="E64" s="65" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="42" customFormat="1">
       <c r="A65" s="25" t="s">
         <v>859</v>
       </c>
-      <c r="B65" s="37">
+      <c r="B65" s="69">
         <v>725</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="70" t="s">
         <v>920</v>
       </c>
-      <c r="D65" s="57" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F65" s="13"/>
-    </row>
-    <row r="66" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D65" s="64">
+        <v>27</v>
+      </c>
+      <c r="E65" s="65" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="42" customFormat="1">
       <c r="A66" s="25" t="s">
         <v>860</v>
       </c>
-      <c r="B66" s="35">
+      <c r="B66" s="69">
         <v>730</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="70" t="s">
         <v>936</v>
       </c>
-      <c r="D66" s="57" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="67" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D66" s="64">
+        <v>27</v>
+      </c>
+      <c r="E66" s="65" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="42" customFormat="1">
       <c r="A67" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="B67" s="35">
+      <c r="B67" s="69">
         <v>740</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="70" t="s">
         <v>932</v>
       </c>
-      <c r="D67" s="57" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F67" s="13"/>
-    </row>
-    <row r="68" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D67" s="64">
+        <v>27</v>
+      </c>
+      <c r="E67" s="65" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="42" customFormat="1">
       <c r="A68" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="B68" s="37">
+      <c r="B68" s="69">
         <v>821</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="70" t="s">
         <v>919</v>
       </c>
-      <c r="D68" s="57" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F68" s="13"/>
-    </row>
-    <row r="69" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D68" s="64">
+        <v>27</v>
+      </c>
+      <c r="E68" s="65" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="42" customFormat="1">
       <c r="A69" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="B69" s="37">
+      <c r="B69" s="69">
         <v>825</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="70" t="s">
         <v>942</v>
       </c>
-      <c r="D69" s="57" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D69" s="64">
+        <v>27</v>
+      </c>
+      <c r="E69" s="65" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="42" customFormat="1">
       <c r="A70" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="B70" s="35">
+      <c r="B70" s="69">
         <v>830</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="70" t="s">
         <v>962</v>
       </c>
-      <c r="D70" s="57" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F70" s="13"/>
-    </row>
-    <row r="71" spans="1:6" s="42" customFormat="1" ht="15">
+      <c r="D70" s="64">
+        <v>27</v>
+      </c>
+      <c r="E70" s="65" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="42" customFormat="1">
       <c r="A71" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="B71" s="35">
+      <c r="B71" s="69">
         <v>840</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="70" t="s">
         <v>945</v>
       </c>
-      <c r="D71" s="57" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F71" s="13"/>
-    </row>
-    <row r="72" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D71" s="64">
+        <v>27</v>
+      </c>
+      <c r="E71" s="65" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="13" customFormat="1">
       <c r="A72" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="B72" s="35">
+      <c r="B72" s="69">
         <v>911</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="70" t="s">
         <v>913</v>
       </c>
-      <c r="D72" s="57" t="s">
+      <c r="D72" s="64">
+        <v>28</v>
+      </c>
+      <c r="E72" s="65" t="s">
         <v>1005</v>
       </c>
-      <c r="E72" s="42"/>
-    </row>
-    <row r="73" spans="1:6" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="73" spans="1:5" s="13" customFormat="1">
       <c r="A73" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B73" s="37">
+      <c r="B73" s="69">
         <v>915</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="70" t="s">
         <v>901</v>
       </c>
-      <c r="D73" s="57" t="s">
+      <c r="D73" s="64">
+        <v>28</v>
+      </c>
+      <c r="E73" s="65" t="s">
         <v>1005</v>
       </c>
-      <c r="E73" s="42"/>
-    </row>
-    <row r="74" spans="1:6" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="74" spans="1:5" s="13" customFormat="1">
       <c r="A74" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="B74" s="37">
+      <c r="B74" s="69">
         <v>917</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="70" t="s">
         <v>915</v>
       </c>
-      <c r="D74" s="57" t="s">
+      <c r="D74" s="64">
+        <v>28</v>
+      </c>
+      <c r="E74" s="65" t="s">
         <v>1005</v>
       </c>
-      <c r="E74" s="42"/>
-    </row>
-    <row r="75" spans="1:6" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="75" spans="1:5" s="13" customFormat="1">
       <c r="A75" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="B75" s="37">
+      <c r="B75" s="69">
         <v>921</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="70" t="s">
         <v>908</v>
       </c>
-      <c r="D75" s="57" t="s">
+      <c r="D75" s="64">
+        <v>29</v>
+      </c>
+      <c r="E75" s="65" t="s">
         <v>1006</v>
       </c>
-      <c r="E75" s="42"/>
-    </row>
-    <row r="76" spans="1:6" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="76" spans="1:5" s="13" customFormat="1">
       <c r="A76" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="B76" s="37">
+      <c r="B76" s="69">
         <v>925</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="70" t="s">
         <v>896</v>
       </c>
-      <c r="D76" s="57" t="s">
+      <c r="D76" s="64">
+        <v>29</v>
+      </c>
+      <c r="E76" s="65" t="s">
         <v>1006</v>
       </c>
-      <c r="E76" s="42"/>
-    </row>
-    <row r="77" spans="1:6" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="77" spans="1:5" s="13" customFormat="1" ht="15">
       <c r="A77" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="B77" s="35">
+      <c r="B77" s="69">
         <v>9311</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="70" t="s">
         <v>894</v>
       </c>
-      <c r="D77" s="57" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D77" s="64">
+        <v>30</v>
+      </c>
+      <c r="E77" s="65" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="13" customFormat="1" ht="15">
       <c r="A78" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="B78" s="35">
+      <c r="B78" s="69">
         <v>9312</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="70" t="s">
         <v>895</v>
       </c>
-      <c r="D78" s="57" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E78" s="42"/>
-    </row>
-    <row r="79" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D78" s="64">
+        <v>30</v>
+      </c>
+      <c r="E78" s="65" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="13" customFormat="1" ht="15">
       <c r="A79" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="B79" s="35">
+      <c r="B79" s="69">
         <v>944</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="70" t="s">
         <v>972</v>
       </c>
-      <c r="D79" s="57" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E79" s="42"/>
-    </row>
-    <row r="80" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D79" s="64">
+        <v>30</v>
+      </c>
+      <c r="E79" s="65" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="13" customFormat="1">
       <c r="A80" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B80" s="35">
+      <c r="B80" s="69">
         <v>945</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="70" t="s">
         <v>905</v>
       </c>
-      <c r="D80" s="57" t="s">
+      <c r="D80" s="64">
+        <v>31</v>
+      </c>
+      <c r="E80" s="65" t="s">
         <v>905</v>
       </c>
-      <c r="E80" s="42"/>
-    </row>
-    <row r="81" spans="1:6" s="13" customFormat="1" ht="15">
+    </row>
+    <row r="81" spans="1:5" s="13" customFormat="1">
       <c r="A81" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="B81" s="35">
+      <c r="B81" s="69">
         <v>933</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="70" t="s">
         <v>922</v>
       </c>
-      <c r="D81" s="57" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E81" s="42"/>
-    </row>
-    <row r="82" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D81" s="64">
+        <v>32</v>
+      </c>
+      <c r="E81" s="65" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="13" customFormat="1">
       <c r="A82" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B82" s="40">
+      <c r="B82" s="72">
         <v>935</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="73" t="s">
         <v>917</v>
       </c>
-      <c r="D82" s="57" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E82" s="42"/>
-    </row>
-    <row r="83" spans="1:6" s="13" customFormat="1" ht="15">
+      <c r="D82" s="64">
+        <v>33</v>
+      </c>
+      <c r="E82" s="65" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="13" customFormat="1">
       <c r="A83" s="25" t="s">
         <v>980</v>
       </c>
-      <c r="B83" s="40">
+      <c r="B83" s="72">
         <v>0</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="73" t="s">
         <v>903</v>
       </c>
-      <c r="D83" s="57" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E83" s="42" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="42" customFormat="1">
+      <c r="D83" s="64">
+        <v>34</v>
+      </c>
+      <c r="E83" s="65" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="42" customFormat="1">
       <c r="A84"/>
-      <c r="B84" s="7"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="F84" s="13"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="75"/>
+      <c r="E84" s="61"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="B85" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26336,13 +26589,13 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="60" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -26371,9 +26624,9 @@
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="60"/>
+      <c r="K2" s="59"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="58">
+      <c r="M2" s="57">
         <v>999</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -26402,9 +26655,9 @@
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="60"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="58">
+      <c r="M3" s="57">
         <v>165</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -26442,13 +26695,13 @@
       <c r="J4" s="1">
         <v>111</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="59">
         <v>111</v>
       </c>
       <c r="L4" s="3">
         <v>111</v>
       </c>
-      <c r="M4" s="58">
+      <c r="M4" s="57">
         <v>125</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -26486,13 +26739,13 @@
       <c r="J5" s="1">
         <v>111</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="59">
         <v>111</v>
       </c>
       <c r="L5" s="3">
         <v>111</v>
       </c>
-      <c r="M5" s="58">
+      <c r="M5" s="57">
         <v>129</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -26530,13 +26783,13 @@
       <c r="J6" s="1">
         <v>111</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="59">
         <v>111</v>
       </c>
       <c r="L6" s="3">
         <v>111</v>
       </c>
-      <c r="M6" s="58">
+      <c r="M6" s="57">
         <v>130</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -26574,13 +26827,13 @@
       <c r="J7" s="1">
         <v>111</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="59">
         <v>111</v>
       </c>
       <c r="L7" s="3">
         <v>111</v>
       </c>
-      <c r="M7" s="58">
+      <c r="M7" s="57">
         <v>132</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -26618,13 +26871,13 @@
       <c r="J8" s="1">
         <v>111</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="59">
         <v>111</v>
       </c>
       <c r="L8" s="3">
         <v>111</v>
       </c>
-      <c r="M8" s="58">
+      <c r="M8" s="57">
         <v>134</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -26662,13 +26915,13 @@
       <c r="J9" s="1">
         <v>111</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="59">
         <v>111</v>
       </c>
       <c r="L9" s="3">
         <v>111</v>
       </c>
-      <c r="M9" s="58">
+      <c r="M9" s="57">
         <v>169</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -26706,13 +26959,13 @@
       <c r="J10" s="1">
         <v>111</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="59">
         <v>111</v>
       </c>
       <c r="L10" s="3">
         <v>111</v>
       </c>
-      <c r="M10" s="58">
+      <c r="M10" s="57">
         <v>170</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -26750,13 +27003,13 @@
       <c r="J11" s="1">
         <v>111</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="59">
         <v>111</v>
       </c>
       <c r="L11" s="3">
         <v>111</v>
       </c>
-      <c r="M11" s="58">
+      <c r="M11" s="57">
         <v>171</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -26794,13 +27047,13 @@
       <c r="J12" s="1">
         <v>111</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="59">
         <v>111</v>
       </c>
       <c r="L12" s="3">
         <v>111</v>
       </c>
-      <c r="M12" s="58">
+      <c r="M12" s="57">
         <v>936</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -26838,13 +27091,13 @@
       <c r="J13" s="1">
         <v>111</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="59">
         <v>111</v>
       </c>
       <c r="L13" s="3">
         <v>111</v>
       </c>
-      <c r="M13" s="58">
+      <c r="M13" s="57">
         <v>101</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -26882,13 +27135,13 @@
       <c r="J14" s="1">
         <v>111</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="59">
         <v>111</v>
       </c>
       <c r="L14" s="3">
         <v>111</v>
       </c>
-      <c r="M14" s="58">
+      <c r="M14" s="57">
         <v>2000</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -26917,9 +27170,9 @@
       <c r="H15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="60"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="58"/>
+      <c r="M15" s="57"/>
     </row>
     <row r="16" spans="1:14" ht="13.5" customHeight="1">
       <c r="A16" s="1" t="s">
@@ -26952,13 +27205,13 @@
       <c r="J16" s="1">
         <v>115</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="59">
         <v>115</v>
       </c>
       <c r="L16" s="3">
         <v>112</v>
       </c>
-      <c r="M16" s="58">
+      <c r="M16" s="57">
         <v>2002</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -26996,13 +27249,13 @@
       <c r="J17" s="1">
         <v>117</v>
       </c>
-      <c r="K17" s="60">
+      <c r="K17" s="59">
         <v>117</v>
       </c>
       <c r="L17" s="3">
         <v>112</v>
       </c>
-      <c r="M17" s="58">
+      <c r="M17" s="57">
         <v>117</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -27031,9 +27284,9 @@
       <c r="H18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="60"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="58"/>
+      <c r="M18" s="57"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
@@ -27066,13 +27319,13 @@
       <c r="J19" s="1">
         <v>121</v>
       </c>
-      <c r="K19" s="60">
+      <c r="K19" s="59">
         <v>121</v>
       </c>
       <c r="L19" s="3">
         <v>121</v>
       </c>
-      <c r="M19" s="58">
+      <c r="M19" s="57">
         <v>203</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -27110,13 +27363,13 @@
       <c r="J20" s="1">
         <v>121</v>
       </c>
-      <c r="K20" s="60">
+      <c r="K20" s="59">
         <v>121</v>
       </c>
       <c r="L20" s="3">
         <v>121</v>
       </c>
-      <c r="M20" s="58">
+      <c r="M20" s="57">
         <v>222</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -27154,13 +27407,13 @@
       <c r="J21" s="1">
         <v>121</v>
       </c>
-      <c r="K21" s="60">
+      <c r="K21" s="59">
         <v>121</v>
       </c>
       <c r="L21" s="3">
         <v>121</v>
       </c>
-      <c r="M21" s="58">
+      <c r="M21" s="57">
         <v>122</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -27198,13 +27451,13 @@
       <c r="J22" s="1">
         <v>121</v>
       </c>
-      <c r="K22" s="60">
+      <c r="K22" s="59">
         <v>121</v>
       </c>
       <c r="L22" s="3">
         <v>121</v>
       </c>
-      <c r="M22" s="58">
+      <c r="M22" s="57">
         <v>118</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -27242,13 +27495,13 @@
       <c r="J23" s="1">
         <v>121</v>
       </c>
-      <c r="K23" s="60">
+      <c r="K23" s="59">
         <v>121</v>
       </c>
       <c r="L23" s="3">
         <v>121</v>
       </c>
-      <c r="M23" s="58">
+      <c r="M23" s="57">
         <v>119</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -27286,13 +27539,13 @@
       <c r="J24" s="1">
         <v>121</v>
       </c>
-      <c r="K24" s="60">
+      <c r="K24" s="59">
         <v>121</v>
       </c>
       <c r="L24" s="3">
         <v>121</v>
       </c>
-      <c r="M24" s="58">
+      <c r="M24" s="57">
         <v>120</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -27330,13 +27583,13 @@
       <c r="J25" s="1">
         <v>121</v>
       </c>
-      <c r="K25" s="60">
+      <c r="K25" s="59">
         <v>121</v>
       </c>
       <c r="L25" s="3">
         <v>121</v>
       </c>
-      <c r="M25" s="58">
+      <c r="M25" s="57">
         <v>168</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -27365,9 +27618,9 @@
       <c r="H26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="60"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="58"/>
+      <c r="M26" s="57"/>
     </row>
     <row r="27" spans="1:14" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
@@ -27400,13 +27653,13 @@
       <c r="J27" s="1">
         <v>131</v>
       </c>
-      <c r="K27" s="60">
+      <c r="K27" s="59">
         <v>131</v>
       </c>
       <c r="L27" s="3">
         <v>122</v>
       </c>
-      <c r="M27" s="58">
+      <c r="M27" s="57">
         <v>131</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -27444,13 +27697,13 @@
       <c r="J28" s="1">
         <v>131</v>
       </c>
-      <c r="K28" s="60">
+      <c r="K28" s="59">
         <v>131</v>
       </c>
       <c r="L28" s="3">
         <v>122</v>
       </c>
-      <c r="M28" s="58">
+      <c r="M28" s="57">
         <v>182</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -27488,13 +27741,13 @@
       <c r="J29" s="1">
         <v>131</v>
       </c>
-      <c r="K29" s="60">
+      <c r="K29" s="59">
         <v>131</v>
       </c>
       <c r="L29" s="3">
         <v>122</v>
       </c>
-      <c r="M29" s="58">
+      <c r="M29" s="57">
         <v>184</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -27532,13 +27785,13 @@
       <c r="J30" s="1">
         <v>131</v>
       </c>
-      <c r="K30" s="60">
+      <c r="K30" s="59">
         <v>131</v>
       </c>
       <c r="L30" s="3">
         <v>122</v>
       </c>
-      <c r="M30" s="58">
+      <c r="M30" s="57">
         <v>2004</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -27576,13 +27829,13 @@
       <c r="J31" s="1">
         <v>133</v>
       </c>
-      <c r="K31" s="60">
+      <c r="K31" s="59">
         <v>133</v>
       </c>
       <c r="L31" s="3">
         <v>122</v>
       </c>
-      <c r="M31" s="58">
+      <c r="M31" s="57">
         <v>133</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -27620,13 +27873,13 @@
       <c r="J32" s="1">
         <v>135</v>
       </c>
-      <c r="K32" s="60">
+      <c r="K32" s="59">
         <v>135</v>
       </c>
       <c r="L32" s="3">
         <v>123</v>
       </c>
-      <c r="M32" s="58">
+      <c r="M32" s="57">
         <v>127</v>
       </c>
       <c r="N32" s="1" t="s">
@@ -27664,13 +27917,13 @@
       <c r="J33" s="1">
         <v>135</v>
       </c>
-      <c r="K33" s="60">
+      <c r="K33" s="59">
         <v>135</v>
       </c>
       <c r="L33" s="3">
         <v>123</v>
       </c>
-      <c r="M33" s="58">
+      <c r="M33" s="57">
         <v>128</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -27708,13 +27961,13 @@
       <c r="J34" s="1">
         <v>135</v>
       </c>
-      <c r="K34" s="60">
+      <c r="K34" s="59">
         <v>135</v>
       </c>
       <c r="L34" s="3">
         <v>123</v>
       </c>
-      <c r="M34" s="58">
+      <c r="M34" s="57">
         <v>156</v>
       </c>
       <c r="N34" s="1" t="s">
@@ -27752,13 +28005,13 @@
       <c r="J35" s="1">
         <v>137</v>
       </c>
-      <c r="K35" s="60">
+      <c r="K35" s="59">
         <v>137</v>
       </c>
       <c r="L35" s="3">
         <v>124</v>
       </c>
-      <c r="M35" s="58">
+      <c r="M35" s="57">
         <v>137</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -27796,13 +28049,13 @@
       <c r="J36" s="1">
         <v>137</v>
       </c>
-      <c r="K36" s="60">
+      <c r="K36" s="59">
         <v>137</v>
       </c>
       <c r="L36" s="3">
         <v>124</v>
       </c>
-      <c r="M36" s="58">
+      <c r="M36" s="57">
         <v>1700</v>
       </c>
       <c r="N36" s="1" t="s">
@@ -27840,13 +28093,13 @@
       <c r="J37" s="1">
         <v>141</v>
       </c>
-      <c r="K37" s="60">
+      <c r="K37" s="59">
         <v>141</v>
       </c>
       <c r="L37" s="3">
         <v>122</v>
       </c>
-      <c r="M37" s="58">
+      <c r="M37" s="57">
         <v>113</v>
       </c>
       <c r="N37" s="1" t="s">
@@ -27884,13 +28137,13 @@
       <c r="J38" s="1">
         <v>141</v>
       </c>
-      <c r="K38" s="60">
+      <c r="K38" s="59">
         <v>141</v>
       </c>
       <c r="L38" s="3">
         <v>122</v>
       </c>
-      <c r="M38" s="58">
+      <c r="M38" s="57">
         <v>145</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -27928,13 +28181,13 @@
       <c r="J39" s="1">
         <v>141</v>
       </c>
-      <c r="K39" s="60">
+      <c r="K39" s="59">
         <v>141</v>
       </c>
       <c r="L39" s="3">
         <v>122</v>
       </c>
-      <c r="M39" s="58">
+      <c r="M39" s="57">
         <v>146</v>
       </c>
       <c r="N39" s="1" t="s">
@@ -27972,13 +28225,13 @@
       <c r="J40" s="1">
         <v>141</v>
       </c>
-      <c r="K40" s="60">
+      <c r="K40" s="59">
         <v>141</v>
       </c>
       <c r="L40" s="3">
         <v>122</v>
       </c>
-      <c r="M40" s="58">
+      <c r="M40" s="57">
         <v>147</v>
       </c>
       <c r="N40" s="1" t="s">
@@ -28016,13 +28269,13 @@
       <c r="J41" s="1">
         <v>141</v>
       </c>
-      <c r="K41" s="60">
+      <c r="K41" s="59">
         <v>141</v>
       </c>
       <c r="L41" s="3">
         <v>122</v>
       </c>
-      <c r="M41" s="58">
+      <c r="M41" s="57">
         <v>148</v>
       </c>
       <c r="N41" s="1" t="s">
@@ -28060,13 +28313,13 @@
       <c r="J42" s="1">
         <v>141</v>
       </c>
-      <c r="K42" s="60">
+      <c r="K42" s="59">
         <v>141</v>
       </c>
       <c r="L42" s="3">
         <v>122</v>
       </c>
-      <c r="M42" s="58">
+      <c r="M42" s="57">
         <v>149</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -28104,13 +28357,13 @@
       <c r="J43" s="1">
         <v>141</v>
       </c>
-      <c r="K43" s="60">
+      <c r="K43" s="59">
         <v>141</v>
       </c>
       <c r="L43" s="3">
         <v>122</v>
       </c>
-      <c r="M43" s="58">
+      <c r="M43" s="57">
         <v>150</v>
       </c>
       <c r="N43" s="1" t="s">
@@ -28148,13 +28401,13 @@
       <c r="J44" s="1">
         <v>141</v>
       </c>
-      <c r="K44" s="60">
+      <c r="K44" s="59">
         <v>141</v>
       </c>
       <c r="L44" s="3">
         <v>122</v>
       </c>
-      <c r="M44" s="58">
+      <c r="M44" s="57">
         <v>152</v>
       </c>
       <c r="N44" s="1" t="s">
@@ -28192,13 +28445,13 @@
       <c r="J45" s="1">
         <v>141</v>
       </c>
-      <c r="K45" s="60">
+      <c r="K45" s="59">
         <v>141</v>
       </c>
       <c r="L45" s="3">
         <v>122</v>
       </c>
-      <c r="M45" s="58">
+      <c r="M45" s="57">
         <v>154</v>
       </c>
       <c r="N45" s="1" t="s">
@@ -28236,13 +28489,13 @@
       <c r="J46" s="1">
         <v>141</v>
       </c>
-      <c r="K46" s="60">
+      <c r="K46" s="59">
         <v>141</v>
       </c>
       <c r="L46" s="3">
         <v>122</v>
       </c>
-      <c r="M46" s="58">
+      <c r="M46" s="57">
         <v>159</v>
       </c>
       <c r="N46" s="1" t="s">
@@ -28280,13 +28533,13 @@
       <c r="J47" s="1">
         <v>141</v>
       </c>
-      <c r="K47" s="60">
+      <c r="K47" s="59">
         <v>141</v>
       </c>
       <c r="L47" s="3">
         <v>122</v>
       </c>
-      <c r="M47" s="58">
+      <c r="M47" s="57">
         <v>160</v>
       </c>
       <c r="N47" s="1" t="s">
@@ -28324,13 +28577,13 @@
       <c r="J48" s="1">
         <v>141</v>
       </c>
-      <c r="K48" s="60">
+      <c r="K48" s="59">
         <v>141</v>
       </c>
       <c r="L48" s="3">
         <v>122</v>
       </c>
-      <c r="M48" s="58">
+      <c r="M48" s="57">
         <v>162</v>
       </c>
       <c r="N48" s="1" t="s">
@@ -28368,13 +28621,13 @@
       <c r="J49" s="1">
         <v>141</v>
       </c>
-      <c r="K49" s="60">
+      <c r="K49" s="59">
         <v>141</v>
       </c>
       <c r="L49" s="3">
         <v>122</v>
       </c>
-      <c r="M49" s="58">
+      <c r="M49" s="57">
         <v>164</v>
       </c>
       <c r="N49" s="1" t="s">
@@ -28412,13 +28665,13 @@
       <c r="J50" s="1">
         <v>141</v>
       </c>
-      <c r="K50" s="60">
+      <c r="K50" s="59">
         <v>141</v>
       </c>
       <c r="L50" s="3">
         <v>122</v>
       </c>
-      <c r="M50" s="58">
+      <c r="M50" s="57">
         <v>174</v>
       </c>
       <c r="N50" s="1" t="s">
@@ -28456,13 +28709,13 @@
       <c r="J51" s="1">
         <v>141</v>
       </c>
-      <c r="K51" s="60">
+      <c r="K51" s="59">
         <v>141</v>
       </c>
       <c r="L51" s="3">
         <v>122</v>
       </c>
-      <c r="M51" s="58">
+      <c r="M51" s="57">
         <v>175</v>
       </c>
       <c r="N51" s="1" t="s">
@@ -28500,13 +28753,13 @@
       <c r="J52" s="1">
         <v>141</v>
       </c>
-      <c r="K52" s="60">
+      <c r="K52" s="59">
         <v>141</v>
       </c>
       <c r="L52" s="3">
         <v>122</v>
       </c>
-      <c r="M52" s="58">
+      <c r="M52" s="57">
         <v>176</v>
       </c>
       <c r="N52" s="1" t="s">
@@ -28544,13 +28797,13 @@
       <c r="J53" s="1">
         <v>141</v>
       </c>
-      <c r="K53" s="60">
+      <c r="K53" s="59">
         <v>141</v>
       </c>
       <c r="L53" s="3">
         <v>122</v>
       </c>
-      <c r="M53" s="58">
+      <c r="M53" s="57">
         <v>181</v>
       </c>
       <c r="N53" s="1" t="s">
@@ -28579,9 +28832,9 @@
       <c r="H54" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K54" s="60"/>
+      <c r="K54" s="59"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="58"/>
+      <c r="M54" s="57"/>
     </row>
     <row r="55" spans="1:14" ht="13.5" customHeight="1">
       <c r="A55" s="1" t="s">
@@ -28614,13 +28867,13 @@
       <c r="J55" s="1">
         <v>151</v>
       </c>
-      <c r="K55" s="60">
+      <c r="K55" s="59">
         <v>151</v>
       </c>
       <c r="L55" s="3">
         <v>131</v>
       </c>
-      <c r="M55" s="58">
+      <c r="M55" s="57">
         <v>346</v>
       </c>
       <c r="N55" s="1" t="s">
@@ -28658,13 +28911,13 @@
       <c r="J56" s="1">
         <v>151</v>
       </c>
-      <c r="K56" s="60">
+      <c r="K56" s="59">
         <v>151</v>
       </c>
       <c r="L56" s="3">
         <v>131</v>
       </c>
-      <c r="M56" s="58">
+      <c r="M56" s="57">
         <v>151</v>
       </c>
       <c r="N56" s="1" t="s">
@@ -28702,13 +28955,13 @@
       <c r="J57" s="1">
         <v>151</v>
       </c>
-      <c r="K57" s="60">
+      <c r="K57" s="59">
         <v>151</v>
       </c>
       <c r="L57" s="3">
         <v>131</v>
       </c>
-      <c r="M57" s="58">
+      <c r="M57" s="57">
         <v>2007</v>
       </c>
       <c r="N57" s="1" t="s">
@@ -28746,13 +28999,13 @@
       <c r="J58" s="1">
         <v>153</v>
       </c>
-      <c r="K58" s="60">
+      <c r="K58" s="59">
         <v>153</v>
       </c>
       <c r="L58" s="3">
         <v>132</v>
       </c>
-      <c r="M58" s="58">
+      <c r="M58" s="57">
         <v>153</v>
       </c>
       <c r="N58" s="1" t="s">
@@ -28790,13 +29043,13 @@
       <c r="J59" s="1">
         <v>155</v>
       </c>
-      <c r="K59" s="60">
+      <c r="K59" s="59">
         <v>155</v>
       </c>
       <c r="L59" s="3">
         <v>133</v>
       </c>
-      <c r="M59" s="58"/>
+      <c r="M59" s="57"/>
     </row>
     <row r="60" spans="1:14" ht="13.5" customHeight="1">
       <c r="A60" s="1" t="s">
@@ -28829,13 +29082,13 @@
       <c r="J60" s="1">
         <v>157</v>
       </c>
-      <c r="K60" s="60">
+      <c r="K60" s="59">
         <v>157</v>
       </c>
       <c r="L60" s="3">
         <v>132</v>
       </c>
-      <c r="M60" s="58">
+      <c r="M60" s="57">
         <v>157</v>
       </c>
       <c r="N60" s="1" t="s">
@@ -28864,9 +29117,9 @@
       <c r="H61" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K61" s="60"/>
+      <c r="K61" s="59"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="58"/>
+      <c r="M61" s="57"/>
     </row>
     <row r="62" spans="1:14" ht="13.5" customHeight="1">
       <c r="A62" s="1" t="s">
@@ -28899,13 +29152,13 @@
       <c r="J62" s="1">
         <v>191</v>
       </c>
-      <c r="K62" s="60">
+      <c r="K62" s="59">
         <v>191</v>
       </c>
       <c r="L62" s="3">
         <v>141</v>
       </c>
-      <c r="M62" s="58">
+      <c r="M62" s="57">
         <v>123</v>
       </c>
       <c r="N62" s="1" t="s">
@@ -28943,13 +29196,13 @@
       <c r="J63" s="1">
         <v>191</v>
       </c>
-      <c r="K63" s="60">
+      <c r="K63" s="59">
         <v>191</v>
       </c>
       <c r="L63" s="3">
         <v>141</v>
       </c>
-      <c r="M63" s="58">
+      <c r="M63" s="57">
         <v>177</v>
       </c>
       <c r="N63" s="1" t="s">
@@ -28987,13 +29240,13 @@
       <c r="J64" s="1">
         <v>191</v>
       </c>
-      <c r="K64" s="60">
+      <c r="K64" s="59">
         <v>191</v>
       </c>
       <c r="L64" s="3">
         <v>141</v>
       </c>
-      <c r="M64" s="58">
+      <c r="M64" s="57">
         <v>2005</v>
       </c>
       <c r="N64" s="1" t="s">
@@ -29031,13 +29284,13 @@
       <c r="J65" s="1">
         <v>191</v>
       </c>
-      <c r="K65" s="60">
+      <c r="K65" s="59">
         <v>191</v>
       </c>
       <c r="L65" s="3">
         <v>141</v>
       </c>
-      <c r="M65" s="58">
+      <c r="M65" s="57">
         <v>180</v>
       </c>
       <c r="N65" s="1" t="s">
@@ -29075,13 +29328,13 @@
       <c r="J66" s="1">
         <v>191</v>
       </c>
-      <c r="K66" s="60">
+      <c r="K66" s="59">
         <v>191</v>
       </c>
       <c r="L66" s="3">
         <v>141</v>
       </c>
-      <c r="M66" s="58">
+      <c r="M66" s="57">
         <v>158</v>
       </c>
       <c r="N66" s="1" t="s">
@@ -29119,13 +29372,13 @@
       <c r="J67" s="1">
         <v>193</v>
       </c>
-      <c r="K67" s="60">
+      <c r="K67" s="59">
         <v>193</v>
       </c>
       <c r="L67" s="3">
         <v>142</v>
       </c>
-      <c r="M67" s="58">
+      <c r="M67" s="57">
         <v>102</v>
       </c>
       <c r="N67" s="1" t="s">
@@ -29163,13 +29416,13 @@
       <c r="J68" s="1">
         <v>193</v>
       </c>
-      <c r="K68" s="60">
+      <c r="K68" s="59">
         <v>193</v>
       </c>
       <c r="L68" s="3">
         <v>142</v>
       </c>
-      <c r="M68" s="58">
+      <c r="M68" s="57">
         <v>105</v>
       </c>
       <c r="N68" s="1" t="s">
@@ -29207,13 +29460,13 @@
       <c r="J69" s="1">
         <v>193</v>
       </c>
-      <c r="K69" s="60">
+      <c r="K69" s="59">
         <v>193</v>
       </c>
       <c r="L69" s="3">
         <v>142</v>
       </c>
-      <c r="M69" s="58">
+      <c r="M69" s="57">
         <v>106</v>
       </c>
       <c r="N69" s="1" t="s">
@@ -29251,13 +29504,13 @@
       <c r="J70" s="1">
         <v>193</v>
       </c>
-      <c r="K70" s="60">
+      <c r="K70" s="59">
         <v>193</v>
       </c>
       <c r="L70" s="3">
         <v>142</v>
       </c>
-      <c r="M70" s="58">
+      <c r="M70" s="57">
         <v>107</v>
       </c>
       <c r="N70" s="1" t="s">
@@ -29295,13 +29548,13 @@
       <c r="J71" s="1">
         <v>193</v>
       </c>
-      <c r="K71" s="60">
+      <c r="K71" s="59">
         <v>193</v>
       </c>
       <c r="L71" s="3">
         <v>142</v>
       </c>
-      <c r="M71" s="58">
+      <c r="M71" s="57">
         <v>108</v>
       </c>
       <c r="N71" s="1" t="s">
@@ -29339,13 +29592,13 @@
       <c r="J72" s="1">
         <v>193</v>
       </c>
-      <c r="K72" s="60">
+      <c r="K72" s="59">
         <v>193</v>
       </c>
       <c r="L72" s="3">
         <v>142</v>
       </c>
-      <c r="M72" s="58">
+      <c r="M72" s="57">
         <v>173</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -29383,13 +29636,13 @@
       <c r="J73" s="1">
         <v>193</v>
       </c>
-      <c r="K73" s="60">
+      <c r="K73" s="59">
         <v>193</v>
       </c>
       <c r="L73" s="3">
         <v>142</v>
       </c>
-      <c r="M73" s="58">
+      <c r="M73" s="57">
         <v>138</v>
       </c>
       <c r="N73" s="1" t="s">
@@ -29427,13 +29680,13 @@
       <c r="J74" s="1">
         <v>193</v>
       </c>
-      <c r="K74" s="60">
+      <c r="K74" s="59">
         <v>193</v>
       </c>
       <c r="L74" s="3">
         <v>142</v>
       </c>
-      <c r="M74" s="58">
+      <c r="M74" s="57">
         <v>139</v>
       </c>
       <c r="N74" s="1" t="s">
@@ -29471,13 +29724,13 @@
       <c r="J75" s="1">
         <v>193</v>
       </c>
-      <c r="K75" s="60">
+      <c r="K75" s="59">
         <v>193</v>
       </c>
       <c r="L75" s="3">
         <v>142</v>
       </c>
-      <c r="M75" s="58">
+      <c r="M75" s="57">
         <v>140</v>
       </c>
       <c r="N75" s="1" t="s">
@@ -29515,13 +29768,13 @@
       <c r="J76" s="1">
         <v>193</v>
       </c>
-      <c r="K76" s="60">
+      <c r="K76" s="59">
         <v>193</v>
       </c>
       <c r="L76" s="3">
         <v>142</v>
       </c>
-      <c r="M76" s="58">
+      <c r="M76" s="57">
         <v>142</v>
       </c>
       <c r="N76" s="1" t="s">
@@ -29559,13 +29812,13 @@
       <c r="J77" s="1">
         <v>193</v>
       </c>
-      <c r="K77" s="60">
+      <c r="K77" s="59">
         <v>193</v>
       </c>
       <c r="L77" s="3">
         <v>142</v>
       </c>
-      <c r="M77" s="58">
+      <c r="M77" s="57">
         <v>144</v>
       </c>
       <c r="N77" s="1" t="s">
@@ -29603,13 +29856,13 @@
       <c r="J78" s="1">
         <v>193</v>
       </c>
-      <c r="K78" s="60">
+      <c r="K78" s="59">
         <v>193</v>
       </c>
       <c r="L78" s="3">
         <v>142</v>
       </c>
-      <c r="M78" s="58">
+      <c r="M78" s="57">
         <v>135</v>
       </c>
       <c r="N78" s="1" t="s">
@@ -29647,13 +29900,13 @@
       <c r="J79" s="1">
         <v>193</v>
       </c>
-      <c r="K79" s="60">
+      <c r="K79" s="59">
         <v>193</v>
       </c>
       <c r="L79" s="3">
         <v>142</v>
       </c>
-      <c r="M79" s="58">
+      <c r="M79" s="57">
         <v>136</v>
       </c>
       <c r="N79" s="1" t="s">
@@ -29691,13 +29944,13 @@
       <c r="J80" s="1">
         <v>193</v>
       </c>
-      <c r="K80" s="60">
+      <c r="K80" s="59">
         <v>193</v>
       </c>
       <c r="L80" s="3">
         <v>142</v>
       </c>
-      <c r="M80" s="58">
+      <c r="M80" s="57">
         <v>143</v>
       </c>
       <c r="N80" s="1" t="s">
@@ -29735,13 +29988,13 @@
       <c r="J81" s="1">
         <v>193</v>
       </c>
-      <c r="K81" s="60">
+      <c r="K81" s="59">
         <v>193</v>
       </c>
       <c r="L81" s="3">
         <v>142</v>
       </c>
-      <c r="M81" s="58">
+      <c r="M81" s="57">
         <v>172</v>
       </c>
       <c r="N81" s="1" t="s">
@@ -29779,13 +30032,13 @@
       <c r="J82" s="1">
         <v>193</v>
       </c>
-      <c r="K82" s="60">
+      <c r="K82" s="59">
         <v>193</v>
       </c>
       <c r="L82" s="3">
         <v>142</v>
       </c>
-      <c r="M82" s="58">
+      <c r="M82" s="57">
         <v>124</v>
       </c>
       <c r="N82" s="1" t="s">
@@ -29814,9 +30067,9 @@
       <c r="H83" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K83" s="60"/>
+      <c r="K83" s="59"/>
       <c r="L83" s="3"/>
-      <c r="M83" s="58"/>
+      <c r="M83" s="57"/>
     </row>
     <row r="84" spans="1:14" ht="13.5" customHeight="1">
       <c r="A84" s="1" t="s">
@@ -29840,9 +30093,9 @@
       <c r="H84" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K84" s="60"/>
+      <c r="K84" s="59"/>
       <c r="L84" s="3"/>
-      <c r="M84" s="58"/>
+      <c r="M84" s="57"/>
     </row>
     <row r="85" spans="1:14" ht="13.5" customHeight="1">
       <c r="A85" s="1" t="s">
@@ -29866,9 +30119,9 @@
       <c r="H85" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K85" s="60"/>
+      <c r="K85" s="59"/>
       <c r="L85" s="3"/>
-      <c r="M85" s="58"/>
+      <c r="M85" s="57"/>
     </row>
     <row r="86" spans="1:14" ht="13.5" customHeight="1">
       <c r="A86" s="1" t="s">
@@ -29892,9 +30145,9 @@
       <c r="H86" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K86" s="60"/>
+      <c r="K86" s="59"/>
       <c r="L86" s="3"/>
-      <c r="M86" s="58">
+      <c r="M86" s="57">
         <v>210</v>
       </c>
       <c r="N86" s="1" t="s">
@@ -29932,13 +30185,13 @@
       <c r="J87" s="1">
         <v>211</v>
       </c>
-      <c r="K87" s="60">
+      <c r="K87" s="59">
         <v>211</v>
       </c>
       <c r="L87" s="3">
         <v>421</v>
       </c>
-      <c r="M87" s="58"/>
+      <c r="M87" s="57"/>
     </row>
     <row r="88" spans="1:14" ht="13.5" customHeight="1">
       <c r="A88" s="1" t="s">
@@ -29971,13 +30224,13 @@
       <c r="J88" s="1">
         <v>215</v>
       </c>
-      <c r="K88" s="60">
+      <c r="K88" s="59">
         <v>215</v>
       </c>
       <c r="L88" s="3">
         <v>421</v>
       </c>
-      <c r="M88" s="58"/>
+      <c r="M88" s="57"/>
     </row>
     <row r="89" spans="1:14" ht="13.5" customHeight="1">
       <c r="A89" s="1" t="s">
@@ -30010,13 +30263,13 @@
       <c r="J89" s="1">
         <v>217</v>
       </c>
-      <c r="K89" s="60">
+      <c r="K89" s="59">
         <v>217</v>
       </c>
       <c r="L89" s="3">
         <v>421</v>
       </c>
-      <c r="M89" s="58">
+      <c r="M89" s="57">
         <v>217</v>
       </c>
       <c r="N89" s="1" t="s">
@@ -30045,9 +30298,9 @@
       <c r="H90" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="K90" s="60"/>
+      <c r="K90" s="59"/>
       <c r="L90" s="3"/>
-      <c r="M90" s="58"/>
+      <c r="M90" s="57"/>
     </row>
     <row r="91" spans="1:14" ht="13.5" customHeight="1">
       <c r="A91" s="1" t="s">
@@ -30080,13 +30333,13 @@
       <c r="J91" s="1">
         <v>221</v>
       </c>
-      <c r="K91" s="60">
+      <c r="K91" s="59">
         <v>221</v>
       </c>
       <c r="L91" s="3">
         <v>422</v>
       </c>
-      <c r="M91" s="58">
+      <c r="M91" s="57">
         <v>221</v>
       </c>
       <c r="N91" s="1" t="s">
@@ -30124,13 +30377,13 @@
       <c r="J92" s="1">
         <v>225</v>
       </c>
-      <c r="K92" s="60">
+      <c r="K92" s="59">
         <v>225</v>
       </c>
       <c r="L92" s="3">
         <v>422</v>
       </c>
-      <c r="M92" s="58"/>
+      <c r="M92" s="57"/>
     </row>
     <row r="93" spans="1:14" ht="13.5" customHeight="1">
       <c r="A93" s="1" t="s">
@@ -30163,13 +30416,13 @@
       <c r="J93" s="1">
         <v>231</v>
       </c>
-      <c r="K93" s="60">
+      <c r="K93" s="59">
         <v>231</v>
       </c>
       <c r="L93" s="3">
         <v>422</v>
       </c>
-      <c r="M93" s="58">
+      <c r="M93" s="57">
         <v>231</v>
       </c>
       <c r="N93" s="1" t="s">
@@ -30207,13 +30460,13 @@
       <c r="J94" s="1">
         <v>241</v>
       </c>
-      <c r="K94" s="60">
+      <c r="K94" s="59">
         <v>241</v>
       </c>
       <c r="L94" s="3">
         <v>522</v>
       </c>
-      <c r="M94" s="58">
+      <c r="M94" s="57">
         <v>241</v>
       </c>
       <c r="N94" s="1" t="s">
@@ -30251,13 +30504,13 @@
       <c r="J95" s="1">
         <v>291</v>
       </c>
-      <c r="K95" s="60">
+      <c r="K95" s="59">
         <v>291</v>
       </c>
       <c r="L95" s="3">
         <v>523</v>
       </c>
-      <c r="M95" s="58">
+      <c r="M95" s="57">
         <v>291</v>
       </c>
       <c r="N95" s="1" t="s">
@@ -30286,9 +30539,9 @@
       <c r="H96" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K96" s="60"/>
+      <c r="K96" s="59"/>
       <c r="L96" s="3"/>
-      <c r="M96" s="58"/>
+      <c r="M96" s="57"/>
     </row>
     <row r="97" spans="1:14" ht="13.5" customHeight="1">
       <c r="A97" s="1" t="s">
@@ -30312,9 +30565,9 @@
       <c r="H97" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K97" s="60"/>
+      <c r="K97" s="59"/>
       <c r="L97" s="3"/>
-      <c r="M97" s="58">
+      <c r="M97" s="57">
         <v>310</v>
       </c>
       <c r="N97" s="1" t="s">
@@ -30343,9 +30596,9 @@
       <c r="H98" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K98" s="60"/>
+      <c r="K98" s="59"/>
       <c r="L98" s="3"/>
-      <c r="M98" s="58">
+      <c r="M98" s="57">
         <v>960</v>
       </c>
       <c r="N98" s="1" t="s">
@@ -30383,13 +30636,13 @@
       <c r="J99" s="1">
         <v>311</v>
       </c>
-      <c r="K99" s="60">
+      <c r="K99" s="59">
         <v>311</v>
       </c>
       <c r="L99" s="3">
         <v>511</v>
       </c>
-      <c r="M99" s="58">
+      <c r="M99" s="57">
         <v>318</v>
       </c>
       <c r="N99" s="1" t="s">
@@ -30418,9 +30671,9 @@
       <c r="H100" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="K100" s="60"/>
+      <c r="K100" s="59"/>
       <c r="L100" s="3"/>
-      <c r="M100" s="58"/>
+      <c r="M100" s="57"/>
     </row>
     <row r="101" spans="1:14" ht="13.5" customHeight="1">
       <c r="A101" s="1" t="s">
@@ -30453,13 +30706,13 @@
       <c r="J101" s="1">
         <v>315</v>
       </c>
-      <c r="K101" s="60">
+      <c r="K101" s="59">
         <v>315</v>
       </c>
       <c r="L101" s="3">
         <v>511</v>
       </c>
-      <c r="M101" s="58">
+      <c r="M101" s="57">
         <v>315</v>
       </c>
       <c r="N101" s="1" t="s">
@@ -30497,13 +30750,13 @@
       <c r="J102" s="1">
         <v>317</v>
       </c>
-      <c r="K102" s="60">
+      <c r="K102" s="59">
         <v>317</v>
       </c>
       <c r="L102" s="3">
         <v>511</v>
       </c>
-      <c r="M102" s="58">
+      <c r="M102" s="57">
         <v>317</v>
       </c>
       <c r="N102" s="1" t="s">
@@ -30541,13 +30794,13 @@
       <c r="J103" s="1">
         <v>321</v>
       </c>
-      <c r="K103" s="60">
+      <c r="K103" s="59">
         <v>321</v>
       </c>
       <c r="L103" s="3">
         <v>511</v>
       </c>
-      <c r="M103" s="58">
+      <c r="M103" s="57">
         <v>2008</v>
       </c>
       <c r="N103" s="1" t="s">
@@ -30585,13 +30838,13 @@
       <c r="J104" s="1">
         <v>321</v>
       </c>
-      <c r="K104" s="60">
+      <c r="K104" s="59">
         <v>321</v>
       </c>
       <c r="L104" s="3">
         <v>511</v>
       </c>
-      <c r="M104" s="58">
+      <c r="M104" s="57">
         <v>319</v>
       </c>
       <c r="N104" s="1" t="s">
@@ -30629,13 +30882,13 @@
       <c r="J105" s="1">
         <v>331</v>
       </c>
-      <c r="K105" s="60">
+      <c r="K105" s="59">
         <v>331</v>
       </c>
       <c r="L105" s="3">
         <v>511</v>
       </c>
-      <c r="M105" s="58">
+      <c r="M105" s="57">
         <v>200</v>
       </c>
       <c r="N105" s="1" t="s">
@@ -30673,13 +30926,13 @@
       <c r="J106" s="1">
         <v>331</v>
       </c>
-      <c r="K106" s="60">
+      <c r="K106" s="59">
         <v>331</v>
       </c>
       <c r="L106" s="3">
         <v>511</v>
       </c>
-      <c r="M106" s="58">
+      <c r="M106" s="57">
         <v>201</v>
       </c>
       <c r="N106" s="1" t="s">
@@ -30717,13 +30970,13 @@
       <c r="J107" s="1">
         <v>331</v>
       </c>
-      <c r="K107" s="60">
+      <c r="K107" s="59">
         <v>331</v>
       </c>
       <c r="L107" s="3">
         <v>511</v>
       </c>
-      <c r="M107" s="58">
+      <c r="M107" s="57">
         <v>332</v>
       </c>
       <c r="N107" s="1" t="s">
@@ -30752,9 +31005,9 @@
       <c r="H108" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K108" s="60"/>
+      <c r="K108" s="59"/>
       <c r="L108" s="3"/>
-      <c r="M108" s="58"/>
+      <c r="M108" s="57"/>
     </row>
     <row r="109" spans="1:14" ht="13.5" customHeight="1">
       <c r="A109" s="1" t="s">
@@ -30787,13 +31040,13 @@
       <c r="J109" s="1">
         <v>341</v>
       </c>
-      <c r="K109" s="60">
+      <c r="K109" s="59">
         <v>341</v>
       </c>
       <c r="L109" s="3">
         <v>512</v>
       </c>
-      <c r="M109" s="58">
+      <c r="M109" s="57">
         <v>341</v>
       </c>
       <c r="N109" s="1" t="s">
@@ -30831,13 +31084,13 @@
       <c r="J110" s="1">
         <v>345</v>
       </c>
-      <c r="K110" s="60">
+      <c r="K110" s="59">
         <v>345</v>
       </c>
       <c r="L110" s="3">
         <v>512</v>
       </c>
-      <c r="M110" s="58">
+      <c r="M110" s="57">
         <v>345</v>
       </c>
       <c r="N110" s="1" t="s">
@@ -30866,9 +31119,9 @@
       <c r="H111" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K111" s="60"/>
+      <c r="K111" s="59"/>
       <c r="L111" s="3"/>
-      <c r="M111" s="58"/>
+      <c r="M111" s="57"/>
     </row>
     <row r="112" spans="1:14" ht="13.5" customHeight="1">
       <c r="A112" s="1" t="s">
@@ -30892,9 +31145,9 @@
       <c r="H112" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K112" s="60"/>
+      <c r="K112" s="59"/>
       <c r="L112" s="3"/>
-      <c r="M112" s="58">
+      <c r="M112" s="57">
         <v>405</v>
       </c>
       <c r="N112" s="1" t="s">
@@ -30923,9 +31176,9 @@
       <c r="H113" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K113" s="60"/>
+      <c r="K113" s="59"/>
       <c r="L113" s="3"/>
-      <c r="M113" s="58"/>
+      <c r="M113" s="57"/>
     </row>
     <row r="114" spans="1:14" ht="13.5" customHeight="1">
       <c r="A114" s="1" t="s">
@@ -30958,13 +31211,13 @@
       <c r="J114" s="1">
         <v>411</v>
       </c>
-      <c r="K114" s="60">
+      <c r="K114" s="59">
         <v>411</v>
       </c>
       <c r="L114" s="3">
         <v>211</v>
       </c>
-      <c r="M114" s="58"/>
+      <c r="M114" s="57"/>
     </row>
     <row r="115" spans="1:14" ht="13.5" customHeight="1">
       <c r="A115" s="1" t="s">
@@ -30988,9 +31241,9 @@
       <c r="H115" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="K115" s="60"/>
+      <c r="K115" s="59"/>
       <c r="L115" s="3"/>
-      <c r="M115" s="58"/>
+      <c r="M115" s="57"/>
     </row>
     <row r="116" spans="1:14" ht="13.5" customHeight="1">
       <c r="A116" s="1" t="s">
@@ -31023,13 +31276,13 @@
       <c r="J116" s="1">
         <v>415</v>
       </c>
-      <c r="K116" s="60">
+      <c r="K116" s="59">
         <v>415</v>
       </c>
       <c r="L116" s="3">
         <v>223</v>
       </c>
-      <c r="M116" s="58">
+      <c r="M116" s="57">
         <v>416</v>
       </c>
       <c r="N116" s="1" t="s">
@@ -31067,13 +31320,13 @@
       <c r="J117" s="1">
         <v>417</v>
       </c>
-      <c r="K117" s="60">
+      <c r="K117" s="59">
         <v>417</v>
       </c>
       <c r="L117" s="3">
         <v>221</v>
       </c>
-      <c r="M117" s="58">
+      <c r="M117" s="57">
         <v>417</v>
       </c>
       <c r="N117" s="1" t="s">
@@ -31111,13 +31364,13 @@
       <c r="J118" s="1">
         <v>419</v>
       </c>
-      <c r="K118" s="60">
+      <c r="K118" s="59">
         <v>419</v>
       </c>
       <c r="L118" s="3">
         <v>222</v>
       </c>
-      <c r="M118" s="58">
+      <c r="M118" s="57">
         <v>460</v>
       </c>
       <c r="N118" s="1" t="s">
@@ -31146,9 +31399,9 @@
       <c r="H119" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K119" s="60"/>
+      <c r="K119" s="59"/>
       <c r="L119" s="3"/>
-      <c r="M119" s="58"/>
+      <c r="M119" s="57"/>
     </row>
     <row r="120" spans="1:14" ht="13.5" customHeight="1">
       <c r="A120" s="1" t="s">
@@ -31172,9 +31425,9 @@
       <c r="H120" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K120" s="60"/>
+      <c r="K120" s="59"/>
       <c r="L120" s="3"/>
-      <c r="M120" s="58"/>
+      <c r="M120" s="57"/>
     </row>
     <row r="121" spans="1:14" ht="13.5" customHeight="1">
       <c r="A121" s="1" t="s">
@@ -31198,9 +31451,9 @@
       <c r="H121" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K121" s="60"/>
+      <c r="K121" s="59"/>
       <c r="L121" s="3"/>
-      <c r="M121" s="58"/>
+      <c r="M121" s="57"/>
     </row>
     <row r="122" spans="1:14" ht="13.5" customHeight="1">
       <c r="A122" s="1" t="s">
@@ -31233,13 +31486,13 @@
       <c r="J122" s="1">
         <v>421</v>
       </c>
-      <c r="K122" s="60">
+      <c r="K122" s="59">
         <v>421</v>
       </c>
       <c r="L122" s="3">
         <v>212</v>
       </c>
-      <c r="M122" s="58">
+      <c r="M122" s="57">
         <v>421</v>
       </c>
       <c r="N122" s="1" t="s">
@@ -31277,13 +31530,13 @@
       <c r="J123" s="1">
         <v>423</v>
       </c>
-      <c r="K123" s="60">
+      <c r="K123" s="59">
         <v>423</v>
       </c>
       <c r="L123" s="3">
         <v>212</v>
       </c>
-      <c r="M123" s="58">
+      <c r="M123" s="57">
         <v>403</v>
       </c>
       <c r="N123" s="1" t="s">
@@ -31321,13 +31574,13 @@
       <c r="J124" s="1">
         <v>423</v>
       </c>
-      <c r="K124" s="60">
+      <c r="K124" s="59">
         <v>423</v>
       </c>
       <c r="L124" s="3">
         <v>212</v>
       </c>
-      <c r="M124" s="58">
+      <c r="M124" s="57">
         <v>404</v>
       </c>
       <c r="N124" s="1" t="s">
@@ -31365,13 +31618,13 @@
       <c r="J125" s="1">
         <v>425</v>
       </c>
-      <c r="K125" s="60">
+      <c r="K125" s="59">
         <v>425</v>
       </c>
       <c r="L125" s="3">
         <v>212</v>
       </c>
-      <c r="M125" s="58"/>
+      <c r="M125" s="57"/>
     </row>
     <row r="126" spans="1:14" ht="13.5" customHeight="1">
       <c r="A126" s="1" t="s">
@@ -31404,13 +31657,13 @@
       <c r="J126" s="1">
         <v>427</v>
       </c>
-      <c r="K126" s="60">
+      <c r="K126" s="59">
         <v>427</v>
       </c>
       <c r="L126" s="3">
         <v>212</v>
       </c>
-      <c r="M126" s="58"/>
+      <c r="M126" s="57"/>
     </row>
     <row r="127" spans="1:14" ht="13.5" customHeight="1">
       <c r="A127" s="1" t="s">
@@ -31443,13 +31696,13 @@
       <c r="J127" s="1">
         <v>429</v>
       </c>
-      <c r="K127" s="60">
+      <c r="K127" s="59">
         <v>429</v>
       </c>
       <c r="L127" s="3">
         <v>212</v>
       </c>
-      <c r="M127" s="58"/>
+      <c r="M127" s="57"/>
     </row>
     <row r="128" spans="1:14" ht="13.5" customHeight="1">
       <c r="A128" s="1" t="s">
@@ -31473,9 +31726,9 @@
       <c r="H128" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K128" s="60"/>
+      <c r="K128" s="59"/>
       <c r="L128" s="3"/>
-      <c r="M128" s="58"/>
+      <c r="M128" s="57"/>
     </row>
     <row r="129" spans="1:14" ht="13.5" customHeight="1">
       <c r="A129" s="1" t="s">
@@ -31508,13 +31761,13 @@
       <c r="J129" s="1">
         <v>430</v>
       </c>
-      <c r="K129" s="60">
+      <c r="K129" s="59">
         <v>430</v>
       </c>
       <c r="L129" s="3">
         <v>212</v>
       </c>
-      <c r="M129" s="58"/>
+      <c r="M129" s="57"/>
     </row>
     <row r="130" spans="1:14" ht="13.5" customHeight="1">
       <c r="A130" s="1" t="s">
@@ -31538,9 +31791,9 @@
       <c r="H130" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K130" s="60"/>
+      <c r="K130" s="59"/>
       <c r="L130" s="3"/>
-      <c r="M130" s="58"/>
+      <c r="M130" s="57"/>
     </row>
     <row r="131" spans="1:14" ht="13.5" customHeight="1">
       <c r="A131" s="1" t="s">
@@ -31573,13 +31826,13 @@
       <c r="J131" s="1">
         <v>433</v>
       </c>
-      <c r="K131" s="60">
+      <c r="K131" s="59">
         <v>433</v>
       </c>
       <c r="L131" s="3">
         <v>212</v>
       </c>
-      <c r="M131" s="58"/>
+      <c r="M131" s="57"/>
     </row>
     <row r="132" spans="1:14" ht="13.5" customHeight="1">
       <c r="A132" s="1" t="s">
@@ -31612,13 +31865,13 @@
       <c r="J132" s="1">
         <v>435</v>
       </c>
-      <c r="K132" s="60">
+      <c r="K132" s="59">
         <v>435</v>
       </c>
       <c r="L132" s="3">
         <v>212</v>
       </c>
-      <c r="M132" s="58">
+      <c r="M132" s="57">
         <v>435</v>
       </c>
       <c r="N132" s="1" t="s">
@@ -31656,13 +31909,13 @@
       <c r="J133" s="1">
         <v>439</v>
       </c>
-      <c r="K133" s="60">
+      <c r="K133" s="59">
         <v>439</v>
       </c>
       <c r="L133" s="3">
         <v>212</v>
       </c>
-      <c r="M133" s="58">
+      <c r="M133" s="57">
         <v>989</v>
       </c>
       <c r="N133" s="1" t="s">
@@ -31700,13 +31953,13 @@
       <c r="J134" s="1">
         <v>439</v>
       </c>
-      <c r="K134" s="60">
+      <c r="K134" s="59">
         <v>439</v>
       </c>
       <c r="L134" s="3">
         <v>212</v>
       </c>
-      <c r="M134" s="58">
+      <c r="M134" s="57">
         <v>997</v>
       </c>
       <c r="N134" s="1" t="s">
@@ -31744,13 +31997,13 @@
       <c r="J135" s="1">
         <v>439</v>
       </c>
-      <c r="K135" s="60">
+      <c r="K135" s="59">
         <v>439</v>
       </c>
       <c r="L135" s="3">
         <v>212</v>
       </c>
-      <c r="M135" s="58">
+      <c r="M135" s="57">
         <v>961</v>
       </c>
       <c r="N135" s="1" t="s">
@@ -31788,13 +32041,13 @@
       <c r="J136" s="1">
         <v>439</v>
       </c>
-      <c r="K136" s="60">
+      <c r="K136" s="59">
         <v>439</v>
       </c>
       <c r="L136" s="3">
         <v>212</v>
       </c>
-      <c r="M136" s="58">
+      <c r="M136" s="57">
         <v>962</v>
       </c>
       <c r="N136" s="1" t="s">
@@ -31832,13 +32085,13 @@
       <c r="J137" s="1">
         <v>431</v>
       </c>
-      <c r="K137" s="60">
+      <c r="K137" s="59">
         <v>431</v>
       </c>
       <c r="L137" s="3">
         <v>212</v>
       </c>
-      <c r="M137" s="58">
+      <c r="M137" s="57">
         <v>431</v>
       </c>
       <c r="N137" s="1" t="s">
@@ -31867,9 +32120,9 @@
       <c r="H138" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="K138" s="60"/>
+      <c r="K138" s="59"/>
       <c r="L138" s="3"/>
-      <c r="M138" s="58">
+      <c r="M138" s="57">
         <v>410</v>
       </c>
       <c r="N138" s="1" t="s">
@@ -31898,9 +32151,9 @@
       <c r="H139" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="K139" s="60"/>
+      <c r="K139" s="59"/>
       <c r="L139" s="3"/>
-      <c r="M139" s="58"/>
+      <c r="M139" s="57"/>
     </row>
     <row r="140" spans="1:14" ht="13.5" customHeight="1">
       <c r="A140" s="1" t="s">
@@ -31933,13 +32186,13 @@
       <c r="J140" s="1">
         <v>441</v>
       </c>
-      <c r="K140" s="60">
+      <c r="K140" s="59">
         <v>441</v>
       </c>
       <c r="L140" s="3">
         <v>241</v>
       </c>
-      <c r="M140" s="58"/>
+      <c r="M140" s="57"/>
     </row>
     <row r="141" spans="1:14" ht="13.5" customHeight="1">
       <c r="A141" s="1" t="s">
@@ -31963,9 +32216,9 @@
       <c r="H141" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="K141" s="60"/>
+      <c r="K141" s="59"/>
       <c r="L141" s="3"/>
-      <c r="M141" s="58"/>
+      <c r="M141" s="57"/>
     </row>
     <row r="142" spans="1:14" ht="13.5" customHeight="1">
       <c r="A142" s="1" t="s">
@@ -31998,13 +32251,13 @@
       <c r="J142" s="1">
         <v>445</v>
       </c>
-      <c r="K142" s="60">
+      <c r="K142" s="59">
         <v>445</v>
       </c>
       <c r="L142" s="3">
         <v>242</v>
       </c>
-      <c r="M142" s="58">
+      <c r="M142" s="57">
         <v>445</v>
       </c>
       <c r="N142" s="1" t="s">
@@ -32042,13 +32295,13 @@
       <c r="J143" s="1">
         <v>449</v>
       </c>
-      <c r="K143" s="60">
+      <c r="K143" s="59">
         <v>449</v>
       </c>
       <c r="L143" s="3">
         <v>242</v>
       </c>
-      <c r="M143" s="58">
+      <c r="M143" s="57">
         <v>428</v>
       </c>
       <c r="N143" s="1" t="s">
@@ -32086,13 +32339,13 @@
       <c r="J144" s="1">
         <v>449</v>
       </c>
-      <c r="K144" s="60">
+      <c r="K144" s="59">
         <v>449</v>
       </c>
       <c r="L144" s="3">
         <v>242</v>
       </c>
-      <c r="M144" s="58">
+      <c r="M144" s="57">
         <v>988</v>
       </c>
       <c r="N144" s="1" t="s">
@@ -32130,13 +32383,13 @@
       <c r="J145" s="1">
         <v>449</v>
       </c>
-      <c r="K145" s="60">
+      <c r="K145" s="59">
         <v>449</v>
       </c>
       <c r="L145" s="3">
         <v>242</v>
       </c>
-      <c r="M145" s="58">
+      <c r="M145" s="57">
         <v>965</v>
       </c>
       <c r="N145" s="1" t="s">
@@ -32174,13 +32427,13 @@
       <c r="J146" s="1">
         <v>449</v>
       </c>
-      <c r="K146" s="60">
+      <c r="K146" s="59">
         <v>449</v>
       </c>
       <c r="L146" s="3">
         <v>242</v>
       </c>
-      <c r="M146" s="58">
+      <c r="M146" s="57">
         <v>970</v>
       </c>
       <c r="N146" s="1" t="s">
@@ -32218,13 +32471,13 @@
       <c r="J147" s="1">
         <v>449</v>
       </c>
-      <c r="K147" s="60">
+      <c r="K147" s="59">
         <v>449</v>
       </c>
       <c r="L147" s="3">
         <v>242</v>
       </c>
-      <c r="M147" s="58">
+      <c r="M147" s="57">
         <v>975</v>
       </c>
       <c r="N147" s="1" t="s">
@@ -32262,13 +32515,13 @@
       <c r="J148" s="1">
         <v>449</v>
       </c>
-      <c r="K148" s="60">
+      <c r="K148" s="59">
         <v>449</v>
       </c>
       <c r="L148" s="3">
         <v>242</v>
       </c>
-      <c r="M148" s="58">
+      <c r="M148" s="57">
         <v>979</v>
       </c>
       <c r="N148" s="1" t="s">
@@ -32306,13 +32559,13 @@
       <c r="J149" s="1">
         <v>449</v>
       </c>
-      <c r="K149" s="60">
+      <c r="K149" s="59">
         <v>449</v>
       </c>
       <c r="L149" s="3">
         <v>242</v>
       </c>
-      <c r="M149" s="58">
+      <c r="M149" s="57">
         <v>982</v>
       </c>
       <c r="N149" s="1" t="s">
@@ -32350,13 +32603,13 @@
       <c r="J150" s="1">
         <v>449</v>
       </c>
-      <c r="K150" s="60">
+      <c r="K150" s="59">
         <v>449</v>
       </c>
       <c r="L150" s="3">
         <v>242</v>
       </c>
-      <c r="M150" s="58">
+      <c r="M150" s="57">
         <v>986</v>
       </c>
       <c r="N150" s="1" t="s">
@@ -32388,9 +32641,9 @@
       <c r="I151" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="K151" s="60"/>
+      <c r="K151" s="59"/>
       <c r="L151" s="3"/>
-      <c r="M151" s="58"/>
+      <c r="M151" s="57"/>
     </row>
     <row r="152" spans="1:14" ht="13.5" customHeight="1">
       <c r="A152" s="1" t="s">
@@ -32414,9 +32667,9 @@
       <c r="H152" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K152" s="60"/>
+      <c r="K152" s="59"/>
       <c r="L152" s="3"/>
-      <c r="M152" s="58"/>
+      <c r="M152" s="57"/>
     </row>
     <row r="153" spans="1:14" ht="13.5" customHeight="1">
       <c r="A153" s="1" t="s">
@@ -32449,13 +32702,13 @@
       <c r="J153" s="1">
         <v>451</v>
       </c>
-      <c r="K153" s="60">
+      <c r="K153" s="59">
         <v>451</v>
       </c>
       <c r="L153" s="3">
         <v>242</v>
       </c>
-      <c r="M153" s="58"/>
+      <c r="M153" s="57"/>
     </row>
     <row r="154" spans="1:14" ht="13.5" customHeight="1">
       <c r="A154" s="1" t="s">
@@ -32488,13 +32741,13 @@
       <c r="J154" s="1">
         <v>455</v>
       </c>
-      <c r="K154" s="60">
+      <c r="K154" s="59">
         <v>455</v>
       </c>
       <c r="L154" s="3">
         <v>242</v>
       </c>
-      <c r="M154" s="58"/>
+      <c r="M154" s="57"/>
     </row>
     <row r="155" spans="1:14" ht="13.5" customHeight="1">
       <c r="A155" s="1" t="s">
@@ -32527,13 +32780,13 @@
       <c r="J155" s="1">
         <v>457</v>
       </c>
-      <c r="K155" s="60">
+      <c r="K155" s="59">
         <v>457</v>
       </c>
       <c r="L155" s="3">
         <v>242</v>
       </c>
-      <c r="M155" s="58"/>
+      <c r="M155" s="57"/>
     </row>
     <row r="156" spans="1:14" ht="13.5" customHeight="1">
       <c r="A156" s="1" t="s">
@@ -32566,13 +32819,13 @@
       <c r="J156" s="1">
         <v>459</v>
       </c>
-      <c r="K156" s="60">
+      <c r="K156" s="59">
         <v>459</v>
       </c>
       <c r="L156" s="3">
         <v>242</v>
       </c>
-      <c r="M156" s="58">
+      <c r="M156" s="57">
         <v>973</v>
       </c>
       <c r="N156" s="1" t="s">
@@ -32610,13 +32863,13 @@
       <c r="J157" s="1">
         <v>459</v>
       </c>
-      <c r="K157" s="60">
+      <c r="K157" s="59">
         <v>459</v>
       </c>
       <c r="L157" s="3">
         <v>242</v>
       </c>
-      <c r="M157" s="58">
+      <c r="M157" s="57">
         <v>974</v>
       </c>
       <c r="N157" s="1" t="s">
@@ -32654,13 +32907,13 @@
       <c r="J158" s="1">
         <v>459</v>
       </c>
-      <c r="K158" s="60">
+      <c r="K158" s="59">
         <v>459</v>
       </c>
       <c r="L158" s="3">
         <v>242</v>
       </c>
-      <c r="M158" s="58">
+      <c r="M158" s="57">
         <v>977</v>
       </c>
       <c r="N158" s="1" t="s">
@@ -32698,13 +32951,13 @@
       <c r="J159" s="1">
         <v>459</v>
       </c>
-      <c r="K159" s="60">
+      <c r="K159" s="59">
         <v>459</v>
       </c>
       <c r="L159" s="3">
         <v>242</v>
       </c>
-      <c r="M159" s="58">
+      <c r="M159" s="57">
         <v>978</v>
       </c>
       <c r="N159" s="1" t="s">
@@ -32742,13 +32995,13 @@
       <c r="J160" s="1">
         <v>459</v>
       </c>
-      <c r="K160" s="60">
+      <c r="K160" s="59">
         <v>459</v>
       </c>
       <c r="L160" s="3">
         <v>242</v>
       </c>
-      <c r="M160" s="58">
+      <c r="M160" s="57">
         <v>981</v>
       </c>
       <c r="N160" s="1" t="s">
@@ -32786,13 +33039,13 @@
       <c r="J161" s="1">
         <v>459</v>
       </c>
-      <c r="K161" s="60">
+      <c r="K161" s="59">
         <v>459</v>
       </c>
       <c r="L161" s="3">
         <v>242</v>
       </c>
-      <c r="M161" s="58">
+      <c r="M161" s="57">
         <v>984</v>
       </c>
       <c r="N161" s="1" t="s">
@@ -32821,9 +33074,9 @@
       <c r="H162" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="K162" s="60"/>
+      <c r="K162" s="59"/>
       <c r="L162" s="3"/>
-      <c r="M162" s="58"/>
+      <c r="M162" s="57"/>
     </row>
     <row r="163" spans="1:14" ht="13.5" customHeight="1">
       <c r="A163" s="1" t="s">
@@ -32856,13 +33109,13 @@
       <c r="J163" s="1">
         <v>461</v>
       </c>
-      <c r="K163" s="60">
+      <c r="K163" s="59">
         <v>461</v>
       </c>
       <c r="L163" s="3">
         <v>242</v>
       </c>
-      <c r="M163" s="58"/>
+      <c r="M163" s="57"/>
     </row>
     <row r="164" spans="1:14" ht="13.5" customHeight="1">
       <c r="A164" s="1" t="s">
@@ -32895,13 +33148,13 @@
       <c r="J164" s="1">
         <v>465</v>
       </c>
-      <c r="K164" s="60">
+      <c r="K164" s="59">
         <v>465</v>
       </c>
       <c r="L164" s="3">
         <v>242</v>
       </c>
-      <c r="M164" s="58"/>
+      <c r="M164" s="57"/>
     </row>
     <row r="165" spans="1:14" ht="13.5" customHeight="1">
       <c r="A165" s="1" t="s">
@@ -32934,13 +33187,13 @@
       <c r="J165" s="1">
         <v>469</v>
       </c>
-      <c r="K165" s="60">
+      <c r="K165" s="59">
         <v>469</v>
       </c>
       <c r="L165" s="3">
         <v>242</v>
       </c>
-      <c r="M165" s="58"/>
+      <c r="M165" s="57"/>
     </row>
     <row r="166" spans="1:14" ht="13.5" customHeight="1">
       <c r="A166" s="1" t="s">
@@ -32973,13 +33226,13 @@
       <c r="J166" s="1">
         <v>469</v>
       </c>
-      <c r="K166" s="60">
+      <c r="K166" s="59">
         <v>469</v>
       </c>
       <c r="L166" s="3">
         <v>242</v>
       </c>
-      <c r="M166" s="58">
+      <c r="M166" s="57">
         <v>963</v>
       </c>
       <c r="N166" s="1" t="s">
@@ -33017,13 +33270,13 @@
       <c r="J167" s="1">
         <v>469</v>
       </c>
-      <c r="K167" s="60">
+      <c r="K167" s="59">
         <v>469</v>
       </c>
       <c r="L167" s="3">
         <v>242</v>
       </c>
-      <c r="M167" s="58">
+      <c r="M167" s="57">
         <v>964</v>
       </c>
       <c r="N167" s="1" t="s">
@@ -33061,13 +33314,13 @@
       <c r="J168" s="1">
         <v>469</v>
       </c>
-      <c r="K168" s="60">
+      <c r="K168" s="59">
         <v>469</v>
       </c>
       <c r="L168" s="3">
         <v>242</v>
       </c>
-      <c r="M168" s="58">
+      <c r="M168" s="57">
         <v>967</v>
       </c>
       <c r="N168" s="1" t="s">
@@ -33105,13 +33358,13 @@
       <c r="J169" s="1">
         <v>469</v>
       </c>
-      <c r="K169" s="60">
+      <c r="K169" s="59">
         <v>469</v>
       </c>
       <c r="L169" s="3">
         <v>242</v>
       </c>
-      <c r="M169" s="58">
+      <c r="M169" s="57">
         <v>968</v>
       </c>
       <c r="N169" s="1" t="s">
@@ -33149,13 +33402,13 @@
       <c r="J170" s="1">
         <v>469</v>
       </c>
-      <c r="K170" s="60">
+      <c r="K170" s="59">
         <v>469</v>
       </c>
       <c r="L170" s="3">
         <v>242</v>
       </c>
-      <c r="M170" s="58">
+      <c r="M170" s="57">
         <v>969</v>
       </c>
       <c r="N170" s="1" t="s">
@@ -33193,13 +33446,13 @@
       <c r="J171" s="1">
         <v>469</v>
       </c>
-      <c r="K171" s="60">
+      <c r="K171" s="59">
         <v>469</v>
       </c>
       <c r="L171" s="3">
         <v>242</v>
       </c>
-      <c r="M171" s="58">
+      <c r="M171" s="57">
         <v>988</v>
       </c>
       <c r="N171" s="1" t="s">
@@ -33237,13 +33490,13 @@
       <c r="J172" s="1">
         <v>469</v>
       </c>
-      <c r="K172" s="60">
+      <c r="K172" s="59">
         <v>469</v>
       </c>
       <c r="L172" s="3">
         <v>242</v>
       </c>
-      <c r="M172" s="58">
+      <c r="M172" s="57">
         <v>989</v>
       </c>
       <c r="N172" s="1" t="s">
@@ -33272,9 +33525,9 @@
       <c r="H173" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="K173" s="60"/>
+      <c r="K173" s="59"/>
       <c r="L173" s="3"/>
-      <c r="M173" s="58"/>
+      <c r="M173" s="57"/>
     </row>
     <row r="174" spans="1:14" ht="13.5" customHeight="1">
       <c r="A174" s="1" t="s">
@@ -33307,13 +33560,13 @@
       <c r="J174" s="1">
         <v>471</v>
       </c>
-      <c r="K174" s="60">
+      <c r="K174" s="59">
         <v>471</v>
       </c>
       <c r="L174" s="3">
         <v>243</v>
       </c>
-      <c r="M174" s="58"/>
+      <c r="M174" s="57"/>
     </row>
     <row r="175" spans="1:14" ht="13.5" customHeight="1">
       <c r="A175" s="1" t="s">
@@ -33346,13 +33599,13 @@
       <c r="J175" s="1">
         <v>473</v>
       </c>
-      <c r="K175" s="60">
+      <c r="K175" s="59">
         <v>473</v>
       </c>
       <c r="L175" s="3">
         <v>243</v>
       </c>
-      <c r="M175" s="58"/>
+      <c r="M175" s="57"/>
     </row>
     <row r="176" spans="1:14" ht="13.5" customHeight="1">
       <c r="A176" s="1" t="s">
@@ -33385,13 +33638,13 @@
       <c r="J176" s="1">
         <v>475</v>
       </c>
-      <c r="K176" s="60">
+      <c r="K176" s="59">
         <v>475</v>
       </c>
       <c r="L176" s="3">
         <v>243</v>
       </c>
-      <c r="M176" s="58"/>
+      <c r="M176" s="57"/>
     </row>
     <row r="177" spans="1:14" ht="13.5" customHeight="1">
       <c r="A177" s="1" t="s">
@@ -33424,13 +33677,13 @@
       <c r="J177" s="1">
         <v>477</v>
       </c>
-      <c r="K177" s="60">
+      <c r="K177" s="59">
         <v>477</v>
       </c>
       <c r="L177" s="3">
         <v>243</v>
       </c>
-      <c r="M177" s="58"/>
+      <c r="M177" s="57"/>
     </row>
     <row r="178" spans="1:14" ht="13.5" customHeight="1">
       <c r="A178" s="1" t="s">
@@ -33463,13 +33716,13 @@
       <c r="J178" s="1">
         <v>479</v>
       </c>
-      <c r="K178" s="60">
+      <c r="K178" s="59">
         <v>479</v>
       </c>
       <c r="L178" s="3">
         <v>243</v>
       </c>
-      <c r="M178" s="58"/>
+      <c r="M178" s="57"/>
     </row>
     <row r="179" spans="1:14" ht="13.5" customHeight="1">
       <c r="A179" s="1" t="s">
@@ -33493,9 +33746,9 @@
       <c r="H179" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="K179" s="60"/>
+      <c r="K179" s="59"/>
       <c r="L179" s="3"/>
-      <c r="M179" s="58"/>
+      <c r="M179" s="57"/>
     </row>
     <row r="180" spans="1:14" ht="13.5" customHeight="1">
       <c r="A180" s="1" t="s">
@@ -33528,13 +33781,13 @@
       <c r="J180" s="1">
         <v>481</v>
       </c>
-      <c r="K180" s="60">
+      <c r="K180" s="59">
         <v>481</v>
       </c>
       <c r="L180" s="3">
         <v>243</v>
       </c>
-      <c r="M180" s="58"/>
+      <c r="M180" s="57"/>
     </row>
     <row r="181" spans="1:14" ht="13.5" customHeight="1">
       <c r="A181" s="1" t="s">
@@ -33567,13 +33820,13 @@
       <c r="J181" s="1">
         <v>489</v>
       </c>
-      <c r="K181" s="60">
+      <c r="K181" s="59">
         <v>489</v>
       </c>
       <c r="L181" s="3">
         <v>243</v>
       </c>
-      <c r="M181" s="58"/>
+      <c r="M181" s="57"/>
     </row>
     <row r="182" spans="1:14" ht="13.5" customHeight="1">
       <c r="A182" s="1" t="s">
@@ -33597,9 +33850,9 @@
       <c r="H182" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K182" s="60"/>
+      <c r="K182" s="59"/>
       <c r="L182" s="3"/>
-      <c r="M182" s="58">
+      <c r="M182" s="57">
         <v>194</v>
       </c>
       <c r="N182" s="1" t="s">
@@ -33628,9 +33881,9 @@
       <c r="H183" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="K183" s="60"/>
+      <c r="K183" s="59"/>
       <c r="L183" s="3"/>
-      <c r="M183" s="58"/>
+      <c r="M183" s="57"/>
     </row>
     <row r="184" spans="1:14" ht="13.5" customHeight="1">
       <c r="A184" s="1" t="s">
@@ -33654,9 +33907,9 @@
       <c r="H184" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="K184" s="60"/>
+      <c r="K184" s="59"/>
       <c r="L184" s="3"/>
-      <c r="M184" s="58"/>
+      <c r="M184" s="57"/>
     </row>
     <row r="185" spans="1:14" ht="13.5" customHeight="1">
       <c r="A185" s="1" t="s">
@@ -33689,13 +33942,13 @@
       <c r="J185" s="1">
         <v>510</v>
       </c>
-      <c r="K185" s="60">
+      <c r="K185" s="59">
         <v>510</v>
       </c>
       <c r="L185" s="3">
         <v>311</v>
       </c>
-      <c r="M185" s="58">
+      <c r="M185" s="57">
         <v>510</v>
       </c>
       <c r="N185" s="1" t="s">
@@ -33733,13 +33986,13 @@
       <c r="J186" s="1">
         <v>520</v>
       </c>
-      <c r="K186" s="60">
+      <c r="K186" s="59">
         <v>520</v>
       </c>
       <c r="L186" s="3">
         <v>312</v>
       </c>
-      <c r="M186" s="58">
+      <c r="M186" s="57">
         <v>520</v>
       </c>
       <c r="N186" s="1" t="s">
@@ -33777,13 +34030,13 @@
       <c r="J187" s="1">
         <v>530</v>
       </c>
-      <c r="K187" s="60">
+      <c r="K187" s="59">
         <v>530</v>
       </c>
       <c r="L187" s="3">
         <v>311</v>
       </c>
-      <c r="M187" s="58">
+      <c r="M187" s="57">
         <v>530</v>
       </c>
       <c r="N187" s="1" t="s">
@@ -33821,13 +34074,13 @@
       <c r="J188" s="1">
         <v>540</v>
       </c>
-      <c r="K188" s="60">
+      <c r="K188" s="59">
         <v>540</v>
       </c>
       <c r="L188" s="3">
         <v>311</v>
       </c>
-      <c r="M188" s="58">
+      <c r="M188" s="57">
         <v>540</v>
       </c>
       <c r="N188" s="1" t="s">
@@ -33865,13 +34118,13 @@
       <c r="J189" s="1">
         <v>550</v>
       </c>
-      <c r="K189" s="60">
+      <c r="K189" s="59">
         <v>550</v>
       </c>
       <c r="L189" s="3">
         <v>313</v>
       </c>
-      <c r="M189" s="58">
+      <c r="M189" s="57">
         <v>550</v>
       </c>
       <c r="N189" s="1" t="s">
@@ -33909,13 +34162,13 @@
       <c r="J190" s="1">
         <v>560</v>
       </c>
-      <c r="K190" s="60">
+      <c r="K190" s="59">
         <v>560</v>
       </c>
       <c r="L190" s="3">
         <v>313</v>
       </c>
-      <c r="M190" s="58">
+      <c r="M190" s="57">
         <v>560</v>
       </c>
       <c r="N190" s="1" t="s">
@@ -33953,13 +34206,13 @@
       <c r="J191" s="1">
         <v>570</v>
       </c>
-      <c r="K191" s="60">
+      <c r="K191" s="59">
         <v>570</v>
       </c>
       <c r="L191" s="3">
         <v>313</v>
       </c>
-      <c r="M191" s="58">
+      <c r="M191" s="57">
         <v>570</v>
       </c>
       <c r="N191" s="1" t="s">
@@ -33997,13 +34250,13 @@
       <c r="J192" s="1">
         <v>580</v>
       </c>
-      <c r="K192" s="60">
+      <c r="K192" s="59">
         <v>580</v>
       </c>
       <c r="L192" s="3">
         <v>313</v>
       </c>
-      <c r="M192" s="58">
+      <c r="M192" s="57">
         <v>580</v>
       </c>
       <c r="N192" s="1" t="s">
@@ -34032,9 +34285,9 @@
       <c r="H193" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="K193" s="60"/>
+      <c r="K193" s="59"/>
       <c r="L193" s="3"/>
-      <c r="M193" s="58"/>
+      <c r="M193" s="57"/>
     </row>
     <row r="194" spans="1:14" ht="13.5" customHeight="1">
       <c r="A194" s="1" t="s">
@@ -34058,9 +34311,9 @@
       <c r="H194" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="K194" s="60"/>
+      <c r="K194" s="59"/>
       <c r="L194" s="3"/>
-      <c r="M194" s="58"/>
+      <c r="M194" s="57"/>
     </row>
     <row r="195" spans="1:14" ht="13.5" customHeight="1">
       <c r="A195" s="1" t="s">
@@ -34093,13 +34346,13 @@
       <c r="J195" s="1">
         <v>611</v>
       </c>
-      <c r="K195" s="60">
+      <c r="K195" s="59">
         <v>611</v>
       </c>
       <c r="L195" s="3">
         <v>311</v>
       </c>
-      <c r="M195" s="58">
+      <c r="M195" s="57">
         <v>611</v>
       </c>
       <c r="N195" s="1" t="s">
@@ -34137,13 +34390,13 @@
       <c r="J196" s="1">
         <v>615</v>
       </c>
-      <c r="K196" s="60">
+      <c r="K196" s="59">
         <v>615</v>
       </c>
       <c r="L196" s="3">
         <v>311</v>
       </c>
-      <c r="M196" s="58">
+      <c r="M196" s="57">
         <v>615</v>
       </c>
       <c r="N196" s="1" t="s">
@@ -34172,9 +34425,9 @@
       <c r="H197" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="K197" s="60"/>
+      <c r="K197" s="59"/>
       <c r="L197" s="3"/>
-      <c r="M197" s="58"/>
+      <c r="M197" s="57"/>
     </row>
     <row r="198" spans="1:14" ht="13.5" customHeight="1">
       <c r="A198" s="1" t="s">
@@ -34207,13 +34460,13 @@
       <c r="J198" s="1">
         <v>621</v>
       </c>
-      <c r="K198" s="60">
+      <c r="K198" s="59">
         <v>621</v>
       </c>
       <c r="L198" s="3">
         <v>312</v>
       </c>
-      <c r="M198" s="58">
+      <c r="M198" s="57">
         <v>621</v>
       </c>
       <c r="N198" s="1" t="s">
@@ -34251,13 +34504,13 @@
       <c r="J199" s="1">
         <v>625</v>
       </c>
-      <c r="K199" s="60">
+      <c r="K199" s="59">
         <v>625</v>
       </c>
       <c r="L199" s="3">
         <v>312</v>
       </c>
-      <c r="M199" s="58">
+      <c r="M199" s="57">
         <v>625</v>
       </c>
       <c r="N199" s="1" t="s">
@@ -34295,13 +34548,13 @@
       <c r="J200" s="1">
         <v>630</v>
       </c>
-      <c r="K200" s="60">
+      <c r="K200" s="59">
         <v>630</v>
       </c>
       <c r="L200" s="3">
         <v>311</v>
       </c>
-      <c r="M200" s="58">
+      <c r="M200" s="57">
         <v>630</v>
       </c>
       <c r="N200" s="1" t="s">
@@ -34339,13 +34592,13 @@
       <c r="J201" s="1">
         <v>640</v>
       </c>
-      <c r="K201" s="60">
+      <c r="K201" s="59">
         <v>640</v>
       </c>
       <c r="L201" s="3">
         <v>311</v>
       </c>
-      <c r="M201" s="58">
+      <c r="M201" s="57">
         <v>640</v>
       </c>
       <c r="N201" s="1" t="s">
@@ -34383,13 +34636,13 @@
       <c r="J202" s="1">
         <v>650</v>
       </c>
-      <c r="K202" s="60">
+      <c r="K202" s="59">
         <v>650</v>
       </c>
       <c r="L202" s="3">
         <v>313</v>
       </c>
-      <c r="M202" s="58">
+      <c r="M202" s="57">
         <v>650</v>
       </c>
       <c r="N202" s="1" t="s">
@@ -34427,13 +34680,13 @@
       <c r="J203" s="1">
         <v>660</v>
       </c>
-      <c r="K203" s="60">
+      <c r="K203" s="59">
         <v>660</v>
       </c>
       <c r="L203" s="3">
         <v>313</v>
       </c>
-      <c r="M203" s="58">
+      <c r="M203" s="57">
         <v>660</v>
       </c>
       <c r="N203" s="1" t="s">
@@ -34471,13 +34724,13 @@
       <c r="J204" s="1">
         <v>670</v>
       </c>
-      <c r="K204" s="60">
+      <c r="K204" s="59">
         <v>670</v>
       </c>
       <c r="L204" s="3">
         <v>313</v>
       </c>
-      <c r="M204" s="58">
+      <c r="M204" s="57">
         <v>670</v>
       </c>
       <c r="N204" s="1" t="s">
@@ -34515,13 +34768,13 @@
       <c r="J205" s="1">
         <v>680</v>
       </c>
-      <c r="K205" s="60">
+      <c r="K205" s="59">
         <v>680</v>
       </c>
       <c r="L205" s="3">
         <v>313</v>
       </c>
-      <c r="M205" s="58">
+      <c r="M205" s="57">
         <v>680</v>
       </c>
       <c r="N205" s="1" t="s">
@@ -34550,9 +34803,9 @@
       <c r="H206" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="K206" s="60"/>
+      <c r="K206" s="59"/>
       <c r="L206" s="3"/>
-      <c r="M206" s="58"/>
+      <c r="M206" s="57"/>
     </row>
     <row r="207" spans="1:14" ht="13.5" customHeight="1">
       <c r="A207" s="1" t="s">
@@ -34576,9 +34829,9 @@
       <c r="H207" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="K207" s="60"/>
+      <c r="K207" s="59"/>
       <c r="L207" s="3"/>
-      <c r="M207" s="58"/>
+      <c r="M207" s="57"/>
     </row>
     <row r="208" spans="1:14" ht="13.5" customHeight="1">
       <c r="A208" s="1" t="s">
@@ -34611,13 +34864,13 @@
       <c r="J208" s="1">
         <v>711</v>
       </c>
-      <c r="K208" s="60">
+      <c r="K208" s="59">
         <v>711</v>
       </c>
       <c r="L208" s="3">
         <v>311</v>
       </c>
-      <c r="M208" s="58">
+      <c r="M208" s="57">
         <v>711</v>
       </c>
       <c r="N208" s="1" t="s">
@@ -34655,13 +34908,13 @@
       <c r="J209" s="1">
         <v>715</v>
       </c>
-      <c r="K209" s="60">
+      <c r="K209" s="59">
         <v>715</v>
       </c>
       <c r="L209" s="3">
         <v>324</v>
       </c>
-      <c r="M209" s="58">
+      <c r="M209" s="57">
         <v>715</v>
       </c>
       <c r="N209" s="1" t="s">
@@ -34690,9 +34943,9 @@
       <c r="H210" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="K210" s="60"/>
+      <c r="K210" s="59"/>
       <c r="L210" s="3"/>
-      <c r="M210" s="58"/>
+      <c r="M210" s="57"/>
     </row>
     <row r="211" spans="1:14" ht="13.5" customHeight="1">
       <c r="A211" s="1" t="s">
@@ -34725,13 +34978,13 @@
       <c r="J211" s="1">
         <v>721</v>
       </c>
-      <c r="K211" s="60">
+      <c r="K211" s="59">
         <v>721</v>
       </c>
       <c r="L211" s="3">
         <v>312</v>
       </c>
-      <c r="M211" s="58">
+      <c r="M211" s="57">
         <v>721</v>
       </c>
       <c r="N211" s="1" t="s">
@@ -34769,13 +35022,13 @@
       <c r="J212" s="1">
         <v>725</v>
       </c>
-      <c r="K212" s="60">
+      <c r="K212" s="59">
         <v>725</v>
       </c>
       <c r="L212" s="3">
         <v>324</v>
       </c>
-      <c r="M212" s="58">
+      <c r="M212" s="57">
         <v>725</v>
       </c>
       <c r="N212" s="1" t="s">
@@ -34813,13 +35066,13 @@
       <c r="J213" s="1">
         <v>730</v>
       </c>
-      <c r="K213" s="60">
+      <c r="K213" s="59">
         <v>730</v>
       </c>
       <c r="L213" s="3">
         <v>324</v>
       </c>
-      <c r="M213" s="58">
+      <c r="M213" s="57">
         <v>730</v>
       </c>
       <c r="N213" s="1" t="s">
@@ -34857,13 +35110,13 @@
       <c r="J214" s="1">
         <v>740</v>
       </c>
-      <c r="K214" s="60">
+      <c r="K214" s="59">
         <v>740</v>
       </c>
       <c r="L214" s="3">
         <v>324</v>
       </c>
-      <c r="M214" s="58">
+      <c r="M214" s="57">
         <v>740</v>
       </c>
       <c r="N214" s="1" t="s">
@@ -34901,13 +35154,13 @@
       <c r="J215" s="1">
         <v>750</v>
       </c>
-      <c r="K215" s="60">
+      <c r="K215" s="59">
         <v>750</v>
       </c>
       <c r="L215" s="3">
         <v>324</v>
       </c>
-      <c r="M215" s="58">
+      <c r="M215" s="57">
         <v>750</v>
       </c>
       <c r="N215" s="1" t="s">
@@ -34945,13 +35198,13 @@
       <c r="J216" s="1">
         <v>760</v>
       </c>
-      <c r="K216" s="60">
+      <c r="K216" s="59">
         <v>760</v>
       </c>
       <c r="L216" s="3">
         <v>324</v>
       </c>
-      <c r="M216" s="58">
+      <c r="M216" s="57">
         <v>760</v>
       </c>
       <c r="N216" s="1" t="s">
@@ -34989,13 +35242,13 @@
       <c r="J217" s="1">
         <v>770</v>
       </c>
-      <c r="K217" s="60">
+      <c r="K217" s="59">
         <v>770</v>
       </c>
       <c r="L217" s="3">
         <v>324</v>
       </c>
-      <c r="M217" s="58">
+      <c r="M217" s="57">
         <v>770</v>
       </c>
       <c r="N217" s="1" t="s">
@@ -35033,13 +35286,13 @@
       <c r="J218" s="1">
         <v>780</v>
       </c>
-      <c r="K218" s="60">
+      <c r="K218" s="59">
         <v>780</v>
       </c>
       <c r="L218" s="3">
         <v>324</v>
       </c>
-      <c r="M218" s="58">
+      <c r="M218" s="57">
         <v>780</v>
       </c>
       <c r="N218" s="1" t="s">
@@ -35068,9 +35321,9 @@
       <c r="H219" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="K219" s="60"/>
+      <c r="K219" s="59"/>
       <c r="L219" s="3"/>
-      <c r="M219" s="58"/>
+      <c r="M219" s="57"/>
     </row>
     <row r="220" spans="1:14" ht="13.5" customHeight="1">
       <c r="A220" s="1" t="s">
@@ -35094,9 +35347,9 @@
       <c r="H220" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="K220" s="60"/>
+      <c r="K220" s="59"/>
       <c r="L220" s="3"/>
-      <c r="M220" s="58"/>
+      <c r="M220" s="57"/>
     </row>
     <row r="221" spans="1:14" ht="13.5" customHeight="1">
       <c r="A221" s="1" t="s">
@@ -35129,13 +35382,13 @@
       <c r="J221" s="1">
         <v>811</v>
       </c>
-      <c r="K221" s="60">
+      <c r="K221" s="59">
         <v>811</v>
       </c>
       <c r="L221" s="3">
         <v>311</v>
       </c>
-      <c r="M221" s="58">
+      <c r="M221" s="57">
         <v>811</v>
       </c>
       <c r="N221" s="1" t="s">
@@ -35173,13 +35426,13 @@
       <c r="J222" s="1">
         <v>815</v>
       </c>
-      <c r="K222" s="60">
+      <c r="K222" s="59">
         <v>815</v>
       </c>
       <c r="L222" s="3">
         <v>244</v>
       </c>
-      <c r="M222" s="58">
+      <c r="M222" s="57">
         <v>815</v>
       </c>
       <c r="N222" s="1" t="s">
@@ -35208,9 +35461,9 @@
       <c r="H223" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="K223" s="60"/>
+      <c r="K223" s="59"/>
       <c r="L223" s="3"/>
-      <c r="M223" s="58"/>
+      <c r="M223" s="57"/>
     </row>
     <row r="224" spans="1:14" ht="13.5" customHeight="1">
       <c r="A224" s="1" t="s">
@@ -35243,13 +35496,13 @@
       <c r="J224" s="1">
         <v>821</v>
       </c>
-      <c r="K224" s="60">
+      <c r="K224" s="59">
         <v>821</v>
       </c>
       <c r="L224" s="3">
         <v>312</v>
       </c>
-      <c r="M224" s="58">
+      <c r="M224" s="57">
         <v>821</v>
       </c>
       <c r="N224" s="1" t="s">
@@ -35287,13 +35540,13 @@
       <c r="J225" s="1">
         <v>825</v>
       </c>
-      <c r="K225" s="60">
+      <c r="K225" s="59">
         <v>825</v>
       </c>
       <c r="L225" s="3">
         <v>324</v>
       </c>
-      <c r="M225" s="58">
+      <c r="M225" s="57">
         <v>825</v>
       </c>
       <c r="N225" s="1" t="s">
@@ -35331,13 +35584,13 @@
       <c r="J226" s="1">
         <v>830</v>
       </c>
-      <c r="K226" s="60">
+      <c r="K226" s="59">
         <v>830</v>
       </c>
       <c r="L226" s="3">
         <v>324</v>
       </c>
-      <c r="M226" s="58">
+      <c r="M226" s="57">
         <v>830</v>
       </c>
       <c r="N226" s="1" t="s">
@@ -35375,13 +35628,13 @@
       <c r="J227" s="1">
         <v>840</v>
       </c>
-      <c r="K227" s="60">
+      <c r="K227" s="59">
         <v>840</v>
       </c>
       <c r="L227" s="3">
         <v>324</v>
       </c>
-      <c r="M227" s="58">
+      <c r="M227" s="57">
         <v>840</v>
       </c>
       <c r="N227" s="1" t="s">
@@ -35419,13 +35672,13 @@
       <c r="J228" s="1">
         <v>850</v>
       </c>
-      <c r="K228" s="60">
+      <c r="K228" s="59">
         <v>850</v>
       </c>
       <c r="L228" s="3">
         <v>324</v>
       </c>
-      <c r="M228" s="58">
+      <c r="M228" s="57">
         <v>850</v>
       </c>
       <c r="N228" s="1" t="s">
@@ -35463,13 +35716,13 @@
       <c r="J229" s="1">
         <v>860</v>
       </c>
-      <c r="K229" s="60">
+      <c r="K229" s="59">
         <v>860</v>
       </c>
       <c r="L229" s="3">
         <v>324</v>
       </c>
-      <c r="M229" s="58">
+      <c r="M229" s="57">
         <v>860</v>
       </c>
       <c r="N229" s="1" t="s">
@@ -35507,13 +35760,13 @@
       <c r="J230" s="1">
         <v>870</v>
       </c>
-      <c r="K230" s="60">
+      <c r="K230" s="59">
         <v>870</v>
       </c>
       <c r="L230" s="3">
         <v>324</v>
       </c>
-      <c r="M230" s="58">
+      <c r="M230" s="57">
         <v>870</v>
       </c>
       <c r="N230" s="1" t="s">
@@ -35551,13 +35804,13 @@
       <c r="J231" s="1">
         <v>880</v>
       </c>
-      <c r="K231" s="60">
+      <c r="K231" s="59">
         <v>880</v>
       </c>
       <c r="L231" s="3">
         <v>324</v>
       </c>
-      <c r="M231" s="58">
+      <c r="M231" s="57">
         <v>880</v>
       </c>
       <c r="N231" s="1" t="s">
@@ -35586,9 +35839,9 @@
       <c r="H232" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="K232" s="60"/>
+      <c r="K232" s="59"/>
       <c r="L232" s="3"/>
-      <c r="M232" s="58"/>
+      <c r="M232" s="57"/>
     </row>
     <row r="233" spans="1:14" ht="13.5" customHeight="1">
       <c r="A233" s="1" t="s">
@@ -35621,13 +35874,13 @@
       <c r="J233" s="1">
         <v>891</v>
       </c>
-      <c r="K233" s="60">
+      <c r="K233" s="59">
         <v>891</v>
       </c>
       <c r="L233" s="3">
         <v>244</v>
       </c>
-      <c r="M233" s="58">
+      <c r="M233" s="57">
         <v>891</v>
       </c>
       <c r="N233" s="1" t="s">
@@ -35665,13 +35918,13 @@
       <c r="J234" s="1">
         <v>895</v>
       </c>
-      <c r="K234" s="60">
+      <c r="K234" s="59">
         <v>895</v>
       </c>
       <c r="L234" s="3">
         <v>244</v>
       </c>
-      <c r="M234" s="58">
+      <c r="M234" s="57">
         <v>895</v>
       </c>
       <c r="N234" s="1" t="s">
@@ -35709,13 +35962,13 @@
       <c r="J235" s="1">
         <v>901</v>
       </c>
-      <c r="K235" s="60">
+      <c r="K235" s="59">
         <v>901</v>
       </c>
       <c r="L235" s="3">
         <v>324</v>
       </c>
-      <c r="M235" s="58"/>
+      <c r="M235" s="57"/>
     </row>
     <row r="236" spans="1:14" ht="13.5" customHeight="1">
       <c r="A236" s="1" t="s">
@@ -35739,9 +35992,9 @@
       <c r="H236" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K236" s="60"/>
+      <c r="K236" s="59"/>
       <c r="L236" s="3"/>
-      <c r="M236" s="58"/>
+      <c r="M236" s="57"/>
     </row>
     <row r="237" spans="1:14" ht="13.5" customHeight="1">
       <c r="A237" s="1" t="s">
@@ -35774,13 +36027,13 @@
       <c r="J237" s="1">
         <v>911</v>
       </c>
-      <c r="K237" s="60">
+      <c r="K237" s="59">
         <v>911</v>
       </c>
       <c r="L237" s="3">
         <v>323</v>
       </c>
-      <c r="M237" s="58">
+      <c r="M237" s="57">
         <v>911</v>
       </c>
       <c r="N237" s="1" t="s">
@@ -35809,9 +36062,9 @@
       <c r="H238" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K238" s="60"/>
+      <c r="K238" s="59"/>
       <c r="L238" s="3"/>
-      <c r="M238" s="58"/>
+      <c r="M238" s="57"/>
     </row>
     <row r="239" spans="1:14" ht="13.5" customHeight="1">
       <c r="A239" s="1" t="s">
@@ -35844,13 +36097,13 @@
       <c r="J239" s="1">
         <v>915</v>
       </c>
-      <c r="K239" s="60">
+      <c r="K239" s="59">
         <v>915</v>
       </c>
       <c r="L239" s="3">
         <v>323</v>
       </c>
-      <c r="M239" s="58">
+      <c r="M239" s="57">
         <v>915</v>
       </c>
       <c r="N239" s="1" t="s">
@@ -35888,13 +36141,13 @@
       <c r="J240" s="1">
         <v>917</v>
       </c>
-      <c r="K240" s="60">
+      <c r="K240" s="59">
         <v>917</v>
       </c>
       <c r="L240" s="3">
         <v>333</v>
       </c>
-      <c r="M240" s="58">
+      <c r="M240" s="57">
         <v>917</v>
       </c>
       <c r="N240" s="1" t="s">
@@ -35923,9 +36176,9 @@
       <c r="H241" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="K241" s="60"/>
+      <c r="K241" s="59"/>
       <c r="L241" s="3"/>
-      <c r="M241" s="58"/>
+      <c r="M241" s="57"/>
     </row>
     <row r="242" spans="1:14" ht="13.5" customHeight="1">
       <c r="A242" s="1" t="s">
@@ -35958,13 +36211,13 @@
       <c r="J242" s="1">
         <v>921</v>
       </c>
-      <c r="K242" s="60">
+      <c r="K242" s="59">
         <v>921</v>
       </c>
       <c r="L242" s="3">
         <v>321</v>
       </c>
-      <c r="M242" s="58">
+      <c r="M242" s="57">
         <v>921</v>
       </c>
       <c r="N242" s="1" t="s">
@@ -36002,13 +36255,13 @@
       <c r="J243" s="1">
         <v>925</v>
       </c>
-      <c r="K243" s="60">
+      <c r="K243" s="59">
         <v>925</v>
       </c>
       <c r="L243" s="3">
         <v>333</v>
       </c>
-      <c r="M243" s="58">
+      <c r="M243" s="57">
         <v>925</v>
       </c>
       <c r="N243" s="1" t="s">
@@ -36037,9 +36290,9 @@
       <c r="H244" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="K244" s="60"/>
+      <c r="K244" s="59"/>
       <c r="L244" s="3"/>
-      <c r="M244" s="58">
+      <c r="M244" s="57">
         <v>950</v>
       </c>
       <c r="N244" s="1" t="s">
@@ -36077,13 +36330,13 @@
       <c r="J245" s="1">
         <v>931</v>
       </c>
-      <c r="K245" s="60">
+      <c r="K245" s="59">
         <v>931</v>
       </c>
       <c r="L245" s="3">
         <v>331</v>
       </c>
-      <c r="M245" s="58">
+      <c r="M245" s="57">
         <v>931</v>
       </c>
       <c r="N245" s="1" t="s">
@@ -36121,13 +36374,13 @@
       <c r="J246" s="1">
         <v>932</v>
       </c>
-      <c r="K246" s="60">
+      <c r="K246" s="59">
         <v>932</v>
       </c>
       <c r="L246" s="3">
         <v>332</v>
       </c>
-      <c r="M246" s="58">
+      <c r="M246" s="57">
         <v>941</v>
       </c>
       <c r="N246" s="1" t="s">
@@ -36165,13 +36418,13 @@
       <c r="J247" s="1">
         <v>932</v>
       </c>
-      <c r="K247" s="60">
+      <c r="K247" s="59">
         <v>932</v>
       </c>
       <c r="L247" s="3">
         <v>332</v>
       </c>
-      <c r="M247" s="58">
+      <c r="M247" s="57">
         <v>945</v>
       </c>
       <c r="N247" s="1" t="s">
@@ -36209,13 +36462,13 @@
       <c r="J248" s="1">
         <v>933</v>
       </c>
-      <c r="K248" s="60">
+      <c r="K248" s="59">
         <v>933</v>
       </c>
       <c r="L248" s="3">
         <v>333</v>
       </c>
-      <c r="M248" s="58">
+      <c r="M248" s="57">
         <v>933</v>
       </c>
       <c r="N248" s="1" t="s">
@@ -36253,13 +36506,13 @@
       <c r="J249" s="1">
         <v>934</v>
       </c>
-      <c r="K249" s="60">
+      <c r="K249" s="59">
         <v>934</v>
       </c>
       <c r="L249" s="3">
         <v>334</v>
       </c>
-      <c r="M249" s="58">
+      <c r="M249" s="57">
         <v>934</v>
       </c>
       <c r="N249" s="1" t="s">
@@ -36297,13 +36550,13 @@
       <c r="J250" s="1">
         <v>935</v>
       </c>
-      <c r="K250" s="60">
+      <c r="K250" s="59">
         <v>935</v>
       </c>
       <c r="L250" s="3">
         <v>333</v>
       </c>
-      <c r="M250" s="58">
+      <c r="M250" s="57">
         <v>1007</v>
       </c>
       <c r="N250" s="1" t="s">
@@ -36341,13 +36594,13 @@
       <c r="J251" s="1">
         <v>935</v>
       </c>
-      <c r="K251" s="60">
+      <c r="K251" s="59">
         <v>935</v>
       </c>
       <c r="L251" s="3">
         <v>333</v>
       </c>
-      <c r="M251" s="58">
+      <c r="M251" s="57">
         <v>1006</v>
       </c>
       <c r="N251" s="1" t="s">
@@ -36385,13 +36638,13 @@
       <c r="J252" s="1">
         <v>935</v>
       </c>
-      <c r="K252" s="60">
+      <c r="K252" s="59">
         <v>935</v>
       </c>
       <c r="L252" s="3">
         <v>333</v>
       </c>
-      <c r="M252" s="58">
+      <c r="M252" s="57">
         <v>935</v>
       </c>
       <c r="N252" s="1" t="s">
